--- a/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting.xlsx
+++ b/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Personal\MultiFamilyPortal\src\theme\MultiFamilyPortal.AdminTheme\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9EC8384-B9FB-4BD4-9404-0979FADB567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC4141B-DE6B-4ABD-AA83-32D4506DC66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="693" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="21600" windowHeight="11453" tabRatio="693" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="6" r:id="rId1"/>
     <sheet name="Coaching Form" sheetId="12" r:id="rId2"/>
     <sheet name="Acqusition-NF" sheetId="1" r:id="rId3"/>
-    <sheet name=" Year 1 Projection - NF" sheetId="8" r:id="rId4"/>
+    <sheet name="Year 1 Projection - NF" sheetId="8" r:id="rId4"/>
     <sheet name="Assumption" sheetId="9" r:id="rId5"/>
     <sheet name=" Year 1 Project - Assume" sheetId="11" r:id="rId6"/>
   </sheets>
@@ -5173,245 +5173,161 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -5443,20 +5359,6 @@
     <xf numFmtId="164" fontId="15" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -5486,44 +5388,174 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5531,43 +5563,190 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5587,215 +5766,36 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8050,27 +8050,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="327" t="s">
+      <c r="B2" s="301" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="329"/>
-      <c r="P2" s="268" t="s">
+      <c r="C2" s="302"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="303"/>
+      <c r="P2" s="366" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="269"/>
-      <c r="S2" s="269"/>
-      <c r="T2" s="270"/>
+      <c r="Q2" s="367"/>
+      <c r="R2" s="367"/>
+      <c r="S2" s="367"/>
+      <c r="T2" s="368"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8094,11 +8094,11 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="265" t="s">
+      <c r="B4" s="306" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="266"/>
-      <c r="D4" s="267"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="291"/>
       <c r="E4" s="94" t="s">
         <v>111</v>
       </c>
@@ -8110,54 +8110,54 @@
       <c r="K4" s="181"/>
       <c r="L4" s="181"/>
       <c r="M4" s="182"/>
-      <c r="P4" s="271" t="s">
+      <c r="P4" s="369" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="272"/>
-      <c r="S4" s="272"/>
-      <c r="T4" s="273"/>
+      <c r="Q4" s="370"/>
+      <c r="R4" s="370"/>
+      <c r="S4" s="370"/>
+      <c r="T4" s="371"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="352"/>
-      <c r="D5" s="353"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="323"/>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="185"/>
       <c r="H5" s="185"/>
       <c r="I5" s="186"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="265" t="s">
+      <c r="K5" s="306" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="266"/>
-      <c r="M5" s="267"/>
-      <c r="P5" s="274" t="s">
+      <c r="L5" s="290"/>
+      <c r="M5" s="291"/>
+      <c r="P5" s="372" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="275"/>
-      <c r="R5" s="275"/>
-      <c r="S5" s="275"/>
-      <c r="T5" s="276"/>
+      <c r="Q5" s="373"/>
+      <c r="R5" s="373"/>
+      <c r="S5" s="373"/>
+      <c r="T5" s="374"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="290" t="s">
+      <c r="B6" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="339"/>
+      <c r="C6" s="315"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="354" t="s">
+      <c r="E6" s="324" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="355"/>
-      <c r="G6" s="355"/>
-      <c r="H6" s="356"/>
-      <c r="I6" s="313" t="s">
+      <c r="F6" s="325"/>
+      <c r="G6" s="325"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="352" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="89"/>
@@ -8166,26 +8166,26 @@
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="33"/>
-      <c r="P6" s="277" t="s">
+      <c r="P6" s="375" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="279"/>
+      <c r="Q6" s="376"/>
+      <c r="R6" s="376"/>
+      <c r="S6" s="376"/>
+      <c r="T6" s="377"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="315"/>
+      <c r="C7" s="259"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="357"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="358"/>
-      <c r="H7" s="359"/>
-      <c r="I7" s="314"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="328"/>
+      <c r="G7" s="328"/>
+      <c r="H7" s="329"/>
+      <c r="I7" s="353"/>
       <c r="J7" s="89"/>
       <c r="K7" s="189" t="s">
         <v>96</v>
@@ -8205,22 +8205,22 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="290" t="s">
+      <c r="B8" s="258" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="315"/>
+      <c r="C8" s="259"/>
       <c r="D8" s="191" t="e">
         <f>D7/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="360" t="s">
+      <c r="E8" s="330" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="361"/>
-      <c r="G8" s="317">
-        <v>0</v>
-      </c>
-      <c r="H8" s="318"/>
+      <c r="F8" s="331"/>
+      <c r="G8" s="354">
+        <v>0</v>
+      </c>
+      <c r="H8" s="355"/>
       <c r="I8" s="65" t="e">
         <f>G8/G10</f>
         <v>#DIV/0!</v>
@@ -8236,19 +8236,19 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="290" t="s">
+      <c r="B9" s="258" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="315"/>
+      <c r="C9" s="259"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="257" t="s">
+      <c r="E9" s="358" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="258"/>
-      <c r="G9" s="298">
-        <v>0</v>
-      </c>
-      <c r="H9" s="299"/>
+      <c r="F9" s="359"/>
+      <c r="G9" s="338">
+        <v>0</v>
+      </c>
+      <c r="H9" s="339"/>
       <c r="I9" s="66" t="e">
         <f>G9/G10</f>
         <v>#DIV/0!</v>
@@ -8259,22 +8259,22 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="311" t="s">
+      <c r="B10" s="350" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="312"/>
+      <c r="C10" s="351"/>
       <c r="D10" s="196" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="340" t="s">
+      <c r="E10" s="316" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="341"/>
-      <c r="G10" s="342">
-        <v>0</v>
-      </c>
-      <c r="H10" s="343"/>
+      <c r="F10" s="317"/>
+      <c r="G10" s="318">
+        <v>0</v>
+      </c>
+      <c r="H10" s="319"/>
       <c r="I10" s="197" t="s">
         <v>16</v>
       </c>
@@ -8282,13 +8282,13 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="90"/>
-      <c r="P10" s="280" t="s">
+      <c r="P10" s="378" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="281"/>
-      <c r="R10" s="281"/>
-      <c r="S10" s="281"/>
-      <c r="T10" s="282"/>
+      <c r="Q10" s="379"/>
+      <c r="R10" s="379"/>
+      <c r="S10" s="379"/>
+      <c r="T10" s="380"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="198"/>
@@ -8303,11 +8303,11 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="90"/>
-      <c r="P11" s="283"/>
-      <c r="Q11" s="284"/>
-      <c r="R11" s="284"/>
-      <c r="S11" s="284"/>
-      <c r="T11" s="285"/>
+      <c r="P11" s="381"/>
+      <c r="Q11" s="382"/>
+      <c r="R11" s="382"/>
+      <c r="S11" s="382"/>
+      <c r="T11" s="383"/>
     </row>
     <row r="12" spans="2:21" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="91" t="s">
@@ -8323,23 +8323,23 @@
       <c r="F12" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="266" t="s">
+      <c r="G12" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="267"/>
+      <c r="H12" s="291"/>
       <c r="I12" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="265" t="s">
+      <c r="K12" s="306" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="266"/>
-      <c r="M12" s="267"/>
-      <c r="P12" s="371" t="s">
+      <c r="L12" s="290"/>
+      <c r="M12" s="291"/>
+      <c r="P12" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="372"/>
+      <c r="Q12" s="267"/>
       <c r="R12" s="29" t="s">
         <v>29</v>
       </c>
@@ -8351,38 +8351,38 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="326" t="s">
+      <c r="B13" s="254" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="362"/>
+      <c r="C13" s="255"/>
       <c r="D13" s="37"/>
       <c r="E13" s="130" t="e">
         <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="363" t="e">
+      <c r="G13" s="256" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="364"/>
+      <c r="H13" s="257"/>
       <c r="I13" s="200" t="e">
         <f>D13/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="333" t="s">
+      <c r="K13" s="307" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="334"/>
+      <c r="L13" s="308"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P13" s="373" t="s">
+      <c r="P13" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="374"/>
+      <c r="Q13" s="269"/>
       <c r="R13" s="11" t="e">
         <f t="shared" ref="R13:R19" si="0">E22</f>
         <v>#DIV/0!</v>
@@ -8409,11 +8409,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="346" t="e">
+      <c r="G14" s="276" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="347"/>
+      <c r="H14" s="277"/>
       <c r="I14" s="202" t="e">
         <f>D14/D13</f>
         <v>#DIV/0!</v>
@@ -8424,10 +8424,10 @@
       </c>
       <c r="L14" s="201"/>
       <c r="M14" s="40"/>
-      <c r="P14" s="367" t="s">
+      <c r="P14" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="368"/>
+      <c r="Q14" s="263"/>
       <c r="R14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8441,38 +8441,38 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="309" t="s">
+      <c r="B15" s="296" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="310"/>
+      <c r="C15" s="349"/>
       <c r="D15" s="41"/>
       <c r="E15" s="105" t="e">
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="346" t="e">
+      <c r="G15" s="276" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="347"/>
+      <c r="H15" s="277"/>
       <c r="I15" s="202" t="e">
         <f>D15/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="350" t="s">
+      <c r="K15" s="320" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="351"/>
+      <c r="L15" s="321"/>
       <c r="M15" s="134">
         <f>M13*M14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="367" t="s">
+      <c r="P15" s="262" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="368"/>
+      <c r="Q15" s="263"/>
       <c r="R15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8486,10 +8486,10 @@
       </c>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="383" t="s">
+      <c r="B16" s="274" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="384"/>
+      <c r="C16" s="275"/>
       <c r="D16" s="243">
         <f>D13-D14-D15</f>
         <v>0</v>
@@ -8502,28 +8502,28 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="348" t="e">
+      <c r="G16" s="292" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="349"/>
+      <c r="H16" s="293"/>
       <c r="I16" s="202" t="e">
         <f>D16/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="306" t="s">
+      <c r="K16" s="284" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="332"/>
+      <c r="L16" s="285"/>
       <c r="M16" s="134">
         <f>M13-M15</f>
         <v>0</v>
       </c>
-      <c r="P16" s="367" t="s">
+      <c r="P16" s="262" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="368"/>
+      <c r="Q16" s="263"/>
       <c r="R16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8547,25 +8547,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="346" t="e">
+      <c r="G17" s="276" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="347"/>
+      <c r="H17" s="277"/>
       <c r="I17" s="202" t="e">
         <f>D17/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="306" t="s">
+      <c r="K17" s="284" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="332"/>
+      <c r="L17" s="285"/>
       <c r="M17" s="43"/>
-      <c r="P17" s="367" t="s">
+      <c r="P17" s="262" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="368"/>
+      <c r="Q17" s="263"/>
       <c r="R17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8579,37 +8579,37 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="309" t="s">
+      <c r="B18" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="316"/>
+      <c r="C18" s="297"/>
       <c r="D18" s="41"/>
       <c r="E18" s="109" t="e">
         <f>D18/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="300" t="e">
+      <c r="G18" s="343" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="301"/>
+      <c r="H18" s="344"/>
       <c r="I18" s="203" t="e">
         <f>D18/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="330" t="s">
+      <c r="K18" s="304" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="331"/>
+      <c r="L18" s="305"/>
       <c r="M18" s="44">
         <v>30</v>
       </c>
-      <c r="P18" s="367" t="s">
+      <c r="P18" s="262" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="368"/>
+      <c r="Q18" s="263"/>
       <c r="R18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8639,11 +8639,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="304" t="e">
+      <c r="G19" s="347" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="305"/>
+      <c r="H19" s="348"/>
       <c r="I19" s="208" t="e">
         <f>D19/D13</f>
         <v>#DIV/0!</v>
@@ -8657,19 +8657,19 @@
         <f>PMT((M17/12),(12*M18),-M16)*12</f>
         <v>0</v>
       </c>
-      <c r="P19" s="385" t="s">
+      <c r="P19" s="278" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="386"/>
-      <c r="R19" s="377" t="e">
+      <c r="Q19" s="279"/>
+      <c r="R19" s="270" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="379" t="e">
+      <c r="S19" s="272" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="365" t="s">
+      <c r="T19" s="260" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8679,18 +8679,18 @@
       <c r="D20" s="210"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="338"/>
-      <c r="H20" s="338"/>
+      <c r="G20" s="314"/>
+      <c r="H20" s="314"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="90"/>
-      <c r="P20" s="387"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="378"/>
-      <c r="S20" s="380"/>
-      <c r="T20" s="366"/>
+      <c r="P20" s="280"/>
+      <c r="Q20" s="281"/>
+      <c r="R20" s="271"/>
+      <c r="S20" s="273"/>
+      <c r="T20" s="261"/>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="128" t="s">
@@ -8706,25 +8706,25 @@
       <c r="F21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="266" t="s">
+      <c r="G21" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="267"/>
+      <c r="H21" s="291"/>
       <c r="I21" s="94" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="265" t="s">
+      <c r="K21" s="306" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="266"/>
-      <c r="M21" s="267"/>
+      <c r="L21" s="290"/>
+      <c r="M21" s="291"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="367" t="s">
+      <c r="P21" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="368"/>
+      <c r="Q21" s="263"/>
       <c r="R21" s="13" t="e">
         <f>E29</f>
         <v>#DIV/0!</v>
@@ -8738,21 +8738,21 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="326" t="s">
+      <c r="B22" s="254" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="307"/>
+      <c r="C22" s="300"/>
       <c r="D22" s="37"/>
       <c r="E22" s="130" t="e">
         <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="389" t="e">
+      <c r="G22" s="282" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="390"/>
+      <c r="H22" s="283"/>
       <c r="I22" s="200" t="e">
         <f>D22/D13</f>
         <v>#DIV/0!</v>
@@ -8768,10 +8768,10 @@
         <f>L22*M13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="369" t="s">
+      <c r="P22" s="264" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="370"/>
+      <c r="Q22" s="265"/>
       <c r="R22" s="237" t="e">
         <f>E30</f>
         <v>#DIV/0!</v>
@@ -8785,21 +8785,21 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="284" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="308"/>
+      <c r="C23" s="298"/>
       <c r="D23" s="36"/>
       <c r="E23" s="105" t="e">
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="288" t="e">
+      <c r="G23" s="294" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="289"/>
+      <c r="H23" s="295"/>
       <c r="I23" s="202" t="e">
         <f>D23/D13</f>
         <v>#DIV/0!</v>
@@ -8812,10 +8812,10 @@
       <c r="M23" s="46">
         <v>0.01</v>
       </c>
-      <c r="P23" s="381" t="s">
+      <c r="P23" s="389" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="381"/>
+      <c r="Q23" s="389"/>
       <c r="R23" s="240">
         <f>D34</f>
         <v>0</v>
@@ -8839,11 +8839,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="288" t="e">
+      <c r="G24" s="294" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="289"/>
+      <c r="H24" s="295"/>
       <c r="I24" s="202" t="e">
         <f>D24/D13</f>
         <v>#DIV/0!</v>
@@ -8859,21 +8859,21 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="306" t="s">
+      <c r="B25" s="284" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="325"/>
+      <c r="C25" s="299"/>
       <c r="D25" s="36"/>
       <c r="E25" s="133" t="e">
         <f>D25/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="288" t="e">
+      <c r="G25" s="294" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="289"/>
+      <c r="H25" s="295"/>
       <c r="I25" s="202" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
@@ -8904,43 +8904,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="288" t="e">
+      <c r="G26" s="294" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="289"/>
+      <c r="H26" s="295"/>
       <c r="I26" s="202" t="e">
         <f>D26/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="286" t="s">
+      <c r="K26" s="384" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="287"/>
+      <c r="L26" s="385"/>
       <c r="M26" s="47"/>
-      <c r="P26" s="371" t="s">
+      <c r="P26" s="266" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="382"/>
-      <c r="R26" s="372"/>
+      <c r="Q26" s="390"/>
+      <c r="R26" s="267"/>
     </row>
     <row r="27" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="306" t="s">
+      <c r="B27" s="284" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="307"/>
+      <c r="C27" s="300"/>
       <c r="D27" s="36"/>
       <c r="E27" s="105" t="e">
         <f>D27/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="288" t="e">
+      <c r="G27" s="294" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="289"/>
+      <c r="H27" s="295"/>
       <c r="I27" s="202" t="e">
         <f>D27/D13</f>
         <v>#DIV/0!</v>
@@ -8955,27 +8955,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="375" t="s">
+      <c r="Q27" s="387" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="376"/>
+      <c r="R27" s="388"/>
     </row>
     <row r="28" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="306" t="s">
+      <c r="B28" s="284" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="308"/>
+      <c r="C28" s="298"/>
       <c r="D28" s="36"/>
       <c r="E28" s="105" t="e">
         <f>D28/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="288" t="e">
+      <c r="G28" s="294" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="289"/>
+      <c r="H28" s="295"/>
       <c r="I28" s="202" t="e">
         <f>D28/D13</f>
         <v>#DIV/0!</v>
@@ -8985,27 +8985,27 @@
       <c r="L28" s="174"/>
       <c r="M28" s="141"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="375" t="s">
+      <c r="Q28" s="387" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="376"/>
+      <c r="R28" s="388"/>
     </row>
     <row r="29" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="306" t="s">
+      <c r="B29" s="284" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="308"/>
+      <c r="C29" s="298"/>
       <c r="D29" s="36"/>
       <c r="E29" s="105" t="e">
         <f>D29/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="288" t="e">
+      <c r="G29" s="294" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="289"/>
+      <c r="H29" s="295"/>
       <c r="I29" s="202" t="e">
         <f>D29/D13</f>
         <v>#DIV/0!</v>
@@ -9020,27 +9020,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="53"/>
-      <c r="Q29" s="375" t="s">
+      <c r="Q29" s="387" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="376"/>
+      <c r="R29" s="388"/>
     </row>
     <row r="30" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="309" t="s">
+      <c r="B30" s="296" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="316"/>
+      <c r="C30" s="297"/>
       <c r="D30" s="41"/>
       <c r="E30" s="109" t="e">
         <f>D30/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="302" t="e">
+      <c r="G30" s="345" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="303"/>
+      <c r="H30" s="346"/>
       <c r="I30" s="203" t="e">
         <f>D30/D13</f>
         <v>#DIV/0!</v>
@@ -9068,34 +9068,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="304" t="e">
+      <c r="G31" s="347" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="305"/>
+      <c r="H31" s="348"/>
       <c r="I31" s="208" t="e">
         <f>D31/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="265" t="s">
+      <c r="K31" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="266"/>
-      <c r="M31" s="267"/>
+      <c r="L31" s="290"/>
+      <c r="M31" s="291"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="292" t="s">
+      <c r="B32" s="332" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="296">
+      <c r="C32" s="333"/>
+      <c r="D32" s="336">
         <f>D19-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="217"/>
-      <c r="F32" s="296">
+      <c r="F32" s="336">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -9111,11 +9111,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="294"/>
-      <c r="C33" s="295"/>
-      <c r="D33" s="297"/>
+      <c r="B33" s="334"/>
+      <c r="C33" s="335"/>
+      <c r="D33" s="337"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="297"/>
+      <c r="F33" s="337"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -9128,10 +9128,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="323" t="s">
+      <c r="B34" s="356" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="324"/>
+      <c r="C34" s="357"/>
       <c r="D34" s="151">
         <f>D6*E34</f>
         <v>0</v>
@@ -9147,10 +9147,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="290" t="s">
+      <c r="K34" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="291"/>
+      <c r="L34" s="386"/>
       <c r="M34" s="44">
         <v>250</v>
       </c>
@@ -9185,10 +9185,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="321" t="s">
+      <c r="B36" s="309" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="322"/>
+      <c r="C36" s="310"/>
       <c r="D36" s="155">
         <f>M19</f>
         <v>0</v>
@@ -9208,10 +9208,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="319" t="s">
+      <c r="B37" s="288" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="320"/>
+      <c r="C37" s="289"/>
       <c r="D37" s="220">
         <f>M35</f>
         <v>0</v>
@@ -9222,21 +9222,21 @@
         <v>0</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="262" t="s">
+      <c r="H37" s="363" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="263"/>
-      <c r="J37" s="263"/>
-      <c r="K37" s="263"/>
-      <c r="L37" s="263"/>
-      <c r="M37" s="264"/>
+      <c r="I37" s="364"/>
+      <c r="J37" s="364"/>
+      <c r="K37" s="364"/>
+      <c r="L37" s="364"/>
+      <c r="M37" s="365"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="321" t="s">
+      <c r="B38" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="322"/>
+      <c r="C38" s="310"/>
       <c r="D38" s="155">
         <f>(D35-D36-D37)</f>
         <v>0</v>
@@ -9247,18 +9247,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="335"/>
-      <c r="I38" s="336"/>
-      <c r="J38" s="336"/>
-      <c r="K38" s="336"/>
-      <c r="L38" s="336"/>
-      <c r="M38" s="337"/>
+      <c r="H38" s="311"/>
+      <c r="I38" s="312"/>
+      <c r="J38" s="312"/>
+      <c r="K38" s="312"/>
+      <c r="L38" s="312"/>
+      <c r="M38" s="313"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="319" t="s">
+      <c r="B39" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="320"/>
+      <c r="C39" s="289"/>
       <c r="D39" s="165" t="e">
         <f>D38/M29</f>
         <v>#DIV/0!</v>
@@ -9269,18 +9269,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="254"/>
-      <c r="I39" s="255"/>
-      <c r="J39" s="255"/>
-      <c r="K39" s="255"/>
-      <c r="L39" s="255"/>
-      <c r="M39" s="256"/>
+      <c r="H39" s="340"/>
+      <c r="I39" s="341"/>
+      <c r="J39" s="341"/>
+      <c r="K39" s="341"/>
+      <c r="L39" s="341"/>
+      <c r="M39" s="342"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="319" t="s">
+      <c r="B40" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="320"/>
+      <c r="C40" s="289"/>
       <c r="D40" s="221" t="e">
         <f>D35/(D36+D37)</f>
         <v>#DIV/0!</v>
@@ -9293,18 +9293,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="254"/>
-      <c r="I40" s="255"/>
-      <c r="J40" s="255"/>
-      <c r="K40" s="255"/>
-      <c r="L40" s="255"/>
-      <c r="M40" s="256"/>
+      <c r="H40" s="340"/>
+      <c r="I40" s="341"/>
+      <c r="J40" s="341"/>
+      <c r="K40" s="341"/>
+      <c r="L40" s="341"/>
+      <c r="M40" s="342"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="319" t="s">
+      <c r="B41" s="288" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="320"/>
+      <c r="C41" s="289"/>
       <c r="D41" s="165" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -9317,18 +9317,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="254"/>
-      <c r="I41" s="255"/>
-      <c r="J41" s="255"/>
-      <c r="K41" s="255"/>
-      <c r="L41" s="255"/>
-      <c r="M41" s="256"/>
+      <c r="H41" s="340"/>
+      <c r="I41" s="341"/>
+      <c r="J41" s="341"/>
+      <c r="K41" s="341"/>
+      <c r="L41" s="341"/>
+      <c r="M41" s="342"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="319" t="s">
+      <c r="B42" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="320"/>
+      <c r="C42" s="289"/>
       <c r="D42" s="155">
         <f>D38*E42</f>
         <v>0</v>
@@ -9343,18 +9343,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="254"/>
-      <c r="I42" s="255"/>
-      <c r="J42" s="255"/>
-      <c r="K42" s="255"/>
-      <c r="L42" s="255"/>
-      <c r="M42" s="256"/>
+      <c r="H42" s="340"/>
+      <c r="I42" s="341"/>
+      <c r="J42" s="341"/>
+      <c r="K42" s="341"/>
+      <c r="L42" s="341"/>
+      <c r="M42" s="342"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="319" t="s">
+      <c r="B43" s="288" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="320"/>
+      <c r="C43" s="289"/>
       <c r="D43" s="155">
         <f>D38-D42</f>
         <v>0</v>
@@ -9365,18 +9365,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="254"/>
-      <c r="I43" s="255"/>
-      <c r="J43" s="255"/>
-      <c r="K43" s="255"/>
-      <c r="L43" s="255"/>
-      <c r="M43" s="256"/>
+      <c r="H43" s="340"/>
+      <c r="I43" s="341"/>
+      <c r="J43" s="341"/>
+      <c r="K43" s="341"/>
+      <c r="L43" s="341"/>
+      <c r="M43" s="342"/>
     </row>
     <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="344" t="s">
+      <c r="B44" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="345"/>
+      <c r="C44" s="287"/>
       <c r="D44" s="175" t="e">
         <f>D43/M29</f>
         <v>#DIV/0!</v>
@@ -9387,12 +9387,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="259"/>
-      <c r="I44" s="260"/>
-      <c r="J44" s="260"/>
-      <c r="K44" s="260"/>
-      <c r="L44" s="260"/>
-      <c r="M44" s="261"/>
+      <c r="H44" s="360"/>
+      <c r="I44" s="361"/>
+      <c r="J44" s="361"/>
+      <c r="K44" s="361"/>
+      <c r="L44" s="361"/>
+      <c r="M44" s="362"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -9419,43 +9419,40 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="102">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P10:T11"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K12:M12"/>
@@ -9479,48 +9476,51 @@
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="H39:M39"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P10:T11"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="P18:Q18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -9710,7 +9710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:U46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -9740,27 +9740,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="327" t="s">
+      <c r="B2" s="301" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="329"/>
-      <c r="P2" s="268" t="s">
+      <c r="C2" s="302"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="303"/>
+      <c r="P2" s="366" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="269"/>
-      <c r="S2" s="269"/>
-      <c r="T2" s="270"/>
+      <c r="Q2" s="367"/>
+      <c r="R2" s="367"/>
+      <c r="S2" s="367"/>
+      <c r="T2" s="368"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9784,103 +9784,103 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="265" t="s">
+      <c r="B4" s="306" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="266"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="446" t="s">
+      <c r="C4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="393" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="447"/>
-      <c r="K4" s="447"/>
-      <c r="L4" s="447"/>
-      <c r="M4" s="448"/>
-      <c r="P4" s="274" t="s">
+      <c r="F4" s="394"/>
+      <c r="G4" s="394"/>
+      <c r="H4" s="394"/>
+      <c r="I4" s="394"/>
+      <c r="J4" s="394"/>
+      <c r="K4" s="394"/>
+      <c r="L4" s="394"/>
+      <c r="M4" s="395"/>
+      <c r="P4" s="372" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="275"/>
-      <c r="R4" s="275"/>
-      <c r="S4" s="275"/>
-      <c r="T4" s="276"/>
+      <c r="Q4" s="373"/>
+      <c r="R4" s="373"/>
+      <c r="S4" s="373"/>
+      <c r="T4" s="374"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="444">
+      <c r="C5" s="391">
         <f>'Acqusition-NF'!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="445"/>
-      <c r="E5" s="449"/>
-      <c r="F5" s="450"/>
-      <c r="G5" s="450"/>
-      <c r="H5" s="450"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="450"/>
-      <c r="K5" s="450"/>
-      <c r="L5" s="450"/>
-      <c r="M5" s="451"/>
-      <c r="P5" s="274" t="s">
+      <c r="D5" s="392"/>
+      <c r="E5" s="396"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="397"/>
+      <c r="I5" s="397"/>
+      <c r="J5" s="397"/>
+      <c r="K5" s="397"/>
+      <c r="L5" s="397"/>
+      <c r="M5" s="398"/>
+      <c r="P5" s="372" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="275"/>
-      <c r="R5" s="275"/>
-      <c r="S5" s="275"/>
-      <c r="T5" s="276"/>
+      <c r="Q5" s="373"/>
+      <c r="R5" s="373"/>
+      <c r="S5" s="373"/>
+      <c r="T5" s="374"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="438" t="s">
+      <c r="B6" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="439"/>
+      <c r="C6" s="400"/>
       <c r="D6" s="57">
         <f>'Acqusition-NF'!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="391"/>
-      <c r="F6" s="392"/>
-      <c r="G6" s="392"/>
-      <c r="H6" s="392"/>
-      <c r="I6" s="392"/>
-      <c r="J6" s="392"/>
-      <c r="K6" s="392"/>
-      <c r="L6" s="392"/>
-      <c r="M6" s="393"/>
-      <c r="P6" s="277" t="s">
+      <c r="E6" s="445"/>
+      <c r="F6" s="446"/>
+      <c r="G6" s="446"/>
+      <c r="H6" s="446"/>
+      <c r="I6" s="446"/>
+      <c r="J6" s="446"/>
+      <c r="K6" s="446"/>
+      <c r="L6" s="446"/>
+      <c r="M6" s="447"/>
+      <c r="P6" s="375" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="279"/>
+      <c r="Q6" s="376"/>
+      <c r="R6" s="376"/>
+      <c r="S6" s="376"/>
+      <c r="T6" s="377"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="438" t="s">
+      <c r="B7" s="399" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="440"/>
+      <c r="C7" s="401"/>
       <c r="D7" s="58">
         <f>'Acqusition-NF'!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="391"/>
-      <c r="F7" s="392"/>
-      <c r="G7" s="392"/>
-      <c r="H7" s="392"/>
-      <c r="I7" s="392"/>
-      <c r="J7" s="392"/>
-      <c r="K7" s="392"/>
-      <c r="L7" s="392"/>
-      <c r="M7" s="393"/>
+      <c r="E7" s="445"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="446"/>
+      <c r="J7" s="446"/>
+      <c r="K7" s="446"/>
+      <c r="L7" s="446"/>
+      <c r="M7" s="447"/>
       <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
@@ -9891,61 +9891,61 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="438" t="s">
+      <c r="B8" s="399" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="440"/>
+      <c r="C8" s="401"/>
       <c r="D8" s="58" t="e">
         <f>'Acqusition-NF'!D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="433"/>
-      <c r="F8" s="434"/>
-      <c r="G8" s="434"/>
-      <c r="H8" s="434"/>
-      <c r="I8" s="434"/>
-      <c r="J8" s="434"/>
-      <c r="K8" s="434"/>
-      <c r="L8" s="434"/>
-      <c r="M8" s="435"/>
+      <c r="E8" s="402"/>
+      <c r="F8" s="403"/>
+      <c r="G8" s="403"/>
+      <c r="H8" s="403"/>
+      <c r="I8" s="403"/>
+      <c r="J8" s="403"/>
+      <c r="K8" s="403"/>
+      <c r="L8" s="403"/>
+      <c r="M8" s="404"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="438" t="s">
+      <c r="B9" s="399" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="440"/>
+      <c r="C9" s="401"/>
       <c r="D9" s="59">
         <f>'Acqusition-NF'!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="433"/>
-      <c r="F9" s="434"/>
-      <c r="G9" s="434"/>
-      <c r="H9" s="434"/>
-      <c r="I9" s="434"/>
-      <c r="J9" s="434"/>
-      <c r="K9" s="434"/>
-      <c r="L9" s="434"/>
-      <c r="M9" s="435"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="403"/>
+      <c r="H9" s="403"/>
+      <c r="I9" s="403"/>
+      <c r="J9" s="403"/>
+      <c r="K9" s="403"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="404"/>
     </row>
     <row r="10" spans="2:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="431" t="s">
+      <c r="B10" s="405" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="432"/>
+      <c r="C10" s="406"/>
       <c r="D10" s="60" t="e">
         <f>'Acqusition-NF'!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="441"/>
-      <c r="F10" s="442"/>
-      <c r="G10" s="442"/>
-      <c r="H10" s="442"/>
-      <c r="I10" s="442"/>
-      <c r="J10" s="442"/>
-      <c r="K10" s="442"/>
-      <c r="L10" s="442"/>
-      <c r="M10" s="443"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="412"/>
+      <c r="G10" s="412"/>
+      <c r="H10" s="412"/>
+      <c r="I10" s="412"/>
+      <c r="J10" s="412"/>
+      <c r="K10" s="412"/>
+      <c r="L10" s="412"/>
+      <c r="M10" s="413"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="85"/>
@@ -9975,30 +9975,30 @@
       <c r="F12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="266" t="s">
+      <c r="G12" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="267"/>
+      <c r="H12" s="291"/>
       <c r="I12" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="265" t="s">
+      <c r="K12" s="306" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="266"/>
-      <c r="M12" s="267"/>
-      <c r="P12" s="371" t="s">
+      <c r="L12" s="290"/>
+      <c r="M12" s="291"/>
+      <c r="P12" s="266" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="382"/>
-      <c r="R12" s="372"/>
+      <c r="Q12" s="390"/>
+      <c r="R12" s="267"/>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="417" t="s">
+      <c r="B13" s="409" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="437"/>
+      <c r="C13" s="410"/>
       <c r="D13" s="58">
         <f>'Acqusition-NF'!D13</f>
         <v>0</v>
@@ -10008,29 +10008,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="54"/>
-      <c r="G13" s="363" t="e">
+      <c r="G13" s="256" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="364"/>
+      <c r="H13" s="257"/>
       <c r="I13" s="112" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="333" t="s">
+      <c r="K13" s="307" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="334"/>
+      <c r="L13" s="308"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="375" t="s">
+      <c r="Q13" s="387" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="376"/>
+      <c r="R13" s="388"/>
     </row>
     <row r="14" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="104" t="s">
@@ -10049,11 +10049,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="346" t="e">
+      <c r="G14" s="276" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="347"/>
+      <c r="H14" s="277"/>
       <c r="I14" s="106" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -10068,16 +10068,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="375" t="s">
+      <c r="Q14" s="387" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="376"/>
+      <c r="R14" s="388"/>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="411" t="s">
+      <c r="B15" s="407" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="436"/>
+      <c r="C15" s="408"/>
       <c r="D15" s="68">
         <f>'Acqusition-NF'!D15</f>
         <v>0</v>
@@ -10087,29 +10087,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="300" t="e">
+      <c r="G15" s="343" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="301"/>
+      <c r="H15" s="344"/>
       <c r="I15" s="111" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="350" t="s">
+      <c r="K15" s="320" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="351"/>
+      <c r="L15" s="321"/>
       <c r="M15" s="62">
         <f>M13*M14</f>
         <v>0</v>
       </c>
       <c r="P15" s="53"/>
-      <c r="Q15" s="375" t="s">
+      <c r="Q15" s="387" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="376"/>
+      <c r="R15" s="388"/>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" s="224" t="s">
@@ -10128,20 +10128,20 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="429" t="e">
+      <c r="G16" s="414" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="430"/>
+      <c r="H16" s="415"/>
       <c r="I16" s="112" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="306" t="s">
+      <c r="K16" s="284" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="332"/>
+      <c r="L16" s="285"/>
       <c r="M16" s="62">
         <f>M13-M15</f>
         <v>0</v>
@@ -10161,30 +10161,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="346" t="e">
+      <c r="G17" s="276" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="347"/>
+      <c r="H17" s="277"/>
       <c r="I17" s="106" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="306" t="s">
+      <c r="K17" s="284" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="332"/>
+      <c r="L17" s="285"/>
       <c r="M17" s="63">
         <f>'Acqusition-NF'!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="411" t="s">
+      <c r="B18" s="407" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="412"/>
+      <c r="C18" s="416"/>
       <c r="D18" s="68">
         <f>'Acqusition-NF'!D18</f>
         <v>0</v>
@@ -10194,20 +10194,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="300" t="e">
+      <c r="G18" s="343" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="301"/>
+      <c r="H18" s="344"/>
       <c r="I18" s="111" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="330" t="s">
+      <c r="K18" s="304" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="331"/>
+      <c r="L18" s="305"/>
       <c r="M18" s="64">
         <f>'Acqusition-NF'!M18</f>
         <v>30</v>
@@ -10230,11 +10230,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="304" t="e">
+      <c r="G19" s="347" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="305"/>
+      <c r="H19" s="348"/>
       <c r="I19" s="120" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -10255,8 +10255,8 @@
       <c r="D20" s="125"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="338"/>
-      <c r="H20" s="338"/>
+      <c r="G20" s="314"/>
+      <c r="H20" s="314"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
@@ -10277,27 +10277,27 @@
       <c r="F21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="266" t="s">
+      <c r="G21" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="267"/>
+      <c r="H21" s="291"/>
       <c r="I21" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="419" t="s">
+      <c r="K21" s="421" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="420"/>
-      <c r="M21" s="415"/>
+      <c r="L21" s="422"/>
+      <c r="M21" s="423"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="417" t="s">
+      <c r="B22" s="409" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="418"/>
+      <c r="C22" s="420"/>
       <c r="D22" s="58">
         <f>'Acqusition-NF'!D22</f>
         <v>0</v>
@@ -10307,30 +10307,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="389" t="e">
+      <c r="G22" s="282" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="390"/>
+      <c r="H22" s="283"/>
       <c r="I22" s="112" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="131"/>
-      <c r="K22" s="394" t="s">
+      <c r="K22" s="448" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="395"/>
+      <c r="L22" s="449"/>
       <c r="M22" s="103">
         <f>'Acqusition-NF'!M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="409" t="s">
+      <c r="B23" s="419" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="410"/>
+      <c r="C23" s="435"/>
       <c r="D23" s="58">
         <f>'Acqusition-NF'!D23</f>
         <v>0</v>
@@ -10340,20 +10340,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="288" t="e">
+      <c r="G23" s="294" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="289"/>
+      <c r="H23" s="295"/>
       <c r="I23" s="106" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="131"/>
-      <c r="K23" s="306" t="s">
+      <c r="K23" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="332"/>
+      <c r="L23" s="285"/>
       <c r="M23" s="66">
         <f>'Acqusition-NF'!M23</f>
         <v>0.01</v>
@@ -10373,30 +10373,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="288" t="e">
+      <c r="G24" s="294" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="289"/>
+      <c r="H24" s="295"/>
       <c r="I24" s="106" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="131"/>
-      <c r="K24" s="306" t="s">
+      <c r="K24" s="284" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="332"/>
+      <c r="L24" s="285"/>
       <c r="M24" s="134">
         <f>'Acqusition-NF'!M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="409" t="s">
+      <c r="B25" s="419" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="416"/>
+      <c r="C25" s="434"/>
       <c r="D25" s="58">
         <f>'Acqusition-NF'!D25</f>
         <v>0</v>
@@ -10406,20 +10406,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="288" t="e">
+      <c r="G25" s="294" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="289"/>
+      <c r="H25" s="295"/>
       <c r="I25" s="106" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="131"/>
-      <c r="K25" s="330" t="s">
+      <c r="K25" s="304" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="331"/>
+      <c r="L25" s="305"/>
       <c r="M25" s="134">
         <f>'Acqusition-NF'!M25</f>
         <v>0</v>
@@ -10445,30 +10445,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="288" t="e">
+      <c r="G26" s="294" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="289"/>
+      <c r="H26" s="295"/>
       <c r="I26" s="106" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="425" t="s">
+      <c r="K26" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="426"/>
+      <c r="L26" s="428"/>
       <c r="M26" s="123">
         <f>'Acqusition-NF'!M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="409" t="s">
+      <c r="B27" s="419" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="418"/>
+      <c r="C27" s="420"/>
       <c r="D27" s="58">
         <f>'Acqusition-NF'!D27</f>
         <v>0</v>
@@ -10478,11 +10478,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="288" t="e">
+      <c r="G27" s="294" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="289"/>
+      <c r="H27" s="295"/>
       <c r="I27" s="106" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -10498,10 +10498,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="409" t="s">
+      <c r="B28" s="419" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="410"/>
+      <c r="C28" s="435"/>
       <c r="D28" s="58">
         <f>'Acqusition-NF'!D28</f>
         <v>0</v>
@@ -10511,11 +10511,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="288" t="e">
+      <c r="G28" s="294" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="289"/>
+      <c r="H28" s="295"/>
       <c r="I28" s="106" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -10526,10 +10526,10 @@
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="409" t="s">
+      <c r="B29" s="419" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="410"/>
+      <c r="C29" s="435"/>
       <c r="D29" s="58">
         <f>'Acqusition-NF'!D29</f>
         <v>0</v>
@@ -10539,11 +10539,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="G29" s="288" t="e">
+      <c r="G29" s="294" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="289"/>
+      <c r="H29" s="295"/>
       <c r="I29" s="106" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -10559,10 +10559,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="411" t="s">
+      <c r="B30" s="407" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="412"/>
+      <c r="C30" s="416"/>
       <c r="D30" s="70">
         <f>'Acqusition-NF'!D30</f>
         <v>0</v>
@@ -10572,11 +10572,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="302" t="e">
+      <c r="G30" s="345" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="303"/>
+      <c r="H30" s="346"/>
       <c r="I30" s="111" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -10604,34 +10604,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="413" t="e">
+      <c r="G31" s="450" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="414"/>
+      <c r="H31" s="451"/>
       <c r="I31" s="120" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="265" t="s">
+      <c r="K31" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="266"/>
-      <c r="M31" s="415"/>
+      <c r="L31" s="290"/>
+      <c r="M31" s="423"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="292" t="s">
+      <c r="B32" s="332" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="401">
+      <c r="C32" s="333"/>
+      <c r="D32" s="437">
         <f>'Acqusition-NF'!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="147"/>
-      <c r="F32" s="403">
+      <c r="F32" s="439">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -10650,11 +10650,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="294"/>
-      <c r="C33" s="295"/>
-      <c r="D33" s="402"/>
+      <c r="B33" s="334"/>
+      <c r="C33" s="335"/>
+      <c r="D33" s="438"/>
       <c r="E33" s="149"/>
-      <c r="F33" s="404"/>
+      <c r="F33" s="440"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -10670,10 +10670,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="323" t="s">
+      <c r="B34" s="356" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="324"/>
+      <c r="C34" s="357"/>
       <c r="D34" s="151">
         <f>'Acqusition-NF'!D34</f>
         <v>0</v>
@@ -10687,10 +10687,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="290" t="s">
+      <c r="K34" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="405"/>
+      <c r="L34" s="441"/>
       <c r="M34" s="134">
         <f>'Acqusition-NF'!M34</f>
         <v>250</v>
@@ -10726,10 +10726,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="321" t="s">
+      <c r="B36" s="309" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="397"/>
+      <c r="C36" s="442"/>
       <c r="D36" s="228">
         <f>'Acqusition-NF'!D36</f>
         <v>0</v>
@@ -10749,10 +10749,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="319" t="s">
+      <c r="B37" s="288" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="396"/>
+      <c r="C37" s="436"/>
       <c r="D37" s="228">
         <f>'Acqusition-NF'!D37</f>
         <v>0</v>
@@ -10763,23 +10763,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="262" t="s">
+      <c r="H37" s="363" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="263"/>
-      <c r="J37" s="263"/>
-      <c r="K37" s="263"/>
-      <c r="L37" s="262" t="s">
+      <c r="I37" s="364"/>
+      <c r="J37" s="364"/>
+      <c r="K37" s="364"/>
+      <c r="L37" s="363" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="264"/>
+      <c r="M37" s="365"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="321" t="s">
+      <c r="B38" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="397"/>
+      <c r="C38" s="442"/>
       <c r="D38" s="228">
         <f>'Acqusition-NF'!D38</f>
         <v>0</v>
@@ -10790,18 +10790,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="406"/>
-      <c r="I38" s="407"/>
-      <c r="J38" s="407"/>
-      <c r="K38" s="408"/>
-      <c r="L38" s="406"/>
-      <c r="M38" s="427"/>
+      <c r="H38" s="431"/>
+      <c r="I38" s="443"/>
+      <c r="J38" s="443"/>
+      <c r="K38" s="444"/>
+      <c r="L38" s="431"/>
+      <c r="M38" s="432"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="319" t="s">
+      <c r="B39" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="396"/>
+      <c r="C39" s="436"/>
       <c r="D39" s="229" t="e">
         <f>'Acqusition-NF'!D39</f>
         <v>#DIV/0!</v>
@@ -10812,18 +10812,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="398"/>
-      <c r="I39" s="399"/>
-      <c r="J39" s="399"/>
-      <c r="K39" s="400"/>
-      <c r="L39" s="398"/>
-      <c r="M39" s="424"/>
+      <c r="H39" s="417"/>
+      <c r="I39" s="429"/>
+      <c r="J39" s="429"/>
+      <c r="K39" s="430"/>
+      <c r="L39" s="417"/>
+      <c r="M39" s="418"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="319" t="s">
+      <c r="B40" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="396"/>
+      <c r="C40" s="436"/>
       <c r="D40" s="230" t="e">
         <f>'Acqusition-NF'!D40</f>
         <v>#DIV/0!</v>
@@ -10836,18 +10836,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="398"/>
-      <c r="I40" s="399"/>
-      <c r="J40" s="399"/>
-      <c r="K40" s="400"/>
-      <c r="L40" s="398"/>
-      <c r="M40" s="424"/>
+      <c r="H40" s="417"/>
+      <c r="I40" s="429"/>
+      <c r="J40" s="429"/>
+      <c r="K40" s="430"/>
+      <c r="L40" s="417"/>
+      <c r="M40" s="418"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="319" t="s">
+      <c r="B41" s="288" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="396"/>
+      <c r="C41" s="436"/>
       <c r="D41" s="229" t="e">
         <f>'Acqusition-NF'!D41</f>
         <v>#DIV/0!</v>
@@ -10860,18 +10860,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="398"/>
-      <c r="I41" s="399"/>
-      <c r="J41" s="399"/>
-      <c r="K41" s="400"/>
-      <c r="L41" s="398"/>
-      <c r="M41" s="424"/>
+      <c r="H41" s="417"/>
+      <c r="I41" s="429"/>
+      <c r="J41" s="429"/>
+      <c r="K41" s="430"/>
+      <c r="L41" s="417"/>
+      <c r="M41" s="418"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="319" t="s">
+      <c r="B42" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="396"/>
+      <c r="C42" s="436"/>
       <c r="D42" s="228">
         <f>'Acqusition-NF'!D42</f>
         <v>0</v>
@@ -10887,18 +10887,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="398"/>
-      <c r="I42" s="399"/>
-      <c r="J42" s="399"/>
-      <c r="K42" s="400"/>
-      <c r="L42" s="398"/>
-      <c r="M42" s="424"/>
+      <c r="H42" s="417"/>
+      <c r="I42" s="429"/>
+      <c r="J42" s="429"/>
+      <c r="K42" s="430"/>
+      <c r="L42" s="417"/>
+      <c r="M42" s="418"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="319" t="s">
+      <c r="B43" s="288" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="396"/>
+      <c r="C43" s="436"/>
       <c r="D43" s="228">
         <f>'Acqusition-NF'!D43</f>
         <v>0</v>
@@ -10909,18 +10909,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="398"/>
-      <c r="I43" s="399"/>
-      <c r="J43" s="399"/>
-      <c r="K43" s="400"/>
-      <c r="L43" s="398"/>
-      <c r="M43" s="424"/>
+      <c r="H43" s="417"/>
+      <c r="I43" s="429"/>
+      <c r="J43" s="429"/>
+      <c r="K43" s="430"/>
+      <c r="L43" s="417"/>
+      <c r="M43" s="418"/>
     </row>
     <row r="44" spans="2:19" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="344" t="s">
+      <c r="B44" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="345"/>
+      <c r="C44" s="287"/>
       <c r="D44" s="231" t="e">
         <f>'Acqusition-NF'!D44</f>
         <v>#DIV/0!</v>
@@ -10931,12 +10931,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="421"/>
-      <c r="I44" s="422"/>
-      <c r="J44" s="422"/>
-      <c r="K44" s="423"/>
-      <c r="L44" s="421"/>
-      <c r="M44" s="428"/>
+      <c r="H44" s="424"/>
+      <c r="I44" s="425"/>
+      <c r="J44" s="425"/>
+      <c r="K44" s="426"/>
+      <c r="L44" s="424"/>
+      <c r="M44" s="433"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -10963,19 +10963,73 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="96">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="Q13:R13"/>
@@ -10992,73 +11046,19 @@
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -11251,7 +11251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:U46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
@@ -11281,27 +11281,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="3.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="327" t="s">
+      <c r="B2" s="301" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="329"/>
-      <c r="P2" s="268" t="s">
+      <c r="C2" s="302"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="303"/>
+      <c r="P2" s="366" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="269"/>
-      <c r="S2" s="269"/>
-      <c r="T2" s="270"/>
+      <c r="Q2" s="367"/>
+      <c r="R2" s="367"/>
+      <c r="S2" s="367"/>
+      <c r="T2" s="368"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11325,11 +11325,11 @@
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="265" t="s">
+      <c r="B4" s="306" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="266"/>
-      <c r="D4" s="267"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="291"/>
       <c r="E4" s="94" t="s">
         <v>111</v>
       </c>
@@ -11341,54 +11341,54 @@
       <c r="K4" s="181"/>
       <c r="L4" s="181"/>
       <c r="M4" s="182"/>
-      <c r="P4" s="274" t="s">
+      <c r="P4" s="372" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="275"/>
-      <c r="R4" s="275"/>
-      <c r="S4" s="275"/>
-      <c r="T4" s="276"/>
+      <c r="Q4" s="373"/>
+      <c r="R4" s="373"/>
+      <c r="S4" s="373"/>
+      <c r="T4" s="374"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="352"/>
-      <c r="D5" s="353"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="323"/>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="185"/>
       <c r="H5" s="185"/>
       <c r="I5" s="186"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="265" t="s">
+      <c r="K5" s="306" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="266"/>
-      <c r="M5" s="267"/>
-      <c r="P5" s="274" t="s">
+      <c r="L5" s="290"/>
+      <c r="M5" s="291"/>
+      <c r="P5" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="275"/>
-      <c r="R5" s="275"/>
-      <c r="S5" s="275"/>
-      <c r="T5" s="276"/>
+      <c r="Q5" s="373"/>
+      <c r="R5" s="373"/>
+      <c r="S5" s="373"/>
+      <c r="T5" s="374"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="290" t="s">
+      <c r="B6" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="339"/>
+      <c r="C6" s="315"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="354" t="s">
+      <c r="E6" s="324" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="355"/>
-      <c r="G6" s="355"/>
-      <c r="H6" s="356"/>
-      <c r="I6" s="313" t="s">
+      <c r="F6" s="325"/>
+      <c r="G6" s="325"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="352" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="89"/>
@@ -11397,26 +11397,26 @@
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="33"/>
-      <c r="P6" s="277" t="s">
+      <c r="P6" s="375" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="279"/>
+      <c r="Q6" s="376"/>
+      <c r="R6" s="376"/>
+      <c r="S6" s="376"/>
+      <c r="T6" s="377"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="315"/>
+      <c r="C7" s="259"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="357"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="358"/>
-      <c r="H7" s="359"/>
-      <c r="I7" s="314"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="328"/>
+      <c r="G7" s="328"/>
+      <c r="H7" s="329"/>
+      <c r="I7" s="353"/>
       <c r="J7" s="89"/>
       <c r="K7" s="189" t="s">
         <v>96</v>
@@ -11436,20 +11436,20 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="290" t="s">
+      <c r="B8" s="258" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="315"/>
+      <c r="C8" s="259"/>
       <c r="D8" s="191" t="e">
         <f>D7/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="360" t="s">
+      <c r="E8" s="330" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="361"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="318"/>
+      <c r="F8" s="331"/>
+      <c r="G8" s="354"/>
+      <c r="H8" s="355"/>
       <c r="I8" s="65" t="e">
         <f>G8/G10</f>
         <v>#DIV/0!</v>
@@ -11465,17 +11465,17 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="290" t="s">
+      <c r="B9" s="258" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="315"/>
+      <c r="C9" s="259"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="257" t="s">
+      <c r="E9" s="358" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="258"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="299"/>
+      <c r="F9" s="359"/>
+      <c r="G9" s="338"/>
+      <c r="H9" s="339"/>
       <c r="I9" s="66" t="e">
         <f>G9/G10</f>
         <v>#DIV/0!</v>
@@ -11486,20 +11486,20 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="311" t="s">
+      <c r="B10" s="350" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="312"/>
+      <c r="C10" s="351"/>
       <c r="D10" s="196" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="340" t="s">
+      <c r="E10" s="316" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="341"/>
-      <c r="G10" s="342"/>
-      <c r="H10" s="343"/>
+      <c r="F10" s="317"/>
+      <c r="G10" s="318"/>
+      <c r="H10" s="319"/>
       <c r="I10" s="197" t="s">
         <v>16</v>
       </c>
@@ -11507,13 +11507,13 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="90"/>
-      <c r="P10" s="280" t="s">
+      <c r="P10" s="378" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="281"/>
-      <c r="R10" s="281"/>
-      <c r="S10" s="281"/>
-      <c r="T10" s="282"/>
+      <c r="Q10" s="379"/>
+      <c r="R10" s="379"/>
+      <c r="S10" s="379"/>
+      <c r="T10" s="380"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="198"/>
@@ -11528,11 +11528,11 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="90"/>
-      <c r="P11" s="283"/>
-      <c r="Q11" s="284"/>
-      <c r="R11" s="284"/>
-      <c r="S11" s="284"/>
-      <c r="T11" s="285"/>
+      <c r="P11" s="381"/>
+      <c r="Q11" s="382"/>
+      <c r="R11" s="382"/>
+      <c r="S11" s="382"/>
+      <c r="T11" s="383"/>
     </row>
     <row r="12" spans="2:21" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="91" t="s">
@@ -11548,23 +11548,23 @@
       <c r="F12" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="266" t="s">
+      <c r="G12" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="267"/>
+      <c r="H12" s="291"/>
       <c r="I12" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="265" t="s">
+      <c r="K12" s="306" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="266"/>
-      <c r="M12" s="267"/>
-      <c r="P12" s="371" t="s">
+      <c r="L12" s="290"/>
+      <c r="M12" s="291"/>
+      <c r="P12" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="372"/>
+      <c r="Q12" s="267"/>
       <c r="R12" s="29" t="s">
         <v>29</v>
       </c>
@@ -11576,38 +11576,38 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="326" t="s">
+      <c r="B13" s="254" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="362"/>
+      <c r="C13" s="255"/>
       <c r="D13" s="37"/>
       <c r="E13" s="130" t="e">
         <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="363" t="e">
+      <c r="G13" s="256" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="364"/>
+      <c r="H13" s="257"/>
       <c r="I13" s="200" t="e">
         <f>D13/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="456" t="s">
+      <c r="K13" s="452" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="457"/>
+      <c r="L13" s="453"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P13" s="373" t="s">
+      <c r="P13" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="374"/>
+      <c r="Q13" s="269"/>
       <c r="R13" s="11" t="e">
         <f t="shared" ref="R13:R19" si="0">E22</f>
         <v>#DIV/0!</v>
@@ -11634,11 +11634,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="346" t="e">
+      <c r="G14" s="276" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="347"/>
+      <c r="H14" s="277"/>
       <c r="I14" s="202" t="e">
         <f>D14/D13</f>
         <v>#DIV/0!</v>
@@ -11649,10 +11649,10 @@
       </c>
       <c r="L14" s="108"/>
       <c r="M14" s="48"/>
-      <c r="P14" s="367" t="s">
+      <c r="P14" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="368"/>
+      <c r="Q14" s="263"/>
       <c r="R14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11666,21 +11666,21 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="309" t="s">
+      <c r="B15" s="296" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="310"/>
+      <c r="C15" s="349"/>
       <c r="D15" s="41"/>
       <c r="E15" s="109" t="e">
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="300" t="e">
+      <c r="G15" s="343" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="301"/>
+      <c r="H15" s="344"/>
       <c r="I15" s="203" t="e">
         <f>D15/D13</f>
         <v>#DIV/0!</v>
@@ -11694,10 +11694,10 @@
         <f>M13-M14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="367" t="s">
+      <c r="P15" s="262" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="368"/>
+      <c r="Q15" s="263"/>
       <c r="R15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11727,23 +11727,23 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="429" t="e">
+      <c r="G16" s="414" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="430"/>
+      <c r="H16" s="415"/>
       <c r="I16" s="200" t="e">
         <f>D16/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="332"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="285"/>
       <c r="M16" s="134"/>
-      <c r="P16" s="367" t="s">
+      <c r="P16" s="262" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="368"/>
+      <c r="Q16" s="263"/>
       <c r="R16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11767,25 +11767,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="346" t="e">
+      <c r="G17" s="276" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="347"/>
+      <c r="H17" s="277"/>
       <c r="I17" s="202" t="e">
         <f>D17/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="290" t="s">
+      <c r="K17" s="258" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="291"/>
+      <c r="L17" s="386"/>
       <c r="M17" s="48"/>
-      <c r="P17" s="367" t="s">
+      <c r="P17" s="262" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="368"/>
+      <c r="Q17" s="263"/>
       <c r="R17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11799,33 +11799,33 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="309" t="s">
+      <c r="B18" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="316"/>
+      <c r="C18" s="297"/>
       <c r="D18" s="41"/>
       <c r="E18" s="109" t="e">
         <f>D18/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="300" t="e">
+      <c r="G18" s="343" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="301"/>
+      <c r="H18" s="344"/>
       <c r="I18" s="203" t="e">
         <f>D18/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="330"/>
-      <c r="L18" s="331"/>
+      <c r="K18" s="304"/>
+      <c r="L18" s="305"/>
       <c r="M18" s="64"/>
-      <c r="P18" s="367" t="s">
+      <c r="P18" s="262" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="368"/>
+      <c r="Q18" s="263"/>
       <c r="R18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11855,11 +11855,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="304" t="e">
+      <c r="G19" s="347" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="305"/>
+      <c r="H19" s="348"/>
       <c r="I19" s="208" t="e">
         <f>D19/D13</f>
         <v>#DIV/0!</v>
@@ -11873,19 +11873,19 @@
         <f>M17*12</f>
         <v>0</v>
       </c>
-      <c r="P19" s="385" t="s">
+      <c r="P19" s="278" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="386"/>
-      <c r="R19" s="377" t="e">
+      <c r="Q19" s="279"/>
+      <c r="R19" s="270" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="379" t="e">
+      <c r="S19" s="272" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="365" t="s">
+      <c r="T19" s="260" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11895,18 +11895,18 @@
       <c r="D20" s="210"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="338"/>
-      <c r="H20" s="338"/>
+      <c r="G20" s="314"/>
+      <c r="H20" s="314"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="90"/>
-      <c r="P20" s="387"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="378"/>
-      <c r="S20" s="380"/>
-      <c r="T20" s="366"/>
+      <c r="P20" s="280"/>
+      <c r="Q20" s="281"/>
+      <c r="R20" s="271"/>
+      <c r="S20" s="273"/>
+      <c r="T20" s="261"/>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="128" t="s">
@@ -11922,25 +11922,25 @@
       <c r="F21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="266" t="s">
+      <c r="G21" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="267"/>
+      <c r="H21" s="291"/>
       <c r="I21" s="94" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="265" t="s">
+      <c r="K21" s="306" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="266"/>
-      <c r="M21" s="267"/>
+      <c r="L21" s="290"/>
+      <c r="M21" s="291"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="367" t="s">
+      <c r="P21" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="368"/>
+      <c r="Q21" s="263"/>
       <c r="R21" s="13" t="e">
         <f>E29</f>
         <v>#DIV/0!</v>
@@ -11954,21 +11954,21 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="326" t="s">
+      <c r="B22" s="254" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="307"/>
+      <c r="C22" s="300"/>
       <c r="D22" s="37"/>
       <c r="E22" s="130" t="e">
         <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="389" t="e">
+      <c r="G22" s="282" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="390"/>
+      <c r="H22" s="283"/>
       <c r="I22" s="200" t="e">
         <f>D22/D13</f>
         <v>#DIV/0!</v>
@@ -11984,10 +11984,10 @@
         <f>L22*M13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="369" t="s">
+      <c r="P22" s="264" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="370"/>
+      <c r="Q22" s="265"/>
       <c r="R22" s="237" t="e">
         <f>E30</f>
         <v>#DIV/0!</v>
@@ -12001,21 +12001,21 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="284" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="308"/>
+      <c r="C23" s="298"/>
       <c r="D23" s="36"/>
       <c r="E23" s="105" t="e">
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="288" t="e">
+      <c r="G23" s="294" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="289"/>
+      <c r="H23" s="295"/>
       <c r="I23" s="202" t="e">
         <f>D23/D13</f>
         <v>#DIV/0!</v>
@@ -12028,10 +12028,10 @@
       <c r="M23" s="46">
         <v>0</v>
       </c>
-      <c r="P23" s="381" t="s">
+      <c r="P23" s="389" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="381"/>
+      <c r="Q23" s="389"/>
       <c r="R23" s="240">
         <f>D34</f>
         <v>0</v>
@@ -12055,11 +12055,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="288" t="e">
+      <c r="G24" s="294" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="289"/>
+      <c r="H24" s="295"/>
       <c r="I24" s="202" t="e">
         <f>D24/D13</f>
         <v>#DIV/0!</v>
@@ -12075,21 +12075,21 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="306" t="s">
+      <c r="B25" s="284" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="325"/>
+      <c r="C25" s="299"/>
       <c r="D25" s="36"/>
       <c r="E25" s="133" t="e">
         <f>D25/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="288" t="e">
+      <c r="G25" s="294" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="289"/>
+      <c r="H25" s="295"/>
       <c r="I25" s="202" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
@@ -12120,43 +12120,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="288" t="e">
+      <c r="G26" s="294" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="289"/>
+      <c r="H26" s="295"/>
       <c r="I26" s="202" t="e">
         <f>D26/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="286" t="s">
+      <c r="K26" s="384" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="287"/>
+      <c r="L26" s="385"/>
       <c r="M26" s="47"/>
-      <c r="P26" s="371" t="s">
+      <c r="P26" s="266" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="382"/>
-      <c r="R26" s="372"/>
+      <c r="Q26" s="390"/>
+      <c r="R26" s="267"/>
     </row>
     <row r="27" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="306" t="s">
+      <c r="B27" s="284" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="307"/>
+      <c r="C27" s="300"/>
       <c r="D27" s="36"/>
       <c r="E27" s="105" t="e">
         <f>D27/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="288" t="e">
+      <c r="G27" s="294" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="289"/>
+      <c r="H27" s="295"/>
       <c r="I27" s="202" t="e">
         <f>D27/D13</f>
         <v>#DIV/0!</v>
@@ -12171,27 +12171,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="375" t="s">
+      <c r="Q27" s="387" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="376"/>
+      <c r="R27" s="388"/>
     </row>
     <row r="28" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="306" t="s">
+      <c r="B28" s="284" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="308"/>
+      <c r="C28" s="298"/>
       <c r="D28" s="36"/>
       <c r="E28" s="105" t="e">
         <f>D28/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="288" t="e">
+      <c r="G28" s="294" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="289"/>
+      <c r="H28" s="295"/>
       <c r="I28" s="202" t="e">
         <f>D28/D13</f>
         <v>#DIV/0!</v>
@@ -12201,27 +12201,27 @@
       <c r="L28" s="174"/>
       <c r="M28" s="141"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="375" t="s">
+      <c r="Q28" s="387" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="376"/>
+      <c r="R28" s="388"/>
     </row>
     <row r="29" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="306" t="s">
+      <c r="B29" s="284" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="308"/>
+      <c r="C29" s="298"/>
       <c r="D29" s="36"/>
       <c r="E29" s="105" t="e">
         <f>D29/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="288" t="e">
+      <c r="G29" s="294" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="289"/>
+      <c r="H29" s="295"/>
       <c r="I29" s="202" t="e">
         <f>D29/D13</f>
         <v>#DIV/0!</v>
@@ -12236,27 +12236,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="53"/>
-      <c r="Q29" s="375" t="s">
+      <c r="Q29" s="387" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="376"/>
+      <c r="R29" s="388"/>
     </row>
     <row r="30" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="309" t="s">
+      <c r="B30" s="296" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="316"/>
+      <c r="C30" s="297"/>
       <c r="D30" s="41"/>
       <c r="E30" s="109" t="e">
         <f>D30/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="302" t="e">
+      <c r="G30" s="345" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="303"/>
+      <c r="H30" s="346"/>
       <c r="I30" s="203" t="e">
         <f>D30/D13</f>
         <v>#DIV/0!</v>
@@ -12284,34 +12284,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="304" t="e">
+      <c r="G31" s="347" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="305"/>
+      <c r="H31" s="348"/>
       <c r="I31" s="208" t="e">
         <f>D31/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="265" t="s">
+      <c r="K31" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="266"/>
-      <c r="M31" s="267"/>
+      <c r="L31" s="290"/>
+      <c r="M31" s="291"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="292" t="s">
+      <c r="B32" s="332" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="296">
+      <c r="C32" s="333"/>
+      <c r="D32" s="336">
         <f>D19-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="217"/>
-      <c r="F32" s="296">
+      <c r="F32" s="336">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -12327,11 +12327,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="294"/>
-      <c r="C33" s="295"/>
-      <c r="D33" s="297"/>
+      <c r="B33" s="334"/>
+      <c r="C33" s="335"/>
+      <c r="D33" s="337"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="297"/>
+      <c r="F33" s="337"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -12344,10 +12344,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="452" t="s">
+      <c r="B34" s="456" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="453"/>
+      <c r="C34" s="457"/>
       <c r="D34" s="218">
         <f>D6*E34</f>
         <v>0</v>
@@ -12363,10 +12363,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="290" t="s">
+      <c r="K34" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="291"/>
+      <c r="L34" s="386"/>
       <c r="M34" s="44"/>
       <c r="S34" s="10"/>
     </row>
@@ -12399,10 +12399,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="321" t="s">
+      <c r="B36" s="309" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="322"/>
+      <c r="C36" s="310"/>
       <c r="D36" s="155">
         <f>M19</f>
         <v>0</v>
@@ -12422,10 +12422,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="319" t="s">
+      <c r="B37" s="288" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="320"/>
+      <c r="C37" s="289"/>
       <c r="D37" s="220" t="e">
         <f>M35</f>
         <v>#NUM!</v>
@@ -12436,21 +12436,21 @@
         <v>#NUM!</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="262" t="s">
+      <c r="H37" s="363" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="263"/>
-      <c r="J37" s="263"/>
-      <c r="K37" s="263"/>
-      <c r="L37" s="263"/>
-      <c r="M37" s="264"/>
+      <c r="I37" s="364"/>
+      <c r="J37" s="364"/>
+      <c r="K37" s="364"/>
+      <c r="L37" s="364"/>
+      <c r="M37" s="365"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="321" t="s">
+      <c r="B38" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="322"/>
+      <c r="C38" s="310"/>
       <c r="D38" s="155" t="e">
         <f>(D35-D36-D37)</f>
         <v>#NUM!</v>
@@ -12461,18 +12461,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="335"/>
-      <c r="I38" s="336"/>
-      <c r="J38" s="336"/>
-      <c r="K38" s="336"/>
-      <c r="L38" s="336"/>
-      <c r="M38" s="337"/>
+      <c r="H38" s="311"/>
+      <c r="I38" s="312"/>
+      <c r="J38" s="312"/>
+      <c r="K38" s="312"/>
+      <c r="L38" s="312"/>
+      <c r="M38" s="313"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="319" t="s">
+      <c r="B39" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="320"/>
+      <c r="C39" s="289"/>
       <c r="D39" s="165" t="e">
         <f>D38/M29</f>
         <v>#NUM!</v>
@@ -12483,18 +12483,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="254"/>
-      <c r="I39" s="255"/>
-      <c r="J39" s="255"/>
-      <c r="K39" s="255"/>
-      <c r="L39" s="255"/>
-      <c r="M39" s="256"/>
+      <c r="H39" s="340"/>
+      <c r="I39" s="341"/>
+      <c r="J39" s="341"/>
+      <c r="K39" s="341"/>
+      <c r="L39" s="341"/>
+      <c r="M39" s="342"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="319" t="s">
+      <c r="B40" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="320"/>
+      <c r="C40" s="289"/>
       <c r="D40" s="221" t="e">
         <f>D35/(D36+D37)</f>
         <v>#NUM!</v>
@@ -12507,18 +12507,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="254"/>
-      <c r="I40" s="255"/>
-      <c r="J40" s="255"/>
-      <c r="K40" s="255"/>
-      <c r="L40" s="255"/>
-      <c r="M40" s="256"/>
+      <c r="H40" s="340"/>
+      <c r="I40" s="341"/>
+      <c r="J40" s="341"/>
+      <c r="K40" s="341"/>
+      <c r="L40" s="341"/>
+      <c r="M40" s="342"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="319" t="s">
+      <c r="B41" s="288" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="320"/>
+      <c r="C41" s="289"/>
       <c r="D41" s="165" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -12531,18 +12531,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="254"/>
-      <c r="I41" s="255"/>
-      <c r="J41" s="255"/>
-      <c r="K41" s="255"/>
-      <c r="L41" s="255"/>
-      <c r="M41" s="256"/>
+      <c r="H41" s="340"/>
+      <c r="I41" s="341"/>
+      <c r="J41" s="341"/>
+      <c r="K41" s="341"/>
+      <c r="L41" s="341"/>
+      <c r="M41" s="342"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="319" t="s">
+      <c r="B42" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="320"/>
+      <c r="C42" s="289"/>
       <c r="D42" s="155" t="e">
         <f>D38*E42</f>
         <v>#NUM!</v>
@@ -12557,18 +12557,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="254"/>
-      <c r="I42" s="255"/>
-      <c r="J42" s="255"/>
-      <c r="K42" s="255"/>
-      <c r="L42" s="255"/>
-      <c r="M42" s="256"/>
+      <c r="H42" s="340"/>
+      <c r="I42" s="341"/>
+      <c r="J42" s="341"/>
+      <c r="K42" s="341"/>
+      <c r="L42" s="341"/>
+      <c r="M42" s="342"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="319" t="s">
+      <c r="B43" s="288" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="320"/>
+      <c r="C43" s="289"/>
       <c r="D43" s="155" t="e">
         <f>D38-D42</f>
         <v>#NUM!</v>
@@ -12579,18 +12579,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="254"/>
-      <c r="I43" s="255"/>
-      <c r="J43" s="255"/>
-      <c r="K43" s="255"/>
-      <c r="L43" s="255"/>
-      <c r="M43" s="256"/>
+      <c r="H43" s="340"/>
+      <c r="I43" s="341"/>
+      <c r="J43" s="341"/>
+      <c r="K43" s="341"/>
+      <c r="L43" s="341"/>
+      <c r="M43" s="342"/>
     </row>
     <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="344" t="s">
+      <c r="B44" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="345"/>
+      <c r="C44" s="287"/>
       <c r="D44" s="175" t="e">
         <f>D43/M29</f>
         <v>#NUM!</v>
@@ -12601,12 +12601,12 @@
         <v>#NUM!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="259"/>
-      <c r="I44" s="260"/>
-      <c r="J44" s="260"/>
-      <c r="K44" s="260"/>
-      <c r="L44" s="260"/>
-      <c r="M44" s="261"/>
+      <c r="H44" s="360"/>
+      <c r="I44" s="361"/>
+      <c r="J44" s="361"/>
+      <c r="K44" s="361"/>
+      <c r="L44" s="361"/>
+      <c r="M44" s="362"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -12633,6 +12633,92 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="101">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P10:T11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:I7"/>
@@ -12648,92 +12734,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P10:T11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:M42"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -12956,27 +12956,27 @@
   <sheetData>
     <row r="1" spans="2:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="327" t="s">
+      <c r="B2" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="329"/>
-      <c r="P2" s="268" t="s">
+      <c r="C2" s="302"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="303"/>
+      <c r="P2" s="366" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="269"/>
-      <c r="S2" s="269"/>
-      <c r="T2" s="270"/>
+      <c r="Q2" s="367"/>
+      <c r="R2" s="367"/>
+      <c r="S2" s="367"/>
+      <c r="T2" s="368"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -13001,103 +13001,103 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="265" t="s">
+      <c r="B4" s="306" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="266"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="446" t="s">
+      <c r="C4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="393" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="447"/>
-      <c r="K4" s="447"/>
-      <c r="L4" s="447"/>
-      <c r="M4" s="448"/>
-      <c r="P4" s="274" t="s">
+      <c r="F4" s="394"/>
+      <c r="G4" s="394"/>
+      <c r="H4" s="394"/>
+      <c r="I4" s="394"/>
+      <c r="J4" s="394"/>
+      <c r="K4" s="394"/>
+      <c r="L4" s="394"/>
+      <c r="M4" s="395"/>
+      <c r="P4" s="372" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="275"/>
-      <c r="R4" s="275"/>
-      <c r="S4" s="275"/>
-      <c r="T4" s="276"/>
+      <c r="Q4" s="373"/>
+      <c r="R4" s="373"/>
+      <c r="S4" s="373"/>
+      <c r="T4" s="374"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="444">
+      <c r="C5" s="391">
         <f>Assumption!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="445"/>
-      <c r="E5" s="449"/>
-      <c r="F5" s="450"/>
-      <c r="G5" s="450"/>
-      <c r="H5" s="450"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="450"/>
-      <c r="K5" s="450"/>
-      <c r="L5" s="450"/>
-      <c r="M5" s="451"/>
-      <c r="P5" s="274" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="275"/>
-      <c r="R5" s="275"/>
-      <c r="S5" s="275"/>
-      <c r="T5" s="276"/>
+      <c r="D5" s="392"/>
+      <c r="E5" s="396"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="397"/>
+      <c r="I5" s="397"/>
+      <c r="J5" s="397"/>
+      <c r="K5" s="397"/>
+      <c r="L5" s="397"/>
+      <c r="M5" s="398"/>
+      <c r="P5" s="372" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="373"/>
+      <c r="R5" s="373"/>
+      <c r="S5" s="373"/>
+      <c r="T5" s="374"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="438" t="s">
+      <c r="B6" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="439"/>
+      <c r="C6" s="400"/>
       <c r="D6" s="57">
         <f>Assumption!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="391"/>
-      <c r="F6" s="392"/>
-      <c r="G6" s="392"/>
-      <c r="H6" s="392"/>
-      <c r="I6" s="392"/>
-      <c r="J6" s="392"/>
-      <c r="K6" s="392"/>
-      <c r="L6" s="392"/>
-      <c r="M6" s="393"/>
-      <c r="P6" s="277" t="s">
+      <c r="E6" s="445"/>
+      <c r="F6" s="446"/>
+      <c r="G6" s="446"/>
+      <c r="H6" s="446"/>
+      <c r="I6" s="446"/>
+      <c r="J6" s="446"/>
+      <c r="K6" s="446"/>
+      <c r="L6" s="446"/>
+      <c r="M6" s="447"/>
+      <c r="P6" s="375" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="279"/>
+      <c r="Q6" s="376"/>
+      <c r="R6" s="376"/>
+      <c r="S6" s="376"/>
+      <c r="T6" s="377"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="438" t="s">
+      <c r="B7" s="399" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="440"/>
+      <c r="C7" s="401"/>
       <c r="D7" s="58">
         <f>Assumption!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="391"/>
-      <c r="F7" s="392"/>
-      <c r="G7" s="392"/>
-      <c r="H7" s="392"/>
-      <c r="I7" s="392"/>
-      <c r="J7" s="392"/>
-      <c r="K7" s="392"/>
-      <c r="L7" s="392"/>
-      <c r="M7" s="393"/>
+      <c r="E7" s="445"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="446"/>
+      <c r="J7" s="446"/>
+      <c r="K7" s="446"/>
+      <c r="L7" s="446"/>
+      <c r="M7" s="447"/>
       <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
@@ -13108,61 +13108,61 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="438" t="s">
+      <c r="B8" s="399" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="440"/>
+      <c r="C8" s="401"/>
       <c r="D8" s="58" t="e">
         <f>Assumption!D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="433"/>
-      <c r="F8" s="434"/>
-      <c r="G8" s="434"/>
-      <c r="H8" s="434"/>
-      <c r="I8" s="434"/>
-      <c r="J8" s="434"/>
-      <c r="K8" s="434"/>
-      <c r="L8" s="434"/>
-      <c r="M8" s="435"/>
+      <c r="E8" s="402"/>
+      <c r="F8" s="403"/>
+      <c r="G8" s="403"/>
+      <c r="H8" s="403"/>
+      <c r="I8" s="403"/>
+      <c r="J8" s="403"/>
+      <c r="K8" s="403"/>
+      <c r="L8" s="403"/>
+      <c r="M8" s="404"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="438" t="s">
+      <c r="B9" s="399" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="440"/>
+      <c r="C9" s="401"/>
       <c r="D9" s="59">
         <f>Assumption!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="433"/>
-      <c r="F9" s="434"/>
-      <c r="G9" s="434"/>
-      <c r="H9" s="434"/>
-      <c r="I9" s="434"/>
-      <c r="J9" s="434"/>
-      <c r="K9" s="434"/>
-      <c r="L9" s="434"/>
-      <c r="M9" s="435"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="403"/>
+      <c r="H9" s="403"/>
+      <c r="I9" s="403"/>
+      <c r="J9" s="403"/>
+      <c r="K9" s="403"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="404"/>
     </row>
     <row r="10" spans="2:22" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="431" t="s">
+      <c r="B10" s="405" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="432"/>
+      <c r="C10" s="406"/>
       <c r="D10" s="67" t="e">
         <f>Assumption!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="441"/>
-      <c r="F10" s="442"/>
-      <c r="G10" s="442"/>
-      <c r="H10" s="442"/>
-      <c r="I10" s="442"/>
-      <c r="J10" s="442"/>
-      <c r="K10" s="442"/>
-      <c r="L10" s="442"/>
-      <c r="M10" s="443"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="412"/>
+      <c r="G10" s="412"/>
+      <c r="H10" s="412"/>
+      <c r="I10" s="412"/>
+      <c r="J10" s="412"/>
+      <c r="K10" s="412"/>
+      <c r="L10" s="412"/>
+      <c r="M10" s="413"/>
     </row>
     <row r="11" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="85"/>
@@ -13192,30 +13192,30 @@
       <c r="F12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="266" t="s">
+      <c r="G12" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="267"/>
+      <c r="H12" s="291"/>
       <c r="I12" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="265" t="s">
+      <c r="K12" s="306" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="266"/>
-      <c r="M12" s="267"/>
-      <c r="P12" s="371" t="s">
+      <c r="L12" s="290"/>
+      <c r="M12" s="291"/>
+      <c r="P12" s="266" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="382"/>
-      <c r="R12" s="372"/>
+      <c r="Q12" s="390"/>
+      <c r="R12" s="267"/>
     </row>
     <row r="13" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="461" t="s">
+      <c r="B13" s="458" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="462"/>
+      <c r="C13" s="459"/>
       <c r="D13" s="71">
         <f>Assumption!D13</f>
         <v>0</v>
@@ -13225,29 +13225,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="72"/>
-      <c r="G13" s="363" t="e">
+      <c r="G13" s="256" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="364"/>
+      <c r="H13" s="257"/>
       <c r="I13" s="99" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="456" t="s">
+      <c r="K13" s="452" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="457"/>
+      <c r="L13" s="453"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="375" t="s">
+      <c r="Q13" s="387" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="376"/>
+      <c r="R13" s="388"/>
     </row>
     <row r="14" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="104" t="s">
@@ -13266,11 +13266,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="346" t="e">
+      <c r="G14" s="276" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="347"/>
+      <c r="H14" s="277"/>
       <c r="I14" s="106" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -13285,16 +13285,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="375" t="s">
+      <c r="Q14" s="387" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="376"/>
+      <c r="R14" s="388"/>
     </row>
     <row r="15" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="411" t="s">
+      <c r="B15" s="407" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="436"/>
+      <c r="C15" s="408"/>
       <c r="D15" s="68">
         <f>Assumption!D15</f>
         <v>0</v>
@@ -13304,11 +13304,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="300" t="e">
+      <c r="G15" s="343" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="301"/>
+      <c r="H15" s="344"/>
       <c r="I15" s="111" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
@@ -13323,16 +13323,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="53"/>
-      <c r="Q15" s="375" t="s">
+      <c r="Q15" s="387" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="376"/>
+      <c r="R15" s="388"/>
     </row>
     <row r="16" spans="2:22" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="459" t="s">
+      <c r="B16" s="460" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="460"/>
+      <c r="C16" s="461"/>
       <c r="D16" s="58">
         <f>Assumption!D16</f>
         <v>0</v>
@@ -13345,18 +13345,18 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="429" t="e">
+      <c r="G16" s="414" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="430"/>
+      <c r="H16" s="415"/>
       <c r="I16" s="112" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="332"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="285"/>
       <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
@@ -13373,30 +13373,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="346" t="e">
+      <c r="G17" s="276" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="347"/>
+      <c r="H17" s="277"/>
       <c r="I17" s="106" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="290" t="s">
+      <c r="K17" s="258" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="291"/>
+      <c r="L17" s="386"/>
       <c r="M17" s="62">
         <f>Assumption!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="411" t="s">
+      <c r="B18" s="407" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="412"/>
+      <c r="C18" s="416"/>
       <c r="D18" s="68">
         <f>Assumption!D18</f>
         <v>0</v>
@@ -13406,18 +13406,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="300" t="e">
+      <c r="G18" s="343" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="301"/>
+      <c r="H18" s="344"/>
       <c r="I18" s="111" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="330"/>
-      <c r="L18" s="331"/>
+      <c r="K18" s="304"/>
+      <c r="L18" s="305"/>
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="2:19" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -13437,11 +13437,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="304" t="e">
+      <c r="G19" s="347" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="305"/>
+      <c r="H19" s="348"/>
       <c r="I19" s="120" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -13462,8 +13462,8 @@
       <c r="D20" s="125"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="458"/>
-      <c r="H20" s="458"/>
+      <c r="G20" s="462"/>
+      <c r="H20" s="462"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
@@ -13484,27 +13484,27 @@
       <c r="F21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="266" t="s">
+      <c r="G21" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="267"/>
+      <c r="H21" s="291"/>
       <c r="I21" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="419" t="s">
+      <c r="K21" s="421" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="420"/>
-      <c r="M21" s="415"/>
+      <c r="L21" s="422"/>
+      <c r="M21" s="423"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="417" t="s">
+      <c r="B22" s="409" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="418"/>
+      <c r="C22" s="420"/>
       <c r="D22" s="58">
         <f>Assumption!D22</f>
         <v>0</v>
@@ -13514,30 +13514,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="389" t="e">
+      <c r="G22" s="282" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="390"/>
+      <c r="H22" s="283"/>
       <c r="I22" s="112" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="131"/>
-      <c r="K22" s="394" t="s">
+      <c r="K22" s="448" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="395"/>
+      <c r="L22" s="449"/>
       <c r="M22" s="103">
         <f>Assumption!M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="409" t="s">
+      <c r="B23" s="419" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="410"/>
+      <c r="C23" s="435"/>
       <c r="D23" s="58">
         <f>Assumption!D23</f>
         <v>0</v>
@@ -13547,20 +13547,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="288" t="e">
+      <c r="G23" s="294" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="289"/>
+      <c r="H23" s="295"/>
       <c r="I23" s="106" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="131"/>
-      <c r="K23" s="306" t="s">
+      <c r="K23" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="332"/>
+      <c r="L23" s="285"/>
       <c r="M23" s="66">
         <f>Assumption!M23</f>
         <v>0</v>
@@ -13580,30 +13580,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="288" t="e">
+      <c r="G24" s="294" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="289"/>
+      <c r="H24" s="295"/>
       <c r="I24" s="106" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="131"/>
-      <c r="K24" s="306" t="s">
+      <c r="K24" s="284" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="332"/>
+      <c r="L24" s="285"/>
       <c r="M24" s="134">
         <f>Assumption!M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="409" t="s">
+      <c r="B25" s="419" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="416"/>
+      <c r="C25" s="434"/>
       <c r="D25" s="58">
         <f>Assumption!D25</f>
         <v>0</v>
@@ -13613,20 +13613,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="288" t="e">
+      <c r="G25" s="294" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="289"/>
+      <c r="H25" s="295"/>
       <c r="I25" s="106" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="131"/>
-      <c r="K25" s="330" t="s">
+      <c r="K25" s="304" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="331"/>
+      <c r="L25" s="305"/>
       <c r="M25" s="134">
         <f>Assumption!M25</f>
         <v>0</v>
@@ -13652,30 +13652,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="288" t="e">
+      <c r="G26" s="294" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="289"/>
+      <c r="H26" s="295"/>
       <c r="I26" s="106" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="425" t="s">
+      <c r="K26" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="426"/>
+      <c r="L26" s="428"/>
       <c r="M26" s="123">
         <f>Assumption!M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="409" t="s">
+      <c r="B27" s="419" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="418"/>
+      <c r="C27" s="420"/>
       <c r="D27" s="58">
         <f>Assumption!D27</f>
         <v>0</v>
@@ -13685,11 +13685,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="288" t="e">
+      <c r="G27" s="294" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="289"/>
+      <c r="H27" s="295"/>
       <c r="I27" s="106" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -13705,10 +13705,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="409" t="s">
+      <c r="B28" s="419" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="410"/>
+      <c r="C28" s="435"/>
       <c r="D28" s="58">
         <f>Assumption!D28</f>
         <v>0</v>
@@ -13718,11 +13718,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="288" t="e">
+      <c r="G28" s="294" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="289"/>
+      <c r="H28" s="295"/>
       <c r="I28" s="106" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -13733,10 +13733,10 @@
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="409" t="s">
+      <c r="B29" s="419" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="410"/>
+      <c r="C29" s="435"/>
       <c r="D29" s="58">
         <f>Assumption!D29</f>
         <v>0</v>
@@ -13746,11 +13746,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="G29" s="288" t="e">
+      <c r="G29" s="294" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="289"/>
+      <c r="H29" s="295"/>
       <c r="I29" s="106" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -13766,10 +13766,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="411" t="s">
+      <c r="B30" s="407" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="412"/>
+      <c r="C30" s="416"/>
       <c r="D30" s="70">
         <f>Assumption!D30</f>
         <v>0</v>
@@ -13779,11 +13779,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="302" t="e">
+      <c r="G30" s="345" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="303"/>
+      <c r="H30" s="346"/>
       <c r="I30" s="111" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -13811,34 +13811,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="413" t="e">
+      <c r="G31" s="450" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="414"/>
+      <c r="H31" s="451"/>
       <c r="I31" s="120" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="265" t="s">
+      <c r="K31" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="266"/>
-      <c r="M31" s="415"/>
+      <c r="L31" s="290"/>
+      <c r="M31" s="423"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="292" t="s">
+      <c r="B32" s="332" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="401">
+      <c r="C32" s="333"/>
+      <c r="D32" s="437">
         <f>Assumption!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="147"/>
-      <c r="F32" s="403">
+      <c r="F32" s="439">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -13857,11 +13857,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="294"/>
-      <c r="C33" s="295"/>
-      <c r="D33" s="402"/>
+      <c r="B33" s="334"/>
+      <c r="C33" s="335"/>
+      <c r="D33" s="438"/>
       <c r="E33" s="149"/>
-      <c r="F33" s="404"/>
+      <c r="F33" s="440"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -13877,10 +13877,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:20" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="452" t="s">
+      <c r="B34" s="456" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="453"/>
+      <c r="C34" s="457"/>
       <c r="D34" s="151">
         <f>Assumption!D34</f>
         <v>0</v>
@@ -13894,10 +13894,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="290" t="s">
+      <c r="K34" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="405"/>
+      <c r="L34" s="441"/>
       <c r="M34" s="134">
         <f>Assumption!M34</f>
         <v>0</v>
@@ -13932,10 +13932,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="321" t="s">
+      <c r="B36" s="309" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="397"/>
+      <c r="C36" s="442"/>
       <c r="D36" s="160">
         <f>Assumption!D36</f>
         <v>0</v>
@@ -13955,10 +13955,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="319" t="s">
+      <c r="B37" s="288" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="396"/>
+      <c r="C37" s="436"/>
       <c r="D37" s="160" t="e">
         <f>Assumption!D37</f>
         <v>#NUM!</v>
@@ -13969,23 +13969,23 @@
         <v>#NUM!</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="262" t="s">
+      <c r="H37" s="363" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="263"/>
-      <c r="J37" s="263"/>
-      <c r="K37" s="263"/>
-      <c r="L37" s="262" t="s">
+      <c r="I37" s="364"/>
+      <c r="J37" s="364"/>
+      <c r="K37" s="364"/>
+      <c r="L37" s="363" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="264"/>
+      <c r="M37" s="365"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="321" t="s">
+      <c r="B38" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="397"/>
+      <c r="C38" s="442"/>
       <c r="D38" s="160" t="e">
         <f>Assumption!D38</f>
         <v>#NUM!</v>
@@ -13996,18 +13996,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="406"/>
-      <c r="I38" s="407"/>
-      <c r="J38" s="407"/>
-      <c r="K38" s="408"/>
-      <c r="L38" s="406"/>
-      <c r="M38" s="427"/>
+      <c r="H38" s="431"/>
+      <c r="I38" s="443"/>
+      <c r="J38" s="443"/>
+      <c r="K38" s="444"/>
+      <c r="L38" s="431"/>
+      <c r="M38" s="432"/>
     </row>
     <row r="39" spans="2:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="319" t="s">
+      <c r="B39" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="396"/>
+      <c r="C39" s="436"/>
       <c r="D39" s="165" t="e">
         <f>Assumption!D39</f>
         <v>#NUM!</v>
@@ -14018,18 +14018,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="398"/>
-      <c r="I39" s="399"/>
-      <c r="J39" s="399"/>
-      <c r="K39" s="400"/>
-      <c r="L39" s="398"/>
-      <c r="M39" s="424"/>
+      <c r="H39" s="417"/>
+      <c r="I39" s="429"/>
+      <c r="J39" s="429"/>
+      <c r="K39" s="430"/>
+      <c r="L39" s="417"/>
+      <c r="M39" s="418"/>
     </row>
     <row r="40" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="319" t="s">
+      <c r="B40" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="396"/>
+      <c r="C40" s="436"/>
       <c r="D40" s="166" t="e">
         <f>Assumption!D40</f>
         <v>#NUM!</v>
@@ -14042,18 +14042,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="398"/>
-      <c r="I40" s="399"/>
-      <c r="J40" s="399"/>
-      <c r="K40" s="400"/>
-      <c r="L40" s="398"/>
-      <c r="M40" s="424"/>
+      <c r="H40" s="417"/>
+      <c r="I40" s="429"/>
+      <c r="J40" s="429"/>
+      <c r="K40" s="430"/>
+      <c r="L40" s="417"/>
+      <c r="M40" s="418"/>
     </row>
     <row r="41" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="319" t="s">
+      <c r="B41" s="288" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="396"/>
+      <c r="C41" s="436"/>
       <c r="D41" s="66" t="e">
         <f>Assumption!D41</f>
         <v>#DIV/0!</v>
@@ -14066,18 +14066,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="398"/>
-      <c r="I41" s="399"/>
-      <c r="J41" s="399"/>
-      <c r="K41" s="400"/>
-      <c r="L41" s="398"/>
-      <c r="M41" s="424"/>
+      <c r="H41" s="417"/>
+      <c r="I41" s="429"/>
+      <c r="J41" s="429"/>
+      <c r="K41" s="430"/>
+      <c r="L41" s="417"/>
+      <c r="M41" s="418"/>
     </row>
     <row r="42" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="319" t="s">
+      <c r="B42" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="396"/>
+      <c r="C42" s="436"/>
       <c r="D42" s="170" t="e">
         <f>Assumption!D42</f>
         <v>#NUM!</v>
@@ -14093,18 +14093,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="398"/>
-      <c r="I42" s="399"/>
-      <c r="J42" s="399"/>
-      <c r="K42" s="400"/>
-      <c r="L42" s="398"/>
-      <c r="M42" s="424"/>
+      <c r="H42" s="417"/>
+      <c r="I42" s="429"/>
+      <c r="J42" s="429"/>
+      <c r="K42" s="430"/>
+      <c r="L42" s="417"/>
+      <c r="M42" s="418"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B43" s="319" t="s">
+      <c r="B43" s="288" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="320"/>
+      <c r="C43" s="289"/>
       <c r="D43" s="155" t="e">
         <f>Assumption!D43</f>
         <v>#NUM!</v>
@@ -14115,18 +14115,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="398"/>
-      <c r="I43" s="399"/>
-      <c r="J43" s="399"/>
-      <c r="K43" s="400"/>
-      <c r="L43" s="398"/>
-      <c r="M43" s="424"/>
+      <c r="H43" s="417"/>
+      <c r="I43" s="429"/>
+      <c r="J43" s="429"/>
+      <c r="K43" s="430"/>
+      <c r="L43" s="417"/>
+      <c r="M43" s="418"/>
     </row>
     <row r="44" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="344" t="s">
+      <c r="B44" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="345"/>
+      <c r="C44" s="287"/>
       <c r="D44" s="175" t="e">
         <f>Assumption!D44</f>
         <v>#NUM!</v>
@@ -14137,12 +14137,12 @@
         <v>#NUM!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="421"/>
-      <c r="I44" s="422"/>
-      <c r="J44" s="422"/>
-      <c r="K44" s="423"/>
-      <c r="L44" s="421"/>
-      <c r="M44" s="428"/>
+      <c r="H44" s="424"/>
+      <c r="I44" s="425"/>
+      <c r="J44" s="425"/>
+      <c r="K44" s="426"/>
+      <c r="L44" s="424"/>
+      <c r="M44" s="433"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -14170,6 +14170,88 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="97">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="B2:M2"/>
@@ -14185,88 +14267,6 @@
     <mergeCell ref="P6:T6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:M7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:M44"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">

--- a/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting.xlsx
+++ b/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Personal\MultiFamilyPortal\src\theme\MultiFamilyPortal.AdminTheme\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC4141B-DE6B-4ABD-AA83-32D4506DC66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEAAD96-2CBD-467F-BDEF-67DB79191973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="21600" windowHeight="11453" tabRatio="693" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Acqusition-NF" sheetId="1" r:id="rId3"/>
     <sheet name="Year 1 Projection - NF" sheetId="8" r:id="rId4"/>
     <sheet name="Assumption" sheetId="9" r:id="rId5"/>
-    <sheet name=" Year 1 Project - Assume" sheetId="11" r:id="rId6"/>
+    <sheet name="Year 1 Project - Assume" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5173,161 +5173,216 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -5414,363 +5469,316 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -5778,24 +5786,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8050,27 +8050,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="301" t="s">
+      <c r="B2" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
-      <c r="H2" s="302"/>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302"/>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="303"/>
-      <c r="P2" s="366" t="s">
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="320"/>
+      <c r="P2" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="367"/>
-      <c r="S2" s="367"/>
-      <c r="T2" s="368"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8094,11 +8094,11 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="260" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="290"/>
-      <c r="D4" s="291"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="262"/>
       <c r="E4" s="94" t="s">
         <v>111</v>
       </c>
@@ -8110,54 +8110,54 @@
       <c r="K4" s="181"/>
       <c r="L4" s="181"/>
       <c r="M4" s="182"/>
-      <c r="P4" s="369" t="s">
+      <c r="P4" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="370"/>
-      <c r="S4" s="370"/>
-      <c r="T4" s="371"/>
+      <c r="Q4" s="267"/>
+      <c r="R4" s="267"/>
+      <c r="S4" s="267"/>
+      <c r="T4" s="268"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="322"/>
-      <c r="D5" s="323"/>
+      <c r="C5" s="337"/>
+      <c r="D5" s="338"/>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="185"/>
       <c r="H5" s="185"/>
       <c r="I5" s="186"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="306" t="s">
+      <c r="K5" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="290"/>
-      <c r="M5" s="291"/>
-      <c r="P5" s="372" t="s">
+      <c r="L5" s="261"/>
+      <c r="M5" s="262"/>
+      <c r="P5" s="269" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="373"/>
-      <c r="R5" s="373"/>
-      <c r="S5" s="373"/>
-      <c r="T5" s="374"/>
+      <c r="Q5" s="270"/>
+      <c r="R5" s="270"/>
+      <c r="S5" s="270"/>
+      <c r="T5" s="271"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="288" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="315"/>
+      <c r="C6" s="330"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="324" t="s">
+      <c r="E6" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="352" t="s">
+      <c r="F6" s="340"/>
+      <c r="G6" s="340"/>
+      <c r="H6" s="341"/>
+      <c r="I6" s="300" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="89"/>
@@ -8166,26 +8166,26 @@
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="33"/>
-      <c r="P6" s="375" t="s">
+      <c r="P6" s="272" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="376"/>
-      <c r="R6" s="376"/>
-      <c r="S6" s="376"/>
-      <c r="T6" s="377"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="273"/>
+      <c r="S6" s="273"/>
+      <c r="T6" s="274"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="258" t="s">
+      <c r="B7" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="259"/>
+      <c r="C7" s="302"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="327"/>
-      <c r="F7" s="328"/>
-      <c r="G7" s="328"/>
-      <c r="H7" s="329"/>
-      <c r="I7" s="353"/>
+      <c r="E7" s="342"/>
+      <c r="F7" s="343"/>
+      <c r="G7" s="343"/>
+      <c r="H7" s="344"/>
+      <c r="I7" s="301"/>
       <c r="J7" s="89"/>
       <c r="K7" s="189" t="s">
         <v>96</v>
@@ -8205,22 +8205,22 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="288" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="259"/>
+      <c r="C8" s="302"/>
       <c r="D8" s="191" t="e">
         <f>D7/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="330" t="s">
+      <c r="E8" s="345" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="331"/>
-      <c r="G8" s="354">
-        <v>0</v>
-      </c>
-      <c r="H8" s="355"/>
+      <c r="F8" s="346"/>
+      <c r="G8" s="306">
+        <v>0</v>
+      </c>
+      <c r="H8" s="307"/>
       <c r="I8" s="65" t="e">
         <f>G8/G10</f>
         <v>#DIV/0!</v>
@@ -8236,19 +8236,19 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="258" t="s">
+      <c r="B9" s="288" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="259"/>
+      <c r="C9" s="302"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="358" t="s">
+      <c r="E9" s="316" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="359"/>
-      <c r="G9" s="338">
-        <v>0</v>
-      </c>
-      <c r="H9" s="339"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="353">
+        <v>0</v>
+      </c>
+      <c r="H9" s="354"/>
       <c r="I9" s="66" t="e">
         <f>G9/G10</f>
         <v>#DIV/0!</v>
@@ -8259,22 +8259,22 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="350" t="s">
+      <c r="B10" s="298" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="351"/>
+      <c r="C10" s="299"/>
       <c r="D10" s="196" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="316" t="s">
+      <c r="E10" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="317"/>
-      <c r="G10" s="318">
-        <v>0</v>
-      </c>
-      <c r="H10" s="319"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="333">
+        <v>0</v>
+      </c>
+      <c r="H10" s="334"/>
       <c r="I10" s="197" t="s">
         <v>16</v>
       </c>
@@ -8282,13 +8282,13 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="90"/>
-      <c r="P10" s="378" t="s">
+      <c r="P10" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="379"/>
-      <c r="R10" s="379"/>
-      <c r="S10" s="379"/>
-      <c r="T10" s="380"/>
+      <c r="Q10" s="276"/>
+      <c r="R10" s="276"/>
+      <c r="S10" s="276"/>
+      <c r="T10" s="277"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="198"/>
@@ -8303,11 +8303,11 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="90"/>
-      <c r="P11" s="381"/>
-      <c r="Q11" s="382"/>
-      <c r="R11" s="382"/>
-      <c r="S11" s="382"/>
-      <c r="T11" s="383"/>
+      <c r="P11" s="278"/>
+      <c r="Q11" s="279"/>
+      <c r="R11" s="279"/>
+      <c r="S11" s="279"/>
+      <c r="T11" s="280"/>
     </row>
     <row r="12" spans="2:21" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="91" t="s">
@@ -8323,23 +8323,23 @@
       <c r="F12" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="290" t="s">
+      <c r="G12" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="291"/>
+      <c r="H12" s="262"/>
       <c r="I12" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="306" t="s">
+      <c r="K12" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="290"/>
-      <c r="M12" s="291"/>
-      <c r="P12" s="266" t="s">
+      <c r="L12" s="261"/>
+      <c r="M12" s="262"/>
+      <c r="P12" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="267"/>
+      <c r="Q12" s="295"/>
       <c r="R12" s="29" t="s">
         <v>29</v>
       </c>
@@ -8351,38 +8351,38 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="254" t="s">
+      <c r="B13" s="364" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="255"/>
+      <c r="C13" s="368"/>
       <c r="D13" s="37"/>
       <c r="E13" s="130" t="e">
         <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="256" t="e">
+      <c r="G13" s="369" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="257"/>
+      <c r="H13" s="370"/>
       <c r="I13" s="200" t="e">
         <f>D13/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="307" t="s">
+      <c r="K13" s="324" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="308"/>
+      <c r="L13" s="325"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P13" s="268" t="s">
+      <c r="P13" s="377" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="269"/>
+      <c r="Q13" s="378"/>
       <c r="R13" s="11" t="e">
         <f t="shared" ref="R13:R19" si="0">E22</f>
         <v>#DIV/0!</v>
@@ -8409,11 +8409,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="276" t="e">
+      <c r="G14" s="359" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="277"/>
+      <c r="H14" s="360"/>
       <c r="I14" s="202" t="e">
         <f>D14/D13</f>
         <v>#DIV/0!</v>
@@ -8424,10 +8424,10 @@
       </c>
       <c r="L14" s="201"/>
       <c r="M14" s="40"/>
-      <c r="P14" s="262" t="s">
+      <c r="P14" s="373" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="263"/>
+      <c r="Q14" s="374"/>
       <c r="R14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8444,35 +8444,35 @@
       <c r="B15" s="296" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="349"/>
+      <c r="C15" s="297"/>
       <c r="D15" s="41"/>
       <c r="E15" s="105" t="e">
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="276" t="e">
+      <c r="G15" s="359" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="277"/>
+      <c r="H15" s="360"/>
       <c r="I15" s="202" t="e">
         <f>D15/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="320" t="s">
+      <c r="K15" s="335" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="321"/>
+      <c r="L15" s="336"/>
       <c r="M15" s="134">
         <f>M13*M14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="262" t="s">
+      <c r="P15" s="373" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="263"/>
+      <c r="Q15" s="374"/>
       <c r="R15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8486,10 +8486,10 @@
       </c>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="274" t="s">
+      <c r="B16" s="383" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="275"/>
+      <c r="C16" s="384"/>
       <c r="D16" s="243">
         <f>D13-D14-D15</f>
         <v>0</v>
@@ -8502,28 +8502,28 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="292" t="e">
+      <c r="G16" s="361" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="293"/>
+      <c r="H16" s="362"/>
       <c r="I16" s="202" t="e">
         <f>D16/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="284" t="s">
+      <c r="K16" s="303" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="285"/>
+      <c r="L16" s="323"/>
       <c r="M16" s="134">
         <f>M13-M15</f>
         <v>0</v>
       </c>
-      <c r="P16" s="262" t="s">
+      <c r="P16" s="373" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="263"/>
+      <c r="Q16" s="374"/>
       <c r="R16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8547,25 +8547,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="276" t="e">
+      <c r="G17" s="359" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="277"/>
+      <c r="H17" s="360"/>
       <c r="I17" s="202" t="e">
         <f>D17/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="284" t="s">
+      <c r="K17" s="303" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="285"/>
+      <c r="L17" s="323"/>
       <c r="M17" s="43"/>
-      <c r="P17" s="262" t="s">
+      <c r="P17" s="373" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="263"/>
+      <c r="Q17" s="374"/>
       <c r="R17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8582,34 +8582,34 @@
       <c r="B18" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="297"/>
+      <c r="C18" s="305"/>
       <c r="D18" s="41"/>
       <c r="E18" s="109" t="e">
         <f>D18/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="343" t="e">
+      <c r="G18" s="355" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="344"/>
+      <c r="H18" s="356"/>
       <c r="I18" s="203" t="e">
         <f>D18/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="304" t="s">
+      <c r="K18" s="321" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="305"/>
+      <c r="L18" s="322"/>
       <c r="M18" s="44">
         <v>30</v>
       </c>
-      <c r="P18" s="262" t="s">
+      <c r="P18" s="373" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="263"/>
+      <c r="Q18" s="374"/>
       <c r="R18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8639,11 +8639,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="347" t="e">
+      <c r="G19" s="314" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="348"/>
+      <c r="H19" s="315"/>
       <c r="I19" s="208" t="e">
         <f>D19/D13</f>
         <v>#DIV/0!</v>
@@ -8657,19 +8657,19 @@
         <f>PMT((M17/12),(12*M18),-M16)*12</f>
         <v>0</v>
       </c>
-      <c r="P19" s="278" t="s">
+      <c r="P19" s="385" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="279"/>
-      <c r="R19" s="270" t="e">
+      <c r="Q19" s="386"/>
+      <c r="R19" s="379" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="272" t="e">
+      <c r="S19" s="381" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="260" t="s">
+      <c r="T19" s="371" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8679,18 +8679,18 @@
       <c r="D20" s="210"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="314"/>
-      <c r="H20" s="314"/>
+      <c r="G20" s="329"/>
+      <c r="H20" s="329"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="90"/>
-      <c r="P20" s="280"/>
-      <c r="Q20" s="281"/>
-      <c r="R20" s="271"/>
-      <c r="S20" s="273"/>
-      <c r="T20" s="261"/>
+      <c r="P20" s="387"/>
+      <c r="Q20" s="388"/>
+      <c r="R20" s="380"/>
+      <c r="S20" s="382"/>
+      <c r="T20" s="372"/>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="128" t="s">
@@ -8706,25 +8706,25 @@
       <c r="F21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="290" t="s">
+      <c r="G21" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="291"/>
+      <c r="H21" s="262"/>
       <c r="I21" s="94" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="306" t="s">
+      <c r="K21" s="260" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="290"/>
-      <c r="M21" s="291"/>
+      <c r="L21" s="261"/>
+      <c r="M21" s="262"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="262" t="s">
+      <c r="P21" s="373" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="263"/>
+      <c r="Q21" s="374"/>
       <c r="R21" s="13" t="e">
         <f>E29</f>
         <v>#DIV/0!</v>
@@ -8738,21 +8738,21 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="254" t="s">
+      <c r="B22" s="364" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="300"/>
+      <c r="C22" s="365"/>
       <c r="D22" s="37"/>
       <c r="E22" s="130" t="e">
         <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="282" t="e">
+      <c r="G22" s="389" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="283"/>
+      <c r="H22" s="390"/>
       <c r="I22" s="200" t="e">
         <f>D22/D13</f>
         <v>#DIV/0!</v>
@@ -8768,10 +8768,10 @@
         <f>L22*M13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="264" t="s">
+      <c r="P22" s="375" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="265"/>
+      <c r="Q22" s="376"/>
       <c r="R22" s="237" t="e">
         <f>E30</f>
         <v>#DIV/0!</v>
@@ -8785,21 +8785,21 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="284" t="s">
+      <c r="B23" s="303" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="298"/>
+      <c r="C23" s="304"/>
       <c r="D23" s="36"/>
       <c r="E23" s="105" t="e">
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="294" t="e">
+      <c r="G23" s="286" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="295"/>
+      <c r="H23" s="287"/>
       <c r="I23" s="202" t="e">
         <f>D23/D13</f>
         <v>#DIV/0!</v>
@@ -8812,10 +8812,10 @@
       <c r="M23" s="46">
         <v>0.01</v>
       </c>
-      <c r="P23" s="389" t="s">
+      <c r="P23" s="292" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="389"/>
+      <c r="Q23" s="292"/>
       <c r="R23" s="240">
         <f>D34</f>
         <v>0</v>
@@ -8839,11 +8839,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="294" t="e">
+      <c r="G24" s="286" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="295"/>
+      <c r="H24" s="287"/>
       <c r="I24" s="202" t="e">
         <f>D24/D13</f>
         <v>#DIV/0!</v>
@@ -8859,21 +8859,21 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="284" t="s">
+      <c r="B25" s="303" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="299"/>
+      <c r="C25" s="363"/>
       <c r="D25" s="36"/>
       <c r="E25" s="133" t="e">
         <f>D25/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="294" t="e">
+      <c r="G25" s="286" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="295"/>
+      <c r="H25" s="287"/>
       <c r="I25" s="202" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
@@ -8904,43 +8904,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="294" t="e">
+      <c r="G26" s="286" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="295"/>
+      <c r="H26" s="287"/>
       <c r="I26" s="202" t="e">
         <f>D26/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="384" t="s">
+      <c r="K26" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="385"/>
+      <c r="L26" s="282"/>
       <c r="M26" s="47"/>
-      <c r="P26" s="266" t="s">
+      <c r="P26" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="390"/>
-      <c r="R26" s="267"/>
+      <c r="Q26" s="294"/>
+      <c r="R26" s="295"/>
     </row>
     <row r="27" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="284" t="s">
+      <c r="B27" s="303" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="300"/>
+      <c r="C27" s="365"/>
       <c r="D27" s="36"/>
       <c r="E27" s="105" t="e">
         <f>D27/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="294" t="e">
+      <c r="G27" s="286" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="295"/>
+      <c r="H27" s="287"/>
       <c r="I27" s="202" t="e">
         <f>D27/D13</f>
         <v>#DIV/0!</v>
@@ -8955,27 +8955,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="387" t="s">
+      <c r="Q27" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="388"/>
+      <c r="R27" s="291"/>
     </row>
     <row r="28" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="284" t="s">
+      <c r="B28" s="303" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="298"/>
+      <c r="C28" s="304"/>
       <c r="D28" s="36"/>
       <c r="E28" s="105" t="e">
         <f>D28/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="294" t="e">
+      <c r="G28" s="286" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="295"/>
+      <c r="H28" s="287"/>
       <c r="I28" s="202" t="e">
         <f>D28/D13</f>
         <v>#DIV/0!</v>
@@ -8985,27 +8985,27 @@
       <c r="L28" s="174"/>
       <c r="M28" s="141"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="387" t="s">
+      <c r="Q28" s="290" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="388"/>
+      <c r="R28" s="291"/>
     </row>
     <row r="29" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="284" t="s">
+      <c r="B29" s="303" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="298"/>
+      <c r="C29" s="304"/>
       <c r="D29" s="36"/>
       <c r="E29" s="105" t="e">
         <f>D29/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="294" t="e">
+      <c r="G29" s="286" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="295"/>
+      <c r="H29" s="287"/>
       <c r="I29" s="202" t="e">
         <f>D29/D13</f>
         <v>#DIV/0!</v>
@@ -9020,27 +9020,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="53"/>
-      <c r="Q29" s="387" t="s">
+      <c r="Q29" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="388"/>
+      <c r="R29" s="291"/>
     </row>
     <row r="30" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="296" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="297"/>
+      <c r="C30" s="305"/>
       <c r="D30" s="41"/>
       <c r="E30" s="109" t="e">
         <f>D30/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="345" t="e">
+      <c r="G30" s="366" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="346"/>
+      <c r="H30" s="367"/>
       <c r="I30" s="203" t="e">
         <f>D30/D13</f>
         <v>#DIV/0!</v>
@@ -9068,34 +9068,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="347" t="e">
+      <c r="G31" s="314" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="348"/>
+      <c r="H31" s="315"/>
       <c r="I31" s="208" t="e">
         <f>D31/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="306" t="s">
+      <c r="K31" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="290"/>
-      <c r="M31" s="291"/>
+      <c r="L31" s="261"/>
+      <c r="M31" s="262"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="332" t="s">
+      <c r="B32" s="347" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="333"/>
-      <c r="D32" s="336">
+      <c r="C32" s="348"/>
+      <c r="D32" s="351">
         <f>D19-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="217"/>
-      <c r="F32" s="336">
+      <c r="F32" s="351">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -9111,11 +9111,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="334"/>
-      <c r="C33" s="335"/>
-      <c r="D33" s="337"/>
+      <c r="B33" s="349"/>
+      <c r="C33" s="350"/>
+      <c r="D33" s="352"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="337"/>
+      <c r="F33" s="352"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -9128,10 +9128,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="356" t="s">
+      <c r="B34" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="357"/>
+      <c r="C34" s="313"/>
       <c r="D34" s="151">
         <f>D6*E34</f>
         <v>0</v>
@@ -9147,10 +9147,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="258" t="s">
+      <c r="K34" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="386"/>
+      <c r="L34" s="289"/>
       <c r="M34" s="44">
         <v>250</v>
       </c>
@@ -9185,10 +9185,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="309" t="s">
+      <c r="B36" s="310" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="310"/>
+      <c r="C36" s="311"/>
       <c r="D36" s="155">
         <f>M19</f>
         <v>0</v>
@@ -9208,10 +9208,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="288" t="s">
+      <c r="B37" s="308" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="289"/>
+      <c r="C37" s="309"/>
       <c r="D37" s="220">
         <f>M35</f>
         <v>0</v>
@@ -9222,21 +9222,21 @@
         <v>0</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="363" t="s">
+      <c r="H37" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="364"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="364"/>
-      <c r="L37" s="364"/>
-      <c r="M37" s="365"/>
+      <c r="I37" s="258"/>
+      <c r="J37" s="258"/>
+      <c r="K37" s="258"/>
+      <c r="L37" s="258"/>
+      <c r="M37" s="259"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="309" t="s">
+      <c r="B38" s="310" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="310"/>
+      <c r="C38" s="311"/>
       <c r="D38" s="155">
         <f>(D35-D36-D37)</f>
         <v>0</v>
@@ -9247,18 +9247,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="311"/>
-      <c r="I38" s="312"/>
-      <c r="J38" s="312"/>
-      <c r="K38" s="312"/>
-      <c r="L38" s="312"/>
-      <c r="M38" s="313"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="327"/>
+      <c r="J38" s="327"/>
+      <c r="K38" s="327"/>
+      <c r="L38" s="327"/>
+      <c r="M38" s="328"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="288" t="s">
+      <c r="B39" s="308" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="289"/>
+      <c r="C39" s="309"/>
       <c r="D39" s="165" t="e">
         <f>D38/M29</f>
         <v>#DIV/0!</v>
@@ -9269,18 +9269,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="340"/>
-      <c r="I39" s="341"/>
-      <c r="J39" s="341"/>
-      <c r="K39" s="341"/>
-      <c r="L39" s="341"/>
-      <c r="M39" s="342"/>
+      <c r="H39" s="283"/>
+      <c r="I39" s="284"/>
+      <c r="J39" s="284"/>
+      <c r="K39" s="284"/>
+      <c r="L39" s="284"/>
+      <c r="M39" s="285"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="288" t="s">
+      <c r="B40" s="308" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="289"/>
+      <c r="C40" s="309"/>
       <c r="D40" s="221" t="e">
         <f>D35/(D36+D37)</f>
         <v>#DIV/0!</v>
@@ -9293,18 +9293,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="340"/>
-      <c r="I40" s="341"/>
-      <c r="J40" s="341"/>
-      <c r="K40" s="341"/>
-      <c r="L40" s="341"/>
-      <c r="M40" s="342"/>
+      <c r="H40" s="283"/>
+      <c r="I40" s="284"/>
+      <c r="J40" s="284"/>
+      <c r="K40" s="284"/>
+      <c r="L40" s="284"/>
+      <c r="M40" s="285"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="288" t="s">
+      <c r="B41" s="308" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="289"/>
+      <c r="C41" s="309"/>
       <c r="D41" s="165" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -9317,18 +9317,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="340"/>
-      <c r="I41" s="341"/>
-      <c r="J41" s="341"/>
-      <c r="K41" s="341"/>
-      <c r="L41" s="341"/>
-      <c r="M41" s="342"/>
+      <c r="H41" s="283"/>
+      <c r="I41" s="284"/>
+      <c r="J41" s="284"/>
+      <c r="K41" s="284"/>
+      <c r="L41" s="284"/>
+      <c r="M41" s="285"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="288" t="s">
+      <c r="B42" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="289"/>
+      <c r="C42" s="309"/>
       <c r="D42" s="155">
         <f>D38*E42</f>
         <v>0</v>
@@ -9343,18 +9343,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="340"/>
-      <c r="I42" s="341"/>
-      <c r="J42" s="341"/>
-      <c r="K42" s="341"/>
-      <c r="L42" s="341"/>
-      <c r="M42" s="342"/>
+      <c r="H42" s="283"/>
+      <c r="I42" s="284"/>
+      <c r="J42" s="284"/>
+      <c r="K42" s="284"/>
+      <c r="L42" s="284"/>
+      <c r="M42" s="285"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="288" t="s">
+      <c r="B43" s="308" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="289"/>
+      <c r="C43" s="309"/>
       <c r="D43" s="155">
         <f>D38-D42</f>
         <v>0</v>
@@ -9365,18 +9365,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="340"/>
-      <c r="I43" s="341"/>
-      <c r="J43" s="341"/>
-      <c r="K43" s="341"/>
-      <c r="L43" s="341"/>
-      <c r="M43" s="342"/>
+      <c r="H43" s="283"/>
+      <c r="I43" s="284"/>
+      <c r="J43" s="284"/>
+      <c r="K43" s="284"/>
+      <c r="L43" s="284"/>
+      <c r="M43" s="285"/>
     </row>
     <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="286" t="s">
+      <c r="B44" s="357" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="287"/>
+      <c r="C44" s="358"/>
       <c r="D44" s="175" t="e">
         <f>D43/M29</f>
         <v>#DIV/0!</v>
@@ -9387,12 +9387,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="360"/>
-      <c r="I44" s="361"/>
-      <c r="J44" s="361"/>
-      <c r="K44" s="361"/>
-      <c r="L44" s="361"/>
-      <c r="M44" s="362"/>
+      <c r="H44" s="254"/>
+      <c r="I44" s="255"/>
+      <c r="J44" s="255"/>
+      <c r="K44" s="255"/>
+      <c r="L44" s="255"/>
+      <c r="M44" s="256"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -9419,64 +9419,19 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="102">
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P10:T11"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B42:C42"/>
@@ -9501,26 +9456,71 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="H43:M43"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="P19:Q20"/>
     <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P10:T11"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -9710,7 +9710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:U46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -9740,27 +9740,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="301" t="s">
+      <c r="B2" s="318" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
-      <c r="H2" s="302"/>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302"/>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="303"/>
-      <c r="P2" s="366" t="s">
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="320"/>
+      <c r="P2" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="367"/>
-      <c r="S2" s="367"/>
-      <c r="T2" s="368"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9784,103 +9784,103 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="260" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="290"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="393" t="s">
+      <c r="C4" s="261"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="446" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="394"/>
-      <c r="G4" s="394"/>
-      <c r="H4" s="394"/>
-      <c r="I4" s="394"/>
-      <c r="J4" s="394"/>
-      <c r="K4" s="394"/>
-      <c r="L4" s="394"/>
-      <c r="M4" s="395"/>
-      <c r="P4" s="372" t="s">
+      <c r="F4" s="447"/>
+      <c r="G4" s="447"/>
+      <c r="H4" s="447"/>
+      <c r="I4" s="447"/>
+      <c r="J4" s="447"/>
+      <c r="K4" s="447"/>
+      <c r="L4" s="447"/>
+      <c r="M4" s="448"/>
+      <c r="P4" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="373"/>
-      <c r="R4" s="373"/>
-      <c r="S4" s="373"/>
-      <c r="T4" s="374"/>
+      <c r="Q4" s="270"/>
+      <c r="R4" s="270"/>
+      <c r="S4" s="270"/>
+      <c r="T4" s="271"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="391">
+      <c r="C5" s="444">
         <f>'Acqusition-NF'!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="392"/>
-      <c r="E5" s="396"/>
-      <c r="F5" s="397"/>
-      <c r="G5" s="397"/>
-      <c r="H5" s="397"/>
-      <c r="I5" s="397"/>
-      <c r="J5" s="397"/>
-      <c r="K5" s="397"/>
-      <c r="L5" s="397"/>
-      <c r="M5" s="398"/>
-      <c r="P5" s="372" t="s">
+      <c r="D5" s="445"/>
+      <c r="E5" s="449"/>
+      <c r="F5" s="450"/>
+      <c r="G5" s="450"/>
+      <c r="H5" s="450"/>
+      <c r="I5" s="450"/>
+      <c r="J5" s="450"/>
+      <c r="K5" s="450"/>
+      <c r="L5" s="450"/>
+      <c r="M5" s="451"/>
+      <c r="P5" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="373"/>
-      <c r="R5" s="373"/>
-      <c r="S5" s="373"/>
-      <c r="T5" s="374"/>
+      <c r="Q5" s="270"/>
+      <c r="R5" s="270"/>
+      <c r="S5" s="270"/>
+      <c r="T5" s="271"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="399" t="s">
+      <c r="B6" s="441" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="400"/>
+      <c r="C6" s="443"/>
       <c r="D6" s="57">
         <f>'Acqusition-NF'!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="446"/>
-      <c r="G6" s="446"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="446"/>
-      <c r="J6" s="446"/>
-      <c r="K6" s="446"/>
-      <c r="L6" s="446"/>
-      <c r="M6" s="447"/>
-      <c r="P6" s="375" t="s">
+      <c r="E6" s="398"/>
+      <c r="F6" s="399"/>
+      <c r="G6" s="399"/>
+      <c r="H6" s="399"/>
+      <c r="I6" s="399"/>
+      <c r="J6" s="399"/>
+      <c r="K6" s="399"/>
+      <c r="L6" s="399"/>
+      <c r="M6" s="400"/>
+      <c r="P6" s="272" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="376"/>
-      <c r="R6" s="376"/>
-      <c r="S6" s="376"/>
-      <c r="T6" s="377"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="273"/>
+      <c r="S6" s="273"/>
+      <c r="T6" s="274"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="399" t="s">
+      <c r="B7" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="401"/>
+      <c r="C7" s="442"/>
       <c r="D7" s="58">
         <f>'Acqusition-NF'!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="445"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="446"/>
-      <c r="I7" s="446"/>
-      <c r="J7" s="446"/>
-      <c r="K7" s="446"/>
-      <c r="L7" s="446"/>
-      <c r="M7" s="447"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="399"/>
+      <c r="H7" s="399"/>
+      <c r="I7" s="399"/>
+      <c r="J7" s="399"/>
+      <c r="K7" s="399"/>
+      <c r="L7" s="399"/>
+      <c r="M7" s="400"/>
       <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
@@ -9891,61 +9891,61 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="399" t="s">
+      <c r="B8" s="441" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="401"/>
+      <c r="C8" s="442"/>
       <c r="D8" s="58" t="e">
         <f>'Acqusition-NF'!D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="402"/>
-      <c r="F8" s="403"/>
-      <c r="G8" s="403"/>
-      <c r="H8" s="403"/>
-      <c r="I8" s="403"/>
-      <c r="J8" s="403"/>
-      <c r="K8" s="403"/>
-      <c r="L8" s="403"/>
-      <c r="M8" s="404"/>
+      <c r="E8" s="433"/>
+      <c r="F8" s="434"/>
+      <c r="G8" s="434"/>
+      <c r="H8" s="434"/>
+      <c r="I8" s="434"/>
+      <c r="J8" s="434"/>
+      <c r="K8" s="434"/>
+      <c r="L8" s="434"/>
+      <c r="M8" s="435"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="399" t="s">
+      <c r="B9" s="441" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="401"/>
+      <c r="C9" s="442"/>
       <c r="D9" s="59">
         <f>'Acqusition-NF'!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="402"/>
-      <c r="F9" s="403"/>
-      <c r="G9" s="403"/>
-      <c r="H9" s="403"/>
-      <c r="I9" s="403"/>
-      <c r="J9" s="403"/>
-      <c r="K9" s="403"/>
-      <c r="L9" s="403"/>
-      <c r="M9" s="404"/>
+      <c r="E9" s="433"/>
+      <c r="F9" s="434"/>
+      <c r="G9" s="434"/>
+      <c r="H9" s="434"/>
+      <c r="I9" s="434"/>
+      <c r="J9" s="434"/>
+      <c r="K9" s="434"/>
+      <c r="L9" s="434"/>
+      <c r="M9" s="435"/>
     </row>
     <row r="10" spans="2:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="405" t="s">
+      <c r="B10" s="431" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="406"/>
+      <c r="C10" s="432"/>
       <c r="D10" s="60" t="e">
         <f>'Acqusition-NF'!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="411"/>
-      <c r="F10" s="412"/>
-      <c r="G10" s="412"/>
-      <c r="H10" s="412"/>
-      <c r="I10" s="412"/>
-      <c r="J10" s="412"/>
-      <c r="K10" s="412"/>
-      <c r="L10" s="412"/>
-      <c r="M10" s="413"/>
+      <c r="E10" s="438"/>
+      <c r="F10" s="439"/>
+      <c r="G10" s="439"/>
+      <c r="H10" s="439"/>
+      <c r="I10" s="439"/>
+      <c r="J10" s="439"/>
+      <c r="K10" s="439"/>
+      <c r="L10" s="439"/>
+      <c r="M10" s="440"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="85"/>
@@ -9975,30 +9975,30 @@
       <c r="F12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="290" t="s">
+      <c r="G12" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="291"/>
+      <c r="H12" s="262"/>
       <c r="I12" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="306" t="s">
+      <c r="K12" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="290"/>
-      <c r="M12" s="291"/>
-      <c r="P12" s="266" t="s">
+      <c r="L12" s="261"/>
+      <c r="M12" s="262"/>
+      <c r="P12" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="390"/>
-      <c r="R12" s="267"/>
+      <c r="Q12" s="294"/>
+      <c r="R12" s="295"/>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="409" t="s">
+      <c r="B13" s="428" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="410"/>
+      <c r="C13" s="437"/>
       <c r="D13" s="58">
         <f>'Acqusition-NF'!D13</f>
         <v>0</v>
@@ -10008,29 +10008,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="54"/>
-      <c r="G13" s="256" t="e">
+      <c r="G13" s="369" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="257"/>
+      <c r="H13" s="370"/>
       <c r="I13" s="112" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="307" t="s">
+      <c r="K13" s="324" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="308"/>
+      <c r="L13" s="325"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="387" t="s">
+      <c r="Q13" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="388"/>
+      <c r="R13" s="291"/>
     </row>
     <row r="14" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="104" t="s">
@@ -10049,11 +10049,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="276" t="e">
+      <c r="G14" s="359" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="277"/>
+      <c r="H14" s="360"/>
       <c r="I14" s="106" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -10068,16 +10068,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="387" t="s">
+      <c r="Q14" s="290" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="388"/>
+      <c r="R14" s="291"/>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="407" t="s">
+      <c r="B15" s="394" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="408"/>
+      <c r="C15" s="436"/>
       <c r="D15" s="68">
         <f>'Acqusition-NF'!D15</f>
         <v>0</v>
@@ -10087,29 +10087,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="343" t="e">
+      <c r="G15" s="355" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="344"/>
+      <c r="H15" s="356"/>
       <c r="I15" s="111" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="320" t="s">
+      <c r="K15" s="335" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="321"/>
+      <c r="L15" s="336"/>
       <c r="M15" s="62">
         <f>M13*M14</f>
         <v>0</v>
       </c>
       <c r="P15" s="53"/>
-      <c r="Q15" s="387" t="s">
+      <c r="Q15" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="388"/>
+      <c r="R15" s="291"/>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" s="224" t="s">
@@ -10128,20 +10128,20 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="414" t="e">
+      <c r="G16" s="429" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="415"/>
+      <c r="H16" s="430"/>
       <c r="I16" s="112" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="284" t="s">
+      <c r="K16" s="303" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="285"/>
+      <c r="L16" s="323"/>
       <c r="M16" s="62">
         <f>M13-M15</f>
         <v>0</v>
@@ -10161,30 +10161,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="276" t="e">
+      <c r="G17" s="359" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="277"/>
+      <c r="H17" s="360"/>
       <c r="I17" s="106" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="284" t="s">
+      <c r="K17" s="303" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="285"/>
+      <c r="L17" s="323"/>
       <c r="M17" s="63">
         <f>'Acqusition-NF'!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="407" t="s">
+      <c r="B18" s="394" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="416"/>
+      <c r="C18" s="395"/>
       <c r="D18" s="68">
         <f>'Acqusition-NF'!D18</f>
         <v>0</v>
@@ -10194,20 +10194,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="343" t="e">
+      <c r="G18" s="355" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="344"/>
+      <c r="H18" s="356"/>
       <c r="I18" s="111" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="304" t="s">
+      <c r="K18" s="321" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="305"/>
+      <c r="L18" s="322"/>
       <c r="M18" s="64">
         <f>'Acqusition-NF'!M18</f>
         <v>30</v>
@@ -10230,11 +10230,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="347" t="e">
+      <c r="G19" s="314" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="348"/>
+      <c r="H19" s="315"/>
       <c r="I19" s="120" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -10255,8 +10255,8 @@
       <c r="D20" s="125"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="314"/>
-      <c r="H20" s="314"/>
+      <c r="G20" s="329"/>
+      <c r="H20" s="329"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
@@ -10277,27 +10277,27 @@
       <c r="F21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="290" t="s">
+      <c r="G21" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="291"/>
+      <c r="H21" s="262"/>
       <c r="I21" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="421" t="s">
+      <c r="K21" s="425" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="422"/>
-      <c r="M21" s="423"/>
+      <c r="L21" s="426"/>
+      <c r="M21" s="403"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="409" t="s">
+      <c r="B22" s="428" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="420"/>
+      <c r="C22" s="424"/>
       <c r="D22" s="58">
         <f>'Acqusition-NF'!D22</f>
         <v>0</v>
@@ -10307,30 +10307,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="282" t="e">
+      <c r="G22" s="389" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="283"/>
+      <c r="H22" s="390"/>
       <c r="I22" s="112" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="131"/>
-      <c r="K22" s="448" t="s">
+      <c r="K22" s="401" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="449"/>
+      <c r="L22" s="402"/>
       <c r="M22" s="103">
         <f>'Acqusition-NF'!M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="419" t="s">
+      <c r="B23" s="392" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="435"/>
+      <c r="C23" s="393"/>
       <c r="D23" s="58">
         <f>'Acqusition-NF'!D23</f>
         <v>0</v>
@@ -10340,20 +10340,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="294" t="e">
+      <c r="G23" s="286" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="295"/>
+      <c r="H23" s="287"/>
       <c r="I23" s="106" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="131"/>
-      <c r="K23" s="284" t="s">
+      <c r="K23" s="303" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="285"/>
+      <c r="L23" s="323"/>
       <c r="M23" s="66">
         <f>'Acqusition-NF'!M23</f>
         <v>0.01</v>
@@ -10373,30 +10373,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="294" t="e">
+      <c r="G24" s="286" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="295"/>
+      <c r="H24" s="287"/>
       <c r="I24" s="106" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="131"/>
-      <c r="K24" s="284" t="s">
+      <c r="K24" s="303" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="285"/>
+      <c r="L24" s="323"/>
       <c r="M24" s="134">
         <f>'Acqusition-NF'!M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="419" t="s">
+      <c r="B25" s="392" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="434"/>
+      <c r="C25" s="427"/>
       <c r="D25" s="58">
         <f>'Acqusition-NF'!D25</f>
         <v>0</v>
@@ -10406,20 +10406,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="294" t="e">
+      <c r="G25" s="286" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="295"/>
+      <c r="H25" s="287"/>
       <c r="I25" s="106" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="131"/>
-      <c r="K25" s="304" t="s">
+      <c r="K25" s="321" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="305"/>
+      <c r="L25" s="322"/>
       <c r="M25" s="134">
         <f>'Acqusition-NF'!M25</f>
         <v>0</v>
@@ -10445,30 +10445,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="294" t="e">
+      <c r="G26" s="286" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="295"/>
+      <c r="H26" s="287"/>
       <c r="I26" s="106" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="427" t="s">
+      <c r="K26" s="420" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="428"/>
+      <c r="L26" s="421"/>
       <c r="M26" s="123">
         <f>'Acqusition-NF'!M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="419" t="s">
+      <c r="B27" s="392" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="420"/>
+      <c r="C27" s="424"/>
       <c r="D27" s="58">
         <f>'Acqusition-NF'!D27</f>
         <v>0</v>
@@ -10478,11 +10478,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="294" t="e">
+      <c r="G27" s="286" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="295"/>
+      <c r="H27" s="287"/>
       <c r="I27" s="106" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -10498,10 +10498,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="419" t="s">
+      <c r="B28" s="392" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="435"/>
+      <c r="C28" s="393"/>
       <c r="D28" s="58">
         <f>'Acqusition-NF'!D28</f>
         <v>0</v>
@@ -10511,11 +10511,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="294" t="e">
+      <c r="G28" s="286" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="295"/>
+      <c r="H28" s="287"/>
       <c r="I28" s="106" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -10526,10 +10526,10 @@
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="419" t="s">
+      <c r="B29" s="392" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="435"/>
+      <c r="C29" s="393"/>
       <c r="D29" s="58">
         <f>'Acqusition-NF'!D29</f>
         <v>0</v>
@@ -10539,11 +10539,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="G29" s="294" t="e">
+      <c r="G29" s="286" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="295"/>
+      <c r="H29" s="287"/>
       <c r="I29" s="106" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -10559,10 +10559,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="407" t="s">
+      <c r="B30" s="394" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="416"/>
+      <c r="C30" s="395"/>
       <c r="D30" s="70">
         <f>'Acqusition-NF'!D30</f>
         <v>0</v>
@@ -10572,11 +10572,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="345" t="e">
+      <c r="G30" s="366" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="346"/>
+      <c r="H30" s="367"/>
       <c r="I30" s="111" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -10604,34 +10604,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="450" t="e">
+      <c r="G31" s="396" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="451"/>
+      <c r="H31" s="397"/>
       <c r="I31" s="120" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="306" t="s">
+      <c r="K31" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="290"/>
-      <c r="M31" s="423"/>
+      <c r="L31" s="261"/>
+      <c r="M31" s="403"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="332" t="s">
+      <c r="B32" s="347" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="333"/>
-      <c r="D32" s="437">
+      <c r="C32" s="348"/>
+      <c r="D32" s="407">
         <f>'Acqusition-NF'!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="147"/>
-      <c r="F32" s="439">
+      <c r="F32" s="409">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -10650,11 +10650,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="334"/>
-      <c r="C33" s="335"/>
-      <c r="D33" s="438"/>
+      <c r="B33" s="349"/>
+      <c r="C33" s="350"/>
+      <c r="D33" s="408"/>
       <c r="E33" s="149"/>
-      <c r="F33" s="440"/>
+      <c r="F33" s="410"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -10670,10 +10670,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="356" t="s">
+      <c r="B34" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="357"/>
+      <c r="C34" s="313"/>
       <c r="D34" s="151">
         <f>'Acqusition-NF'!D34</f>
         <v>0</v>
@@ -10687,10 +10687,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="258" t="s">
+      <c r="K34" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="441"/>
+      <c r="L34" s="411"/>
       <c r="M34" s="134">
         <f>'Acqusition-NF'!M34</f>
         <v>250</v>
@@ -10726,10 +10726,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="309" t="s">
+      <c r="B36" s="310" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="442"/>
+      <c r="C36" s="412"/>
       <c r="D36" s="228">
         <f>'Acqusition-NF'!D36</f>
         <v>0</v>
@@ -10749,10 +10749,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="288" t="s">
+      <c r="B37" s="308" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="436"/>
+      <c r="C37" s="391"/>
       <c r="D37" s="228">
         <f>'Acqusition-NF'!D37</f>
         <v>0</v>
@@ -10763,23 +10763,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="363" t="s">
+      <c r="H37" s="257" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="364"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="364"/>
-      <c r="L37" s="363" t="s">
+      <c r="I37" s="258"/>
+      <c r="J37" s="258"/>
+      <c r="K37" s="258"/>
+      <c r="L37" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="365"/>
+      <c r="M37" s="259"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="309" t="s">
+      <c r="B38" s="310" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="442"/>
+      <c r="C38" s="412"/>
       <c r="D38" s="228">
         <f>'Acqusition-NF'!D38</f>
         <v>0</v>
@@ -10790,18 +10790,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="431"/>
-      <c r="I38" s="443"/>
-      <c r="J38" s="443"/>
-      <c r="K38" s="444"/>
-      <c r="L38" s="431"/>
-      <c r="M38" s="432"/>
+      <c r="H38" s="413"/>
+      <c r="I38" s="414"/>
+      <c r="J38" s="414"/>
+      <c r="K38" s="415"/>
+      <c r="L38" s="413"/>
+      <c r="M38" s="422"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="288" t="s">
+      <c r="B39" s="308" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="436"/>
+      <c r="C39" s="391"/>
       <c r="D39" s="229" t="e">
         <f>'Acqusition-NF'!D39</f>
         <v>#DIV/0!</v>
@@ -10812,18 +10812,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="417"/>
-      <c r="I39" s="429"/>
-      <c r="J39" s="429"/>
-      <c r="K39" s="430"/>
-      <c r="L39" s="417"/>
-      <c r="M39" s="418"/>
+      <c r="H39" s="404"/>
+      <c r="I39" s="405"/>
+      <c r="J39" s="405"/>
+      <c r="K39" s="406"/>
+      <c r="L39" s="404"/>
+      <c r="M39" s="419"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="288" t="s">
+      <c r="B40" s="308" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="436"/>
+      <c r="C40" s="391"/>
       <c r="D40" s="230" t="e">
         <f>'Acqusition-NF'!D40</f>
         <v>#DIV/0!</v>
@@ -10836,18 +10836,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="417"/>
-      <c r="I40" s="429"/>
-      <c r="J40" s="429"/>
-      <c r="K40" s="430"/>
-      <c r="L40" s="417"/>
-      <c r="M40" s="418"/>
+      <c r="H40" s="404"/>
+      <c r="I40" s="405"/>
+      <c r="J40" s="405"/>
+      <c r="K40" s="406"/>
+      <c r="L40" s="404"/>
+      <c r="M40" s="419"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="288" t="s">
+      <c r="B41" s="308" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="436"/>
+      <c r="C41" s="391"/>
       <c r="D41" s="229" t="e">
         <f>'Acqusition-NF'!D41</f>
         <v>#DIV/0!</v>
@@ -10860,18 +10860,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="417"/>
-      <c r="I41" s="429"/>
-      <c r="J41" s="429"/>
-      <c r="K41" s="430"/>
-      <c r="L41" s="417"/>
-      <c r="M41" s="418"/>
+      <c r="H41" s="404"/>
+      <c r="I41" s="405"/>
+      <c r="J41" s="405"/>
+      <c r="K41" s="406"/>
+      <c r="L41" s="404"/>
+      <c r="M41" s="419"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="288" t="s">
+      <c r="B42" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="436"/>
+      <c r="C42" s="391"/>
       <c r="D42" s="228">
         <f>'Acqusition-NF'!D42</f>
         <v>0</v>
@@ -10887,18 +10887,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="417"/>
-      <c r="I42" s="429"/>
-      <c r="J42" s="429"/>
-      <c r="K42" s="430"/>
-      <c r="L42" s="417"/>
-      <c r="M42" s="418"/>
+      <c r="H42" s="404"/>
+      <c r="I42" s="405"/>
+      <c r="J42" s="405"/>
+      <c r="K42" s="406"/>
+      <c r="L42" s="404"/>
+      <c r="M42" s="419"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="288" t="s">
+      <c r="B43" s="308" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="436"/>
+      <c r="C43" s="391"/>
       <c r="D43" s="228">
         <f>'Acqusition-NF'!D43</f>
         <v>0</v>
@@ -10909,18 +10909,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="417"/>
-      <c r="I43" s="429"/>
-      <c r="J43" s="429"/>
-      <c r="K43" s="430"/>
-      <c r="L43" s="417"/>
-      <c r="M43" s="418"/>
+      <c r="H43" s="404"/>
+      <c r="I43" s="405"/>
+      <c r="J43" s="405"/>
+      <c r="K43" s="406"/>
+      <c r="L43" s="404"/>
+      <c r="M43" s="419"/>
     </row>
     <row r="44" spans="2:19" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="286" t="s">
+      <c r="B44" s="357" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="287"/>
+      <c r="C44" s="358"/>
       <c r="D44" s="231" t="e">
         <f>'Acqusition-NF'!D44</f>
         <v>#DIV/0!</v>
@@ -10931,12 +10931,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="424"/>
-      <c r="I44" s="425"/>
-      <c r="J44" s="425"/>
-      <c r="K44" s="426"/>
-      <c r="L44" s="424"/>
-      <c r="M44" s="433"/>
+      <c r="H44" s="416"/>
+      <c r="I44" s="417"/>
+      <c r="J44" s="417"/>
+      <c r="K44" s="418"/>
+      <c r="L44" s="416"/>
+      <c r="M44" s="423"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -10963,25 +10963,61 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="96">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L37:M37"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="H42:K42"/>
@@ -10998,67 +11034,31 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H37:K37"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -11281,27 +11281,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="3.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="301" t="s">
+      <c r="B2" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
-      <c r="H2" s="302"/>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302"/>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="303"/>
-      <c r="P2" s="366" t="s">
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="320"/>
+      <c r="P2" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="367"/>
-      <c r="S2" s="367"/>
-      <c r="T2" s="368"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11325,11 +11325,11 @@
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="260" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="290"/>
-      <c r="D4" s="291"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="262"/>
       <c r="E4" s="94" t="s">
         <v>111</v>
       </c>
@@ -11341,54 +11341,54 @@
       <c r="K4" s="181"/>
       <c r="L4" s="181"/>
       <c r="M4" s="182"/>
-      <c r="P4" s="372" t="s">
+      <c r="P4" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="373"/>
-      <c r="R4" s="373"/>
-      <c r="S4" s="373"/>
-      <c r="T4" s="374"/>
+      <c r="Q4" s="270"/>
+      <c r="R4" s="270"/>
+      <c r="S4" s="270"/>
+      <c r="T4" s="271"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="322"/>
-      <c r="D5" s="323"/>
+      <c r="C5" s="337"/>
+      <c r="D5" s="338"/>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="185"/>
       <c r="H5" s="185"/>
       <c r="I5" s="186"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="306" t="s">
+      <c r="K5" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="290"/>
-      <c r="M5" s="291"/>
-      <c r="P5" s="372" t="s">
+      <c r="L5" s="261"/>
+      <c r="M5" s="262"/>
+      <c r="P5" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="373"/>
-      <c r="R5" s="373"/>
-      <c r="S5" s="373"/>
-      <c r="T5" s="374"/>
+      <c r="Q5" s="270"/>
+      <c r="R5" s="270"/>
+      <c r="S5" s="270"/>
+      <c r="T5" s="271"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="288" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="315"/>
+      <c r="C6" s="330"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="324" t="s">
+      <c r="E6" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="352" t="s">
+      <c r="F6" s="340"/>
+      <c r="G6" s="340"/>
+      <c r="H6" s="341"/>
+      <c r="I6" s="300" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="89"/>
@@ -11397,26 +11397,26 @@
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="33"/>
-      <c r="P6" s="375" t="s">
+      <c r="P6" s="272" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="376"/>
-      <c r="R6" s="376"/>
-      <c r="S6" s="376"/>
-      <c r="T6" s="377"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="273"/>
+      <c r="S6" s="273"/>
+      <c r="T6" s="274"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="258" t="s">
+      <c r="B7" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="259"/>
+      <c r="C7" s="302"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="327"/>
-      <c r="F7" s="328"/>
-      <c r="G7" s="328"/>
-      <c r="H7" s="329"/>
-      <c r="I7" s="353"/>
+      <c r="E7" s="342"/>
+      <c r="F7" s="343"/>
+      <c r="G7" s="343"/>
+      <c r="H7" s="344"/>
+      <c r="I7" s="301"/>
       <c r="J7" s="89"/>
       <c r="K7" s="189" t="s">
         <v>96</v>
@@ -11436,20 +11436,20 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="288" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="259"/>
+      <c r="C8" s="302"/>
       <c r="D8" s="191" t="e">
         <f>D7/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="330" t="s">
+      <c r="E8" s="345" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="331"/>
-      <c r="G8" s="354"/>
-      <c r="H8" s="355"/>
+      <c r="F8" s="346"/>
+      <c r="G8" s="306"/>
+      <c r="H8" s="307"/>
       <c r="I8" s="65" t="e">
         <f>G8/G10</f>
         <v>#DIV/0!</v>
@@ -11465,17 +11465,17 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="258" t="s">
+      <c r="B9" s="288" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="259"/>
+      <c r="C9" s="302"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="358" t="s">
+      <c r="E9" s="316" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="359"/>
-      <c r="G9" s="338"/>
-      <c r="H9" s="339"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="353"/>
+      <c r="H9" s="354"/>
       <c r="I9" s="66" t="e">
         <f>G9/G10</f>
         <v>#DIV/0!</v>
@@ -11486,20 +11486,20 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="350" t="s">
+      <c r="B10" s="298" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="351"/>
+      <c r="C10" s="299"/>
       <c r="D10" s="196" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="316" t="s">
+      <c r="E10" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="317"/>
-      <c r="G10" s="318"/>
-      <c r="H10" s="319"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="333"/>
+      <c r="H10" s="334"/>
       <c r="I10" s="197" t="s">
         <v>16</v>
       </c>
@@ -11507,13 +11507,13 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="90"/>
-      <c r="P10" s="378" t="s">
+      <c r="P10" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="379"/>
-      <c r="R10" s="379"/>
-      <c r="S10" s="379"/>
-      <c r="T10" s="380"/>
+      <c r="Q10" s="276"/>
+      <c r="R10" s="276"/>
+      <c r="S10" s="276"/>
+      <c r="T10" s="277"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="198"/>
@@ -11528,11 +11528,11 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="90"/>
-      <c r="P11" s="381"/>
-      <c r="Q11" s="382"/>
-      <c r="R11" s="382"/>
-      <c r="S11" s="382"/>
-      <c r="T11" s="383"/>
+      <c r="P11" s="278"/>
+      <c r="Q11" s="279"/>
+      <c r="R11" s="279"/>
+      <c r="S11" s="279"/>
+      <c r="T11" s="280"/>
     </row>
     <row r="12" spans="2:21" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="91" t="s">
@@ -11548,23 +11548,23 @@
       <c r="F12" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="290" t="s">
+      <c r="G12" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="291"/>
+      <c r="H12" s="262"/>
       <c r="I12" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="306" t="s">
+      <c r="K12" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="290"/>
-      <c r="M12" s="291"/>
-      <c r="P12" s="266" t="s">
+      <c r="L12" s="261"/>
+      <c r="M12" s="262"/>
+      <c r="P12" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="267"/>
+      <c r="Q12" s="295"/>
       <c r="R12" s="29" t="s">
         <v>29</v>
       </c>
@@ -11576,38 +11576,38 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="254" t="s">
+      <c r="B13" s="364" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="255"/>
+      <c r="C13" s="368"/>
       <c r="D13" s="37"/>
       <c r="E13" s="130" t="e">
         <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="256" t="e">
+      <c r="G13" s="369" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="257"/>
+      <c r="H13" s="370"/>
       <c r="I13" s="200" t="e">
         <f>D13/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="452" t="s">
+      <c r="K13" s="456" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="453"/>
+      <c r="L13" s="457"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P13" s="268" t="s">
+      <c r="P13" s="377" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="269"/>
+      <c r="Q13" s="378"/>
       <c r="R13" s="11" t="e">
         <f t="shared" ref="R13:R19" si="0">E22</f>
         <v>#DIV/0!</v>
@@ -11634,11 +11634,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="276" t="e">
+      <c r="G14" s="359" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="277"/>
+      <c r="H14" s="360"/>
       <c r="I14" s="202" t="e">
         <f>D14/D13</f>
         <v>#DIV/0!</v>
@@ -11649,10 +11649,10 @@
       </c>
       <c r="L14" s="108"/>
       <c r="M14" s="48"/>
-      <c r="P14" s="262" t="s">
+      <c r="P14" s="373" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="263"/>
+      <c r="Q14" s="374"/>
       <c r="R14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11669,18 +11669,18 @@
       <c r="B15" s="296" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="349"/>
+      <c r="C15" s="297"/>
       <c r="D15" s="41"/>
       <c r="E15" s="109" t="e">
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="343" t="e">
+      <c r="G15" s="355" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="344"/>
+      <c r="H15" s="356"/>
       <c r="I15" s="203" t="e">
         <f>D15/D13</f>
         <v>#DIV/0!</v>
@@ -11694,10 +11694,10 @@
         <f>M13-M14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="262" t="s">
+      <c r="P15" s="373" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="263"/>
+      <c r="Q15" s="374"/>
       <c r="R15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11727,23 +11727,23 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="414" t="e">
+      <c r="G16" s="429" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="415"/>
+      <c r="H16" s="430"/>
       <c r="I16" s="200" t="e">
         <f>D16/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="284"/>
-      <c r="L16" s="285"/>
+      <c r="K16" s="303"/>
+      <c r="L16" s="323"/>
       <c r="M16" s="134"/>
-      <c r="P16" s="262" t="s">
+      <c r="P16" s="373" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="263"/>
+      <c r="Q16" s="374"/>
       <c r="R16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11767,25 +11767,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="276" t="e">
+      <c r="G17" s="359" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="277"/>
+      <c r="H17" s="360"/>
       <c r="I17" s="202" t="e">
         <f>D17/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="258" t="s">
+      <c r="K17" s="288" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="386"/>
+      <c r="L17" s="289"/>
       <c r="M17" s="48"/>
-      <c r="P17" s="262" t="s">
+      <c r="P17" s="373" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="263"/>
+      <c r="Q17" s="374"/>
       <c r="R17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11802,30 +11802,30 @@
       <c r="B18" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="297"/>
+      <c r="C18" s="305"/>
       <c r="D18" s="41"/>
       <c r="E18" s="109" t="e">
         <f>D18/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="343" t="e">
+      <c r="G18" s="355" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="344"/>
+      <c r="H18" s="356"/>
       <c r="I18" s="203" t="e">
         <f>D18/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="304"/>
-      <c r="L18" s="305"/>
+      <c r="K18" s="321"/>
+      <c r="L18" s="322"/>
       <c r="M18" s="64"/>
-      <c r="P18" s="262" t="s">
+      <c r="P18" s="373" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="263"/>
+      <c r="Q18" s="374"/>
       <c r="R18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11855,11 +11855,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="347" t="e">
+      <c r="G19" s="314" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="348"/>
+      <c r="H19" s="315"/>
       <c r="I19" s="208" t="e">
         <f>D19/D13</f>
         <v>#DIV/0!</v>
@@ -11873,19 +11873,19 @@
         <f>M17*12</f>
         <v>0</v>
       </c>
-      <c r="P19" s="278" t="s">
+      <c r="P19" s="385" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="279"/>
-      <c r="R19" s="270" t="e">
+      <c r="Q19" s="386"/>
+      <c r="R19" s="379" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="272" t="e">
+      <c r="S19" s="381" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="260" t="s">
+      <c r="T19" s="371" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11895,18 +11895,18 @@
       <c r="D20" s="210"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="314"/>
-      <c r="H20" s="314"/>
+      <c r="G20" s="329"/>
+      <c r="H20" s="329"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="90"/>
-      <c r="P20" s="280"/>
-      <c r="Q20" s="281"/>
-      <c r="R20" s="271"/>
-      <c r="S20" s="273"/>
-      <c r="T20" s="261"/>
+      <c r="P20" s="387"/>
+      <c r="Q20" s="388"/>
+      <c r="R20" s="380"/>
+      <c r="S20" s="382"/>
+      <c r="T20" s="372"/>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="128" t="s">
@@ -11922,25 +11922,25 @@
       <c r="F21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="290" t="s">
+      <c r="G21" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="291"/>
+      <c r="H21" s="262"/>
       <c r="I21" s="94" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="306" t="s">
+      <c r="K21" s="260" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="290"/>
-      <c r="M21" s="291"/>
+      <c r="L21" s="261"/>
+      <c r="M21" s="262"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="262" t="s">
+      <c r="P21" s="373" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="263"/>
+      <c r="Q21" s="374"/>
       <c r="R21" s="13" t="e">
         <f>E29</f>
         <v>#DIV/0!</v>
@@ -11954,21 +11954,21 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="254" t="s">
+      <c r="B22" s="364" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="300"/>
+      <c r="C22" s="365"/>
       <c r="D22" s="37"/>
       <c r="E22" s="130" t="e">
         <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="282" t="e">
+      <c r="G22" s="389" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="283"/>
+      <c r="H22" s="390"/>
       <c r="I22" s="200" t="e">
         <f>D22/D13</f>
         <v>#DIV/0!</v>
@@ -11984,10 +11984,10 @@
         <f>L22*M13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="264" t="s">
+      <c r="P22" s="375" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="265"/>
+      <c r="Q22" s="376"/>
       <c r="R22" s="237" t="e">
         <f>E30</f>
         <v>#DIV/0!</v>
@@ -12001,21 +12001,21 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="284" t="s">
+      <c r="B23" s="303" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="298"/>
+      <c r="C23" s="304"/>
       <c r="D23" s="36"/>
       <c r="E23" s="105" t="e">
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="294" t="e">
+      <c r="G23" s="286" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="295"/>
+      <c r="H23" s="287"/>
       <c r="I23" s="202" t="e">
         <f>D23/D13</f>
         <v>#DIV/0!</v>
@@ -12028,10 +12028,10 @@
       <c r="M23" s="46">
         <v>0</v>
       </c>
-      <c r="P23" s="389" t="s">
+      <c r="P23" s="292" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="389"/>
+      <c r="Q23" s="292"/>
       <c r="R23" s="240">
         <f>D34</f>
         <v>0</v>
@@ -12055,11 +12055,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="294" t="e">
+      <c r="G24" s="286" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="295"/>
+      <c r="H24" s="287"/>
       <c r="I24" s="202" t="e">
         <f>D24/D13</f>
         <v>#DIV/0!</v>
@@ -12075,21 +12075,21 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="284" t="s">
+      <c r="B25" s="303" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="299"/>
+      <c r="C25" s="363"/>
       <c r="D25" s="36"/>
       <c r="E25" s="133" t="e">
         <f>D25/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="294" t="e">
+      <c r="G25" s="286" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="295"/>
+      <c r="H25" s="287"/>
       <c r="I25" s="202" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
@@ -12120,43 +12120,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="294" t="e">
+      <c r="G26" s="286" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="295"/>
+      <c r="H26" s="287"/>
       <c r="I26" s="202" t="e">
         <f>D26/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="384" t="s">
+      <c r="K26" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="385"/>
+      <c r="L26" s="282"/>
       <c r="M26" s="47"/>
-      <c r="P26" s="266" t="s">
+      <c r="P26" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="390"/>
-      <c r="R26" s="267"/>
+      <c r="Q26" s="294"/>
+      <c r="R26" s="295"/>
     </row>
     <row r="27" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="284" t="s">
+      <c r="B27" s="303" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="300"/>
+      <c r="C27" s="365"/>
       <c r="D27" s="36"/>
       <c r="E27" s="105" t="e">
         <f>D27/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="294" t="e">
+      <c r="G27" s="286" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="295"/>
+      <c r="H27" s="287"/>
       <c r="I27" s="202" t="e">
         <f>D27/D13</f>
         <v>#DIV/0!</v>
@@ -12171,27 +12171,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="387" t="s">
+      <c r="Q27" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="388"/>
+      <c r="R27" s="291"/>
     </row>
     <row r="28" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="284" t="s">
+      <c r="B28" s="303" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="298"/>
+      <c r="C28" s="304"/>
       <c r="D28" s="36"/>
       <c r="E28" s="105" t="e">
         <f>D28/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="294" t="e">
+      <c r="G28" s="286" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="295"/>
+      <c r="H28" s="287"/>
       <c r="I28" s="202" t="e">
         <f>D28/D13</f>
         <v>#DIV/0!</v>
@@ -12201,27 +12201,27 @@
       <c r="L28" s="174"/>
       <c r="M28" s="141"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="387" t="s">
+      <c r="Q28" s="290" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="388"/>
+      <c r="R28" s="291"/>
     </row>
     <row r="29" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="284" t="s">
+      <c r="B29" s="303" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="298"/>
+      <c r="C29" s="304"/>
       <c r="D29" s="36"/>
       <c r="E29" s="105" t="e">
         <f>D29/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="294" t="e">
+      <c r="G29" s="286" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="295"/>
+      <c r="H29" s="287"/>
       <c r="I29" s="202" t="e">
         <f>D29/D13</f>
         <v>#DIV/0!</v>
@@ -12236,27 +12236,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="53"/>
-      <c r="Q29" s="387" t="s">
+      <c r="Q29" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="388"/>
+      <c r="R29" s="291"/>
     </row>
     <row r="30" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="296" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="297"/>
+      <c r="C30" s="305"/>
       <c r="D30" s="41"/>
       <c r="E30" s="109" t="e">
         <f>D30/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="345" t="e">
+      <c r="G30" s="366" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="346"/>
+      <c r="H30" s="367"/>
       <c r="I30" s="203" t="e">
         <f>D30/D13</f>
         <v>#DIV/0!</v>
@@ -12284,34 +12284,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="347" t="e">
+      <c r="G31" s="314" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="348"/>
+      <c r="H31" s="315"/>
       <c r="I31" s="208" t="e">
         <f>D31/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="306" t="s">
+      <c r="K31" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="290"/>
-      <c r="M31" s="291"/>
+      <c r="L31" s="261"/>
+      <c r="M31" s="262"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="332" t="s">
+      <c r="B32" s="347" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="333"/>
-      <c r="D32" s="336">
+      <c r="C32" s="348"/>
+      <c r="D32" s="351">
         <f>D19-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="217"/>
-      <c r="F32" s="336">
+      <c r="F32" s="351">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -12327,11 +12327,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="334"/>
-      <c r="C33" s="335"/>
-      <c r="D33" s="337"/>
+      <c r="B33" s="349"/>
+      <c r="C33" s="350"/>
+      <c r="D33" s="352"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="337"/>
+      <c r="F33" s="352"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -12344,10 +12344,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="456" t="s">
+      <c r="B34" s="452" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="457"/>
+      <c r="C34" s="453"/>
       <c r="D34" s="218">
         <f>D6*E34</f>
         <v>0</v>
@@ -12363,10 +12363,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="258" t="s">
+      <c r="K34" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="386"/>
+      <c r="L34" s="289"/>
       <c r="M34" s="44"/>
       <c r="S34" s="10"/>
     </row>
@@ -12399,10 +12399,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="309" t="s">
+      <c r="B36" s="310" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="310"/>
+      <c r="C36" s="311"/>
       <c r="D36" s="155">
         <f>M19</f>
         <v>0</v>
@@ -12422,10 +12422,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="288" t="s">
+      <c r="B37" s="308" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="289"/>
+      <c r="C37" s="309"/>
       <c r="D37" s="220" t="e">
         <f>M35</f>
         <v>#NUM!</v>
@@ -12436,21 +12436,21 @@
         <v>#NUM!</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="363" t="s">
+      <c r="H37" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="364"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="364"/>
-      <c r="L37" s="364"/>
-      <c r="M37" s="365"/>
+      <c r="I37" s="258"/>
+      <c r="J37" s="258"/>
+      <c r="K37" s="258"/>
+      <c r="L37" s="258"/>
+      <c r="M37" s="259"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="309" t="s">
+      <c r="B38" s="310" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="310"/>
+      <c r="C38" s="311"/>
       <c r="D38" s="155" t="e">
         <f>(D35-D36-D37)</f>
         <v>#NUM!</v>
@@ -12461,18 +12461,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="311"/>
-      <c r="I38" s="312"/>
-      <c r="J38" s="312"/>
-      <c r="K38" s="312"/>
-      <c r="L38" s="312"/>
-      <c r="M38" s="313"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="327"/>
+      <c r="J38" s="327"/>
+      <c r="K38" s="327"/>
+      <c r="L38" s="327"/>
+      <c r="M38" s="328"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="288" t="s">
+      <c r="B39" s="308" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="289"/>
+      <c r="C39" s="309"/>
       <c r="D39" s="165" t="e">
         <f>D38/M29</f>
         <v>#NUM!</v>
@@ -12483,18 +12483,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="340"/>
-      <c r="I39" s="341"/>
-      <c r="J39" s="341"/>
-      <c r="K39" s="341"/>
-      <c r="L39" s="341"/>
-      <c r="M39" s="342"/>
+      <c r="H39" s="283"/>
+      <c r="I39" s="284"/>
+      <c r="J39" s="284"/>
+      <c r="K39" s="284"/>
+      <c r="L39" s="284"/>
+      <c r="M39" s="285"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="288" t="s">
+      <c r="B40" s="308" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="289"/>
+      <c r="C40" s="309"/>
       <c r="D40" s="221" t="e">
         <f>D35/(D36+D37)</f>
         <v>#NUM!</v>
@@ -12507,18 +12507,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="340"/>
-      <c r="I40" s="341"/>
-      <c r="J40" s="341"/>
-      <c r="K40" s="341"/>
-      <c r="L40" s="341"/>
-      <c r="M40" s="342"/>
+      <c r="H40" s="283"/>
+      <c r="I40" s="284"/>
+      <c r="J40" s="284"/>
+      <c r="K40" s="284"/>
+      <c r="L40" s="284"/>
+      <c r="M40" s="285"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="288" t="s">
+      <c r="B41" s="308" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="289"/>
+      <c r="C41" s="309"/>
       <c r="D41" s="165" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -12531,18 +12531,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="340"/>
-      <c r="I41" s="341"/>
-      <c r="J41" s="341"/>
-      <c r="K41" s="341"/>
-      <c r="L41" s="341"/>
-      <c r="M41" s="342"/>
+      <c r="H41" s="283"/>
+      <c r="I41" s="284"/>
+      <c r="J41" s="284"/>
+      <c r="K41" s="284"/>
+      <c r="L41" s="284"/>
+      <c r="M41" s="285"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="288" t="s">
+      <c r="B42" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="289"/>
+      <c r="C42" s="309"/>
       <c r="D42" s="155" t="e">
         <f>D38*E42</f>
         <v>#NUM!</v>
@@ -12557,18 +12557,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="340"/>
-      <c r="I42" s="341"/>
-      <c r="J42" s="341"/>
-      <c r="K42" s="341"/>
-      <c r="L42" s="341"/>
-      <c r="M42" s="342"/>
+      <c r="H42" s="283"/>
+      <c r="I42" s="284"/>
+      <c r="J42" s="284"/>
+      <c r="K42" s="284"/>
+      <c r="L42" s="284"/>
+      <c r="M42" s="285"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="288" t="s">
+      <c r="B43" s="308" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="289"/>
+      <c r="C43" s="309"/>
       <c r="D43" s="155" t="e">
         <f>D38-D42</f>
         <v>#NUM!</v>
@@ -12579,18 +12579,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="340"/>
-      <c r="I43" s="341"/>
-      <c r="J43" s="341"/>
-      <c r="K43" s="341"/>
-      <c r="L43" s="341"/>
-      <c r="M43" s="342"/>
+      <c r="H43" s="283"/>
+      <c r="I43" s="284"/>
+      <c r="J43" s="284"/>
+      <c r="K43" s="284"/>
+      <c r="L43" s="284"/>
+      <c r="M43" s="285"/>
     </row>
     <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="286" t="s">
+      <c r="B44" s="357" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="287"/>
+      <c r="C44" s="358"/>
       <c r="D44" s="175" t="e">
         <f>D43/M29</f>
         <v>#NUM!</v>
@@ -12601,12 +12601,12 @@
         <v>#NUM!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="360"/>
-      <c r="I44" s="361"/>
-      <c r="J44" s="361"/>
-      <c r="K44" s="361"/>
-      <c r="L44" s="361"/>
-      <c r="M44" s="362"/>
+      <c r="H44" s="254"/>
+      <c r="I44" s="255"/>
+      <c r="J44" s="255"/>
+      <c r="K44" s="255"/>
+      <c r="L44" s="255"/>
+      <c r="M44" s="256"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -12633,92 +12633,6 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="101">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P10:T11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:I7"/>
@@ -12734,6 +12648,92 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P10:T11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:M42"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -12926,7 +12926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -12956,27 +12956,27 @@
   <sheetData>
     <row r="1" spans="2:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="301" t="s">
+      <c r="B2" s="318" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
-      <c r="H2" s="302"/>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302"/>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="303"/>
-      <c r="P2" s="366" t="s">
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="320"/>
+      <c r="P2" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="367"/>
-      <c r="S2" s="367"/>
-      <c r="T2" s="368"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -13001,103 +13001,103 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="260" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="290"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="393" t="s">
+      <c r="C4" s="261"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="446" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="394"/>
-      <c r="G4" s="394"/>
-      <c r="H4" s="394"/>
-      <c r="I4" s="394"/>
-      <c r="J4" s="394"/>
-      <c r="K4" s="394"/>
-      <c r="L4" s="394"/>
-      <c r="M4" s="395"/>
-      <c r="P4" s="372" t="s">
+      <c r="F4" s="447"/>
+      <c r="G4" s="447"/>
+      <c r="H4" s="447"/>
+      <c r="I4" s="447"/>
+      <c r="J4" s="447"/>
+      <c r="K4" s="447"/>
+      <c r="L4" s="447"/>
+      <c r="M4" s="448"/>
+      <c r="P4" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="373"/>
-      <c r="R4" s="373"/>
-      <c r="S4" s="373"/>
-      <c r="T4" s="374"/>
+      <c r="Q4" s="270"/>
+      <c r="R4" s="270"/>
+      <c r="S4" s="270"/>
+      <c r="T4" s="271"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="391">
+      <c r="C5" s="444">
         <f>Assumption!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="392"/>
-      <c r="E5" s="396"/>
-      <c r="F5" s="397"/>
-      <c r="G5" s="397"/>
-      <c r="H5" s="397"/>
-      <c r="I5" s="397"/>
-      <c r="J5" s="397"/>
-      <c r="K5" s="397"/>
-      <c r="L5" s="397"/>
-      <c r="M5" s="398"/>
-      <c r="P5" s="372" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="373"/>
-      <c r="R5" s="373"/>
-      <c r="S5" s="373"/>
-      <c r="T5" s="374"/>
+      <c r="D5" s="445"/>
+      <c r="E5" s="449"/>
+      <c r="F5" s="450"/>
+      <c r="G5" s="450"/>
+      <c r="H5" s="450"/>
+      <c r="I5" s="450"/>
+      <c r="J5" s="450"/>
+      <c r="K5" s="450"/>
+      <c r="L5" s="450"/>
+      <c r="M5" s="451"/>
+      <c r="P5" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="270"/>
+      <c r="R5" s="270"/>
+      <c r="S5" s="270"/>
+      <c r="T5" s="271"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="399" t="s">
+      <c r="B6" s="441" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="400"/>
+      <c r="C6" s="443"/>
       <c r="D6" s="57">
         <f>Assumption!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="446"/>
-      <c r="G6" s="446"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="446"/>
-      <c r="J6" s="446"/>
-      <c r="K6" s="446"/>
-      <c r="L6" s="446"/>
-      <c r="M6" s="447"/>
-      <c r="P6" s="375" t="s">
+      <c r="E6" s="398"/>
+      <c r="F6" s="399"/>
+      <c r="G6" s="399"/>
+      <c r="H6" s="399"/>
+      <c r="I6" s="399"/>
+      <c r="J6" s="399"/>
+      <c r="K6" s="399"/>
+      <c r="L6" s="399"/>
+      <c r="M6" s="400"/>
+      <c r="P6" s="272" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="376"/>
-      <c r="R6" s="376"/>
-      <c r="S6" s="376"/>
-      <c r="T6" s="377"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="273"/>
+      <c r="S6" s="273"/>
+      <c r="T6" s="274"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="399" t="s">
+      <c r="B7" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="401"/>
+      <c r="C7" s="442"/>
       <c r="D7" s="58">
         <f>Assumption!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="445"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="446"/>
-      <c r="I7" s="446"/>
-      <c r="J7" s="446"/>
-      <c r="K7" s="446"/>
-      <c r="L7" s="446"/>
-      <c r="M7" s="447"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="399"/>
+      <c r="H7" s="399"/>
+      <c r="I7" s="399"/>
+      <c r="J7" s="399"/>
+      <c r="K7" s="399"/>
+      <c r="L7" s="399"/>
+      <c r="M7" s="400"/>
       <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
@@ -13108,61 +13108,61 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="399" t="s">
+      <c r="B8" s="441" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="401"/>
+      <c r="C8" s="442"/>
       <c r="D8" s="58" t="e">
         <f>Assumption!D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="402"/>
-      <c r="F8" s="403"/>
-      <c r="G8" s="403"/>
-      <c r="H8" s="403"/>
-      <c r="I8" s="403"/>
-      <c r="J8" s="403"/>
-      <c r="K8" s="403"/>
-      <c r="L8" s="403"/>
-      <c r="M8" s="404"/>
+      <c r="E8" s="433"/>
+      <c r="F8" s="434"/>
+      <c r="G8" s="434"/>
+      <c r="H8" s="434"/>
+      <c r="I8" s="434"/>
+      <c r="J8" s="434"/>
+      <c r="K8" s="434"/>
+      <c r="L8" s="434"/>
+      <c r="M8" s="435"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="399" t="s">
+      <c r="B9" s="441" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="401"/>
+      <c r="C9" s="442"/>
       <c r="D9" s="59">
         <f>Assumption!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="402"/>
-      <c r="F9" s="403"/>
-      <c r="G9" s="403"/>
-      <c r="H9" s="403"/>
-      <c r="I9" s="403"/>
-      <c r="J9" s="403"/>
-      <c r="K9" s="403"/>
-      <c r="L9" s="403"/>
-      <c r="M9" s="404"/>
+      <c r="E9" s="433"/>
+      <c r="F9" s="434"/>
+      <c r="G9" s="434"/>
+      <c r="H9" s="434"/>
+      <c r="I9" s="434"/>
+      <c r="J9" s="434"/>
+      <c r="K9" s="434"/>
+      <c r="L9" s="434"/>
+      <c r="M9" s="435"/>
     </row>
     <row r="10" spans="2:22" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="405" t="s">
+      <c r="B10" s="431" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="406"/>
+      <c r="C10" s="432"/>
       <c r="D10" s="67" t="e">
         <f>Assumption!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="411"/>
-      <c r="F10" s="412"/>
-      <c r="G10" s="412"/>
-      <c r="H10" s="412"/>
-      <c r="I10" s="412"/>
-      <c r="J10" s="412"/>
-      <c r="K10" s="412"/>
-      <c r="L10" s="412"/>
-      <c r="M10" s="413"/>
+      <c r="E10" s="438"/>
+      <c r="F10" s="439"/>
+      <c r="G10" s="439"/>
+      <c r="H10" s="439"/>
+      <c r="I10" s="439"/>
+      <c r="J10" s="439"/>
+      <c r="K10" s="439"/>
+      <c r="L10" s="439"/>
+      <c r="M10" s="440"/>
     </row>
     <row r="11" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="85"/>
@@ -13192,30 +13192,30 @@
       <c r="F12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="290" t="s">
+      <c r="G12" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="291"/>
+      <c r="H12" s="262"/>
       <c r="I12" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="306" t="s">
+      <c r="K12" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="290"/>
-      <c r="M12" s="291"/>
-      <c r="P12" s="266" t="s">
+      <c r="L12" s="261"/>
+      <c r="M12" s="262"/>
+      <c r="P12" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="390"/>
-      <c r="R12" s="267"/>
+      <c r="Q12" s="294"/>
+      <c r="R12" s="295"/>
     </row>
     <row r="13" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="458" t="s">
+      <c r="B13" s="461" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="459"/>
+      <c r="C13" s="462"/>
       <c r="D13" s="71">
         <f>Assumption!D13</f>
         <v>0</v>
@@ -13225,29 +13225,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="72"/>
-      <c r="G13" s="256" t="e">
+      <c r="G13" s="369" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="257"/>
+      <c r="H13" s="370"/>
       <c r="I13" s="99" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="452" t="s">
+      <c r="K13" s="456" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="453"/>
+      <c r="L13" s="457"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="387" t="s">
+      <c r="Q13" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="388"/>
+      <c r="R13" s="291"/>
     </row>
     <row r="14" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="104" t="s">
@@ -13266,11 +13266,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="276" t="e">
+      <c r="G14" s="359" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="277"/>
+      <c r="H14" s="360"/>
       <c r="I14" s="106" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -13285,16 +13285,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="387" t="s">
+      <c r="Q14" s="290" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="388"/>
+      <c r="R14" s="291"/>
     </row>
     <row r="15" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="407" t="s">
+      <c r="B15" s="394" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="408"/>
+      <c r="C15" s="436"/>
       <c r="D15" s="68">
         <f>Assumption!D15</f>
         <v>0</v>
@@ -13304,11 +13304,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="343" t="e">
+      <c r="G15" s="355" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="344"/>
+      <c r="H15" s="356"/>
       <c r="I15" s="111" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
@@ -13323,16 +13323,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="53"/>
-      <c r="Q15" s="387" t="s">
+      <c r="Q15" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="388"/>
+      <c r="R15" s="291"/>
     </row>
     <row r="16" spans="2:22" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="460" t="s">
+      <c r="B16" s="459" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="461"/>
+      <c r="C16" s="460"/>
       <c r="D16" s="58">
         <f>Assumption!D16</f>
         <v>0</v>
@@ -13345,18 +13345,18 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="414" t="e">
+      <c r="G16" s="429" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="415"/>
+      <c r="H16" s="430"/>
       <c r="I16" s="112" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="284"/>
-      <c r="L16" s="285"/>
+      <c r="K16" s="303"/>
+      <c r="L16" s="323"/>
       <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
@@ -13373,30 +13373,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="276" t="e">
+      <c r="G17" s="359" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="277"/>
+      <c r="H17" s="360"/>
       <c r="I17" s="106" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="258" t="s">
+      <c r="K17" s="288" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="386"/>
+      <c r="L17" s="289"/>
       <c r="M17" s="62">
         <f>Assumption!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="407" t="s">
+      <c r="B18" s="394" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="416"/>
+      <c r="C18" s="395"/>
       <c r="D18" s="68">
         <f>Assumption!D18</f>
         <v>0</v>
@@ -13406,18 +13406,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="343" t="e">
+      <c r="G18" s="355" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="344"/>
+      <c r="H18" s="356"/>
       <c r="I18" s="111" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="304"/>
-      <c r="L18" s="305"/>
+      <c r="K18" s="321"/>
+      <c r="L18" s="322"/>
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="2:19" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -13437,11 +13437,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="347" t="e">
+      <c r="G19" s="314" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="348"/>
+      <c r="H19" s="315"/>
       <c r="I19" s="120" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -13462,8 +13462,8 @@
       <c r="D20" s="125"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="462"/>
-      <c r="H20" s="462"/>
+      <c r="G20" s="458"/>
+      <c r="H20" s="458"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
@@ -13484,27 +13484,27 @@
       <c r="F21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="290" t="s">
+      <c r="G21" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="291"/>
+      <c r="H21" s="262"/>
       <c r="I21" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="421" t="s">
+      <c r="K21" s="425" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="422"/>
-      <c r="M21" s="423"/>
+      <c r="L21" s="426"/>
+      <c r="M21" s="403"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="409" t="s">
+      <c r="B22" s="428" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="420"/>
+      <c r="C22" s="424"/>
       <c r="D22" s="58">
         <f>Assumption!D22</f>
         <v>0</v>
@@ -13514,30 +13514,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="282" t="e">
+      <c r="G22" s="389" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="283"/>
+      <c r="H22" s="390"/>
       <c r="I22" s="112" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="131"/>
-      <c r="K22" s="448" t="s">
+      <c r="K22" s="401" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="449"/>
+      <c r="L22" s="402"/>
       <c r="M22" s="103">
         <f>Assumption!M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="419" t="s">
+      <c r="B23" s="392" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="435"/>
+      <c r="C23" s="393"/>
       <c r="D23" s="58">
         <f>Assumption!D23</f>
         <v>0</v>
@@ -13547,20 +13547,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="294" t="e">
+      <c r="G23" s="286" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="295"/>
+      <c r="H23" s="287"/>
       <c r="I23" s="106" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="131"/>
-      <c r="K23" s="284" t="s">
+      <c r="K23" s="303" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="285"/>
+      <c r="L23" s="323"/>
       <c r="M23" s="66">
         <f>Assumption!M23</f>
         <v>0</v>
@@ -13580,30 +13580,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="294" t="e">
+      <c r="G24" s="286" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="295"/>
+      <c r="H24" s="287"/>
       <c r="I24" s="106" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="131"/>
-      <c r="K24" s="284" t="s">
+      <c r="K24" s="303" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="285"/>
+      <c r="L24" s="323"/>
       <c r="M24" s="134">
         <f>Assumption!M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="419" t="s">
+      <c r="B25" s="392" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="434"/>
+      <c r="C25" s="427"/>
       <c r="D25" s="58">
         <f>Assumption!D25</f>
         <v>0</v>
@@ -13613,20 +13613,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="294" t="e">
+      <c r="G25" s="286" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="295"/>
+      <c r="H25" s="287"/>
       <c r="I25" s="106" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="131"/>
-      <c r="K25" s="304" t="s">
+      <c r="K25" s="321" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="305"/>
+      <c r="L25" s="322"/>
       <c r="M25" s="134">
         <f>Assumption!M25</f>
         <v>0</v>
@@ -13652,30 +13652,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="294" t="e">
+      <c r="G26" s="286" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="295"/>
+      <c r="H26" s="287"/>
       <c r="I26" s="106" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="427" t="s">
+      <c r="K26" s="420" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="428"/>
+      <c r="L26" s="421"/>
       <c r="M26" s="123">
         <f>Assumption!M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="419" t="s">
+      <c r="B27" s="392" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="420"/>
+      <c r="C27" s="424"/>
       <c r="D27" s="58">
         <f>Assumption!D27</f>
         <v>0</v>
@@ -13685,11 +13685,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="294" t="e">
+      <c r="G27" s="286" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="295"/>
+      <c r="H27" s="287"/>
       <c r="I27" s="106" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -13705,10 +13705,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="419" t="s">
+      <c r="B28" s="392" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="435"/>
+      <c r="C28" s="393"/>
       <c r="D28" s="58">
         <f>Assumption!D28</f>
         <v>0</v>
@@ -13718,11 +13718,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="294" t="e">
+      <c r="G28" s="286" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="295"/>
+      <c r="H28" s="287"/>
       <c r="I28" s="106" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -13733,10 +13733,10 @@
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="419" t="s">
+      <c r="B29" s="392" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="435"/>
+      <c r="C29" s="393"/>
       <c r="D29" s="58">
         <f>Assumption!D29</f>
         <v>0</v>
@@ -13746,11 +13746,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="G29" s="294" t="e">
+      <c r="G29" s="286" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="295"/>
+      <c r="H29" s="287"/>
       <c r="I29" s="106" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -13766,10 +13766,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="407" t="s">
+      <c r="B30" s="394" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="416"/>
+      <c r="C30" s="395"/>
       <c r="D30" s="70">
         <f>Assumption!D30</f>
         <v>0</v>
@@ -13779,11 +13779,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="345" t="e">
+      <c r="G30" s="366" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="346"/>
+      <c r="H30" s="367"/>
       <c r="I30" s="111" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -13811,34 +13811,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="450" t="e">
+      <c r="G31" s="396" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="451"/>
+      <c r="H31" s="397"/>
       <c r="I31" s="120" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="306" t="s">
+      <c r="K31" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="290"/>
-      <c r="M31" s="423"/>
+      <c r="L31" s="261"/>
+      <c r="M31" s="403"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="332" t="s">
+      <c r="B32" s="347" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="333"/>
-      <c r="D32" s="437">
+      <c r="C32" s="348"/>
+      <c r="D32" s="407">
         <f>Assumption!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="147"/>
-      <c r="F32" s="439">
+      <c r="F32" s="409">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -13857,11 +13857,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="334"/>
-      <c r="C33" s="335"/>
-      <c r="D33" s="438"/>
+      <c r="B33" s="349"/>
+      <c r="C33" s="350"/>
+      <c r="D33" s="408"/>
       <c r="E33" s="149"/>
-      <c r="F33" s="440"/>
+      <c r="F33" s="410"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -13877,10 +13877,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:20" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="456" t="s">
+      <c r="B34" s="452" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="457"/>
+      <c r="C34" s="453"/>
       <c r="D34" s="151">
         <f>Assumption!D34</f>
         <v>0</v>
@@ -13894,10 +13894,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="258" t="s">
+      <c r="K34" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="441"/>
+      <c r="L34" s="411"/>
       <c r="M34" s="134">
         <f>Assumption!M34</f>
         <v>0</v>
@@ -13932,10 +13932,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="309" t="s">
+      <c r="B36" s="310" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="442"/>
+      <c r="C36" s="412"/>
       <c r="D36" s="160">
         <f>Assumption!D36</f>
         <v>0</v>
@@ -13955,10 +13955,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="288" t="s">
+      <c r="B37" s="308" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="436"/>
+      <c r="C37" s="391"/>
       <c r="D37" s="160" t="e">
         <f>Assumption!D37</f>
         <v>#NUM!</v>
@@ -13969,23 +13969,23 @@
         <v>#NUM!</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="363" t="s">
+      <c r="H37" s="257" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="364"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="364"/>
-      <c r="L37" s="363" t="s">
+      <c r="I37" s="258"/>
+      <c r="J37" s="258"/>
+      <c r="K37" s="258"/>
+      <c r="L37" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="365"/>
+      <c r="M37" s="259"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="309" t="s">
+      <c r="B38" s="310" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="442"/>
+      <c r="C38" s="412"/>
       <c r="D38" s="160" t="e">
         <f>Assumption!D38</f>
         <v>#NUM!</v>
@@ -13996,18 +13996,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="431"/>
-      <c r="I38" s="443"/>
-      <c r="J38" s="443"/>
-      <c r="K38" s="444"/>
-      <c r="L38" s="431"/>
-      <c r="M38" s="432"/>
+      <c r="H38" s="413"/>
+      <c r="I38" s="414"/>
+      <c r="J38" s="414"/>
+      <c r="K38" s="415"/>
+      <c r="L38" s="413"/>
+      <c r="M38" s="422"/>
     </row>
     <row r="39" spans="2:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="288" t="s">
+      <c r="B39" s="308" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="436"/>
+      <c r="C39" s="391"/>
       <c r="D39" s="165" t="e">
         <f>Assumption!D39</f>
         <v>#NUM!</v>
@@ -14018,18 +14018,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="417"/>
-      <c r="I39" s="429"/>
-      <c r="J39" s="429"/>
-      <c r="K39" s="430"/>
-      <c r="L39" s="417"/>
-      <c r="M39" s="418"/>
+      <c r="H39" s="404"/>
+      <c r="I39" s="405"/>
+      <c r="J39" s="405"/>
+      <c r="K39" s="406"/>
+      <c r="L39" s="404"/>
+      <c r="M39" s="419"/>
     </row>
     <row r="40" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="288" t="s">
+      <c r="B40" s="308" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="436"/>
+      <c r="C40" s="391"/>
       <c r="D40" s="166" t="e">
         <f>Assumption!D40</f>
         <v>#NUM!</v>
@@ -14042,18 +14042,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="417"/>
-      <c r="I40" s="429"/>
-      <c r="J40" s="429"/>
-      <c r="K40" s="430"/>
-      <c r="L40" s="417"/>
-      <c r="M40" s="418"/>
+      <c r="H40" s="404"/>
+      <c r="I40" s="405"/>
+      <c r="J40" s="405"/>
+      <c r="K40" s="406"/>
+      <c r="L40" s="404"/>
+      <c r="M40" s="419"/>
     </row>
     <row r="41" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="288" t="s">
+      <c r="B41" s="308" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="436"/>
+      <c r="C41" s="391"/>
       <c r="D41" s="66" t="e">
         <f>Assumption!D41</f>
         <v>#DIV/0!</v>
@@ -14066,18 +14066,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="417"/>
-      <c r="I41" s="429"/>
-      <c r="J41" s="429"/>
-      <c r="K41" s="430"/>
-      <c r="L41" s="417"/>
-      <c r="M41" s="418"/>
+      <c r="H41" s="404"/>
+      <c r="I41" s="405"/>
+      <c r="J41" s="405"/>
+      <c r="K41" s="406"/>
+      <c r="L41" s="404"/>
+      <c r="M41" s="419"/>
     </row>
     <row r="42" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="288" t="s">
+      <c r="B42" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="436"/>
+      <c r="C42" s="391"/>
       <c r="D42" s="170" t="e">
         <f>Assumption!D42</f>
         <v>#NUM!</v>
@@ -14093,18 +14093,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="417"/>
-      <c r="I42" s="429"/>
-      <c r="J42" s="429"/>
-      <c r="K42" s="430"/>
-      <c r="L42" s="417"/>
-      <c r="M42" s="418"/>
+      <c r="H42" s="404"/>
+      <c r="I42" s="405"/>
+      <c r="J42" s="405"/>
+      <c r="K42" s="406"/>
+      <c r="L42" s="404"/>
+      <c r="M42" s="419"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B43" s="288" t="s">
+      <c r="B43" s="308" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="289"/>
+      <c r="C43" s="309"/>
       <c r="D43" s="155" t="e">
         <f>Assumption!D43</f>
         <v>#NUM!</v>
@@ -14115,18 +14115,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="417"/>
-      <c r="I43" s="429"/>
-      <c r="J43" s="429"/>
-      <c r="K43" s="430"/>
-      <c r="L43" s="417"/>
-      <c r="M43" s="418"/>
+      <c r="H43" s="404"/>
+      <c r="I43" s="405"/>
+      <c r="J43" s="405"/>
+      <c r="K43" s="406"/>
+      <c r="L43" s="404"/>
+      <c r="M43" s="419"/>
     </row>
     <row r="44" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="286" t="s">
+      <c r="B44" s="357" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="287"/>
+      <c r="C44" s="358"/>
       <c r="D44" s="175" t="e">
         <f>Assumption!D44</f>
         <v>#NUM!</v>
@@ -14137,12 +14137,12 @@
         <v>#NUM!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="424"/>
-      <c r="I44" s="425"/>
-      <c r="J44" s="425"/>
-      <c r="K44" s="426"/>
-      <c r="L44" s="424"/>
-      <c r="M44" s="433"/>
+      <c r="H44" s="416"/>
+      <c r="I44" s="417"/>
+      <c r="J44" s="417"/>
+      <c r="K44" s="418"/>
+      <c r="L44" s="416"/>
+      <c r="M44" s="423"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -14170,88 +14170,6 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="97">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="B2:M2"/>
@@ -14267,6 +14185,88 @@
     <mergeCell ref="P6:T6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:M7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">

--- a/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting.xlsx
+++ b/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Personal\MultiFamilyPortal\src\theme\MultiFamilyPortal.AdminTheme\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEAAD96-2CBD-467F-BDEF-67DB79191973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C29DB-CB3C-490F-9727-04CF7D1F6AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="693" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,11 @@
     <sheet name="Year 1 Projection - NF" sheetId="8" r:id="rId4"/>
     <sheet name="Assumption" sheetId="9" r:id="rId5"/>
     <sheet name="Year 1 Project - Assume" sheetId="11" r:id="rId6"/>
+    <sheet name="Underwriting Notes" sheetId="14" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Coaching Form'!$A$1:$K$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2956,7 +2960,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="146">
   <si>
     <t>2. Fill in orange colored Cells</t>
   </si>
@@ -3325,21 +3329,115 @@
   <si>
     <t xml:space="preserve">LICENSE:    </t>
   </si>
+  <si>
+    <t>Underwriter</t>
+  </si>
+  <si>
+    <t>Underwriting Notes</t>
+  </si>
+  <si>
+    <t>DEAL ANALYSIS - Coaching Review Form</t>
+  </si>
+  <si>
+    <t>Summary (what makes this a good deal):</t>
+  </si>
+  <si>
+    <t>Value play(s):</t>
+  </si>
+  <si>
+    <t>Year Built:</t>
+  </si>
+  <si>
+    <t>Construction Type (Siding, Roof, Heating System, etc):</t>
+  </si>
+  <si>
+    <t>Utilities (All Bills Paid, Rub System, or Bill Back):</t>
+  </si>
+  <si>
+    <t>Deferred Maintenance:</t>
+  </si>
+  <si>
+    <t>Class of Property:</t>
+  </si>
+  <si>
+    <t>Class of Neighborhood:</t>
+  </si>
+  <si>
+    <t>Unit Mix (# of 1, 2, 3 beds):</t>
+  </si>
+  <si>
+    <t>Current Occupancy:</t>
+  </si>
+  <si>
+    <t>Price/Unit:</t>
+  </si>
+  <si>
+    <t>CAP Rate:</t>
+  </si>
+  <si>
+    <t>COC Return:</t>
+  </si>
+  <si>
+    <t>Asking Price:</t>
+  </si>
+  <si>
+    <t>Offer Price:</t>
+  </si>
+  <si>
+    <t>Strike Price:</t>
+  </si>
+  <si>
+    <t>Market Occupancy:</t>
+  </si>
+  <si>
+    <t>Market Selling Price/Unit:</t>
+  </si>
+  <si>
+    <t>Market Selling Cap Rate:</t>
+  </si>
+  <si>
+    <t>Competition Rents (3 Closest Competitors): You can ask broker for nearest Competition</t>
+  </si>
+  <si>
+    <t>Where did you get the numbers that you used in the Underwriting Template?</t>
+  </si>
+  <si>
+    <t>(P&amp;L last 12 months trailing, 201X YTD, 201X annualized, 201X Actual, or Proforma??)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Beds</t>
+  </si>
+  <si>
+    <t>Baths</t>
+  </si>
+  <si>
+    <t>Sqft</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="11">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3468,6 +3566,43 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4577,12 +4712,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="463">
+  <cellXfs count="494">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -5173,94 +5312,159 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5275,151 +5479,17 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="6" fontId="15" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="15" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5443,6 +5513,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5475,35 +5548,6 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5513,297 +5557,460 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{156674D4-5164-44E3-8E44-D2A5B8AEFAEB}"/>
     <cellStyle name="Normal_Template" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="168">
+  <dxfs count="169">
+    <dxf>
+      <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7061,64 +7268,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>61913</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>52388</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9217" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9217"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74223608-53A8-4128-8765-4EA40C404FA8}" name="Table1" displayName="Table1" ref="A2:C68" totalsRowShown="0">
+  <autoFilter ref="A2:C68" xr:uid="{74223608-53A8-4128-8765-4EA40C404FA8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AB2EEECE-3B29-4256-9960-0BC2C3A375CF}" name="Underwriter" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" xr3:uid="{00B3F26D-E18D-4139-A1F9-7DBECFDF08F6}" name="Date" dataDxfId="0" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" xr3:uid="{6935B20C-6CE6-4E0E-BDC8-E2CF9CE55658}" name="Notes" dataCellStyle="Normal 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7973,46 +8132,592 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.8" shapeId="9217" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>61913</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>52388</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.8" shapeId="9217" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
+  <cols>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.8">
+      <c r="A1" s="264" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" s="257" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+    </row>
+    <row r="4" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="266"/>
+      <c r="B4" s="266"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="266"/>
+      <c r="K4" s="266"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A5" s="257" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="256"/>
+      <c r="C5" s="256"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="256"/>
+    </row>
+    <row r="6" spans="1:11" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="267"/>
+      <c r="B6" s="267"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="267"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="267"/>
+      <c r="K6" s="267"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A7" s="265" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="265"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="258"/>
+      <c r="G7" s="258"/>
+      <c r="H7" s="258"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="258"/>
+      <c r="K7" s="258"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A8" s="257" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="256"/>
+    </row>
+    <row r="9" spans="1:11" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="267"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="267"/>
+      <c r="I9" s="267"/>
+      <c r="J9" s="267"/>
+      <c r="K9" s="267"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A10" s="265" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="265"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A11" s="265" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="265"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="277">
+        <v>0</v>
+      </c>
+      <c r="E11" s="277"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="263"/>
+      <c r="I11" s="263"/>
+      <c r="J11" s="263"/>
+      <c r="K11" s="263"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A12" s="265" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="265"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="269"/>
+      <c r="F12" s="269"/>
+      <c r="G12" s="269"/>
+      <c r="H12" s="269"/>
+      <c r="I12" s="269"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="269"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A13" s="265" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="265"/>
+      <c r="C13" s="265"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A14" s="256"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="256"/>
+      <c r="D14" s="256"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="256"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A15" s="257" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="256"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="269"/>
+      <c r="G15" s="269"/>
+      <c r="H15" s="269"/>
+      <c r="I15" s="269"/>
+      <c r="J15" s="269"/>
+      <c r="K15" s="269"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A16" s="271" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="261" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="261" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="271" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="271"/>
+      <c r="I16" s="271" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="271"/>
+      <c r="K16" s="271"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A17" s="271"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="272"/>
+      <c r="I17" s="274"/>
+      <c r="J17" s="274"/>
+      <c r="K17" s="274"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A18" s="271"/>
+      <c r="B18" s="271"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="272"/>
+      <c r="I18" s="274"/>
+      <c r="J18" s="274"/>
+      <c r="K18" s="274"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A19" s="271"/>
+      <c r="B19" s="271"/>
+      <c r="C19" s="271"/>
+      <c r="D19" s="271"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="272"/>
+      <c r="I19" s="274"/>
+      <c r="J19" s="274"/>
+      <c r="K19" s="274"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A20" s="271"/>
+      <c r="B20" s="271"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="271"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="272"/>
+      <c r="H20" s="272"/>
+      <c r="I20" s="274"/>
+      <c r="J20" s="274"/>
+      <c r="K20" s="274"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A21" s="271"/>
+      <c r="B21" s="271"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="271"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="272"/>
+      <c r="H21" s="272"/>
+      <c r="I21" s="274"/>
+      <c r="J21" s="274"/>
+      <c r="K21" s="274"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A22" s="271"/>
+      <c r="B22" s="271"/>
+      <c r="C22" s="271"/>
+      <c r="D22" s="271"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="272"/>
+      <c r="H22" s="272"/>
+      <c r="I22" s="274"/>
+      <c r="J22" s="274"/>
+      <c r="K22" s="274"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A23" s="271"/>
+      <c r="B23" s="271"/>
+      <c r="C23" s="271"/>
+      <c r="D23" s="271"/>
+      <c r="E23" s="271"/>
+      <c r="F23" s="271"/>
+      <c r="G23" s="271"/>
+      <c r="H23" s="271"/>
+      <c r="I23" s="271"/>
+      <c r="J23" s="271"/>
+      <c r="K23" s="271"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A24" s="257" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="256"/>
+      <c r="C24" s="256"/>
+      <c r="D24" s="275">
+        <v>0</v>
+      </c>
+      <c r="E24" s="275"/>
+      <c r="F24" s="275"/>
+      <c r="G24" s="262"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="262"/>
+      <c r="J24" s="262"/>
+      <c r="K24" s="262"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A25" s="257" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="256"/>
+      <c r="C25" s="256"/>
+      <c r="D25" s="270">
+        <v>0</v>
+      </c>
+      <c r="E25" s="270"/>
+      <c r="F25" s="270"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="256"/>
+      <c r="K25" s="256"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A26" s="257" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="256"/>
+      <c r="C26" s="256"/>
+      <c r="D26" s="273">
+        <v>0</v>
+      </c>
+      <c r="E26" s="273"/>
+      <c r="F26" s="273"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="256"/>
+      <c r="K26" s="256"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A27" s="257" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="256"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="273">
+        <v>0</v>
+      </c>
+      <c r="E27" s="273"/>
+      <c r="F27" s="273"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="259"/>
+      <c r="J27" s="259"/>
+      <c r="K27" s="259"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A28" s="257" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="256"/>
+      <c r="C28" s="256"/>
+      <c r="D28" s="270">
+        <v>0</v>
+      </c>
+      <c r="E28" s="270"/>
+      <c r="F28" s="270"/>
+      <c r="G28" s="260"/>
+      <c r="H28" s="260"/>
+      <c r="I28" s="260"/>
+      <c r="J28" s="260"/>
+      <c r="K28" s="260"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A29" s="257" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="256"/>
+      <c r="C29" s="256"/>
+      <c r="D29" s="270">
+        <v>0</v>
+      </c>
+      <c r="E29" s="270"/>
+      <c r="F29" s="270"/>
+      <c r="G29" s="260"/>
+      <c r="H29" s="260"/>
+      <c r="I29" s="260"/>
+      <c r="J29" s="260"/>
+      <c r="K29" s="260"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A30" s="257" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="256"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="270">
+        <v>0</v>
+      </c>
+      <c r="E30" s="270"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="260"/>
+      <c r="H30" s="260"/>
+      <c r="I30" s="260"/>
+      <c r="J30" s="260"/>
+      <c r="K30" s="260"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A31" s="256"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="256"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="256"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A32" s="257" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="278">
+        <v>0</v>
+      </c>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A33" s="257" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="279">
+        <v>0</v>
+      </c>
+      <c r="E33" s="279"/>
+      <c r="F33" s="279"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A34" s="257" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="278">
+        <v>0</v>
+      </c>
+      <c r="E34" s="278"/>
+      <c r="F34" s="278"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A35" s="257" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="276"/>
+      <c r="B36" s="276"/>
+      <c r="C36" s="276"/>
+      <c r="D36" s="276"/>
+      <c r="E36" s="276"/>
+      <c r="F36" s="276"/>
+      <c r="G36" s="276"/>
+      <c r="H36" s="276"/>
+      <c r="I36" s="276"/>
+      <c r="J36" s="276"/>
+      <c r="K36" s="276"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A38" s="257" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A39" s="257" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="53.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="276"/>
+      <c r="B40" s="276"/>
+      <c r="C40" s="276"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="276"/>
+      <c r="H40" s="276"/>
+      <c r="I40" s="276"/>
+      <c r="J40" s="276"/>
+      <c r="K40" s="276"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8050,27 +8755,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="318" t="s">
+      <c r="B2" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="320"/>
-      <c r="P2" s="263" t="s">
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="414"/>
+      <c r="P2" s="387" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="264"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="264"/>
-      <c r="T2" s="265"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="388"/>
+      <c r="S2" s="388"/>
+      <c r="T2" s="389"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8094,11 +8799,11 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="334" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="262"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="305"/>
       <c r="E4" s="94" t="s">
         <v>111</v>
       </c>
@@ -8110,54 +8815,54 @@
       <c r="K4" s="181"/>
       <c r="L4" s="181"/>
       <c r="M4" s="182"/>
-      <c r="P4" s="266" t="s">
+      <c r="P4" s="390" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="Q4" s="391"/>
+      <c r="R4" s="391"/>
+      <c r="S4" s="391"/>
+      <c r="T4" s="392"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="337"/>
-      <c r="D5" s="338"/>
+      <c r="C5" s="324"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="185"/>
       <c r="H5" s="185"/>
       <c r="I5" s="186"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="260" t="s">
+      <c r="K5" s="334" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="261"/>
-      <c r="M5" s="262"/>
-      <c r="P5" s="269" t="s">
+      <c r="L5" s="304"/>
+      <c r="M5" s="305"/>
+      <c r="P5" s="393" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="270"/>
-      <c r="T5" s="271"/>
+      <c r="Q5" s="394"/>
+      <c r="R5" s="394"/>
+      <c r="S5" s="394"/>
+      <c r="T5" s="395"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="288" t="s">
+      <c r="B6" s="348" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="330"/>
+      <c r="C6" s="365"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="339" t="s">
+      <c r="E6" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="340"/>
-      <c r="G6" s="340"/>
-      <c r="H6" s="341"/>
-      <c r="I6" s="300" t="s">
+      <c r="F6" s="327"/>
+      <c r="G6" s="327"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="375" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="89"/>
@@ -8166,26 +8871,26 @@
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="33"/>
-      <c r="P6" s="272" t="s">
+      <c r="P6" s="396" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="273"/>
-      <c r="T6" s="274"/>
+      <c r="Q6" s="397"/>
+      <c r="R6" s="397"/>
+      <c r="S6" s="397"/>
+      <c r="T6" s="398"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="288" t="s">
+      <c r="B7" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="302"/>
+      <c r="C7" s="349"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="342"/>
-      <c r="F7" s="343"/>
-      <c r="G7" s="343"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="301"/>
+      <c r="E7" s="329"/>
+      <c r="F7" s="330"/>
+      <c r="G7" s="330"/>
+      <c r="H7" s="331"/>
+      <c r="I7" s="376"/>
       <c r="J7" s="89"/>
       <c r="K7" s="189" t="s">
         <v>96</v>
@@ -8205,22 +8910,22 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="288" t="s">
+      <c r="B8" s="348" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="302"/>
+      <c r="C8" s="349"/>
       <c r="D8" s="191" t="e">
         <f>D7/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="345" t="s">
+      <c r="E8" s="332" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="346"/>
-      <c r="G8" s="306">
-        <v>0</v>
-      </c>
-      <c r="H8" s="307"/>
+      <c r="F8" s="333"/>
+      <c r="G8" s="377">
+        <v>0</v>
+      </c>
+      <c r="H8" s="378"/>
       <c r="I8" s="65" t="e">
         <f>G8/G10</f>
         <v>#DIV/0!</v>
@@ -8236,19 +8941,19 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="288" t="s">
+      <c r="B9" s="348" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="302"/>
+      <c r="C9" s="349"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="316" t="s">
+      <c r="E9" s="354" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="317"/>
-      <c r="G9" s="353">
-        <v>0</v>
-      </c>
-      <c r="H9" s="354"/>
+      <c r="F9" s="355"/>
+      <c r="G9" s="341">
+        <v>0</v>
+      </c>
+      <c r="H9" s="342"/>
       <c r="I9" s="66" t="e">
         <f>G9/G10</f>
         <v>#DIV/0!</v>
@@ -8259,22 +8964,22 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="298" t="s">
+      <c r="B10" s="373" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="299"/>
+      <c r="C10" s="374"/>
       <c r="D10" s="196" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="331" t="s">
+      <c r="E10" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="332"/>
-      <c r="G10" s="333">
-        <v>0</v>
-      </c>
-      <c r="H10" s="334"/>
+      <c r="F10" s="367"/>
+      <c r="G10" s="368">
+        <v>0</v>
+      </c>
+      <c r="H10" s="369"/>
       <c r="I10" s="197" t="s">
         <v>16</v>
       </c>
@@ -8282,13 +8987,13 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="90"/>
-      <c r="P10" s="275" t="s">
+      <c r="P10" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="276"/>
-      <c r="R10" s="276"/>
-      <c r="S10" s="276"/>
-      <c r="T10" s="277"/>
+      <c r="Q10" s="400"/>
+      <c r="R10" s="400"/>
+      <c r="S10" s="400"/>
+      <c r="T10" s="401"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="198"/>
@@ -8303,11 +9008,11 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="90"/>
-      <c r="P11" s="278"/>
-      <c r="Q11" s="279"/>
-      <c r="R11" s="279"/>
-      <c r="S11" s="279"/>
-      <c r="T11" s="280"/>
+      <c r="P11" s="402"/>
+      <c r="Q11" s="403"/>
+      <c r="R11" s="403"/>
+      <c r="S11" s="403"/>
+      <c r="T11" s="404"/>
     </row>
     <row r="12" spans="2:21" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="91" t="s">
@@ -8323,23 +9028,23 @@
       <c r="F12" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="261" t="s">
+      <c r="G12" s="304" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="262"/>
+      <c r="H12" s="305"/>
       <c r="I12" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="260" t="s">
+      <c r="K12" s="334" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="261"/>
-      <c r="M12" s="262"/>
-      <c r="P12" s="293" t="s">
+      <c r="L12" s="304"/>
+      <c r="M12" s="305"/>
+      <c r="P12" s="286" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="295"/>
+      <c r="Q12" s="287"/>
       <c r="R12" s="29" t="s">
         <v>29</v>
       </c>
@@ -8351,38 +9056,38 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="364" t="s">
+      <c r="B13" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="368"/>
+      <c r="C13" s="345"/>
       <c r="D13" s="37"/>
       <c r="E13" s="130" t="e">
         <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="369" t="e">
+      <c r="G13" s="346" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="370"/>
+      <c r="H13" s="347"/>
       <c r="I13" s="200" t="e">
         <f>D13/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="324" t="s">
+      <c r="K13" s="357" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="325"/>
+      <c r="L13" s="358"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P13" s="377" t="s">
+      <c r="P13" s="288" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="378"/>
+      <c r="Q13" s="289"/>
       <c r="R13" s="11" t="e">
         <f t="shared" ref="R13:R19" si="0">E22</f>
         <v>#DIV/0!</v>
@@ -8409,11 +9114,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="359" t="e">
+      <c r="G14" s="302" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="360"/>
+      <c r="H14" s="303"/>
       <c r="I14" s="202" t="e">
         <f>D14/D13</f>
         <v>#DIV/0!</v>
@@ -8424,10 +9129,10 @@
       </c>
       <c r="L14" s="201"/>
       <c r="M14" s="40"/>
-      <c r="P14" s="373" t="s">
+      <c r="P14" s="282" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="374"/>
+      <c r="Q14" s="283"/>
       <c r="R14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8441,38 +9146,38 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="296" t="s">
+      <c r="B15" s="310" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="297"/>
+      <c r="C15" s="372"/>
       <c r="D15" s="41"/>
       <c r="E15" s="105" t="e">
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="359" t="e">
+      <c r="G15" s="302" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="360"/>
+      <c r="H15" s="303"/>
       <c r="I15" s="202" t="e">
         <f>D15/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="335" t="s">
+      <c r="K15" s="370" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="336"/>
+      <c r="L15" s="371"/>
       <c r="M15" s="134">
         <f>M13*M14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="373" t="s">
+      <c r="P15" s="282" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="374"/>
+      <c r="Q15" s="283"/>
       <c r="R15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8486,10 +9191,10 @@
       </c>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="383" t="s">
+      <c r="B16" s="350" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="384"/>
+      <c r="C16" s="351"/>
       <c r="D16" s="243">
         <f>D13-D14-D15</f>
         <v>0</v>
@@ -8502,28 +9207,28 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="361" t="e">
+      <c r="G16" s="306" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="362"/>
+      <c r="H16" s="307"/>
       <c r="I16" s="202" t="e">
         <f>D16/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="303" t="s">
+      <c r="K16" s="312" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="323"/>
+      <c r="L16" s="356"/>
       <c r="M16" s="134">
         <f>M13-M15</f>
         <v>0</v>
       </c>
-      <c r="P16" s="373" t="s">
+      <c r="P16" s="282" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="374"/>
+      <c r="Q16" s="283"/>
       <c r="R16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8547,25 +9252,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="359" t="e">
+      <c r="G17" s="302" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="360"/>
+      <c r="H17" s="303"/>
       <c r="I17" s="202" t="e">
         <f>D17/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="303" t="s">
+      <c r="K17" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="323"/>
+      <c r="L17" s="356"/>
       <c r="M17" s="43"/>
-      <c r="P17" s="373" t="s">
+      <c r="P17" s="282" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="374"/>
+      <c r="Q17" s="283"/>
       <c r="R17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8579,37 +9284,37 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="296" t="s">
+      <c r="B18" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="305"/>
+      <c r="C18" s="311"/>
       <c r="D18" s="41"/>
       <c r="E18" s="109" t="e">
         <f>D18/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="355" t="e">
+      <c r="G18" s="343" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="356"/>
+      <c r="H18" s="344"/>
       <c r="I18" s="203" t="e">
         <f>D18/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="321" t="s">
+      <c r="K18" s="415" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="322"/>
+      <c r="L18" s="416"/>
       <c r="M18" s="44">
         <v>30</v>
       </c>
-      <c r="P18" s="373" t="s">
+      <c r="P18" s="282" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="374"/>
+      <c r="Q18" s="283"/>
       <c r="R18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8639,11 +9344,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="314" t="e">
+      <c r="G19" s="322" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="315"/>
+      <c r="H19" s="323"/>
       <c r="I19" s="208" t="e">
         <f>D19/D13</f>
         <v>#DIV/0!</v>
@@ -8657,19 +9362,19 @@
         <f>PMT((M17/12),(12*M18),-M16)*12</f>
         <v>0</v>
       </c>
-      <c r="P19" s="385" t="s">
+      <c r="P19" s="294" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="386"/>
-      <c r="R19" s="379" t="e">
+      <c r="Q19" s="295"/>
+      <c r="R19" s="290" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="381" t="e">
+      <c r="S19" s="292" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="371" t="s">
+      <c r="T19" s="280" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8679,18 +9384,18 @@
       <c r="D20" s="210"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="329"/>
-      <c r="H20" s="329"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="364"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="90"/>
-      <c r="P20" s="387"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="380"/>
-      <c r="S20" s="382"/>
-      <c r="T20" s="372"/>
+      <c r="P20" s="296"/>
+      <c r="Q20" s="297"/>
+      <c r="R20" s="291"/>
+      <c r="S20" s="293"/>
+      <c r="T20" s="281"/>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="128" t="s">
@@ -8706,25 +9411,25 @@
       <c r="F21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="261" t="s">
+      <c r="G21" s="304" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="262"/>
+      <c r="H21" s="305"/>
       <c r="I21" s="94" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="260" t="s">
+      <c r="K21" s="334" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="261"/>
-      <c r="M21" s="262"/>
+      <c r="L21" s="304"/>
+      <c r="M21" s="305"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="373" t="s">
+      <c r="P21" s="282" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="374"/>
+      <c r="Q21" s="283"/>
       <c r="R21" s="13" t="e">
         <f>E29</f>
         <v>#DIV/0!</v>
@@ -8738,21 +9443,21 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="364" t="s">
+      <c r="B22" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="365"/>
+      <c r="C22" s="316"/>
       <c r="D22" s="37"/>
       <c r="E22" s="130" t="e">
         <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="389" t="e">
+      <c r="G22" s="352" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="390"/>
+      <c r="H22" s="353"/>
       <c r="I22" s="200" t="e">
         <f>D22/D13</f>
         <v>#DIV/0!</v>
@@ -8768,10 +9473,10 @@
         <f>L22*M13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="375" t="s">
+      <c r="P22" s="284" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="376"/>
+      <c r="Q22" s="285"/>
       <c r="R22" s="237" t="e">
         <f>E30</f>
         <v>#DIV/0!</v>
@@ -8785,21 +9490,21 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="303" t="s">
+      <c r="B23" s="312" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="304"/>
+      <c r="C23" s="313"/>
       <c r="D23" s="36"/>
       <c r="E23" s="105" t="e">
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="286" t="e">
+      <c r="G23" s="308" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="287"/>
+      <c r="H23" s="309"/>
       <c r="I23" s="202" t="e">
         <f>D23/D13</f>
         <v>#DIV/0!</v>
@@ -8812,10 +9517,10 @@
       <c r="M23" s="46">
         <v>0.01</v>
       </c>
-      <c r="P23" s="292" t="s">
+      <c r="P23" s="410" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="292"/>
+      <c r="Q23" s="410"/>
       <c r="R23" s="240">
         <f>D34</f>
         <v>0</v>
@@ -8839,11 +9544,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="286" t="e">
+      <c r="G24" s="308" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="287"/>
+      <c r="H24" s="309"/>
       <c r="I24" s="202" t="e">
         <f>D24/D13</f>
         <v>#DIV/0!</v>
@@ -8859,21 +9564,21 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="303" t="s">
+      <c r="B25" s="312" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="363"/>
+      <c r="C25" s="314"/>
       <c r="D25" s="36"/>
       <c r="E25" s="133" t="e">
         <f>D25/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="286" t="e">
+      <c r="G25" s="308" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="287"/>
+      <c r="H25" s="309"/>
       <c r="I25" s="202" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
@@ -8904,43 +9609,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="286" t="e">
+      <c r="G26" s="308" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="287"/>
+      <c r="H26" s="309"/>
       <c r="I26" s="202" t="e">
         <f>D26/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="281" t="s">
+      <c r="K26" s="405" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="282"/>
+      <c r="L26" s="406"/>
       <c r="M26" s="47"/>
-      <c r="P26" s="293" t="s">
+      <c r="P26" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="294"/>
-      <c r="R26" s="295"/>
+      <c r="Q26" s="411"/>
+      <c r="R26" s="287"/>
     </row>
     <row r="27" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="303" t="s">
+      <c r="B27" s="312" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="365"/>
+      <c r="C27" s="316"/>
       <c r="D27" s="36"/>
       <c r="E27" s="105" t="e">
         <f>D27/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="286" t="e">
+      <c r="G27" s="308" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="287"/>
+      <c r="H27" s="309"/>
       <c r="I27" s="202" t="e">
         <f>D27/D13</f>
         <v>#DIV/0!</v>
@@ -8955,27 +9660,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="290" t="s">
+      <c r="Q27" s="408" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="291"/>
+      <c r="R27" s="409"/>
     </row>
     <row r="28" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="303" t="s">
+      <c r="B28" s="312" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="304"/>
+      <c r="C28" s="313"/>
       <c r="D28" s="36"/>
       <c r="E28" s="105" t="e">
         <f>D28/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="286" t="e">
+      <c r="G28" s="308" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="287"/>
+      <c r="H28" s="309"/>
       <c r="I28" s="202" t="e">
         <f>D28/D13</f>
         <v>#DIV/0!</v>
@@ -8985,27 +9690,27 @@
       <c r="L28" s="174"/>
       <c r="M28" s="141"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="290" t="s">
+      <c r="Q28" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="291"/>
+      <c r="R28" s="409"/>
     </row>
     <row r="29" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="303" t="s">
+      <c r="B29" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="304"/>
+      <c r="C29" s="313"/>
       <c r="D29" s="36"/>
       <c r="E29" s="105" t="e">
         <f>D29/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="286" t="e">
+      <c r="G29" s="308" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="287"/>
+      <c r="H29" s="309"/>
       <c r="I29" s="202" t="e">
         <f>D29/D13</f>
         <v>#DIV/0!</v>
@@ -9020,27 +9725,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="53"/>
-      <c r="Q29" s="290" t="s">
+      <c r="Q29" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="291"/>
+      <c r="R29" s="409"/>
     </row>
     <row r="30" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="296" t="s">
+      <c r="B30" s="310" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="305"/>
+      <c r="C30" s="311"/>
       <c r="D30" s="41"/>
       <c r="E30" s="109" t="e">
         <f>D30/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="366" t="e">
+      <c r="G30" s="320" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="367"/>
+      <c r="H30" s="321"/>
       <c r="I30" s="203" t="e">
         <f>D30/D13</f>
         <v>#DIV/0!</v>
@@ -9068,34 +9773,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="314" t="e">
+      <c r="G31" s="322" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="315"/>
+      <c r="H31" s="323"/>
       <c r="I31" s="208" t="e">
         <f>D31/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="260" t="s">
+      <c r="K31" s="334" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="261"/>
-      <c r="M31" s="262"/>
+      <c r="L31" s="304"/>
+      <c r="M31" s="305"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="347" t="s">
+      <c r="B32" s="335" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="348"/>
-      <c r="D32" s="351">
+      <c r="C32" s="336"/>
+      <c r="D32" s="339">
         <f>D19-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="217"/>
-      <c r="F32" s="351">
+      <c r="F32" s="339">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -9111,11 +9816,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="349"/>
-      <c r="C33" s="350"/>
-      <c r="D33" s="352"/>
+      <c r="B33" s="337"/>
+      <c r="C33" s="338"/>
+      <c r="D33" s="340"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="352"/>
+      <c r="F33" s="340"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -9128,10 +9833,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="312" t="s">
+      <c r="B34" s="379" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="313"/>
+      <c r="C34" s="380"/>
       <c r="D34" s="151">
         <f>D6*E34</f>
         <v>0</v>
@@ -9147,10 +9852,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="288" t="s">
+      <c r="K34" s="348" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="289"/>
+      <c r="L34" s="407"/>
       <c r="M34" s="44">
         <v>250</v>
       </c>
@@ -9185,10 +9890,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="359" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="311"/>
+      <c r="C36" s="360"/>
       <c r="D36" s="155">
         <f>M19</f>
         <v>0</v>
@@ -9208,10 +9913,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="308" t="s">
+      <c r="B37" s="300" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="309"/>
+      <c r="C37" s="301"/>
       <c r="D37" s="220">
         <f>M35</f>
         <v>0</v>
@@ -9222,21 +9927,21 @@
         <v>0</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="257" t="s">
+      <c r="H37" s="384" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="258"/>
-      <c r="J37" s="258"/>
-      <c r="K37" s="258"/>
-      <c r="L37" s="258"/>
-      <c r="M37" s="259"/>
+      <c r="I37" s="385"/>
+      <c r="J37" s="385"/>
+      <c r="K37" s="385"/>
+      <c r="L37" s="385"/>
+      <c r="M37" s="386"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="310" t="s">
+      <c r="B38" s="359" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="311"/>
+      <c r="C38" s="360"/>
       <c r="D38" s="155">
         <f>(D35-D36-D37)</f>
         <v>0</v>
@@ -9247,18 +9952,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="326"/>
-      <c r="I38" s="327"/>
-      <c r="J38" s="327"/>
-      <c r="K38" s="327"/>
-      <c r="L38" s="327"/>
-      <c r="M38" s="328"/>
+      <c r="H38" s="361"/>
+      <c r="I38" s="362"/>
+      <c r="J38" s="362"/>
+      <c r="K38" s="362"/>
+      <c r="L38" s="362"/>
+      <c r="M38" s="363"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="308" t="s">
+      <c r="B39" s="300" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="309"/>
+      <c r="C39" s="301"/>
       <c r="D39" s="165" t="e">
         <f>D38/M29</f>
         <v>#DIV/0!</v>
@@ -9269,18 +9974,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="283"/>
-      <c r="I39" s="284"/>
-      <c r="J39" s="284"/>
-      <c r="K39" s="284"/>
-      <c r="L39" s="284"/>
-      <c r="M39" s="285"/>
+      <c r="H39" s="317"/>
+      <c r="I39" s="318"/>
+      <c r="J39" s="318"/>
+      <c r="K39" s="318"/>
+      <c r="L39" s="318"/>
+      <c r="M39" s="319"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="308" t="s">
+      <c r="B40" s="300" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="309"/>
+      <c r="C40" s="301"/>
       <c r="D40" s="221" t="e">
         <f>D35/(D36+D37)</f>
         <v>#DIV/0!</v>
@@ -9293,18 +9998,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="283"/>
-      <c r="I40" s="284"/>
-      <c r="J40" s="284"/>
-      <c r="K40" s="284"/>
-      <c r="L40" s="284"/>
-      <c r="M40" s="285"/>
+      <c r="H40" s="317"/>
+      <c r="I40" s="318"/>
+      <c r="J40" s="318"/>
+      <c r="K40" s="318"/>
+      <c r="L40" s="318"/>
+      <c r="M40" s="319"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="308" t="s">
+      <c r="B41" s="300" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="309"/>
+      <c r="C41" s="301"/>
       <c r="D41" s="165" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -9317,18 +10022,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="283"/>
-      <c r="I41" s="284"/>
-      <c r="J41" s="284"/>
-      <c r="K41" s="284"/>
-      <c r="L41" s="284"/>
-      <c r="M41" s="285"/>
+      <c r="H41" s="317"/>
+      <c r="I41" s="318"/>
+      <c r="J41" s="318"/>
+      <c r="K41" s="318"/>
+      <c r="L41" s="318"/>
+      <c r="M41" s="319"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="308" t="s">
+      <c r="B42" s="300" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="309"/>
+      <c r="C42" s="301"/>
       <c r="D42" s="155">
         <f>D38*E42</f>
         <v>0</v>
@@ -9343,18 +10048,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="283"/>
-      <c r="I42" s="284"/>
-      <c r="J42" s="284"/>
-      <c r="K42" s="284"/>
-      <c r="L42" s="284"/>
-      <c r="M42" s="285"/>
+      <c r="H42" s="317"/>
+      <c r="I42" s="318"/>
+      <c r="J42" s="318"/>
+      <c r="K42" s="318"/>
+      <c r="L42" s="318"/>
+      <c r="M42" s="319"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="308" t="s">
+      <c r="B43" s="300" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="309"/>
+      <c r="C43" s="301"/>
       <c r="D43" s="155">
         <f>D38-D42</f>
         <v>0</v>
@@ -9365,18 +10070,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="283"/>
-      <c r="I43" s="284"/>
-      <c r="J43" s="284"/>
-      <c r="K43" s="284"/>
-      <c r="L43" s="284"/>
-      <c r="M43" s="285"/>
+      <c r="H43" s="317"/>
+      <c r="I43" s="318"/>
+      <c r="J43" s="318"/>
+      <c r="K43" s="318"/>
+      <c r="L43" s="318"/>
+      <c r="M43" s="319"/>
     </row>
     <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="357" t="s">
+      <c r="B44" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="358"/>
+      <c r="C44" s="299"/>
       <c r="D44" s="175" t="e">
         <f>D43/M29</f>
         <v>#DIV/0!</v>
@@ -9387,12 +10092,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="254"/>
-      <c r="I44" s="255"/>
-      <c r="J44" s="255"/>
-      <c r="K44" s="255"/>
-      <c r="L44" s="255"/>
-      <c r="M44" s="256"/>
+      <c r="H44" s="381"/>
+      <c r="I44" s="382"/>
+      <c r="J44" s="382"/>
+      <c r="K44" s="382"/>
+      <c r="L44" s="382"/>
+      <c r="M44" s="383"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -9419,19 +10124,71 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="102">
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P10:T11"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B42:C42"/>
@@ -9456,246 +10213,194 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P10:T11"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="P18:Q18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="167" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="31" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>249.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="32" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="33" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="164" priority="34" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="34" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>299.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="35" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="164" priority="35" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>600</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="36" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>600</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="161" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="37" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="161" priority="38" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="39" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="158" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="40" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="158" priority="41" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>400</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="42" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="42" stopIfTrue="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="155" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="43" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>699.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="44" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="155" priority="44" stopIfTrue="1" operator="between">
       <formula>700</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="45" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="45" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="152" priority="46" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="46" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="47" stopIfTrue="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="48" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="48" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="149" priority="28" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="28" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="29" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="30" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="146" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="25" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="26" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="146" priority="26" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>600</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>600</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="143" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="22" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="143" priority="23" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="140" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="19" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="20" stopIfTrue="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="21" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="137" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="16" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="137" priority="17" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>400</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="134" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="13" stopIfTrue="1" operator="between">
       <formula>700</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="14" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>699.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="131" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="4" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>249.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="5" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="128" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="1" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="3" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9740,27 +10445,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="318" t="s">
+      <c r="B2" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="320"/>
-      <c r="P2" s="263" t="s">
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="414"/>
+      <c r="P2" s="387" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="264"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="264"/>
-      <c r="T2" s="265"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="388"/>
+      <c r="S2" s="388"/>
+      <c r="T2" s="389"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9784,103 +10489,103 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="334" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="446" t="s">
+      <c r="C4" s="304"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="419" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="447"/>
-      <c r="K4" s="447"/>
-      <c r="L4" s="447"/>
-      <c r="M4" s="448"/>
-      <c r="P4" s="269" t="s">
+      <c r="F4" s="420"/>
+      <c r="G4" s="420"/>
+      <c r="H4" s="420"/>
+      <c r="I4" s="420"/>
+      <c r="J4" s="420"/>
+      <c r="K4" s="420"/>
+      <c r="L4" s="420"/>
+      <c r="M4" s="421"/>
+      <c r="P4" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="270"/>
-      <c r="R4" s="270"/>
-      <c r="S4" s="270"/>
-      <c r="T4" s="271"/>
+      <c r="Q4" s="394"/>
+      <c r="R4" s="394"/>
+      <c r="S4" s="394"/>
+      <c r="T4" s="395"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="444">
+      <c r="C5" s="417">
         <f>'Acqusition-NF'!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="445"/>
-      <c r="E5" s="449"/>
-      <c r="F5" s="450"/>
-      <c r="G5" s="450"/>
-      <c r="H5" s="450"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="450"/>
-      <c r="K5" s="450"/>
-      <c r="L5" s="450"/>
-      <c r="M5" s="451"/>
-      <c r="P5" s="269" t="s">
+      <c r="D5" s="418"/>
+      <c r="E5" s="422"/>
+      <c r="F5" s="423"/>
+      <c r="G5" s="423"/>
+      <c r="H5" s="423"/>
+      <c r="I5" s="423"/>
+      <c r="J5" s="423"/>
+      <c r="K5" s="423"/>
+      <c r="L5" s="423"/>
+      <c r="M5" s="424"/>
+      <c r="P5" s="393" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="270"/>
-      <c r="T5" s="271"/>
+      <c r="Q5" s="394"/>
+      <c r="R5" s="394"/>
+      <c r="S5" s="394"/>
+      <c r="T5" s="395"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="441" t="s">
+      <c r="B6" s="425" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="443"/>
+      <c r="C6" s="427"/>
       <c r="D6" s="57">
         <f>'Acqusition-NF'!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="398"/>
-      <c r="F6" s="399"/>
-      <c r="G6" s="399"/>
-      <c r="H6" s="399"/>
-      <c r="I6" s="399"/>
-      <c r="J6" s="399"/>
-      <c r="K6" s="399"/>
-      <c r="L6" s="399"/>
-      <c r="M6" s="400"/>
-      <c r="P6" s="272" t="s">
+      <c r="E6" s="436"/>
+      <c r="F6" s="437"/>
+      <c r="G6" s="437"/>
+      <c r="H6" s="437"/>
+      <c r="I6" s="437"/>
+      <c r="J6" s="437"/>
+      <c r="K6" s="437"/>
+      <c r="L6" s="437"/>
+      <c r="M6" s="438"/>
+      <c r="P6" s="396" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="273"/>
-      <c r="T6" s="274"/>
+      <c r="Q6" s="397"/>
+      <c r="R6" s="397"/>
+      <c r="S6" s="397"/>
+      <c r="T6" s="398"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="441" t="s">
+      <c r="B7" s="425" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="442"/>
+      <c r="C7" s="426"/>
       <c r="D7" s="58">
         <f>'Acqusition-NF'!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="398"/>
-      <c r="F7" s="399"/>
-      <c r="G7" s="399"/>
-      <c r="H7" s="399"/>
-      <c r="I7" s="399"/>
-      <c r="J7" s="399"/>
-      <c r="K7" s="399"/>
-      <c r="L7" s="399"/>
-      <c r="M7" s="400"/>
+      <c r="E7" s="436"/>
+      <c r="F7" s="437"/>
+      <c r="G7" s="437"/>
+      <c r="H7" s="437"/>
+      <c r="I7" s="437"/>
+      <c r="J7" s="437"/>
+      <c r="K7" s="437"/>
+      <c r="L7" s="437"/>
+      <c r="M7" s="438"/>
       <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
@@ -9891,42 +10596,42 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="441" t="s">
+      <c r="B8" s="425" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="442"/>
+      <c r="C8" s="426"/>
       <c r="D8" s="58" t="e">
         <f>'Acqusition-NF'!D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="433"/>
-      <c r="F8" s="434"/>
-      <c r="G8" s="434"/>
-      <c r="H8" s="434"/>
-      <c r="I8" s="434"/>
-      <c r="J8" s="434"/>
-      <c r="K8" s="434"/>
-      <c r="L8" s="434"/>
-      <c r="M8" s="435"/>
+      <c r="E8" s="428"/>
+      <c r="F8" s="429"/>
+      <c r="G8" s="429"/>
+      <c r="H8" s="429"/>
+      <c r="I8" s="429"/>
+      <c r="J8" s="429"/>
+      <c r="K8" s="429"/>
+      <c r="L8" s="429"/>
+      <c r="M8" s="430"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="441" t="s">
+      <c r="B9" s="425" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="442"/>
+      <c r="C9" s="426"/>
       <c r="D9" s="59">
         <f>'Acqusition-NF'!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="433"/>
-      <c r="F9" s="434"/>
-      <c r="G9" s="434"/>
-      <c r="H9" s="434"/>
-      <c r="I9" s="434"/>
-      <c r="J9" s="434"/>
-      <c r="K9" s="434"/>
-      <c r="L9" s="434"/>
-      <c r="M9" s="435"/>
+      <c r="E9" s="428"/>
+      <c r="F9" s="429"/>
+      <c r="G9" s="429"/>
+      <c r="H9" s="429"/>
+      <c r="I9" s="429"/>
+      <c r="J9" s="429"/>
+      <c r="K9" s="429"/>
+      <c r="L9" s="429"/>
+      <c r="M9" s="430"/>
     </row>
     <row r="10" spans="2:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="431" t="s">
@@ -9937,15 +10642,15 @@
         <f>'Acqusition-NF'!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="438"/>
-      <c r="F10" s="439"/>
-      <c r="G10" s="439"/>
-      <c r="H10" s="439"/>
-      <c r="I10" s="439"/>
-      <c r="J10" s="439"/>
-      <c r="K10" s="439"/>
-      <c r="L10" s="439"/>
-      <c r="M10" s="440"/>
+      <c r="E10" s="433"/>
+      <c r="F10" s="434"/>
+      <c r="G10" s="434"/>
+      <c r="H10" s="434"/>
+      <c r="I10" s="434"/>
+      <c r="J10" s="434"/>
+      <c r="K10" s="434"/>
+      <c r="L10" s="434"/>
+      <c r="M10" s="435"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="85"/>
@@ -9975,30 +10680,30 @@
       <c r="F12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="261" t="s">
+      <c r="G12" s="304" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="262"/>
+      <c r="H12" s="305"/>
       <c r="I12" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="260" t="s">
+      <c r="K12" s="334" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="261"/>
-      <c r="M12" s="262"/>
-      <c r="P12" s="293" t="s">
+      <c r="L12" s="304"/>
+      <c r="M12" s="305"/>
+      <c r="P12" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="294"/>
-      <c r="R12" s="295"/>
+      <c r="Q12" s="411"/>
+      <c r="R12" s="287"/>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="428" t="s">
+      <c r="B13" s="441" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="437"/>
+      <c r="C13" s="442"/>
       <c r="D13" s="58">
         <f>'Acqusition-NF'!D13</f>
         <v>0</v>
@@ -10008,29 +10713,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="54"/>
-      <c r="G13" s="369" t="e">
+      <c r="G13" s="346" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="370"/>
+      <c r="H13" s="347"/>
       <c r="I13" s="112" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="324" t="s">
+      <c r="K13" s="357" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="325"/>
+      <c r="L13" s="358"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="290" t="s">
+      <c r="Q13" s="408" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="291"/>
+      <c r="R13" s="409"/>
     </row>
     <row r="14" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="104" t="s">
@@ -10049,11 +10754,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="359" t="e">
+      <c r="G14" s="302" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="360"/>
+      <c r="H14" s="303"/>
       <c r="I14" s="106" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -10068,16 +10773,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="290" t="s">
+      <c r="Q14" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="291"/>
+      <c r="R14" s="409"/>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="394" t="s">
+      <c r="B15" s="439" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="436"/>
+      <c r="C15" s="440"/>
       <c r="D15" s="68">
         <f>'Acqusition-NF'!D15</f>
         <v>0</v>
@@ -10087,29 +10792,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="355" t="e">
+      <c r="G15" s="343" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="356"/>
+      <c r="H15" s="344"/>
       <c r="I15" s="111" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="335" t="s">
+      <c r="K15" s="370" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="336"/>
+      <c r="L15" s="371"/>
       <c r="M15" s="62">
         <f>M13*M14</f>
         <v>0</v>
       </c>
       <c r="P15" s="53"/>
-      <c r="Q15" s="290" t="s">
+      <c r="Q15" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="291"/>
+      <c r="R15" s="409"/>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" s="224" t="s">
@@ -10128,20 +10833,20 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="429" t="e">
+      <c r="G16" s="443" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="430"/>
+      <c r="H16" s="444"/>
       <c r="I16" s="112" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="303" t="s">
+      <c r="K16" s="312" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="323"/>
+      <c r="L16" s="356"/>
       <c r="M16" s="62">
         <f>M13-M15</f>
         <v>0</v>
@@ -10161,30 +10866,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="359" t="e">
+      <c r="G17" s="302" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="360"/>
+      <c r="H17" s="303"/>
       <c r="I17" s="106" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="303" t="s">
+      <c r="K17" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="323"/>
+      <c r="L17" s="356"/>
       <c r="M17" s="63">
         <f>'Acqusition-NF'!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="394" t="s">
+      <c r="B18" s="439" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="395"/>
+      <c r="C18" s="451"/>
       <c r="D18" s="68">
         <f>'Acqusition-NF'!D18</f>
         <v>0</v>
@@ -10194,20 +10899,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="355" t="e">
+      <c r="G18" s="343" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="356"/>
+      <c r="H18" s="344"/>
       <c r="I18" s="111" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="321" t="s">
+      <c r="K18" s="415" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="322"/>
+      <c r="L18" s="416"/>
       <c r="M18" s="64">
         <f>'Acqusition-NF'!M18</f>
         <v>30</v>
@@ -10230,11 +10935,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="314" t="e">
+      <c r="G19" s="322" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="315"/>
+      <c r="H19" s="323"/>
       <c r="I19" s="120" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -10255,8 +10960,8 @@
       <c r="D20" s="125"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="329"/>
-      <c r="H20" s="329"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="364"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
@@ -10277,27 +10982,27 @@
       <c r="F21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="261" t="s">
+      <c r="G21" s="304" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="262"/>
+      <c r="H21" s="305"/>
       <c r="I21" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="425" t="s">
+      <c r="K21" s="454" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="426"/>
-      <c r="M21" s="403"/>
+      <c r="L21" s="455"/>
+      <c r="M21" s="456"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="428" t="s">
+      <c r="B22" s="441" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="424"/>
+      <c r="C22" s="453"/>
       <c r="D22" s="58">
         <f>'Acqusition-NF'!D22</f>
         <v>0</v>
@@ -10307,30 +11012,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="389" t="e">
+      <c r="G22" s="352" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="390"/>
+      <c r="H22" s="353"/>
       <c r="I22" s="112" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="131"/>
-      <c r="K22" s="401" t="s">
+      <c r="K22" s="473" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="402"/>
+      <c r="L22" s="474"/>
       <c r="M22" s="103">
         <f>'Acqusition-NF'!M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="392" t="s">
+      <c r="B23" s="452" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="393"/>
+      <c r="C23" s="475"/>
       <c r="D23" s="58">
         <f>'Acqusition-NF'!D23</f>
         <v>0</v>
@@ -10340,20 +11045,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="286" t="e">
+      <c r="G23" s="308" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="287"/>
+      <c r="H23" s="309"/>
       <c r="I23" s="106" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="131"/>
-      <c r="K23" s="303" t="s">
+      <c r="K23" s="312" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="323"/>
+      <c r="L23" s="356"/>
       <c r="M23" s="66">
         <f>'Acqusition-NF'!M23</f>
         <v>0.01</v>
@@ -10373,30 +11078,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="286" t="e">
+      <c r="G24" s="308" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="287"/>
+      <c r="H24" s="309"/>
       <c r="I24" s="106" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="131"/>
-      <c r="K24" s="303" t="s">
+      <c r="K24" s="312" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="323"/>
+      <c r="L24" s="356"/>
       <c r="M24" s="134">
         <f>'Acqusition-NF'!M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="392" t="s">
+      <c r="B25" s="452" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="427"/>
+      <c r="C25" s="457"/>
       <c r="D25" s="58">
         <f>'Acqusition-NF'!D25</f>
         <v>0</v>
@@ -10406,20 +11111,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="286" t="e">
+      <c r="G25" s="308" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="287"/>
+      <c r="H25" s="309"/>
       <c r="I25" s="106" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="131"/>
-      <c r="K25" s="321" t="s">
+      <c r="K25" s="415" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="322"/>
+      <c r="L25" s="416"/>
       <c r="M25" s="134">
         <f>'Acqusition-NF'!M25</f>
         <v>0</v>
@@ -10445,30 +11150,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="286" t="e">
+      <c r="G26" s="308" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="287"/>
+      <c r="H26" s="309"/>
       <c r="I26" s="106" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="420" t="s">
+      <c r="K26" s="458" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="421"/>
+      <c r="L26" s="459"/>
       <c r="M26" s="123">
         <f>'Acqusition-NF'!M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="392" t="s">
+      <c r="B27" s="452" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="424"/>
+      <c r="C27" s="453"/>
       <c r="D27" s="58">
         <f>'Acqusition-NF'!D27</f>
         <v>0</v>
@@ -10478,11 +11183,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="286" t="e">
+      <c r="G27" s="308" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="287"/>
+      <c r="H27" s="309"/>
       <c r="I27" s="106" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -10498,10 +11203,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="392" t="s">
+      <c r="B28" s="452" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="393"/>
+      <c r="C28" s="475"/>
       <c r="D28" s="58">
         <f>'Acqusition-NF'!D28</f>
         <v>0</v>
@@ -10511,11 +11216,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="286" t="e">
+      <c r="G28" s="308" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="287"/>
+      <c r="H28" s="309"/>
       <c r="I28" s="106" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -10526,10 +11231,10 @@
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="392" t="s">
+      <c r="B29" s="452" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="393"/>
+      <c r="C29" s="475"/>
       <c r="D29" s="58">
         <f>'Acqusition-NF'!D29</f>
         <v>0</v>
@@ -10539,11 +11244,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="G29" s="286" t="e">
+      <c r="G29" s="308" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="287"/>
+      <c r="H29" s="309"/>
       <c r="I29" s="106" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -10559,10 +11264,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="394" t="s">
+      <c r="B30" s="439" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="395"/>
+      <c r="C30" s="451"/>
       <c r="D30" s="70">
         <f>'Acqusition-NF'!D30</f>
         <v>0</v>
@@ -10572,11 +11277,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="366" t="e">
+      <c r="G30" s="320" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="367"/>
+      <c r="H30" s="321"/>
       <c r="I30" s="111" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -10604,34 +11309,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="396" t="e">
+      <c r="G31" s="476" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="397"/>
+      <c r="H31" s="477"/>
       <c r="I31" s="120" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="260" t="s">
+      <c r="K31" s="334" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="261"/>
-      <c r="M31" s="403"/>
+      <c r="L31" s="304"/>
+      <c r="M31" s="456"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="347" t="s">
+      <c r="B32" s="335" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="348"/>
-      <c r="D32" s="407">
+      <c r="C32" s="336"/>
+      <c r="D32" s="463">
         <f>'Acqusition-NF'!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="147"/>
-      <c r="F32" s="409">
+      <c r="F32" s="465">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -10650,11 +11355,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="349"/>
-      <c r="C33" s="350"/>
-      <c r="D33" s="408"/>
+      <c r="B33" s="337"/>
+      <c r="C33" s="338"/>
+      <c r="D33" s="464"/>
       <c r="E33" s="149"/>
-      <c r="F33" s="410"/>
+      <c r="F33" s="466"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -10670,10 +11375,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="312" t="s">
+      <c r="B34" s="379" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="313"/>
+      <c r="C34" s="380"/>
       <c r="D34" s="151">
         <f>'Acqusition-NF'!D34</f>
         <v>0</v>
@@ -10687,10 +11392,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="288" t="s">
+      <c r="K34" s="348" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="411"/>
+      <c r="L34" s="467"/>
       <c r="M34" s="134">
         <f>'Acqusition-NF'!M34</f>
         <v>250</v>
@@ -10726,10 +11431,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="359" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="412"/>
+      <c r="C36" s="468"/>
       <c r="D36" s="228">
         <f>'Acqusition-NF'!D36</f>
         <v>0</v>
@@ -10749,10 +11454,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="308" t="s">
+      <c r="B37" s="300" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="391"/>
+      <c r="C37" s="462"/>
       <c r="D37" s="228">
         <f>'Acqusition-NF'!D37</f>
         <v>0</v>
@@ -10763,23 +11468,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="257" t="s">
+      <c r="H37" s="384" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="258"/>
-      <c r="J37" s="258"/>
-      <c r="K37" s="258"/>
-      <c r="L37" s="257" t="s">
+      <c r="I37" s="385"/>
+      <c r="J37" s="385"/>
+      <c r="K37" s="385"/>
+      <c r="L37" s="384" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="259"/>
+      <c r="M37" s="386"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="310" t="s">
+      <c r="B38" s="359" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="412"/>
+      <c r="C38" s="468"/>
       <c r="D38" s="228">
         <f>'Acqusition-NF'!D38</f>
         <v>0</v>
@@ -10790,18 +11495,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="413"/>
-      <c r="I38" s="414"/>
-      <c r="J38" s="414"/>
-      <c r="K38" s="415"/>
-      <c r="L38" s="413"/>
-      <c r="M38" s="422"/>
+      <c r="H38" s="460"/>
+      <c r="I38" s="469"/>
+      <c r="J38" s="469"/>
+      <c r="K38" s="470"/>
+      <c r="L38" s="460"/>
+      <c r="M38" s="461"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="308" t="s">
+      <c r="B39" s="300" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="391"/>
+      <c r="C39" s="462"/>
       <c r="D39" s="229" t="e">
         <f>'Acqusition-NF'!D39</f>
         <v>#DIV/0!</v>
@@ -10812,18 +11517,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="404"/>
-      <c r="I39" s="405"/>
-      <c r="J39" s="405"/>
-      <c r="K39" s="406"/>
-      <c r="L39" s="404"/>
-      <c r="M39" s="419"/>
+      <c r="H39" s="445"/>
+      <c r="I39" s="449"/>
+      <c r="J39" s="449"/>
+      <c r="K39" s="450"/>
+      <c r="L39" s="445"/>
+      <c r="M39" s="446"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="308" t="s">
+      <c r="B40" s="300" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="391"/>
+      <c r="C40" s="462"/>
       <c r="D40" s="230" t="e">
         <f>'Acqusition-NF'!D40</f>
         <v>#DIV/0!</v>
@@ -10836,18 +11541,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="404"/>
-      <c r="I40" s="405"/>
-      <c r="J40" s="405"/>
-      <c r="K40" s="406"/>
-      <c r="L40" s="404"/>
-      <c r="M40" s="419"/>
+      <c r="H40" s="445"/>
+      <c r="I40" s="449"/>
+      <c r="J40" s="449"/>
+      <c r="K40" s="450"/>
+      <c r="L40" s="445"/>
+      <c r="M40" s="446"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="308" t="s">
+      <c r="B41" s="300" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="391"/>
+      <c r="C41" s="462"/>
       <c r="D41" s="229" t="e">
         <f>'Acqusition-NF'!D41</f>
         <v>#DIV/0!</v>
@@ -10860,18 +11565,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="404"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="405"/>
-      <c r="K41" s="406"/>
-      <c r="L41" s="404"/>
-      <c r="M41" s="419"/>
+      <c r="H41" s="445"/>
+      <c r="I41" s="449"/>
+      <c r="J41" s="449"/>
+      <c r="K41" s="450"/>
+      <c r="L41" s="445"/>
+      <c r="M41" s="446"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="308" t="s">
+      <c r="B42" s="300" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="391"/>
+      <c r="C42" s="462"/>
       <c r="D42" s="228">
         <f>'Acqusition-NF'!D42</f>
         <v>0</v>
@@ -10887,18 +11592,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="404"/>
-      <c r="I42" s="405"/>
-      <c r="J42" s="405"/>
-      <c r="K42" s="406"/>
-      <c r="L42" s="404"/>
-      <c r="M42" s="419"/>
+      <c r="H42" s="445"/>
+      <c r="I42" s="449"/>
+      <c r="J42" s="449"/>
+      <c r="K42" s="450"/>
+      <c r="L42" s="445"/>
+      <c r="M42" s="446"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="308" t="s">
+      <c r="B43" s="300" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="391"/>
+      <c r="C43" s="462"/>
       <c r="D43" s="228">
         <f>'Acqusition-NF'!D43</f>
         <v>0</v>
@@ -10909,18 +11614,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="404"/>
-      <c r="I43" s="405"/>
-      <c r="J43" s="405"/>
-      <c r="K43" s="406"/>
-      <c r="L43" s="404"/>
-      <c r="M43" s="419"/>
+      <c r="H43" s="445"/>
+      <c r="I43" s="449"/>
+      <c r="J43" s="449"/>
+      <c r="K43" s="450"/>
+      <c r="L43" s="445"/>
+      <c r="M43" s="446"/>
     </row>
     <row r="44" spans="2:19" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="357" t="s">
+      <c r="B44" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="358"/>
+      <c r="C44" s="299"/>
       <c r="D44" s="231" t="e">
         <f>'Acqusition-NF'!D44</f>
         <v>#DIV/0!</v>
@@ -10931,12 +11636,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="416"/>
-      <c r="I44" s="417"/>
-      <c r="J44" s="417"/>
-      <c r="K44" s="418"/>
-      <c r="L44" s="416"/>
-      <c r="M44" s="423"/>
+      <c r="H44" s="447"/>
+      <c r="I44" s="471"/>
+      <c r="J44" s="471"/>
+      <c r="K44" s="472"/>
+      <c r="L44" s="447"/>
+      <c r="M44" s="448"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -10963,38 +11668,50 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="96">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L37:M37"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="L42:M42"/>
@@ -11011,229 +11728,217 @@
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="E10:M10"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E7:M7"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="125" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="40" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>249.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="41" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="42" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="42" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="122" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="37" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>299.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="38" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>600</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="39" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>600</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="119" priority="34" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="34" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="35" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="119" priority="35" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="36" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="116" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="31" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="32" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="32" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>400</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="33" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="113" priority="28" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="28" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>699.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="29" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="113" priority="29" stopIfTrue="1" operator="between">
       <formula>700</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="110" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="25" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="26" stopIfTrue="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="107" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="22" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="23" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="24" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="104" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="19" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="20" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>600</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="21" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>600</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="101" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="16" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="17" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="98" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="13" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="14" stopIfTrue="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="95" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="10" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="11" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>400</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="92" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="7" stopIfTrue="1" operator="between">
       <formula>700</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="8" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>699.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="89" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="4" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>249.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="5" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="86" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="1" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="3" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11281,27 +11986,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="3.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="318" t="s">
+      <c r="B2" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="320"/>
-      <c r="P2" s="263" t="s">
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="414"/>
+      <c r="P2" s="387" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="264"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="264"/>
-      <c r="T2" s="265"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="388"/>
+      <c r="S2" s="388"/>
+      <c r="T2" s="389"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11325,11 +12030,11 @@
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="334" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="262"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="305"/>
       <c r="E4" s="94" t="s">
         <v>111</v>
       </c>
@@ -11341,54 +12046,54 @@
       <c r="K4" s="181"/>
       <c r="L4" s="181"/>
       <c r="M4" s="182"/>
-      <c r="P4" s="269" t="s">
+      <c r="P4" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="270"/>
-      <c r="R4" s="270"/>
-      <c r="S4" s="270"/>
-      <c r="T4" s="271"/>
+      <c r="Q4" s="394"/>
+      <c r="R4" s="394"/>
+      <c r="S4" s="394"/>
+      <c r="T4" s="395"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="337"/>
-      <c r="D5" s="338"/>
+      <c r="C5" s="324"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="185"/>
       <c r="H5" s="185"/>
       <c r="I5" s="186"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="260" t="s">
+      <c r="K5" s="334" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="261"/>
-      <c r="M5" s="262"/>
-      <c r="P5" s="269" t="s">
+      <c r="L5" s="304"/>
+      <c r="M5" s="305"/>
+      <c r="P5" s="393" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="270"/>
-      <c r="T5" s="271"/>
+      <c r="Q5" s="394"/>
+      <c r="R5" s="394"/>
+      <c r="S5" s="394"/>
+      <c r="T5" s="395"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="288" t="s">
+      <c r="B6" s="348" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="330"/>
+      <c r="C6" s="365"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="339" t="s">
+      <c r="E6" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="340"/>
-      <c r="G6" s="340"/>
-      <c r="H6" s="341"/>
-      <c r="I6" s="300" t="s">
+      <c r="F6" s="327"/>
+      <c r="G6" s="327"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="375" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="89"/>
@@ -11397,26 +12102,26 @@
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="33"/>
-      <c r="P6" s="272" t="s">
+      <c r="P6" s="396" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="273"/>
-      <c r="T6" s="274"/>
+      <c r="Q6" s="397"/>
+      <c r="R6" s="397"/>
+      <c r="S6" s="397"/>
+      <c r="T6" s="398"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="288" t="s">
+      <c r="B7" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="302"/>
+      <c r="C7" s="349"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="342"/>
-      <c r="F7" s="343"/>
-      <c r="G7" s="343"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="301"/>
+      <c r="E7" s="329"/>
+      <c r="F7" s="330"/>
+      <c r="G7" s="330"/>
+      <c r="H7" s="331"/>
+      <c r="I7" s="376"/>
       <c r="J7" s="89"/>
       <c r="K7" s="189" t="s">
         <v>96</v>
@@ -11436,20 +12141,20 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="288" t="s">
+      <c r="B8" s="348" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="302"/>
+      <c r="C8" s="349"/>
       <c r="D8" s="191" t="e">
         <f>D7/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="345" t="s">
+      <c r="E8" s="332" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="346"/>
-      <c r="G8" s="306"/>
-      <c r="H8" s="307"/>
+      <c r="F8" s="333"/>
+      <c r="G8" s="377"/>
+      <c r="H8" s="378"/>
       <c r="I8" s="65" t="e">
         <f>G8/G10</f>
         <v>#DIV/0!</v>
@@ -11465,17 +12170,17 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="288" t="s">
+      <c r="B9" s="348" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="302"/>
+      <c r="C9" s="349"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="316" t="s">
+      <c r="E9" s="354" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="317"/>
-      <c r="G9" s="353"/>
-      <c r="H9" s="354"/>
+      <c r="F9" s="355"/>
+      <c r="G9" s="341"/>
+      <c r="H9" s="342"/>
       <c r="I9" s="66" t="e">
         <f>G9/G10</f>
         <v>#DIV/0!</v>
@@ -11486,20 +12191,20 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="298" t="s">
+      <c r="B10" s="373" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="299"/>
+      <c r="C10" s="374"/>
       <c r="D10" s="196" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="331" t="s">
+      <c r="E10" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="332"/>
-      <c r="G10" s="333"/>
-      <c r="H10" s="334"/>
+      <c r="F10" s="367"/>
+      <c r="G10" s="368"/>
+      <c r="H10" s="369"/>
       <c r="I10" s="197" t="s">
         <v>16</v>
       </c>
@@ -11507,13 +12212,13 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="90"/>
-      <c r="P10" s="275" t="s">
+      <c r="P10" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="276"/>
-      <c r="R10" s="276"/>
-      <c r="S10" s="276"/>
-      <c r="T10" s="277"/>
+      <c r="Q10" s="400"/>
+      <c r="R10" s="400"/>
+      <c r="S10" s="400"/>
+      <c r="T10" s="401"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="198"/>
@@ -11528,11 +12233,11 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="90"/>
-      <c r="P11" s="278"/>
-      <c r="Q11" s="279"/>
-      <c r="R11" s="279"/>
-      <c r="S11" s="279"/>
-      <c r="T11" s="280"/>
+      <c r="P11" s="402"/>
+      <c r="Q11" s="403"/>
+      <c r="R11" s="403"/>
+      <c r="S11" s="403"/>
+      <c r="T11" s="404"/>
     </row>
     <row r="12" spans="2:21" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="91" t="s">
@@ -11548,23 +12253,23 @@
       <c r="F12" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="261" t="s">
+      <c r="G12" s="304" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="262"/>
+      <c r="H12" s="305"/>
       <c r="I12" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="260" t="s">
+      <c r="K12" s="334" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="261"/>
-      <c r="M12" s="262"/>
-      <c r="P12" s="293" t="s">
+      <c r="L12" s="304"/>
+      <c r="M12" s="305"/>
+      <c r="P12" s="286" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="295"/>
+      <c r="Q12" s="287"/>
       <c r="R12" s="29" t="s">
         <v>29</v>
       </c>
@@ -11576,38 +12281,38 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="364" t="s">
+      <c r="B13" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="368"/>
+      <c r="C13" s="345"/>
       <c r="D13" s="37"/>
       <c r="E13" s="130" t="e">
         <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="369" t="e">
+      <c r="G13" s="346" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="370"/>
+      <c r="H13" s="347"/>
       <c r="I13" s="200" t="e">
         <f>D13/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="456" t="s">
+      <c r="K13" s="478" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="457"/>
+      <c r="L13" s="479"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P13" s="377" t="s">
+      <c r="P13" s="288" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="378"/>
+      <c r="Q13" s="289"/>
       <c r="R13" s="11" t="e">
         <f t="shared" ref="R13:R19" si="0">E22</f>
         <v>#DIV/0!</v>
@@ -11634,11 +12339,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="359" t="e">
+      <c r="G14" s="302" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="360"/>
+      <c r="H14" s="303"/>
       <c r="I14" s="202" t="e">
         <f>D14/D13</f>
         <v>#DIV/0!</v>
@@ -11649,10 +12354,10 @@
       </c>
       <c r="L14" s="108"/>
       <c r="M14" s="48"/>
-      <c r="P14" s="373" t="s">
+      <c r="P14" s="282" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="374"/>
+      <c r="Q14" s="283"/>
       <c r="R14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11666,38 +12371,38 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="296" t="s">
+      <c r="B15" s="310" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="297"/>
+      <c r="C15" s="372"/>
       <c r="D15" s="41"/>
       <c r="E15" s="109" t="e">
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="355" t="e">
+      <c r="G15" s="343" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="356"/>
+      <c r="H15" s="344"/>
       <c r="I15" s="203" t="e">
         <f>D15/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="454" t="s">
+      <c r="K15" s="480" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="455"/>
+      <c r="L15" s="481"/>
       <c r="M15" s="134">
         <f>M13-M14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="373" t="s">
+      <c r="P15" s="282" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="374"/>
+      <c r="Q15" s="283"/>
       <c r="R15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11727,23 +12432,23 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="429" t="e">
+      <c r="G16" s="443" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="430"/>
+      <c r="H16" s="444"/>
       <c r="I16" s="200" t="e">
         <f>D16/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="303"/>
-      <c r="L16" s="323"/>
+      <c r="K16" s="312"/>
+      <c r="L16" s="356"/>
       <c r="M16" s="134"/>
-      <c r="P16" s="373" t="s">
+      <c r="P16" s="282" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="374"/>
+      <c r="Q16" s="283"/>
       <c r="R16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11767,25 +12472,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="359" t="e">
+      <c r="G17" s="302" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="360"/>
+      <c r="H17" s="303"/>
       <c r="I17" s="202" t="e">
         <f>D17/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="288" t="s">
+      <c r="K17" s="348" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="289"/>
+      <c r="L17" s="407"/>
       <c r="M17" s="48"/>
-      <c r="P17" s="373" t="s">
+      <c r="P17" s="282" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="374"/>
+      <c r="Q17" s="283"/>
       <c r="R17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11799,33 +12504,33 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="296" t="s">
+      <c r="B18" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="305"/>
+      <c r="C18" s="311"/>
       <c r="D18" s="41"/>
       <c r="E18" s="109" t="e">
         <f>D18/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="355" t="e">
+      <c r="G18" s="343" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="356"/>
+      <c r="H18" s="344"/>
       <c r="I18" s="203" t="e">
         <f>D18/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="321"/>
-      <c r="L18" s="322"/>
+      <c r="K18" s="415"/>
+      <c r="L18" s="416"/>
       <c r="M18" s="64"/>
-      <c r="P18" s="373" t="s">
+      <c r="P18" s="282" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="374"/>
+      <c r="Q18" s="283"/>
       <c r="R18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11855,11 +12560,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="314" t="e">
+      <c r="G19" s="322" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="315"/>
+      <c r="H19" s="323"/>
       <c r="I19" s="208" t="e">
         <f>D19/D13</f>
         <v>#DIV/0!</v>
@@ -11873,19 +12578,19 @@
         <f>M17*12</f>
         <v>0</v>
       </c>
-      <c r="P19" s="385" t="s">
+      <c r="P19" s="294" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="386"/>
-      <c r="R19" s="379" t="e">
+      <c r="Q19" s="295"/>
+      <c r="R19" s="290" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="381" t="e">
+      <c r="S19" s="292" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="371" t="s">
+      <c r="T19" s="280" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11895,18 +12600,18 @@
       <c r="D20" s="210"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="329"/>
-      <c r="H20" s="329"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="364"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="90"/>
-      <c r="P20" s="387"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="380"/>
-      <c r="S20" s="382"/>
-      <c r="T20" s="372"/>
+      <c r="P20" s="296"/>
+      <c r="Q20" s="297"/>
+      <c r="R20" s="291"/>
+      <c r="S20" s="293"/>
+      <c r="T20" s="281"/>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="128" t="s">
@@ -11922,25 +12627,25 @@
       <c r="F21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="261" t="s">
+      <c r="G21" s="304" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="262"/>
+      <c r="H21" s="305"/>
       <c r="I21" s="94" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="260" t="s">
+      <c r="K21" s="334" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="261"/>
-      <c r="M21" s="262"/>
+      <c r="L21" s="304"/>
+      <c r="M21" s="305"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="373" t="s">
+      <c r="P21" s="282" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="374"/>
+      <c r="Q21" s="283"/>
       <c r="R21" s="13" t="e">
         <f>E29</f>
         <v>#DIV/0!</v>
@@ -11954,21 +12659,21 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="364" t="s">
+      <c r="B22" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="365"/>
+      <c r="C22" s="316"/>
       <c r="D22" s="37"/>
       <c r="E22" s="130" t="e">
         <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="389" t="e">
+      <c r="G22" s="352" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="390"/>
+      <c r="H22" s="353"/>
       <c r="I22" s="200" t="e">
         <f>D22/D13</f>
         <v>#DIV/0!</v>
@@ -11984,10 +12689,10 @@
         <f>L22*M13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="375" t="s">
+      <c r="P22" s="284" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="376"/>
+      <c r="Q22" s="285"/>
       <c r="R22" s="237" t="e">
         <f>E30</f>
         <v>#DIV/0!</v>
@@ -12001,21 +12706,21 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="303" t="s">
+      <c r="B23" s="312" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="304"/>
+      <c r="C23" s="313"/>
       <c r="D23" s="36"/>
       <c r="E23" s="105" t="e">
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="286" t="e">
+      <c r="G23" s="308" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="287"/>
+      <c r="H23" s="309"/>
       <c r="I23" s="202" t="e">
         <f>D23/D13</f>
         <v>#DIV/0!</v>
@@ -12028,10 +12733,10 @@
       <c r="M23" s="46">
         <v>0</v>
       </c>
-      <c r="P23" s="292" t="s">
+      <c r="P23" s="410" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="292"/>
+      <c r="Q23" s="410"/>
       <c r="R23" s="240">
         <f>D34</f>
         <v>0</v>
@@ -12055,11 +12760,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="286" t="e">
+      <c r="G24" s="308" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="287"/>
+      <c r="H24" s="309"/>
       <c r="I24" s="202" t="e">
         <f>D24/D13</f>
         <v>#DIV/0!</v>
@@ -12075,21 +12780,21 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="303" t="s">
+      <c r="B25" s="312" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="363"/>
+      <c r="C25" s="314"/>
       <c r="D25" s="36"/>
       <c r="E25" s="133" t="e">
         <f>D25/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="286" t="e">
+      <c r="G25" s="308" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="287"/>
+      <c r="H25" s="309"/>
       <c r="I25" s="202" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
@@ -12120,43 +12825,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="286" t="e">
+      <c r="G26" s="308" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="287"/>
+      <c r="H26" s="309"/>
       <c r="I26" s="202" t="e">
         <f>D26/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="281" t="s">
+      <c r="K26" s="405" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="282"/>
+      <c r="L26" s="406"/>
       <c r="M26" s="47"/>
-      <c r="P26" s="293" t="s">
+      <c r="P26" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="294"/>
-      <c r="R26" s="295"/>
+      <c r="Q26" s="411"/>
+      <c r="R26" s="287"/>
     </row>
     <row r="27" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="303" t="s">
+      <c r="B27" s="312" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="365"/>
+      <c r="C27" s="316"/>
       <c r="D27" s="36"/>
       <c r="E27" s="105" t="e">
         <f>D27/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="286" t="e">
+      <c r="G27" s="308" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="287"/>
+      <c r="H27" s="309"/>
       <c r="I27" s="202" t="e">
         <f>D27/D13</f>
         <v>#DIV/0!</v>
@@ -12171,27 +12876,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="290" t="s">
+      <c r="Q27" s="408" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="291"/>
+      <c r="R27" s="409"/>
     </row>
     <row r="28" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="303" t="s">
+      <c r="B28" s="312" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="304"/>
+      <c r="C28" s="313"/>
       <c r="D28" s="36"/>
       <c r="E28" s="105" t="e">
         <f>D28/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="286" t="e">
+      <c r="G28" s="308" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="287"/>
+      <c r="H28" s="309"/>
       <c r="I28" s="202" t="e">
         <f>D28/D13</f>
         <v>#DIV/0!</v>
@@ -12201,27 +12906,27 @@
       <c r="L28" s="174"/>
       <c r="M28" s="141"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="290" t="s">
+      <c r="Q28" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="291"/>
+      <c r="R28" s="409"/>
     </row>
     <row r="29" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="303" t="s">
+      <c r="B29" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="304"/>
+      <c r="C29" s="313"/>
       <c r="D29" s="36"/>
       <c r="E29" s="105" t="e">
         <f>D29/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="286" t="e">
+      <c r="G29" s="308" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="287"/>
+      <c r="H29" s="309"/>
       <c r="I29" s="202" t="e">
         <f>D29/D13</f>
         <v>#DIV/0!</v>
@@ -12236,27 +12941,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="53"/>
-      <c r="Q29" s="290" t="s">
+      <c r="Q29" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="291"/>
+      <c r="R29" s="409"/>
     </row>
     <row r="30" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="296" t="s">
+      <c r="B30" s="310" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="305"/>
+      <c r="C30" s="311"/>
       <c r="D30" s="41"/>
       <c r="E30" s="109" t="e">
         <f>D30/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="366" t="e">
+      <c r="G30" s="320" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="367"/>
+      <c r="H30" s="321"/>
       <c r="I30" s="203" t="e">
         <f>D30/D13</f>
         <v>#DIV/0!</v>
@@ -12284,34 +12989,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="314" t="e">
+      <c r="G31" s="322" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="315"/>
+      <c r="H31" s="323"/>
       <c r="I31" s="208" t="e">
         <f>D31/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="260" t="s">
+      <c r="K31" s="334" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="261"/>
-      <c r="M31" s="262"/>
+      <c r="L31" s="304"/>
+      <c r="M31" s="305"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="347" t="s">
+      <c r="B32" s="335" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="348"/>
-      <c r="D32" s="351">
+      <c r="C32" s="336"/>
+      <c r="D32" s="339">
         <f>D19-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="217"/>
-      <c r="F32" s="351">
+      <c r="F32" s="339">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -12327,11 +13032,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="349"/>
-      <c r="C33" s="350"/>
-      <c r="D33" s="352"/>
+      <c r="B33" s="337"/>
+      <c r="C33" s="338"/>
+      <c r="D33" s="340"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="352"/>
+      <c r="F33" s="340"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -12344,10 +13049,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="452" t="s">
+      <c r="B34" s="482" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="453"/>
+      <c r="C34" s="483"/>
       <c r="D34" s="218">
         <f>D6*E34</f>
         <v>0</v>
@@ -12363,10 +13068,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="288" t="s">
+      <c r="K34" s="348" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="289"/>
+      <c r="L34" s="407"/>
       <c r="M34" s="44"/>
       <c r="S34" s="10"/>
     </row>
@@ -12399,10 +13104,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="359" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="311"/>
+      <c r="C36" s="360"/>
       <c r="D36" s="155">
         <f>M19</f>
         <v>0</v>
@@ -12422,10 +13127,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="308" t="s">
+      <c r="B37" s="300" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="309"/>
+      <c r="C37" s="301"/>
       <c r="D37" s="220" t="e">
         <f>M35</f>
         <v>#NUM!</v>
@@ -12436,21 +13141,21 @@
         <v>#NUM!</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="257" t="s">
+      <c r="H37" s="384" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="258"/>
-      <c r="J37" s="258"/>
-      <c r="K37" s="258"/>
-      <c r="L37" s="258"/>
-      <c r="M37" s="259"/>
+      <c r="I37" s="385"/>
+      <c r="J37" s="385"/>
+      <c r="K37" s="385"/>
+      <c r="L37" s="385"/>
+      <c r="M37" s="386"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="310" t="s">
+      <c r="B38" s="359" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="311"/>
+      <c r="C38" s="360"/>
       <c r="D38" s="155" t="e">
         <f>(D35-D36-D37)</f>
         <v>#NUM!</v>
@@ -12461,18 +13166,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="326"/>
-      <c r="I38" s="327"/>
-      <c r="J38" s="327"/>
-      <c r="K38" s="327"/>
-      <c r="L38" s="327"/>
-      <c r="M38" s="328"/>
+      <c r="H38" s="361"/>
+      <c r="I38" s="362"/>
+      <c r="J38" s="362"/>
+      <c r="K38" s="362"/>
+      <c r="L38" s="362"/>
+      <c r="M38" s="363"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="308" t="s">
+      <c r="B39" s="300" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="309"/>
+      <c r="C39" s="301"/>
       <c r="D39" s="165" t="e">
         <f>D38/M29</f>
         <v>#NUM!</v>
@@ -12483,18 +13188,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="283"/>
-      <c r="I39" s="284"/>
-      <c r="J39" s="284"/>
-      <c r="K39" s="284"/>
-      <c r="L39" s="284"/>
-      <c r="M39" s="285"/>
+      <c r="H39" s="317"/>
+      <c r="I39" s="318"/>
+      <c r="J39" s="318"/>
+      <c r="K39" s="318"/>
+      <c r="L39" s="318"/>
+      <c r="M39" s="319"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="308" t="s">
+      <c r="B40" s="300" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="309"/>
+      <c r="C40" s="301"/>
       <c r="D40" s="221" t="e">
         <f>D35/(D36+D37)</f>
         <v>#NUM!</v>
@@ -12507,18 +13212,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="283"/>
-      <c r="I40" s="284"/>
-      <c r="J40" s="284"/>
-      <c r="K40" s="284"/>
-      <c r="L40" s="284"/>
-      <c r="M40" s="285"/>
+      <c r="H40" s="317"/>
+      <c r="I40" s="318"/>
+      <c r="J40" s="318"/>
+      <c r="K40" s="318"/>
+      <c r="L40" s="318"/>
+      <c r="M40" s="319"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="308" t="s">
+      <c r="B41" s="300" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="309"/>
+      <c r="C41" s="301"/>
       <c r="D41" s="165" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -12531,18 +13236,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="283"/>
-      <c r="I41" s="284"/>
-      <c r="J41" s="284"/>
-      <c r="K41" s="284"/>
-      <c r="L41" s="284"/>
-      <c r="M41" s="285"/>
+      <c r="H41" s="317"/>
+      <c r="I41" s="318"/>
+      <c r="J41" s="318"/>
+      <c r="K41" s="318"/>
+      <c r="L41" s="318"/>
+      <c r="M41" s="319"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="308" t="s">
+      <c r="B42" s="300" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="309"/>
+      <c r="C42" s="301"/>
       <c r="D42" s="155" t="e">
         <f>D38*E42</f>
         <v>#NUM!</v>
@@ -12557,18 +13262,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="283"/>
-      <c r="I42" s="284"/>
-      <c r="J42" s="284"/>
-      <c r="K42" s="284"/>
-      <c r="L42" s="284"/>
-      <c r="M42" s="285"/>
+      <c r="H42" s="317"/>
+      <c r="I42" s="318"/>
+      <c r="J42" s="318"/>
+      <c r="K42" s="318"/>
+      <c r="L42" s="318"/>
+      <c r="M42" s="319"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="308" t="s">
+      <c r="B43" s="300" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="309"/>
+      <c r="C43" s="301"/>
       <c r="D43" s="155" t="e">
         <f>D38-D42</f>
         <v>#NUM!</v>
@@ -12579,18 +13284,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="283"/>
-      <c r="I43" s="284"/>
-      <c r="J43" s="284"/>
-      <c r="K43" s="284"/>
-      <c r="L43" s="284"/>
-      <c r="M43" s="285"/>
+      <c r="H43" s="317"/>
+      <c r="I43" s="318"/>
+      <c r="J43" s="318"/>
+      <c r="K43" s="318"/>
+      <c r="L43" s="318"/>
+      <c r="M43" s="319"/>
     </row>
     <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="357" t="s">
+      <c r="B44" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="358"/>
+      <c r="C44" s="299"/>
       <c r="D44" s="175" t="e">
         <f>D43/M29</f>
         <v>#NUM!</v>
@@ -12601,12 +13306,12 @@
         <v>#NUM!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="254"/>
-      <c r="I44" s="255"/>
-      <c r="J44" s="255"/>
-      <c r="K44" s="255"/>
-      <c r="L44" s="255"/>
-      <c r="M44" s="256"/>
+      <c r="H44" s="381"/>
+      <c r="I44" s="382"/>
+      <c r="J44" s="382"/>
+      <c r="K44" s="382"/>
+      <c r="L44" s="382"/>
+      <c r="M44" s="383"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -12633,6 +13338,92 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="101">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P10:T11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:I7"/>
@@ -12648,267 +13439,181 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P10:T11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:M42"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="83" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="40" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>249.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="41" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="42" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="42" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="80" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="37" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>299.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="38" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>600</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="39" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>600</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="77" priority="34" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="34" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="35" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="35" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="36" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="74" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="31" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="32" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="32" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>400</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="33" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="71" priority="28" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="28" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>699.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="29" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="29" stopIfTrue="1" operator="between">
       <formula>700</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="68" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="25" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="26" stopIfTrue="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="65" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="22" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="23" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="24" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="62" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="19" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="20" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>600</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="21" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>600</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="59" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="16" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="17" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="56" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="13" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="14" stopIfTrue="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="10" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="11" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>400</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="50" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="7" stopIfTrue="1" operator="between">
       <formula>700</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="8" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>699.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="4" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>249.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12926,7 +13631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -12956,27 +13661,27 @@
   <sheetData>
     <row r="1" spans="2:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="318" t="s">
+      <c r="B2" s="412" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="320"/>
-      <c r="P2" s="263" t="s">
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="414"/>
+      <c r="P2" s="387" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="264"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="264"/>
-      <c r="T2" s="265"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="388"/>
+      <c r="S2" s="388"/>
+      <c r="T2" s="389"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -13001,103 +13706,103 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="334" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="446" t="s">
+      <c r="C4" s="304"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="419" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="447"/>
-      <c r="K4" s="447"/>
-      <c r="L4" s="447"/>
-      <c r="M4" s="448"/>
-      <c r="P4" s="269" t="s">
+      <c r="F4" s="420"/>
+      <c r="G4" s="420"/>
+      <c r="H4" s="420"/>
+      <c r="I4" s="420"/>
+      <c r="J4" s="420"/>
+      <c r="K4" s="420"/>
+      <c r="L4" s="420"/>
+      <c r="M4" s="421"/>
+      <c r="P4" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="270"/>
-      <c r="R4" s="270"/>
-      <c r="S4" s="270"/>
-      <c r="T4" s="271"/>
+      <c r="Q4" s="394"/>
+      <c r="R4" s="394"/>
+      <c r="S4" s="394"/>
+      <c r="T4" s="395"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="444">
+      <c r="C5" s="417">
         <f>Assumption!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="445"/>
-      <c r="E5" s="449"/>
-      <c r="F5" s="450"/>
-      <c r="G5" s="450"/>
-      <c r="H5" s="450"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="450"/>
-      <c r="K5" s="450"/>
-      <c r="L5" s="450"/>
-      <c r="M5" s="451"/>
-      <c r="P5" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="270"/>
-      <c r="T5" s="271"/>
+      <c r="D5" s="418"/>
+      <c r="E5" s="422"/>
+      <c r="F5" s="423"/>
+      <c r="G5" s="423"/>
+      <c r="H5" s="423"/>
+      <c r="I5" s="423"/>
+      <c r="J5" s="423"/>
+      <c r="K5" s="423"/>
+      <c r="L5" s="423"/>
+      <c r="M5" s="424"/>
+      <c r="P5" s="393" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="394"/>
+      <c r="R5" s="394"/>
+      <c r="S5" s="394"/>
+      <c r="T5" s="395"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="441" t="s">
+      <c r="B6" s="425" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="443"/>
+      <c r="C6" s="427"/>
       <c r="D6" s="57">
         <f>Assumption!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="398"/>
-      <c r="F6" s="399"/>
-      <c r="G6" s="399"/>
-      <c r="H6" s="399"/>
-      <c r="I6" s="399"/>
-      <c r="J6" s="399"/>
-      <c r="K6" s="399"/>
-      <c r="L6" s="399"/>
-      <c r="M6" s="400"/>
-      <c r="P6" s="272" t="s">
+      <c r="E6" s="436"/>
+      <c r="F6" s="437"/>
+      <c r="G6" s="437"/>
+      <c r="H6" s="437"/>
+      <c r="I6" s="437"/>
+      <c r="J6" s="437"/>
+      <c r="K6" s="437"/>
+      <c r="L6" s="437"/>
+      <c r="M6" s="438"/>
+      <c r="P6" s="396" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="273"/>
-      <c r="T6" s="274"/>
+      <c r="Q6" s="397"/>
+      <c r="R6" s="397"/>
+      <c r="S6" s="397"/>
+      <c r="T6" s="398"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="441" t="s">
+      <c r="B7" s="425" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="442"/>
+      <c r="C7" s="426"/>
       <c r="D7" s="58">
         <f>Assumption!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="398"/>
-      <c r="F7" s="399"/>
-      <c r="G7" s="399"/>
-      <c r="H7" s="399"/>
-      <c r="I7" s="399"/>
-      <c r="J7" s="399"/>
-      <c r="K7" s="399"/>
-      <c r="L7" s="399"/>
-      <c r="M7" s="400"/>
+      <c r="E7" s="436"/>
+      <c r="F7" s="437"/>
+      <c r="G7" s="437"/>
+      <c r="H7" s="437"/>
+      <c r="I7" s="437"/>
+      <c r="J7" s="437"/>
+      <c r="K7" s="437"/>
+      <c r="L7" s="437"/>
+      <c r="M7" s="438"/>
       <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
@@ -13108,42 +13813,42 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="441" t="s">
+      <c r="B8" s="425" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="442"/>
+      <c r="C8" s="426"/>
       <c r="D8" s="58" t="e">
         <f>Assumption!D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="433"/>
-      <c r="F8" s="434"/>
-      <c r="G8" s="434"/>
-      <c r="H8" s="434"/>
-      <c r="I8" s="434"/>
-      <c r="J8" s="434"/>
-      <c r="K8" s="434"/>
-      <c r="L8" s="434"/>
-      <c r="M8" s="435"/>
+      <c r="E8" s="428"/>
+      <c r="F8" s="429"/>
+      <c r="G8" s="429"/>
+      <c r="H8" s="429"/>
+      <c r="I8" s="429"/>
+      <c r="J8" s="429"/>
+      <c r="K8" s="429"/>
+      <c r="L8" s="429"/>
+      <c r="M8" s="430"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="441" t="s">
+      <c r="B9" s="425" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="442"/>
+      <c r="C9" s="426"/>
       <c r="D9" s="59">
         <f>Assumption!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="433"/>
-      <c r="F9" s="434"/>
-      <c r="G9" s="434"/>
-      <c r="H9" s="434"/>
-      <c r="I9" s="434"/>
-      <c r="J9" s="434"/>
-      <c r="K9" s="434"/>
-      <c r="L9" s="434"/>
-      <c r="M9" s="435"/>
+      <c r="E9" s="428"/>
+      <c r="F9" s="429"/>
+      <c r="G9" s="429"/>
+      <c r="H9" s="429"/>
+      <c r="I9" s="429"/>
+      <c r="J9" s="429"/>
+      <c r="K9" s="429"/>
+      <c r="L9" s="429"/>
+      <c r="M9" s="430"/>
     </row>
     <row r="10" spans="2:22" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="431" t="s">
@@ -13154,15 +13859,15 @@
         <f>Assumption!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="438"/>
-      <c r="F10" s="439"/>
-      <c r="G10" s="439"/>
-      <c r="H10" s="439"/>
-      <c r="I10" s="439"/>
-      <c r="J10" s="439"/>
-      <c r="K10" s="439"/>
-      <c r="L10" s="439"/>
-      <c r="M10" s="440"/>
+      <c r="E10" s="433"/>
+      <c r="F10" s="434"/>
+      <c r="G10" s="434"/>
+      <c r="H10" s="434"/>
+      <c r="I10" s="434"/>
+      <c r="J10" s="434"/>
+      <c r="K10" s="434"/>
+      <c r="L10" s="434"/>
+      <c r="M10" s="435"/>
     </row>
     <row r="11" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="85"/>
@@ -13192,30 +13897,30 @@
       <c r="F12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="261" t="s">
+      <c r="G12" s="304" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="262"/>
+      <c r="H12" s="305"/>
       <c r="I12" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="260" t="s">
+      <c r="K12" s="334" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="261"/>
-      <c r="M12" s="262"/>
-      <c r="P12" s="293" t="s">
+      <c r="L12" s="304"/>
+      <c r="M12" s="305"/>
+      <c r="P12" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="294"/>
-      <c r="R12" s="295"/>
+      <c r="Q12" s="411"/>
+      <c r="R12" s="287"/>
     </row>
     <row r="13" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="461" t="s">
+      <c r="B13" s="484" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="462"/>
+      <c r="C13" s="485"/>
       <c r="D13" s="71">
         <f>Assumption!D13</f>
         <v>0</v>
@@ -13225,29 +13930,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="72"/>
-      <c r="G13" s="369" t="e">
+      <c r="G13" s="346" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="370"/>
+      <c r="H13" s="347"/>
       <c r="I13" s="99" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="456" t="s">
+      <c r="K13" s="478" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="457"/>
+      <c r="L13" s="479"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="290" t="s">
+      <c r="Q13" s="408" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="291"/>
+      <c r="R13" s="409"/>
     </row>
     <row r="14" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="104" t="s">
@@ -13266,11 +13971,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="359" t="e">
+      <c r="G14" s="302" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="360"/>
+      <c r="H14" s="303"/>
       <c r="I14" s="106" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -13285,16 +13990,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="290" t="s">
+      <c r="Q14" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="291"/>
+      <c r="R14" s="409"/>
     </row>
     <row r="15" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="394" t="s">
+      <c r="B15" s="439" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="436"/>
+      <c r="C15" s="440"/>
       <c r="D15" s="68">
         <f>Assumption!D15</f>
         <v>0</v>
@@ -13304,35 +14009,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="355" t="e">
+      <c r="G15" s="343" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="356"/>
+      <c r="H15" s="344"/>
       <c r="I15" s="111" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="454" t="s">
+      <c r="K15" s="480" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="455"/>
+      <c r="L15" s="481"/>
       <c r="M15" s="62">
         <f>M13-M14</f>
         <v>0</v>
       </c>
       <c r="P15" s="53"/>
-      <c r="Q15" s="290" t="s">
+      <c r="Q15" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="291"/>
+      <c r="R15" s="409"/>
     </row>
     <row r="16" spans="2:22" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="459" t="s">
+      <c r="B16" s="486" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="460"/>
+      <c r="C16" s="487"/>
       <c r="D16" s="58">
         <f>Assumption!D16</f>
         <v>0</v>
@@ -13345,18 +14050,18 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="429" t="e">
+      <c r="G16" s="443" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="430"/>
+      <c r="H16" s="444"/>
       <c r="I16" s="112" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="303"/>
-      <c r="L16" s="323"/>
+      <c r="K16" s="312"/>
+      <c r="L16" s="356"/>
       <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
@@ -13373,30 +14078,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="359" t="e">
+      <c r="G17" s="302" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="360"/>
+      <c r="H17" s="303"/>
       <c r="I17" s="106" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="288" t="s">
+      <c r="K17" s="348" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="289"/>
+      <c r="L17" s="407"/>
       <c r="M17" s="62">
         <f>Assumption!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="394" t="s">
+      <c r="B18" s="439" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="395"/>
+      <c r="C18" s="451"/>
       <c r="D18" s="68">
         <f>Assumption!D18</f>
         <v>0</v>
@@ -13406,18 +14111,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="355" t="e">
+      <c r="G18" s="343" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="356"/>
+      <c r="H18" s="344"/>
       <c r="I18" s="111" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="321"/>
-      <c r="L18" s="322"/>
+      <c r="K18" s="415"/>
+      <c r="L18" s="416"/>
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="2:19" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -13437,11 +14142,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="314" t="e">
+      <c r="G19" s="322" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="315"/>
+      <c r="H19" s="323"/>
       <c r="I19" s="120" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -13462,8 +14167,8 @@
       <c r="D20" s="125"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="458"/>
-      <c r="H20" s="458"/>
+      <c r="G20" s="488"/>
+      <c r="H20" s="488"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
@@ -13484,27 +14189,27 @@
       <c r="F21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="261" t="s">
+      <c r="G21" s="304" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="262"/>
+      <c r="H21" s="305"/>
       <c r="I21" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="425" t="s">
+      <c r="K21" s="454" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="426"/>
-      <c r="M21" s="403"/>
+      <c r="L21" s="455"/>
+      <c r="M21" s="456"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="428" t="s">
+      <c r="B22" s="441" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="424"/>
+      <c r="C22" s="453"/>
       <c r="D22" s="58">
         <f>Assumption!D22</f>
         <v>0</v>
@@ -13514,30 +14219,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="389" t="e">
+      <c r="G22" s="352" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="390"/>
+      <c r="H22" s="353"/>
       <c r="I22" s="112" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="131"/>
-      <c r="K22" s="401" t="s">
+      <c r="K22" s="473" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="402"/>
+      <c r="L22" s="474"/>
       <c r="M22" s="103">
         <f>Assumption!M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="392" t="s">
+      <c r="B23" s="452" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="393"/>
+      <c r="C23" s="475"/>
       <c r="D23" s="58">
         <f>Assumption!D23</f>
         <v>0</v>
@@ -13547,20 +14252,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="286" t="e">
+      <c r="G23" s="308" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="287"/>
+      <c r="H23" s="309"/>
       <c r="I23" s="106" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="131"/>
-      <c r="K23" s="303" t="s">
+      <c r="K23" s="312" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="323"/>
+      <c r="L23" s="356"/>
       <c r="M23" s="66">
         <f>Assumption!M23</f>
         <v>0</v>
@@ -13580,30 +14285,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="286" t="e">
+      <c r="G24" s="308" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="287"/>
+      <c r="H24" s="309"/>
       <c r="I24" s="106" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="131"/>
-      <c r="K24" s="303" t="s">
+      <c r="K24" s="312" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="323"/>
+      <c r="L24" s="356"/>
       <c r="M24" s="134">
         <f>Assumption!M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="392" t="s">
+      <c r="B25" s="452" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="427"/>
+      <c r="C25" s="457"/>
       <c r="D25" s="58">
         <f>Assumption!D25</f>
         <v>0</v>
@@ -13613,20 +14318,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="286" t="e">
+      <c r="G25" s="308" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="287"/>
+      <c r="H25" s="309"/>
       <c r="I25" s="106" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="131"/>
-      <c r="K25" s="321" t="s">
+      <c r="K25" s="415" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="322"/>
+      <c r="L25" s="416"/>
       <c r="M25" s="134">
         <f>Assumption!M25</f>
         <v>0</v>
@@ -13652,30 +14357,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="286" t="e">
+      <c r="G26" s="308" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="287"/>
+      <c r="H26" s="309"/>
       <c r="I26" s="106" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="420" t="s">
+      <c r="K26" s="458" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="421"/>
+      <c r="L26" s="459"/>
       <c r="M26" s="123">
         <f>Assumption!M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="392" t="s">
+      <c r="B27" s="452" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="424"/>
+      <c r="C27" s="453"/>
       <c r="D27" s="58">
         <f>Assumption!D27</f>
         <v>0</v>
@@ -13685,11 +14390,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="286" t="e">
+      <c r="G27" s="308" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="287"/>
+      <c r="H27" s="309"/>
       <c r="I27" s="106" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -13705,10 +14410,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="392" t="s">
+      <c r="B28" s="452" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="393"/>
+      <c r="C28" s="475"/>
       <c r="D28" s="58">
         <f>Assumption!D28</f>
         <v>0</v>
@@ -13718,11 +14423,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="286" t="e">
+      <c r="G28" s="308" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="287"/>
+      <c r="H28" s="309"/>
       <c r="I28" s="106" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -13733,10 +14438,10 @@
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="392" t="s">
+      <c r="B29" s="452" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="393"/>
+      <c r="C29" s="475"/>
       <c r="D29" s="58">
         <f>Assumption!D29</f>
         <v>0</v>
@@ -13746,11 +14451,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="G29" s="286" t="e">
+      <c r="G29" s="308" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="287"/>
+      <c r="H29" s="309"/>
       <c r="I29" s="106" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -13766,10 +14471,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="394" t="s">
+      <c r="B30" s="439" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="395"/>
+      <c r="C30" s="451"/>
       <c r="D30" s="70">
         <f>Assumption!D30</f>
         <v>0</v>
@@ -13779,11 +14484,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="366" t="e">
+      <c r="G30" s="320" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="367"/>
+      <c r="H30" s="321"/>
       <c r="I30" s="111" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -13811,34 +14516,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="396" t="e">
+      <c r="G31" s="476" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="397"/>
+      <c r="H31" s="477"/>
       <c r="I31" s="120" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="260" t="s">
+      <c r="K31" s="334" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="261"/>
-      <c r="M31" s="403"/>
+      <c r="L31" s="304"/>
+      <c r="M31" s="456"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="347" t="s">
+      <c r="B32" s="335" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="348"/>
-      <c r="D32" s="407">
+      <c r="C32" s="336"/>
+      <c r="D32" s="463">
         <f>Assumption!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="147"/>
-      <c r="F32" s="409">
+      <c r="F32" s="465">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -13857,11 +14562,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="349"/>
-      <c r="C33" s="350"/>
-      <c r="D33" s="408"/>
+      <c r="B33" s="337"/>
+      <c r="C33" s="338"/>
+      <c r="D33" s="464"/>
       <c r="E33" s="149"/>
-      <c r="F33" s="410"/>
+      <c r="F33" s="466"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -13877,10 +14582,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:20" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="452" t="s">
+      <c r="B34" s="482" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="453"/>
+      <c r="C34" s="483"/>
       <c r="D34" s="151">
         <f>Assumption!D34</f>
         <v>0</v>
@@ -13894,10 +14599,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="288" t="s">
+      <c r="K34" s="348" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="411"/>
+      <c r="L34" s="467"/>
       <c r="M34" s="134">
         <f>Assumption!M34</f>
         <v>0</v>
@@ -13932,10 +14637,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="359" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="412"/>
+      <c r="C36" s="468"/>
       <c r="D36" s="160">
         <f>Assumption!D36</f>
         <v>0</v>
@@ -13955,10 +14660,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="308" t="s">
+      <c r="B37" s="300" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="391"/>
+      <c r="C37" s="462"/>
       <c r="D37" s="160" t="e">
         <f>Assumption!D37</f>
         <v>#NUM!</v>
@@ -13969,23 +14674,23 @@
         <v>#NUM!</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="257" t="s">
+      <c r="H37" s="384" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="258"/>
-      <c r="J37" s="258"/>
-      <c r="K37" s="258"/>
-      <c r="L37" s="257" t="s">
+      <c r="I37" s="385"/>
+      <c r="J37" s="385"/>
+      <c r="K37" s="385"/>
+      <c r="L37" s="384" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="259"/>
+      <c r="M37" s="386"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="310" t="s">
+      <c r="B38" s="359" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="412"/>
+      <c r="C38" s="468"/>
       <c r="D38" s="160" t="e">
         <f>Assumption!D38</f>
         <v>#NUM!</v>
@@ -13996,18 +14701,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="413"/>
-      <c r="I38" s="414"/>
-      <c r="J38" s="414"/>
-      <c r="K38" s="415"/>
-      <c r="L38" s="413"/>
-      <c r="M38" s="422"/>
+      <c r="H38" s="460"/>
+      <c r="I38" s="469"/>
+      <c r="J38" s="469"/>
+      <c r="K38" s="470"/>
+      <c r="L38" s="460"/>
+      <c r="M38" s="461"/>
     </row>
     <row r="39" spans="2:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="308" t="s">
+      <c r="B39" s="300" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="391"/>
+      <c r="C39" s="462"/>
       <c r="D39" s="165" t="e">
         <f>Assumption!D39</f>
         <v>#NUM!</v>
@@ -14018,18 +14723,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="404"/>
-      <c r="I39" s="405"/>
-      <c r="J39" s="405"/>
-      <c r="K39" s="406"/>
-      <c r="L39" s="404"/>
-      <c r="M39" s="419"/>
+      <c r="H39" s="445"/>
+      <c r="I39" s="449"/>
+      <c r="J39" s="449"/>
+      <c r="K39" s="450"/>
+      <c r="L39" s="445"/>
+      <c r="M39" s="446"/>
     </row>
     <row r="40" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="308" t="s">
+      <c r="B40" s="300" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="391"/>
+      <c r="C40" s="462"/>
       <c r="D40" s="166" t="e">
         <f>Assumption!D40</f>
         <v>#NUM!</v>
@@ -14042,18 +14747,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="404"/>
-      <c r="I40" s="405"/>
-      <c r="J40" s="405"/>
-      <c r="K40" s="406"/>
-      <c r="L40" s="404"/>
-      <c r="M40" s="419"/>
+      <c r="H40" s="445"/>
+      <c r="I40" s="449"/>
+      <c r="J40" s="449"/>
+      <c r="K40" s="450"/>
+      <c r="L40" s="445"/>
+      <c r="M40" s="446"/>
     </row>
     <row r="41" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="308" t="s">
+      <c r="B41" s="300" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="391"/>
+      <c r="C41" s="462"/>
       <c r="D41" s="66" t="e">
         <f>Assumption!D41</f>
         <v>#DIV/0!</v>
@@ -14066,18 +14771,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="404"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="405"/>
-      <c r="K41" s="406"/>
-      <c r="L41" s="404"/>
-      <c r="M41" s="419"/>
+      <c r="H41" s="445"/>
+      <c r="I41" s="449"/>
+      <c r="J41" s="449"/>
+      <c r="K41" s="450"/>
+      <c r="L41" s="445"/>
+      <c r="M41" s="446"/>
     </row>
     <row r="42" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="308" t="s">
+      <c r="B42" s="300" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="391"/>
+      <c r="C42" s="462"/>
       <c r="D42" s="170" t="e">
         <f>Assumption!D42</f>
         <v>#NUM!</v>
@@ -14093,18 +14798,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="404"/>
-      <c r="I42" s="405"/>
-      <c r="J42" s="405"/>
-      <c r="K42" s="406"/>
-      <c r="L42" s="404"/>
-      <c r="M42" s="419"/>
+      <c r="H42" s="445"/>
+      <c r="I42" s="449"/>
+      <c r="J42" s="449"/>
+      <c r="K42" s="450"/>
+      <c r="L42" s="445"/>
+      <c r="M42" s="446"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B43" s="308" t="s">
+      <c r="B43" s="300" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="309"/>
+      <c r="C43" s="301"/>
       <c r="D43" s="155" t="e">
         <f>Assumption!D43</f>
         <v>#NUM!</v>
@@ -14115,18 +14820,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="404"/>
-      <c r="I43" s="405"/>
-      <c r="J43" s="405"/>
-      <c r="K43" s="406"/>
-      <c r="L43" s="404"/>
-      <c r="M43" s="419"/>
+      <c r="H43" s="445"/>
+      <c r="I43" s="449"/>
+      <c r="J43" s="449"/>
+      <c r="K43" s="450"/>
+      <c r="L43" s="445"/>
+      <c r="M43" s="446"/>
     </row>
     <row r="44" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="357" t="s">
+      <c r="B44" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="358"/>
+      <c r="C44" s="299"/>
       <c r="D44" s="175" t="e">
         <f>Assumption!D44</f>
         <v>#NUM!</v>
@@ -14137,12 +14842,12 @@
         <v>#NUM!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="416"/>
-      <c r="I44" s="417"/>
-      <c r="J44" s="417"/>
-      <c r="K44" s="418"/>
-      <c r="L44" s="416"/>
-      <c r="M44" s="423"/>
+      <c r="H44" s="447"/>
+      <c r="I44" s="471"/>
+      <c r="J44" s="471"/>
+      <c r="K44" s="472"/>
+      <c r="L44" s="447"/>
+      <c r="M44" s="448"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -14170,6 +14875,88 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="97">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="B2:M2"/>
@@ -14185,263 +14972,181 @@
     <mergeCell ref="P6:T6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:M7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:M44"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>249.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>299.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>600</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>600</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>400</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>699.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="between">
       <formula>700</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>600</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>600</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>400</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="between">
       <formula>700</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>699.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
       <formula>249.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14450,4 +15155,143 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8AB0EE-4C7C-4FF6-90FA-AE24A3BC7DD9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.19921875" style="254" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" style="491" customWidth="1"/>
+    <col min="3" max="3" width="72.9296875" style="254" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="254"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.65" x14ac:dyDescent="0.6">
+      <c r="A1" s="489" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+    </row>
+    <row r="2" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="255" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="490" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="255" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="492"/>
+      <c r="B51" s="493"/>
+      <c r="C51" s="492"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="492"/>
+      <c r="B52" s="493"/>
+      <c r="C52" s="492"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="492"/>
+      <c r="B53" s="493"/>
+      <c r="C53" s="492"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="492"/>
+      <c r="B54" s="493"/>
+      <c r="C54" s="492"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="492"/>
+      <c r="B55" s="493"/>
+      <c r="C55" s="492"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="492"/>
+      <c r="B56" s="493"/>
+      <c r="C56" s="492"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="492"/>
+      <c r="B57" s="493"/>
+      <c r="C57" s="492"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="492"/>
+      <c r="B58" s="493"/>
+      <c r="C58" s="492"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="492"/>
+      <c r="B59" s="493"/>
+      <c r="C59" s="492"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="492"/>
+      <c r="B60" s="493"/>
+      <c r="C60" s="492"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="492"/>
+      <c r="B61" s="493"/>
+      <c r="C61" s="492"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="492"/>
+      <c r="B62" s="493"/>
+      <c r="C62" s="492"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="492"/>
+      <c r="B63" s="493"/>
+      <c r="C63" s="492"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="492"/>
+      <c r="B64" s="493"/>
+      <c r="C64" s="492"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="492"/>
+      <c r="B65" s="493"/>
+      <c r="C65" s="492"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="492"/>
+      <c r="B66" s="493"/>
+      <c r="C66" s="492"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="492"/>
+      <c r="B67" s="493"/>
+      <c r="C67" s="492"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="492"/>
+      <c r="B68" s="493"/>
+      <c r="C68" s="492"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting.xlsx
+++ b/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Personal\MultiFamilyPortal\src\theme\MultiFamilyPortal.AdminTheme\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C29DB-CB3C-490F-9727-04CF7D1F6AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F37E1B-0892-4521-8188-5411F835D590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="693" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="693" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Assumption" sheetId="9" r:id="rId5"/>
     <sheet name="Year 1 Project - Assume" sheetId="11" r:id="rId6"/>
     <sheet name="Underwriting Notes" sheetId="14" r:id="rId7"/>
+    <sheet name="Files" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Coaching Form'!$A$1:$K$40</definedName>
@@ -2960,7 +2961,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="149">
   <si>
     <t>2. Fill in orange colored Cells</t>
   </si>
@@ -3419,6 +3420,15 @@
   <si>
     <t>Rent</t>
   </si>
+  <si>
+    <t>Underwriting Files</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
 </sst>
 </file>
 
@@ -3434,10 +3444,10 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3603,6 +3613,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3666,7 +3684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -4711,8 +4729,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -4720,8 +4747,9 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -5326,34 +5354,12 @@
     </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5364,68 +5370,56 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5434,37 +5428,64 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5479,18 +5500,140 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -5513,9 +5656,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5548,6 +5688,9 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5557,235 +5700,224 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="6" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -5838,130 +5970,40 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -5969,38 +6011,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
+    <cellStyle name="Heading 1" xfId="7" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{156674D4-5164-44E3-8E44-D2A5B8AEFAEB}"/>
@@ -6009,7 +6041,7 @@
   </cellStyles>
   <dxfs count="169">
     <dxf>
-      <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+      <numFmt numFmtId="169" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     </dxf>
     <dxf>
       <fill>
@@ -7277,6 +7309,18 @@
     <tableColumn id="3" xr3:uid="{6935B20C-6CE6-4E0E-BDC8-E2CF9CE55658}" name="Notes" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F4A2F78-C486-42AB-BDA2-99C3B72DB5AD}" name="Table2" displayName="Table2" ref="A2:C44" totalsRowShown="0">
+  <autoFilter ref="A2:C44" xr:uid="{1F4A2F78-C486-42AB-BDA2-99C3B72DB5AD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{602A72C5-AF24-459C-B48A-9C13C7BE825F}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{3B60E1DF-91CF-496A-9DC9-19DF7DA91126}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{ECA52145-31A3-462E-AA4B-5C6D8AD64E4D}" name="Link"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -8149,19 +8193,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.8">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="280" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
-      <c r="K1" s="264"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="257" t="s">
@@ -8178,17 +8222,17 @@
       <c r="J3" s="256"/>
     </row>
     <row r="4" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="266"/>
-      <c r="B4" s="266"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="266"/>
-      <c r="J4" s="266"/>
-      <c r="K4" s="266"/>
+      <c r="A4" s="281"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="281"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="281"/>
+      <c r="F4" s="281"/>
+      <c r="G4" s="281"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="281"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="281"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="257" t="s">
@@ -8205,25 +8249,25 @@
       <c r="J5" s="256"/>
     </row>
     <row r="6" spans="1:11" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="267"/>
-      <c r="B6" s="267"/>
-      <c r="C6" s="267"/>
-      <c r="D6" s="267"/>
-      <c r="E6" s="267"/>
-      <c r="F6" s="267"/>
-      <c r="G6" s="267"/>
-      <c r="H6" s="267"/>
-      <c r="I6" s="267"/>
-      <c r="J6" s="267"/>
-      <c r="K6" s="267"/>
+      <c r="A6" s="282"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="265" t="s">
+      <c r="A7" s="279" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="265"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
       <c r="E7" s="258"/>
       <c r="F7" s="258"/>
       <c r="G7" s="258"/>
@@ -8247,44 +8291,44 @@
       <c r="J8" s="256"/>
     </row>
     <row r="9" spans="1:11" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="267"/>
-      <c r="B9" s="267"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="267"/>
-      <c r="K9" s="267"/>
+      <c r="A9" s="282"/>
+      <c r="B9" s="282"/>
+      <c r="C9" s="282"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="282"/>
+      <c r="G9" s="282"/>
+      <c r="H9" s="282"/>
+      <c r="I9" s="282"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="282"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A10" s="265" t="s">
+      <c r="A10" s="279" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="269"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="269"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
+      <c r="B10" s="279"/>
+      <c r="C10" s="279"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="276"/>
+      <c r="J10" s="276"/>
+      <c r="K10" s="276"/>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="279" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="265"/>
-      <c r="C11" s="265"/>
-      <c r="D11" s="277">
-        <v>0</v>
-      </c>
-      <c r="E11" s="277"/>
-      <c r="F11" s="277"/>
+      <c r="B11" s="279"/>
+      <c r="C11" s="279"/>
+      <c r="D11" s="269">
+        <v>0</v>
+      </c>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
       <c r="G11" s="263"/>
       <c r="H11" s="263"/>
       <c r="I11" s="263"/>
@@ -8292,34 +8336,34 @@
       <c r="K11" s="263"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A12" s="265" t="s">
+      <c r="A12" s="279" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="265"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="269"/>
-      <c r="E12" s="269"/>
-      <c r="F12" s="269"/>
-      <c r="G12" s="269"/>
-      <c r="H12" s="269"/>
-      <c r="I12" s="269"/>
-      <c r="J12" s="269"/>
-      <c r="K12" s="269"/>
+      <c r="B12" s="279"/>
+      <c r="C12" s="279"/>
+      <c r="D12" s="276"/>
+      <c r="E12" s="276"/>
+      <c r="F12" s="276"/>
+      <c r="G12" s="276"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="276"/>
+      <c r="J12" s="276"/>
+      <c r="K12" s="276"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A13" s="265" t="s">
+      <c r="A13" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="265"/>
-      <c r="C13" s="265"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="269"/>
+      <c r="B13" s="279"/>
+      <c r="C13" s="279"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="276"/>
+      <c r="G13" s="276"/>
+      <c r="H13" s="276"/>
+      <c r="I13" s="276"/>
+      <c r="J13" s="276"/>
+      <c r="K13" s="276"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="256"/>
@@ -8339,128 +8383,128 @@
       </c>
       <c r="B15" s="256"/>
       <c r="C15" s="256"/>
-      <c r="D15" s="269"/>
-      <c r="E15" s="269"/>
-      <c r="F15" s="269"/>
-      <c r="G15" s="269"/>
-      <c r="H15" s="269"/>
-      <c r="I15" s="269"/>
-      <c r="J15" s="269"/>
-      <c r="K15" s="269"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="276"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="276"/>
+      <c r="I15" s="276"/>
+      <c r="J15" s="276"/>
+      <c r="K15" s="276"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A16" s="271" t="s">
+      <c r="A16" s="273" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
+      <c r="B16" s="273"/>
+      <c r="C16" s="273"/>
+      <c r="D16" s="273"/>
       <c r="E16" s="261" t="s">
         <v>142</v>
       </c>
       <c r="F16" s="261" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="271" t="s">
+      <c r="G16" s="273" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271" t="s">
+      <c r="H16" s="273"/>
+      <c r="I16" s="273" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="271"/>
-      <c r="K16" s="271"/>
+      <c r="J16" s="273"/>
+      <c r="K16" s="273"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A17" s="271"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
+      <c r="A17" s="273"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="273"/>
+      <c r="D17" s="273"/>
       <c r="E17" s="256"/>
       <c r="F17" s="256"/>
-      <c r="G17" s="272"/>
-      <c r="H17" s="272"/>
-      <c r="I17" s="274"/>
-      <c r="J17" s="274"/>
-      <c r="K17" s="274"/>
+      <c r="G17" s="277"/>
+      <c r="H17" s="277"/>
+      <c r="I17" s="272"/>
+      <c r="J17" s="272"/>
+      <c r="K17" s="272"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A18" s="271"/>
-      <c r="B18" s="271"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
+      <c r="A18" s="273"/>
+      <c r="B18" s="273"/>
+      <c r="C18" s="273"/>
+      <c r="D18" s="273"/>
       <c r="E18" s="256"/>
       <c r="F18" s="256"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="272"/>
-      <c r="I18" s="274"/>
-      <c r="J18" s="274"/>
-      <c r="K18" s="274"/>
+      <c r="G18" s="277"/>
+      <c r="H18" s="277"/>
+      <c r="I18" s="272"/>
+      <c r="J18" s="272"/>
+      <c r="K18" s="272"/>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A19" s="271"/>
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
+      <c r="A19" s="273"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="273"/>
       <c r="E19" s="256"/>
       <c r="F19" s="256"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="272"/>
-      <c r="I19" s="274"/>
-      <c r="J19" s="274"/>
-      <c r="K19" s="274"/>
+      <c r="G19" s="277"/>
+      <c r="H19" s="277"/>
+      <c r="I19" s="272"/>
+      <c r="J19" s="272"/>
+      <c r="K19" s="272"/>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A20" s="271"/>
-      <c r="B20" s="271"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
+      <c r="A20" s="273"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="273"/>
+      <c r="D20" s="273"/>
       <c r="E20" s="256"/>
       <c r="F20" s="256"/>
-      <c r="G20" s="272"/>
-      <c r="H20" s="272"/>
-      <c r="I20" s="274"/>
-      <c r="J20" s="274"/>
-      <c r="K20" s="274"/>
+      <c r="G20" s="277"/>
+      <c r="H20" s="277"/>
+      <c r="I20" s="272"/>
+      <c r="J20" s="272"/>
+      <c r="K20" s="272"/>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A21" s="271"/>
-      <c r="B21" s="271"/>
-      <c r="C21" s="271"/>
-      <c r="D21" s="271"/>
+      <c r="A21" s="273"/>
+      <c r="B21" s="273"/>
+      <c r="C21" s="273"/>
+      <c r="D21" s="273"/>
       <c r="E21" s="256"/>
       <c r="F21" s="256"/>
-      <c r="G21" s="272"/>
-      <c r="H21" s="272"/>
-      <c r="I21" s="274"/>
-      <c r="J21" s="274"/>
-      <c r="K21" s="274"/>
+      <c r="G21" s="277"/>
+      <c r="H21" s="277"/>
+      <c r="I21" s="272"/>
+      <c r="J21" s="272"/>
+      <c r="K21" s="272"/>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A22" s="271"/>
-      <c r="B22" s="271"/>
-      <c r="C22" s="271"/>
-      <c r="D22" s="271"/>
+      <c r="A22" s="273"/>
+      <c r="B22" s="273"/>
+      <c r="C22" s="273"/>
+      <c r="D22" s="273"/>
       <c r="E22" s="256"/>
       <c r="F22" s="256"/>
-      <c r="G22" s="272"/>
-      <c r="H22" s="272"/>
-      <c r="I22" s="274"/>
-      <c r="J22" s="274"/>
-      <c r="K22" s="274"/>
+      <c r="G22" s="277"/>
+      <c r="H22" s="277"/>
+      <c r="I22" s="272"/>
+      <c r="J22" s="272"/>
+      <c r="K22" s="272"/>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A23" s="271"/>
-      <c r="B23" s="271"/>
-      <c r="C23" s="271"/>
-      <c r="D23" s="271"/>
-      <c r="E23" s="271"/>
-      <c r="F23" s="271"/>
-      <c r="G23" s="271"/>
-      <c r="H23" s="271"/>
-      <c r="I23" s="271"/>
-      <c r="J23" s="271"/>
-      <c r="K23" s="271"/>
+      <c r="A23" s="273"/>
+      <c r="B23" s="273"/>
+      <c r="C23" s="273"/>
+      <c r="D23" s="273"/>
+      <c r="E23" s="273"/>
+      <c r="F23" s="273"/>
+      <c r="G23" s="273"/>
+      <c r="H23" s="273"/>
+      <c r="I23" s="273"/>
+      <c r="J23" s="273"/>
+      <c r="K23" s="273"/>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="257" t="s">
@@ -8468,11 +8512,11 @@
       </c>
       <c r="B24" s="256"/>
       <c r="C24" s="256"/>
-      <c r="D24" s="275">
-        <v>0</v>
-      </c>
-      <c r="E24" s="275"/>
-      <c r="F24" s="275"/>
+      <c r="D24" s="274">
+        <v>0</v>
+      </c>
+      <c r="E24" s="274"/>
+      <c r="F24" s="274"/>
       <c r="G24" s="262"/>
       <c r="H24" s="262"/>
       <c r="I24" s="262"/>
@@ -8485,11 +8529,11 @@
       </c>
       <c r="B25" s="256"/>
       <c r="C25" s="256"/>
-      <c r="D25" s="270">
-        <v>0</v>
-      </c>
-      <c r="E25" s="270"/>
-      <c r="F25" s="270"/>
+      <c r="D25" s="275">
+        <v>0</v>
+      </c>
+      <c r="E25" s="275"/>
+      <c r="F25" s="275"/>
       <c r="G25" s="256"/>
       <c r="H25" s="256"/>
       <c r="I25" s="256"/>
@@ -8502,11 +8546,11 @@
       </c>
       <c r="B26" s="256"/>
       <c r="C26" s="256"/>
-      <c r="D26" s="273">
-        <v>0</v>
-      </c>
-      <c r="E26" s="273"/>
-      <c r="F26" s="273"/>
+      <c r="D26" s="278">
+        <v>0</v>
+      </c>
+      <c r="E26" s="278"/>
+      <c r="F26" s="278"/>
       <c r="G26" s="256"/>
       <c r="H26" s="256"/>
       <c r="I26" s="256"/>
@@ -8519,11 +8563,11 @@
       </c>
       <c r="B27" s="256"/>
       <c r="C27" s="256"/>
-      <c r="D27" s="273">
-        <v>0</v>
-      </c>
-      <c r="E27" s="273"/>
-      <c r="F27" s="273"/>
+      <c r="D27" s="278">
+        <v>0</v>
+      </c>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
       <c r="G27" s="259"/>
       <c r="H27" s="259"/>
       <c r="I27" s="259"/>
@@ -8536,11 +8580,11 @@
       </c>
       <c r="B28" s="256"/>
       <c r="C28" s="256"/>
-      <c r="D28" s="270">
-        <v>0</v>
-      </c>
-      <c r="E28" s="270"/>
-      <c r="F28" s="270"/>
+      <c r="D28" s="275">
+        <v>0</v>
+      </c>
+      <c r="E28" s="275"/>
+      <c r="F28" s="275"/>
       <c r="G28" s="260"/>
       <c r="H28" s="260"/>
       <c r="I28" s="260"/>
@@ -8553,11 +8597,11 @@
       </c>
       <c r="B29" s="256"/>
       <c r="C29" s="256"/>
-      <c r="D29" s="270">
-        <v>0</v>
-      </c>
-      <c r="E29" s="270"/>
-      <c r="F29" s="270"/>
+      <c r="D29" s="275">
+        <v>0</v>
+      </c>
+      <c r="E29" s="275"/>
+      <c r="F29" s="275"/>
       <c r="G29" s="260"/>
       <c r="H29" s="260"/>
       <c r="I29" s="260"/>
@@ -8570,11 +8614,11 @@
       </c>
       <c r="B30" s="256"/>
       <c r="C30" s="256"/>
-      <c r="D30" s="270">
-        <v>0</v>
-      </c>
-      <c r="E30" s="270"/>
-      <c r="F30" s="270"/>
+      <c r="D30" s="275">
+        <v>0</v>
+      </c>
+      <c r="E30" s="275"/>
+      <c r="F30" s="275"/>
       <c r="G30" s="260"/>
       <c r="H30" s="260"/>
       <c r="I30" s="260"/>
@@ -8597,31 +8641,31 @@
       <c r="A32" s="257" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="278">
-        <v>0</v>
-      </c>
-      <c r="E32" s="278"/>
-      <c r="F32" s="278"/>
+      <c r="D32" s="270">
+        <v>0</v>
+      </c>
+      <c r="E32" s="270"/>
+      <c r="F32" s="270"/>
     </row>
     <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="257" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="279">
-        <v>0</v>
-      </c>
-      <c r="E33" s="279"/>
-      <c r="F33" s="279"/>
+      <c r="D33" s="271">
+        <v>0</v>
+      </c>
+      <c r="E33" s="271"/>
+      <c r="F33" s="271"/>
     </row>
     <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="257" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="278">
-        <v>0</v>
-      </c>
-      <c r="E34" s="278"/>
-      <c r="F34" s="278"/>
+      <c r="D34" s="270">
+        <v>0</v>
+      </c>
+      <c r="E34" s="270"/>
+      <c r="F34" s="270"/>
     </row>
     <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="257" t="s">
@@ -8629,17 +8673,17 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="276"/>
-      <c r="B36" s="276"/>
-      <c r="C36" s="276"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="276"/>
-      <c r="F36" s="276"/>
-      <c r="G36" s="276"/>
-      <c r="H36" s="276"/>
-      <c r="I36" s="276"/>
-      <c r="J36" s="276"/>
-      <c r="K36" s="276"/>
+      <c r="A36" s="268"/>
+      <c r="B36" s="268"/>
+      <c r="C36" s="268"/>
+      <c r="D36" s="268"/>
+      <c r="E36" s="268"/>
+      <c r="F36" s="268"/>
+      <c r="G36" s="268"/>
+      <c r="H36" s="268"/>
+      <c r="I36" s="268"/>
+      <c r="J36" s="268"/>
+      <c r="K36" s="268"/>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="257" t="s">
@@ -8652,20 +8696,53 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="53.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="276"/>
-      <c r="B40" s="276"/>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
-      <c r="E40" s="276"/>
-      <c r="F40" s="276"/>
-      <c r="G40" s="276"/>
-      <c r="H40" s="276"/>
-      <c r="I40" s="276"/>
-      <c r="J40" s="276"/>
-      <c r="K40" s="276"/>
+      <c r="A40" s="268"/>
+      <c r="B40" s="268"/>
+      <c r="C40" s="268"/>
+      <c r="D40" s="268"/>
+      <c r="E40" s="268"/>
+      <c r="F40" s="268"/>
+      <c r="G40" s="268"/>
+      <c r="H40" s="268"/>
+      <c r="I40" s="268"/>
+      <c r="J40" s="268"/>
+      <c r="K40" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="D11:F11"/>
@@ -8682,39 +8759,6 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
@@ -8755,27 +8799,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="412" t="s">
+      <c r="B2" s="326" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="413"/>
-      <c r="F2" s="413"/>
-      <c r="G2" s="413"/>
-      <c r="H2" s="413"/>
-      <c r="I2" s="413"/>
-      <c r="J2" s="413"/>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="414"/>
-      <c r="P2" s="387" t="s">
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="328"/>
+      <c r="P2" s="293" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="388"/>
-      <c r="S2" s="388"/>
-      <c r="T2" s="389"/>
+      <c r="Q2" s="294"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="294"/>
+      <c r="T2" s="295"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8799,11 +8843,11 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="334" t="s">
+      <c r="B4" s="290" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="304"/>
-      <c r="D4" s="305"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="94" t="s">
         <v>111</v>
       </c>
@@ -8815,54 +8859,54 @@
       <c r="K4" s="181"/>
       <c r="L4" s="181"/>
       <c r="M4" s="182"/>
-      <c r="P4" s="390" t="s">
+      <c r="P4" s="296" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="391"/>
-      <c r="R4" s="391"/>
-      <c r="S4" s="391"/>
-      <c r="T4" s="392"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="297"/>
+      <c r="S4" s="297"/>
+      <c r="T4" s="298"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="324"/>
-      <c r="D5" s="325"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="364"/>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="185"/>
       <c r="H5" s="185"/>
       <c r="I5" s="186"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="334" t="s">
+      <c r="K5" s="290" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="304"/>
-      <c r="M5" s="305"/>
-      <c r="P5" s="393" t="s">
+      <c r="L5" s="291"/>
+      <c r="M5" s="292"/>
+      <c r="P5" s="299" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="394"/>
-      <c r="R5" s="394"/>
-      <c r="S5" s="394"/>
-      <c r="T5" s="395"/>
+      <c r="Q5" s="300"/>
+      <c r="R5" s="300"/>
+      <c r="S5" s="300"/>
+      <c r="T5" s="301"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="348" t="s">
+      <c r="B6" s="318" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="365"/>
+      <c r="C6" s="341"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="326" t="s">
+      <c r="E6" s="365" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="327"/>
-      <c r="G6" s="327"/>
-      <c r="H6" s="328"/>
-      <c r="I6" s="375" t="s">
+      <c r="F6" s="366"/>
+      <c r="G6" s="366"/>
+      <c r="H6" s="367"/>
+      <c r="I6" s="353" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="89"/>
@@ -8871,26 +8915,26 @@
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="33"/>
-      <c r="P6" s="396" t="s">
+      <c r="P6" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="397"/>
-      <c r="R6" s="397"/>
-      <c r="S6" s="397"/>
-      <c r="T6" s="398"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="304"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="348" t="s">
+      <c r="B7" s="318" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="349"/>
+      <c r="C7" s="342"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="329"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="331"/>
-      <c r="I7" s="376"/>
+      <c r="E7" s="368"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="369"/>
+      <c r="H7" s="370"/>
+      <c r="I7" s="354"/>
       <c r="J7" s="89"/>
       <c r="K7" s="189" t="s">
         <v>96</v>
@@ -8910,22 +8954,22 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="348" t="s">
+      <c r="B8" s="318" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="349"/>
+      <c r="C8" s="342"/>
       <c r="D8" s="191" t="e">
         <f>D7/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="332" t="s">
+      <c r="E8" s="371" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="333"/>
-      <c r="G8" s="377">
-        <v>0</v>
-      </c>
-      <c r="H8" s="378"/>
+      <c r="F8" s="372"/>
+      <c r="G8" s="357">
+        <v>0</v>
+      </c>
+      <c r="H8" s="358"/>
       <c r="I8" s="65" t="e">
         <f>G8/G10</f>
         <v>#DIV/0!</v>
@@ -8941,19 +8985,19 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="348" t="s">
+      <c r="B9" s="318" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="349"/>
+      <c r="C9" s="342"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="354" t="s">
+      <c r="E9" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="355"/>
-      <c r="G9" s="341">
-        <v>0</v>
-      </c>
-      <c r="H9" s="342"/>
+      <c r="F9" s="396"/>
+      <c r="G9" s="379">
+        <v>0</v>
+      </c>
+      <c r="H9" s="380"/>
       <c r="I9" s="66" t="e">
         <f>G9/G10</f>
         <v>#DIV/0!</v>
@@ -8964,22 +9008,22 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="373" t="s">
+      <c r="B10" s="351" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="374"/>
+      <c r="C10" s="352"/>
       <c r="D10" s="196" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="366" t="s">
+      <c r="E10" s="343" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="367"/>
-      <c r="G10" s="368">
-        <v>0</v>
-      </c>
-      <c r="H10" s="369"/>
+      <c r="F10" s="344"/>
+      <c r="G10" s="345">
+        <v>0</v>
+      </c>
+      <c r="H10" s="346"/>
       <c r="I10" s="197" t="s">
         <v>16</v>
       </c>
@@ -8987,13 +9031,13 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="90"/>
-      <c r="P10" s="399" t="s">
+      <c r="P10" s="305" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="400"/>
-      <c r="R10" s="400"/>
-      <c r="S10" s="400"/>
-      <c r="T10" s="401"/>
+      <c r="Q10" s="306"/>
+      <c r="R10" s="306"/>
+      <c r="S10" s="306"/>
+      <c r="T10" s="307"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="198"/>
@@ -9008,11 +9052,11 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="90"/>
-      <c r="P11" s="402"/>
-      <c r="Q11" s="403"/>
-      <c r="R11" s="403"/>
-      <c r="S11" s="403"/>
-      <c r="T11" s="404"/>
+      <c r="P11" s="308"/>
+      <c r="Q11" s="309"/>
+      <c r="R11" s="309"/>
+      <c r="S11" s="309"/>
+      <c r="T11" s="310"/>
     </row>
     <row r="12" spans="2:21" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="91" t="s">
@@ -9028,23 +9072,23 @@
       <c r="F12" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="304" t="s">
+      <c r="G12" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="305"/>
+      <c r="H12" s="292"/>
       <c r="I12" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="334" t="s">
+      <c r="K12" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="304"/>
-      <c r="M12" s="305"/>
-      <c r="P12" s="286" t="s">
+      <c r="L12" s="291"/>
+      <c r="M12" s="292"/>
+      <c r="P12" s="323" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="287"/>
+      <c r="Q12" s="325"/>
       <c r="R12" s="29" t="s">
         <v>29</v>
       </c>
@@ -9056,38 +9100,38 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="383" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="345"/>
+      <c r="C13" s="384"/>
       <c r="D13" s="37"/>
       <c r="E13" s="130" t="e">
         <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="346" t="e">
+      <c r="G13" s="385" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="347"/>
+      <c r="H13" s="386"/>
       <c r="I13" s="200" t="e">
         <f>D13/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="357" t="s">
+      <c r="K13" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="358"/>
+      <c r="L13" s="334"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P13" s="288" t="s">
+      <c r="P13" s="411" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="289"/>
+      <c r="Q13" s="412"/>
       <c r="R13" s="11" t="e">
         <f t="shared" ref="R13:R19" si="0">E22</f>
         <v>#DIV/0!</v>
@@ -9114,11 +9158,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="302" t="e">
+      <c r="G14" s="389" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="303"/>
+      <c r="H14" s="390"/>
       <c r="I14" s="202" t="e">
         <f>D14/D13</f>
         <v>#DIV/0!</v>
@@ -9129,10 +9173,10 @@
       </c>
       <c r="L14" s="201"/>
       <c r="M14" s="40"/>
-      <c r="P14" s="282" t="s">
+      <c r="P14" s="407" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="283"/>
+      <c r="Q14" s="408"/>
       <c r="R14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9146,38 +9190,38 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="310" t="s">
+      <c r="B15" s="349" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="372"/>
+      <c r="C15" s="350"/>
       <c r="D15" s="41"/>
       <c r="E15" s="105" t="e">
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="302" t="e">
+      <c r="G15" s="389" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="303"/>
+      <c r="H15" s="390"/>
       <c r="I15" s="202" t="e">
         <f>D15/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="370" t="s">
+      <c r="K15" s="347" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="371"/>
+      <c r="L15" s="348"/>
       <c r="M15" s="134">
         <f>M13*M14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="282" t="s">
+      <c r="P15" s="407" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="283"/>
+      <c r="Q15" s="408"/>
       <c r="R15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9191,10 +9235,10 @@
       </c>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="350" t="s">
+      <c r="B16" s="387" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="351"/>
+      <c r="C16" s="388"/>
       <c r="D16" s="243">
         <f>D13-D14-D15</f>
         <v>0</v>
@@ -9207,28 +9251,28 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="306" t="e">
+      <c r="G16" s="399" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="307"/>
+      <c r="H16" s="400"/>
       <c r="I16" s="202" t="e">
         <f>D16/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="312" t="s">
+      <c r="K16" s="331" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="356"/>
+      <c r="L16" s="332"/>
       <c r="M16" s="134">
         <f>M13-M15</f>
         <v>0</v>
       </c>
-      <c r="P16" s="282" t="s">
+      <c r="P16" s="407" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="283"/>
+      <c r="Q16" s="408"/>
       <c r="R16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9252,25 +9296,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="302" t="e">
+      <c r="G17" s="389" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="303"/>
+      <c r="H17" s="390"/>
       <c r="I17" s="202" t="e">
         <f>D17/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="312" t="s">
+      <c r="K17" s="331" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="356"/>
+      <c r="L17" s="332"/>
       <c r="M17" s="43"/>
-      <c r="P17" s="282" t="s">
+      <c r="P17" s="407" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="283"/>
+      <c r="Q17" s="408"/>
       <c r="R17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9284,37 +9328,37 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="310" t="s">
+      <c r="B18" s="349" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="311"/>
+      <c r="C18" s="356"/>
       <c r="D18" s="41"/>
       <c r="E18" s="109" t="e">
         <f>D18/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="343" t="e">
+      <c r="G18" s="381" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="344"/>
+      <c r="H18" s="382"/>
       <c r="I18" s="203" t="e">
         <f>D18/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="415" t="s">
+      <c r="K18" s="329" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="416"/>
+      <c r="L18" s="330"/>
       <c r="M18" s="44">
         <v>30</v>
       </c>
-      <c r="P18" s="282" t="s">
+      <c r="P18" s="407" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="283"/>
+      <c r="Q18" s="408"/>
       <c r="R18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9344,11 +9388,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="322" t="e">
+      <c r="G19" s="393" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="323"/>
+      <c r="H19" s="394"/>
       <c r="I19" s="208" t="e">
         <f>D19/D13</f>
         <v>#DIV/0!</v>
@@ -9362,19 +9406,19 @@
         <f>PMT((M17/12),(12*M18),-M16)*12</f>
         <v>0</v>
       </c>
-      <c r="P19" s="294" t="s">
+      <c r="P19" s="417" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="295"/>
-      <c r="R19" s="290" t="e">
+      <c r="Q19" s="418"/>
+      <c r="R19" s="413" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="292" t="e">
+      <c r="S19" s="415" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="280" t="s">
+      <c r="T19" s="405" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9384,18 +9428,18 @@
       <c r="D20" s="210"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="364"/>
+      <c r="G20" s="340"/>
+      <c r="H20" s="340"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="90"/>
-      <c r="P20" s="296"/>
-      <c r="Q20" s="297"/>
-      <c r="R20" s="291"/>
-      <c r="S20" s="293"/>
-      <c r="T20" s="281"/>
+      <c r="P20" s="419"/>
+      <c r="Q20" s="420"/>
+      <c r="R20" s="414"/>
+      <c r="S20" s="416"/>
+      <c r="T20" s="406"/>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="128" t="s">
@@ -9411,25 +9455,25 @@
       <c r="F21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="304" t="s">
+      <c r="G21" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="305"/>
+      <c r="H21" s="292"/>
       <c r="I21" s="94" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="334" t="s">
+      <c r="K21" s="290" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="304"/>
-      <c r="M21" s="305"/>
+      <c r="L21" s="291"/>
+      <c r="M21" s="292"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="282" t="s">
+      <c r="P21" s="407" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="283"/>
+      <c r="Q21" s="408"/>
       <c r="R21" s="13" t="e">
         <f>E29</f>
         <v>#DIV/0!</v>
@@ -9443,21 +9487,21 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="383" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="316"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="37"/>
       <c r="E22" s="130" t="e">
         <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="352" t="e">
+      <c r="G22" s="391" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="353"/>
+      <c r="H22" s="392"/>
       <c r="I22" s="200" t="e">
         <f>D22/D13</f>
         <v>#DIV/0!</v>
@@ -9473,10 +9517,10 @@
         <f>L22*M13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="284" t="s">
+      <c r="P22" s="409" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="285"/>
+      <c r="Q22" s="410"/>
       <c r="R22" s="237" t="e">
         <f>E30</f>
         <v>#DIV/0!</v>
@@ -9490,21 +9534,21 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="312" t="s">
+      <c r="B23" s="331" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="313"/>
+      <c r="C23" s="355"/>
       <c r="D23" s="36"/>
       <c r="E23" s="105" t="e">
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="308" t="e">
+      <c r="G23" s="316" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="309"/>
+      <c r="H23" s="317"/>
       <c r="I23" s="202" t="e">
         <f>D23/D13</f>
         <v>#DIV/0!</v>
@@ -9517,10 +9561,10 @@
       <c r="M23" s="46">
         <v>0.01</v>
       </c>
-      <c r="P23" s="410" t="s">
+      <c r="P23" s="322" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="410"/>
+      <c r="Q23" s="322"/>
       <c r="R23" s="240">
         <f>D34</f>
         <v>0</v>
@@ -9544,11 +9588,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="308" t="e">
+      <c r="G24" s="316" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="309"/>
+      <c r="H24" s="317"/>
       <c r="I24" s="202" t="e">
         <f>D24/D13</f>
         <v>#DIV/0!</v>
@@ -9564,21 +9608,21 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="312" t="s">
+      <c r="B25" s="331" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="314"/>
+      <c r="C25" s="401"/>
       <c r="D25" s="36"/>
       <c r="E25" s="133" t="e">
         <f>D25/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="308" t="e">
+      <c r="G25" s="316" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="309"/>
+      <c r="H25" s="317"/>
       <c r="I25" s="202" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
@@ -9609,43 +9653,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="308" t="e">
+      <c r="G26" s="316" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="309"/>
+      <c r="H26" s="317"/>
       <c r="I26" s="202" t="e">
         <f>D26/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="405" t="s">
+      <c r="K26" s="311" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="406"/>
+      <c r="L26" s="312"/>
       <c r="M26" s="47"/>
-      <c r="P26" s="286" t="s">
+      <c r="P26" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="411"/>
-      <c r="R26" s="287"/>
+      <c r="Q26" s="324"/>
+      <c r="R26" s="325"/>
     </row>
     <row r="27" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="331" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="316"/>
+      <c r="C27" s="402"/>
       <c r="D27" s="36"/>
       <c r="E27" s="105" t="e">
         <f>D27/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="308" t="e">
+      <c r="G27" s="316" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="309"/>
+      <c r="H27" s="317"/>
       <c r="I27" s="202" t="e">
         <f>D27/D13</f>
         <v>#DIV/0!</v>
@@ -9660,27 +9704,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="408" t="s">
+      <c r="Q27" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="409"/>
+      <c r="R27" s="321"/>
     </row>
     <row r="28" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="331" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="313"/>
+      <c r="C28" s="355"/>
       <c r="D28" s="36"/>
       <c r="E28" s="105" t="e">
         <f>D28/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="308" t="e">
+      <c r="G28" s="316" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="309"/>
+      <c r="H28" s="317"/>
       <c r="I28" s="202" t="e">
         <f>D28/D13</f>
         <v>#DIV/0!</v>
@@ -9690,27 +9734,27 @@
       <c r="L28" s="174"/>
       <c r="M28" s="141"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="408" t="s">
+      <c r="Q28" s="320" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="409"/>
+      <c r="R28" s="321"/>
     </row>
     <row r="29" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="312" t="s">
+      <c r="B29" s="331" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="313"/>
+      <c r="C29" s="355"/>
       <c r="D29" s="36"/>
       <c r="E29" s="105" t="e">
         <f>D29/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="308" t="e">
+      <c r="G29" s="316" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="309"/>
+      <c r="H29" s="317"/>
       <c r="I29" s="202" t="e">
         <f>D29/D13</f>
         <v>#DIV/0!</v>
@@ -9725,27 +9769,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="53"/>
-      <c r="Q29" s="408" t="s">
+      <c r="Q29" s="320" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="409"/>
+      <c r="R29" s="321"/>
     </row>
     <row r="30" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="310" t="s">
+      <c r="B30" s="349" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="311"/>
+      <c r="C30" s="356"/>
       <c r="D30" s="41"/>
       <c r="E30" s="109" t="e">
         <f>D30/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="320" t="e">
+      <c r="G30" s="403" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="321"/>
+      <c r="H30" s="404"/>
       <c r="I30" s="203" t="e">
         <f>D30/D13</f>
         <v>#DIV/0!</v>
@@ -9773,34 +9817,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="322" t="e">
+      <c r="G31" s="393" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="323"/>
+      <c r="H31" s="394"/>
       <c r="I31" s="208" t="e">
         <f>D31/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="334" t="s">
+      <c r="K31" s="290" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="304"/>
-      <c r="M31" s="305"/>
+      <c r="L31" s="291"/>
+      <c r="M31" s="292"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="335" t="s">
+      <c r="B32" s="373" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="336"/>
-      <c r="D32" s="339">
+      <c r="C32" s="374"/>
+      <c r="D32" s="377">
         <f>D19-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="217"/>
-      <c r="F32" s="339">
+      <c r="F32" s="377">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -9816,11 +9860,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="337"/>
-      <c r="C33" s="338"/>
-      <c r="D33" s="340"/>
+      <c r="B33" s="375"/>
+      <c r="C33" s="376"/>
+      <c r="D33" s="378"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="340"/>
+      <c r="F33" s="378"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -9833,10 +9877,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="379" t="s">
+      <c r="B34" s="361" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="380"/>
+      <c r="C34" s="362"/>
       <c r="D34" s="151">
         <f>D6*E34</f>
         <v>0</v>
@@ -9852,10 +9896,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="348" t="s">
+      <c r="K34" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="407"/>
+      <c r="L34" s="319"/>
       <c r="M34" s="44">
         <v>250</v>
       </c>
@@ -9890,10 +9934,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="359" t="s">
+      <c r="B36" s="335" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="360"/>
+      <c r="C36" s="336"/>
       <c r="D36" s="155">
         <f>M19</f>
         <v>0</v>
@@ -9913,10 +9957,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="300" t="s">
+      <c r="B37" s="359" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="301"/>
+      <c r="C37" s="360"/>
       <c r="D37" s="220">
         <f>M35</f>
         <v>0</v>
@@ -9927,21 +9971,21 @@
         <v>0</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="384" t="s">
+      <c r="H37" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="385"/>
-      <c r="J37" s="385"/>
-      <c r="K37" s="385"/>
-      <c r="L37" s="385"/>
-      <c r="M37" s="386"/>
+      <c r="I37" s="288"/>
+      <c r="J37" s="288"/>
+      <c r="K37" s="288"/>
+      <c r="L37" s="288"/>
+      <c r="M37" s="289"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="359" t="s">
+      <c r="B38" s="335" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="360"/>
+      <c r="C38" s="336"/>
       <c r="D38" s="155">
         <f>(D35-D36-D37)</f>
         <v>0</v>
@@ -9952,18 +9996,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="361"/>
-      <c r="I38" s="362"/>
-      <c r="J38" s="362"/>
-      <c r="K38" s="362"/>
-      <c r="L38" s="362"/>
-      <c r="M38" s="363"/>
+      <c r="H38" s="337"/>
+      <c r="I38" s="338"/>
+      <c r="J38" s="338"/>
+      <c r="K38" s="338"/>
+      <c r="L38" s="338"/>
+      <c r="M38" s="339"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="300" t="s">
+      <c r="B39" s="359" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="301"/>
+      <c r="C39" s="360"/>
       <c r="D39" s="165" t="e">
         <f>D38/M29</f>
         <v>#DIV/0!</v>
@@ -9974,18 +10018,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="318"/>
-      <c r="J39" s="318"/>
-      <c r="K39" s="318"/>
-      <c r="L39" s="318"/>
-      <c r="M39" s="319"/>
+      <c r="H39" s="313"/>
+      <c r="I39" s="314"/>
+      <c r="J39" s="314"/>
+      <c r="K39" s="314"/>
+      <c r="L39" s="314"/>
+      <c r="M39" s="315"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="300" t="s">
+      <c r="B40" s="359" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="301"/>
+      <c r="C40" s="360"/>
       <c r="D40" s="221" t="e">
         <f>D35/(D36+D37)</f>
         <v>#DIV/0!</v>
@@ -9998,18 +10042,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="317"/>
-      <c r="I40" s="318"/>
-      <c r="J40" s="318"/>
-      <c r="K40" s="318"/>
-      <c r="L40" s="318"/>
-      <c r="M40" s="319"/>
+      <c r="H40" s="313"/>
+      <c r="I40" s="314"/>
+      <c r="J40" s="314"/>
+      <c r="K40" s="314"/>
+      <c r="L40" s="314"/>
+      <c r="M40" s="315"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="300" t="s">
+      <c r="B41" s="359" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="301"/>
+      <c r="C41" s="360"/>
       <c r="D41" s="165" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -10022,18 +10066,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="317"/>
-      <c r="I41" s="318"/>
-      <c r="J41" s="318"/>
-      <c r="K41" s="318"/>
-      <c r="L41" s="318"/>
-      <c r="M41" s="319"/>
+      <c r="H41" s="313"/>
+      <c r="I41" s="314"/>
+      <c r="J41" s="314"/>
+      <c r="K41" s="314"/>
+      <c r="L41" s="314"/>
+      <c r="M41" s="315"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="300" t="s">
+      <c r="B42" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="301"/>
+      <c r="C42" s="360"/>
       <c r="D42" s="155">
         <f>D38*E42</f>
         <v>0</v>
@@ -10048,18 +10092,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="317"/>
-      <c r="I42" s="318"/>
-      <c r="J42" s="318"/>
-      <c r="K42" s="318"/>
-      <c r="L42" s="318"/>
-      <c r="M42" s="319"/>
+      <c r="H42" s="313"/>
+      <c r="I42" s="314"/>
+      <c r="J42" s="314"/>
+      <c r="K42" s="314"/>
+      <c r="L42" s="314"/>
+      <c r="M42" s="315"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="300" t="s">
+      <c r="B43" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="301"/>
+      <c r="C43" s="360"/>
       <c r="D43" s="155">
         <f>D38-D42</f>
         <v>0</v>
@@ -10070,18 +10114,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="317"/>
-      <c r="I43" s="318"/>
-      <c r="J43" s="318"/>
-      <c r="K43" s="318"/>
-      <c r="L43" s="318"/>
-      <c r="M43" s="319"/>
+      <c r="H43" s="313"/>
+      <c r="I43" s="314"/>
+      <c r="J43" s="314"/>
+      <c r="K43" s="314"/>
+      <c r="L43" s="314"/>
+      <c r="M43" s="315"/>
     </row>
     <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="298" t="s">
+      <c r="B44" s="397" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="299"/>
+      <c r="C44" s="398"/>
       <c r="D44" s="175" t="e">
         <f>D43/M29</f>
         <v>#DIV/0!</v>
@@ -10092,12 +10136,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="381"/>
-      <c r="I44" s="382"/>
-      <c r="J44" s="382"/>
-      <c r="K44" s="382"/>
-      <c r="L44" s="382"/>
-      <c r="M44" s="383"/>
+      <c r="H44" s="284"/>
+      <c r="I44" s="285"/>
+      <c r="J44" s="285"/>
+      <c r="K44" s="285"/>
+      <c r="L44" s="285"/>
+      <c r="M44" s="286"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -10124,6 +10168,84 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="102">
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="H44:M44"/>
     <mergeCell ref="H37:M37"/>
     <mergeCell ref="K31:M31"/>
@@ -10148,84 +10270,6 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="P18:Q18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -10445,27 +10489,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="412" t="s">
+      <c r="B2" s="326" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="413"/>
-      <c r="F2" s="413"/>
-      <c r="G2" s="413"/>
-      <c r="H2" s="413"/>
-      <c r="I2" s="413"/>
-      <c r="J2" s="413"/>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="414"/>
-      <c r="P2" s="387" t="s">
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="328"/>
+      <c r="P2" s="293" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="388"/>
-      <c r="S2" s="388"/>
-      <c r="T2" s="389"/>
+      <c r="Q2" s="294"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="294"/>
+      <c r="T2" s="295"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10489,103 +10533,103 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="334" t="s">
+      <c r="B4" s="290" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="304"/>
-      <c r="D4" s="305"/>
-      <c r="E4" s="419" t="s">
+      <c r="C4" s="291"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="476" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="420"/>
-      <c r="G4" s="420"/>
-      <c r="H4" s="420"/>
-      <c r="I4" s="420"/>
-      <c r="J4" s="420"/>
-      <c r="K4" s="420"/>
-      <c r="L4" s="420"/>
-      <c r="M4" s="421"/>
-      <c r="P4" s="393" t="s">
+      <c r="F4" s="477"/>
+      <c r="G4" s="477"/>
+      <c r="H4" s="477"/>
+      <c r="I4" s="477"/>
+      <c r="J4" s="477"/>
+      <c r="K4" s="477"/>
+      <c r="L4" s="477"/>
+      <c r="M4" s="478"/>
+      <c r="P4" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="394"/>
-      <c r="R4" s="394"/>
-      <c r="S4" s="394"/>
-      <c r="T4" s="395"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="300"/>
+      <c r="S4" s="300"/>
+      <c r="T4" s="301"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="417">
+      <c r="C5" s="474">
         <f>'Acqusition-NF'!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="418"/>
-      <c r="E5" s="422"/>
-      <c r="F5" s="423"/>
-      <c r="G5" s="423"/>
-      <c r="H5" s="423"/>
-      <c r="I5" s="423"/>
-      <c r="J5" s="423"/>
-      <c r="K5" s="423"/>
-      <c r="L5" s="423"/>
-      <c r="M5" s="424"/>
-      <c r="P5" s="393" t="s">
+      <c r="D5" s="475"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="480"/>
+      <c r="G5" s="480"/>
+      <c r="H5" s="480"/>
+      <c r="I5" s="480"/>
+      <c r="J5" s="480"/>
+      <c r="K5" s="480"/>
+      <c r="L5" s="480"/>
+      <c r="M5" s="481"/>
+      <c r="P5" s="299" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="394"/>
-      <c r="R5" s="394"/>
-      <c r="S5" s="394"/>
-      <c r="T5" s="395"/>
+      <c r="Q5" s="300"/>
+      <c r="R5" s="300"/>
+      <c r="S5" s="300"/>
+      <c r="T5" s="301"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="460" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="427"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="57">
         <f>'Acqusition-NF'!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="436"/>
-      <c r="F6" s="437"/>
-      <c r="G6" s="437"/>
-      <c r="H6" s="437"/>
-      <c r="I6" s="437"/>
-      <c r="J6" s="437"/>
-      <c r="K6" s="437"/>
-      <c r="L6" s="437"/>
-      <c r="M6" s="438"/>
-      <c r="P6" s="396" t="s">
+      <c r="E6" s="471"/>
+      <c r="F6" s="472"/>
+      <c r="G6" s="472"/>
+      <c r="H6" s="472"/>
+      <c r="I6" s="472"/>
+      <c r="J6" s="472"/>
+      <c r="K6" s="472"/>
+      <c r="L6" s="472"/>
+      <c r="M6" s="473"/>
+      <c r="P6" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="397"/>
-      <c r="R6" s="397"/>
-      <c r="S6" s="397"/>
-      <c r="T6" s="398"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="304"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="425" t="s">
+      <c r="B7" s="460" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="426"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="58">
         <f>'Acqusition-NF'!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="436"/>
-      <c r="F7" s="437"/>
-      <c r="G7" s="437"/>
-      <c r="H7" s="437"/>
-      <c r="I7" s="437"/>
-      <c r="J7" s="437"/>
-      <c r="K7" s="437"/>
-      <c r="L7" s="437"/>
-      <c r="M7" s="438"/>
+      <c r="E7" s="471"/>
+      <c r="F7" s="472"/>
+      <c r="G7" s="472"/>
+      <c r="H7" s="472"/>
+      <c r="I7" s="472"/>
+      <c r="J7" s="472"/>
+      <c r="K7" s="472"/>
+      <c r="L7" s="472"/>
+      <c r="M7" s="473"/>
       <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
@@ -10596,61 +10640,61 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="425" t="s">
+      <c r="B8" s="460" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="426"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="58" t="e">
         <f>'Acqusition-NF'!D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="428"/>
-      <c r="F8" s="429"/>
-      <c r="G8" s="429"/>
-      <c r="H8" s="429"/>
-      <c r="I8" s="429"/>
-      <c r="J8" s="429"/>
-      <c r="K8" s="429"/>
-      <c r="L8" s="429"/>
-      <c r="M8" s="430"/>
+      <c r="E8" s="463"/>
+      <c r="F8" s="464"/>
+      <c r="G8" s="464"/>
+      <c r="H8" s="464"/>
+      <c r="I8" s="464"/>
+      <c r="J8" s="464"/>
+      <c r="K8" s="464"/>
+      <c r="L8" s="464"/>
+      <c r="M8" s="465"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="425" t="s">
+      <c r="B9" s="460" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="426"/>
+      <c r="C9" s="461"/>
       <c r="D9" s="59">
         <f>'Acqusition-NF'!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="428"/>
-      <c r="F9" s="429"/>
-      <c r="G9" s="429"/>
-      <c r="H9" s="429"/>
-      <c r="I9" s="429"/>
-      <c r="J9" s="429"/>
-      <c r="K9" s="429"/>
-      <c r="L9" s="429"/>
-      <c r="M9" s="430"/>
+      <c r="E9" s="463"/>
+      <c r="F9" s="464"/>
+      <c r="G9" s="464"/>
+      <c r="H9" s="464"/>
+      <c r="I9" s="464"/>
+      <c r="J9" s="464"/>
+      <c r="K9" s="464"/>
+      <c r="L9" s="464"/>
+      <c r="M9" s="465"/>
     </row>
     <row r="10" spans="2:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="431" t="s">
+      <c r="B10" s="466" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="432"/>
+      <c r="C10" s="467"/>
       <c r="D10" s="60" t="e">
         <f>'Acqusition-NF'!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="433"/>
-      <c r="F10" s="434"/>
-      <c r="G10" s="434"/>
-      <c r="H10" s="434"/>
-      <c r="I10" s="434"/>
-      <c r="J10" s="434"/>
-      <c r="K10" s="434"/>
-      <c r="L10" s="434"/>
-      <c r="M10" s="435"/>
+      <c r="E10" s="468"/>
+      <c r="F10" s="469"/>
+      <c r="G10" s="469"/>
+      <c r="H10" s="469"/>
+      <c r="I10" s="469"/>
+      <c r="J10" s="469"/>
+      <c r="K10" s="469"/>
+      <c r="L10" s="469"/>
+      <c r="M10" s="470"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="85"/>
@@ -10680,30 +10724,30 @@
       <c r="F12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="304" t="s">
+      <c r="G12" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="305"/>
+      <c r="H12" s="292"/>
       <c r="I12" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="334" t="s">
+      <c r="K12" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="304"/>
-      <c r="M12" s="305"/>
-      <c r="P12" s="286" t="s">
+      <c r="L12" s="291"/>
+      <c r="M12" s="292"/>
+      <c r="P12" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="411"/>
-      <c r="R12" s="287"/>
+      <c r="Q12" s="324"/>
+      <c r="R12" s="325"/>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="441" t="s">
+      <c r="B13" s="431" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="442"/>
+      <c r="C13" s="459"/>
       <c r="D13" s="58">
         <f>'Acqusition-NF'!D13</f>
         <v>0</v>
@@ -10713,29 +10757,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="54"/>
-      <c r="G13" s="346" t="e">
+      <c r="G13" s="385" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="347"/>
+      <c r="H13" s="386"/>
       <c r="I13" s="112" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="357" t="s">
+      <c r="K13" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="358"/>
+      <c r="L13" s="334"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="408" t="s">
+      <c r="Q13" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="409"/>
+      <c r="R13" s="321"/>
     </row>
     <row r="14" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="104" t="s">
@@ -10754,11 +10798,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="302" t="e">
+      <c r="G14" s="389" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="303"/>
+      <c r="H14" s="390"/>
       <c r="I14" s="106" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -10773,16 +10817,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="408" t="s">
+      <c r="Q14" s="320" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="409"/>
+      <c r="R14" s="321"/>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="439" t="s">
+      <c r="B15" s="424" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="440"/>
+      <c r="C15" s="458"/>
       <c r="D15" s="68">
         <f>'Acqusition-NF'!D15</f>
         <v>0</v>
@@ -10792,29 +10836,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="343" t="e">
+      <c r="G15" s="381" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="344"/>
+      <c r="H15" s="382"/>
       <c r="I15" s="111" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="370" t="s">
+      <c r="K15" s="347" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="371"/>
+      <c r="L15" s="348"/>
       <c r="M15" s="62">
         <f>M13*M14</f>
         <v>0</v>
       </c>
       <c r="P15" s="53"/>
-      <c r="Q15" s="408" t="s">
+      <c r="Q15" s="320" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="409"/>
+      <c r="R15" s="321"/>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" s="224" t="s">
@@ -10833,20 +10877,20 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="443" t="e">
+      <c r="G16" s="456" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="444"/>
+      <c r="H16" s="457"/>
       <c r="I16" s="112" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="312" t="s">
+      <c r="K16" s="331" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="356"/>
+      <c r="L16" s="332"/>
       <c r="M16" s="62">
         <f>M13-M15</f>
         <v>0</v>
@@ -10866,30 +10910,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="302" t="e">
+      <c r="G17" s="389" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="303"/>
+      <c r="H17" s="390"/>
       <c r="I17" s="106" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="312" t="s">
+      <c r="K17" s="331" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="356"/>
+      <c r="L17" s="332"/>
       <c r="M17" s="63">
         <f>'Acqusition-NF'!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="439" t="s">
+      <c r="B18" s="424" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="451"/>
+      <c r="C18" s="425"/>
       <c r="D18" s="68">
         <f>'Acqusition-NF'!D18</f>
         <v>0</v>
@@ -10899,20 +10943,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="343" t="e">
+      <c r="G18" s="381" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="344"/>
+      <c r="H18" s="382"/>
       <c r="I18" s="111" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="415" t="s">
+      <c r="K18" s="329" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="416"/>
+      <c r="L18" s="330"/>
       <c r="M18" s="64">
         <f>'Acqusition-NF'!M18</f>
         <v>30</v>
@@ -10935,11 +10979,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="322" t="e">
+      <c r="G19" s="393" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="323"/>
+      <c r="H19" s="394"/>
       <c r="I19" s="120" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -10960,8 +11004,8 @@
       <c r="D20" s="125"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="364"/>
+      <c r="G20" s="340"/>
+      <c r="H20" s="340"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
@@ -10982,27 +11026,27 @@
       <c r="F21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="304" t="s">
+      <c r="G21" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="305"/>
+      <c r="H21" s="292"/>
       <c r="I21" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="454" t="s">
+      <c r="K21" s="453" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="455"/>
-      <c r="M21" s="456"/>
+      <c r="L21" s="454"/>
+      <c r="M21" s="430"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="441" t="s">
+      <c r="B22" s="431" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="453"/>
+      <c r="C22" s="432"/>
       <c r="D22" s="58">
         <f>'Acqusition-NF'!D22</f>
         <v>0</v>
@@ -11012,30 +11056,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="352" t="e">
+      <c r="G22" s="391" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="353"/>
+      <c r="H22" s="392"/>
       <c r="I22" s="112" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="131"/>
-      <c r="K22" s="473" t="s">
+      <c r="K22" s="428" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="474"/>
+      <c r="L22" s="429"/>
       <c r="M22" s="103">
         <f>'Acqusition-NF'!M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="452" t="s">
+      <c r="B23" s="422" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="475"/>
+      <c r="C23" s="423"/>
       <c r="D23" s="58">
         <f>'Acqusition-NF'!D23</f>
         <v>0</v>
@@ -11045,20 +11089,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="308" t="e">
+      <c r="G23" s="316" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="309"/>
+      <c r="H23" s="317"/>
       <c r="I23" s="106" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="131"/>
-      <c r="K23" s="312" t="s">
+      <c r="K23" s="331" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="356"/>
+      <c r="L23" s="332"/>
       <c r="M23" s="66">
         <f>'Acqusition-NF'!M23</f>
         <v>0.01</v>
@@ -11078,30 +11122,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="308" t="e">
+      <c r="G24" s="316" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="309"/>
+      <c r="H24" s="317"/>
       <c r="I24" s="106" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="131"/>
-      <c r="K24" s="312" t="s">
+      <c r="K24" s="331" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="356"/>
+      <c r="L24" s="332"/>
       <c r="M24" s="134">
         <f>'Acqusition-NF'!M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="452" t="s">
+      <c r="B25" s="422" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="457"/>
+      <c r="C25" s="455"/>
       <c r="D25" s="58">
         <f>'Acqusition-NF'!D25</f>
         <v>0</v>
@@ -11111,20 +11155,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="308" t="e">
+      <c r="G25" s="316" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="309"/>
+      <c r="H25" s="317"/>
       <c r="I25" s="106" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="131"/>
-      <c r="K25" s="415" t="s">
+      <c r="K25" s="329" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="416"/>
+      <c r="L25" s="330"/>
       <c r="M25" s="134">
         <f>'Acqusition-NF'!M25</f>
         <v>0</v>
@@ -11150,30 +11194,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="308" t="e">
+      <c r="G26" s="316" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="309"/>
+      <c r="H26" s="317"/>
       <c r="I26" s="106" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="458" t="s">
+      <c r="K26" s="449" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="459"/>
+      <c r="L26" s="450"/>
       <c r="M26" s="123">
         <f>'Acqusition-NF'!M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="452" t="s">
+      <c r="B27" s="422" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="453"/>
+      <c r="C27" s="432"/>
       <c r="D27" s="58">
         <f>'Acqusition-NF'!D27</f>
         <v>0</v>
@@ -11183,11 +11227,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="308" t="e">
+      <c r="G27" s="316" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="309"/>
+      <c r="H27" s="317"/>
       <c r="I27" s="106" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -11203,10 +11247,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="452" t="s">
+      <c r="B28" s="422" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="475"/>
+      <c r="C28" s="423"/>
       <c r="D28" s="58">
         <f>'Acqusition-NF'!D28</f>
         <v>0</v>
@@ -11216,11 +11260,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="308" t="e">
+      <c r="G28" s="316" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="309"/>
+      <c r="H28" s="317"/>
       <c r="I28" s="106" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -11231,10 +11275,10 @@
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="452" t="s">
+      <c r="B29" s="422" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="475"/>
+      <c r="C29" s="423"/>
       <c r="D29" s="58">
         <f>'Acqusition-NF'!D29</f>
         <v>0</v>
@@ -11244,11 +11288,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="G29" s="308" t="e">
+      <c r="G29" s="316" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="309"/>
+      <c r="H29" s="317"/>
       <c r="I29" s="106" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -11264,10 +11308,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="439" t="s">
+      <c r="B30" s="424" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="451"/>
+      <c r="C30" s="425"/>
       <c r="D30" s="70">
         <f>'Acqusition-NF'!D30</f>
         <v>0</v>
@@ -11277,11 +11321,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="320" t="e">
+      <c r="G30" s="403" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="321"/>
+      <c r="H30" s="404"/>
       <c r="I30" s="111" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -11309,34 +11353,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="476" t="e">
+      <c r="G31" s="426" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="477"/>
+      <c r="H31" s="427"/>
       <c r="I31" s="120" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="334" t="s">
+      <c r="K31" s="290" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="304"/>
-      <c r="M31" s="456"/>
+      <c r="L31" s="291"/>
+      <c r="M31" s="430"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="335" t="s">
+      <c r="B32" s="373" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="336"/>
-      <c r="D32" s="463">
+      <c r="C32" s="374"/>
+      <c r="D32" s="436">
         <f>'Acqusition-NF'!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="147"/>
-      <c r="F32" s="465">
+      <c r="F32" s="438">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -11355,11 +11399,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="337"/>
-      <c r="C33" s="338"/>
-      <c r="D33" s="464"/>
+      <c r="B33" s="375"/>
+      <c r="C33" s="376"/>
+      <c r="D33" s="437"/>
       <c r="E33" s="149"/>
-      <c r="F33" s="466"/>
+      <c r="F33" s="439"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -11375,10 +11419,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="379" t="s">
+      <c r="B34" s="361" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="380"/>
+      <c r="C34" s="362"/>
       <c r="D34" s="151">
         <f>'Acqusition-NF'!D34</f>
         <v>0</v>
@@ -11392,10 +11436,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="348" t="s">
+      <c r="K34" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="467"/>
+      <c r="L34" s="440"/>
       <c r="M34" s="134">
         <f>'Acqusition-NF'!M34</f>
         <v>250</v>
@@ -11431,10 +11475,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="359" t="s">
+      <c r="B36" s="335" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="468"/>
+      <c r="C36" s="441"/>
       <c r="D36" s="228">
         <f>'Acqusition-NF'!D36</f>
         <v>0</v>
@@ -11454,10 +11498,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="300" t="s">
+      <c r="B37" s="359" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="462"/>
+      <c r="C37" s="421"/>
       <c r="D37" s="228">
         <f>'Acqusition-NF'!D37</f>
         <v>0</v>
@@ -11468,23 +11512,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="384" t="s">
+      <c r="H37" s="287" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="385"/>
-      <c r="J37" s="385"/>
-      <c r="K37" s="385"/>
-      <c r="L37" s="384" t="s">
+      <c r="I37" s="288"/>
+      <c r="J37" s="288"/>
+      <c r="K37" s="288"/>
+      <c r="L37" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="386"/>
+      <c r="M37" s="289"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="359" t="s">
+      <c r="B38" s="335" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="468"/>
+      <c r="C38" s="441"/>
       <c r="D38" s="228">
         <f>'Acqusition-NF'!D38</f>
         <v>0</v>
@@ -11495,18 +11539,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="460"/>
-      <c r="I38" s="469"/>
-      <c r="J38" s="469"/>
-      <c r="K38" s="470"/>
-      <c r="L38" s="460"/>
-      <c r="M38" s="461"/>
+      <c r="H38" s="442"/>
+      <c r="I38" s="443"/>
+      <c r="J38" s="443"/>
+      <c r="K38" s="444"/>
+      <c r="L38" s="442"/>
+      <c r="M38" s="451"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="300" t="s">
+      <c r="B39" s="359" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="462"/>
+      <c r="C39" s="421"/>
       <c r="D39" s="229" t="e">
         <f>'Acqusition-NF'!D39</f>
         <v>#DIV/0!</v>
@@ -11517,18 +11561,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="445"/>
-      <c r="I39" s="449"/>
-      <c r="J39" s="449"/>
-      <c r="K39" s="450"/>
-      <c r="L39" s="445"/>
-      <c r="M39" s="446"/>
+      <c r="H39" s="433"/>
+      <c r="I39" s="434"/>
+      <c r="J39" s="434"/>
+      <c r="K39" s="435"/>
+      <c r="L39" s="433"/>
+      <c r="M39" s="448"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="300" t="s">
+      <c r="B40" s="359" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="462"/>
+      <c r="C40" s="421"/>
       <c r="D40" s="230" t="e">
         <f>'Acqusition-NF'!D40</f>
         <v>#DIV/0!</v>
@@ -11541,18 +11585,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="445"/>
-      <c r="I40" s="449"/>
-      <c r="J40" s="449"/>
-      <c r="K40" s="450"/>
-      <c r="L40" s="445"/>
-      <c r="M40" s="446"/>
+      <c r="H40" s="433"/>
+      <c r="I40" s="434"/>
+      <c r="J40" s="434"/>
+      <c r="K40" s="435"/>
+      <c r="L40" s="433"/>
+      <c r="M40" s="448"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="300" t="s">
+      <c r="B41" s="359" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="462"/>
+      <c r="C41" s="421"/>
       <c r="D41" s="229" t="e">
         <f>'Acqusition-NF'!D41</f>
         <v>#DIV/0!</v>
@@ -11565,18 +11609,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="445"/>
-      <c r="I41" s="449"/>
-      <c r="J41" s="449"/>
-      <c r="K41" s="450"/>
-      <c r="L41" s="445"/>
-      <c r="M41" s="446"/>
+      <c r="H41" s="433"/>
+      <c r="I41" s="434"/>
+      <c r="J41" s="434"/>
+      <c r="K41" s="435"/>
+      <c r="L41" s="433"/>
+      <c r="M41" s="448"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="300" t="s">
+      <c r="B42" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="462"/>
+      <c r="C42" s="421"/>
       <c r="D42" s="228">
         <f>'Acqusition-NF'!D42</f>
         <v>0</v>
@@ -11592,18 +11636,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="445"/>
-      <c r="I42" s="449"/>
-      <c r="J42" s="449"/>
-      <c r="K42" s="450"/>
-      <c r="L42" s="445"/>
-      <c r="M42" s="446"/>
+      <c r="H42" s="433"/>
+      <c r="I42" s="434"/>
+      <c r="J42" s="434"/>
+      <c r="K42" s="435"/>
+      <c r="L42" s="433"/>
+      <c r="M42" s="448"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="300" t="s">
+      <c r="B43" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="462"/>
+      <c r="C43" s="421"/>
       <c r="D43" s="228">
         <f>'Acqusition-NF'!D43</f>
         <v>0</v>
@@ -11614,18 +11658,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="445"/>
-      <c r="I43" s="449"/>
-      <c r="J43" s="449"/>
-      <c r="K43" s="450"/>
-      <c r="L43" s="445"/>
-      <c r="M43" s="446"/>
+      <c r="H43" s="433"/>
+      <c r="I43" s="434"/>
+      <c r="J43" s="434"/>
+      <c r="K43" s="435"/>
+      <c r="L43" s="433"/>
+      <c r="M43" s="448"/>
     </row>
     <row r="44" spans="2:19" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="298" t="s">
+      <c r="B44" s="397" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="299"/>
+      <c r="C44" s="398"/>
       <c r="D44" s="231" t="e">
         <f>'Acqusition-NF'!D44</f>
         <v>#DIV/0!</v>
@@ -11636,12 +11680,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="447"/>
-      <c r="I44" s="471"/>
-      <c r="J44" s="471"/>
-      <c r="K44" s="472"/>
-      <c r="L44" s="447"/>
-      <c r="M44" s="448"/>
+      <c r="H44" s="445"/>
+      <c r="I44" s="446"/>
+      <c r="J44" s="446"/>
+      <c r="K44" s="447"/>
+      <c r="L44" s="445"/>
+      <c r="M44" s="452"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -11668,27 +11712,65 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="96">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L37:M37"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="H42:K42"/>
@@ -11705,65 +11787,27 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H37:K37"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -11986,27 +12030,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="3.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="412" t="s">
+      <c r="B2" s="326" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="413"/>
-      <c r="F2" s="413"/>
-      <c r="G2" s="413"/>
-      <c r="H2" s="413"/>
-      <c r="I2" s="413"/>
-      <c r="J2" s="413"/>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="414"/>
-      <c r="P2" s="387" t="s">
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="328"/>
+      <c r="P2" s="293" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="388"/>
-      <c r="S2" s="388"/>
-      <c r="T2" s="389"/>
+      <c r="Q2" s="294"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="294"/>
+      <c r="T2" s="295"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12030,11 +12074,11 @@
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="334" t="s">
+      <c r="B4" s="290" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="304"/>
-      <c r="D4" s="305"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="94" t="s">
         <v>111</v>
       </c>
@@ -12046,54 +12090,54 @@
       <c r="K4" s="181"/>
       <c r="L4" s="181"/>
       <c r="M4" s="182"/>
-      <c r="P4" s="393" t="s">
+      <c r="P4" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="394"/>
-      <c r="R4" s="394"/>
-      <c r="S4" s="394"/>
-      <c r="T4" s="395"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="300"/>
+      <c r="S4" s="300"/>
+      <c r="T4" s="301"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="324"/>
-      <c r="D5" s="325"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="364"/>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="185"/>
       <c r="H5" s="185"/>
       <c r="I5" s="186"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="334" t="s">
+      <c r="K5" s="290" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="304"/>
-      <c r="M5" s="305"/>
-      <c r="P5" s="393" t="s">
+      <c r="L5" s="291"/>
+      <c r="M5" s="292"/>
+      <c r="P5" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="394"/>
-      <c r="R5" s="394"/>
-      <c r="S5" s="394"/>
-      <c r="T5" s="395"/>
+      <c r="Q5" s="300"/>
+      <c r="R5" s="300"/>
+      <c r="S5" s="300"/>
+      <c r="T5" s="301"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="348" t="s">
+      <c r="B6" s="318" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="365"/>
+      <c r="C6" s="341"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="326" t="s">
+      <c r="E6" s="365" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="327"/>
-      <c r="G6" s="327"/>
-      <c r="H6" s="328"/>
-      <c r="I6" s="375" t="s">
+      <c r="F6" s="366"/>
+      <c r="G6" s="366"/>
+      <c r="H6" s="367"/>
+      <c r="I6" s="353" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="89"/>
@@ -12102,26 +12146,26 @@
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="33"/>
-      <c r="P6" s="396" t="s">
+      <c r="P6" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="397"/>
-      <c r="R6" s="397"/>
-      <c r="S6" s="397"/>
-      <c r="T6" s="398"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="304"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="348" t="s">
+      <c r="B7" s="318" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="349"/>
+      <c r="C7" s="342"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="329"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="331"/>
-      <c r="I7" s="376"/>
+      <c r="E7" s="368"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="369"/>
+      <c r="H7" s="370"/>
+      <c r="I7" s="354"/>
       <c r="J7" s="89"/>
       <c r="K7" s="189" t="s">
         <v>96</v>
@@ -12141,20 +12185,20 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="348" t="s">
+      <c r="B8" s="318" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="349"/>
+      <c r="C8" s="342"/>
       <c r="D8" s="191" t="e">
         <f>D7/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="332" t="s">
+      <c r="E8" s="371" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="333"/>
-      <c r="G8" s="377"/>
-      <c r="H8" s="378"/>
+      <c r="F8" s="372"/>
+      <c r="G8" s="357"/>
+      <c r="H8" s="358"/>
       <c r="I8" s="65" t="e">
         <f>G8/G10</f>
         <v>#DIV/0!</v>
@@ -12170,17 +12214,17 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="348" t="s">
+      <c r="B9" s="318" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="349"/>
+      <c r="C9" s="342"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="354" t="s">
+      <c r="E9" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="355"/>
-      <c r="G9" s="341"/>
-      <c r="H9" s="342"/>
+      <c r="F9" s="396"/>
+      <c r="G9" s="379"/>
+      <c r="H9" s="380"/>
       <c r="I9" s="66" t="e">
         <f>G9/G10</f>
         <v>#DIV/0!</v>
@@ -12191,20 +12235,20 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="373" t="s">
+      <c r="B10" s="351" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="374"/>
+      <c r="C10" s="352"/>
       <c r="D10" s="196" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="366" t="s">
+      <c r="E10" s="343" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="367"/>
-      <c r="G10" s="368"/>
-      <c r="H10" s="369"/>
+      <c r="F10" s="344"/>
+      <c r="G10" s="345"/>
+      <c r="H10" s="346"/>
       <c r="I10" s="197" t="s">
         <v>16</v>
       </c>
@@ -12212,13 +12256,13 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="90"/>
-      <c r="P10" s="399" t="s">
+      <c r="P10" s="305" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="400"/>
-      <c r="R10" s="400"/>
-      <c r="S10" s="400"/>
-      <c r="T10" s="401"/>
+      <c r="Q10" s="306"/>
+      <c r="R10" s="306"/>
+      <c r="S10" s="306"/>
+      <c r="T10" s="307"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="198"/>
@@ -12233,11 +12277,11 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="90"/>
-      <c r="P11" s="402"/>
-      <c r="Q11" s="403"/>
-      <c r="R11" s="403"/>
-      <c r="S11" s="403"/>
-      <c r="T11" s="404"/>
+      <c r="P11" s="308"/>
+      <c r="Q11" s="309"/>
+      <c r="R11" s="309"/>
+      <c r="S11" s="309"/>
+      <c r="T11" s="310"/>
     </row>
     <row r="12" spans="2:21" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="91" t="s">
@@ -12253,23 +12297,23 @@
       <c r="F12" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="304" t="s">
+      <c r="G12" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="305"/>
+      <c r="H12" s="292"/>
       <c r="I12" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="334" t="s">
+      <c r="K12" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="304"/>
-      <c r="M12" s="305"/>
-      <c r="P12" s="286" t="s">
+      <c r="L12" s="291"/>
+      <c r="M12" s="292"/>
+      <c r="P12" s="323" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="287"/>
+      <c r="Q12" s="325"/>
       <c r="R12" s="29" t="s">
         <v>29</v>
       </c>
@@ -12281,38 +12325,38 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="383" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="345"/>
+      <c r="C13" s="384"/>
       <c r="D13" s="37"/>
       <c r="E13" s="130" t="e">
         <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="346" t="e">
+      <c r="G13" s="385" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="347"/>
+      <c r="H13" s="386"/>
       <c r="I13" s="200" t="e">
         <f>D13/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="478" t="s">
+      <c r="K13" s="486" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="479"/>
+      <c r="L13" s="487"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P13" s="288" t="s">
+      <c r="P13" s="411" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="289"/>
+      <c r="Q13" s="412"/>
       <c r="R13" s="11" t="e">
         <f t="shared" ref="R13:R19" si="0">E22</f>
         <v>#DIV/0!</v>
@@ -12339,11 +12383,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="302" t="e">
+      <c r="G14" s="389" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="303"/>
+      <c r="H14" s="390"/>
       <c r="I14" s="202" t="e">
         <f>D14/D13</f>
         <v>#DIV/0!</v>
@@ -12354,10 +12398,10 @@
       </c>
       <c r="L14" s="108"/>
       <c r="M14" s="48"/>
-      <c r="P14" s="282" t="s">
+      <c r="P14" s="407" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="283"/>
+      <c r="Q14" s="408"/>
       <c r="R14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12371,38 +12415,38 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="310" t="s">
+      <c r="B15" s="349" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="372"/>
+      <c r="C15" s="350"/>
       <c r="D15" s="41"/>
       <c r="E15" s="109" t="e">
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="343" t="e">
+      <c r="G15" s="381" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="344"/>
+      <c r="H15" s="382"/>
       <c r="I15" s="203" t="e">
         <f>D15/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="480" t="s">
+      <c r="K15" s="484" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="481"/>
+      <c r="L15" s="485"/>
       <c r="M15" s="134">
         <f>M13-M14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="282" t="s">
+      <c r="P15" s="407" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="283"/>
+      <c r="Q15" s="408"/>
       <c r="R15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12432,23 +12476,23 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="443" t="e">
+      <c r="G16" s="456" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="444"/>
+      <c r="H16" s="457"/>
       <c r="I16" s="200" t="e">
         <f>D16/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="312"/>
-      <c r="L16" s="356"/>
+      <c r="K16" s="331"/>
+      <c r="L16" s="332"/>
       <c r="M16" s="134"/>
-      <c r="P16" s="282" t="s">
+      <c r="P16" s="407" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="283"/>
+      <c r="Q16" s="408"/>
       <c r="R16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12472,25 +12516,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="302" t="e">
+      <c r="G17" s="389" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="303"/>
+      <c r="H17" s="390"/>
       <c r="I17" s="202" t="e">
         <f>D17/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="348" t="s">
+      <c r="K17" s="318" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="407"/>
+      <c r="L17" s="319"/>
       <c r="M17" s="48"/>
-      <c r="P17" s="282" t="s">
+      <c r="P17" s="407" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="283"/>
+      <c r="Q17" s="408"/>
       <c r="R17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12504,33 +12548,33 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="310" t="s">
+      <c r="B18" s="349" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="311"/>
+      <c r="C18" s="356"/>
       <c r="D18" s="41"/>
       <c r="E18" s="109" t="e">
         <f>D18/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="343" t="e">
+      <c r="G18" s="381" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="344"/>
+      <c r="H18" s="382"/>
       <c r="I18" s="203" t="e">
         <f>D18/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="415"/>
-      <c r="L18" s="416"/>
+      <c r="K18" s="329"/>
+      <c r="L18" s="330"/>
       <c r="M18" s="64"/>
-      <c r="P18" s="282" t="s">
+      <c r="P18" s="407" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="283"/>
+      <c r="Q18" s="408"/>
       <c r="R18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12560,11 +12604,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="322" t="e">
+      <c r="G19" s="393" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="323"/>
+      <c r="H19" s="394"/>
       <c r="I19" s="208" t="e">
         <f>D19/D13</f>
         <v>#DIV/0!</v>
@@ -12578,19 +12622,19 @@
         <f>M17*12</f>
         <v>0</v>
       </c>
-      <c r="P19" s="294" t="s">
+      <c r="P19" s="417" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="295"/>
-      <c r="R19" s="290" t="e">
+      <c r="Q19" s="418"/>
+      <c r="R19" s="413" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="292" t="e">
+      <c r="S19" s="415" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="280" t="s">
+      <c r="T19" s="405" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12600,18 +12644,18 @@
       <c r="D20" s="210"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="364"/>
+      <c r="G20" s="340"/>
+      <c r="H20" s="340"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="90"/>
-      <c r="P20" s="296"/>
-      <c r="Q20" s="297"/>
-      <c r="R20" s="291"/>
-      <c r="S20" s="293"/>
-      <c r="T20" s="281"/>
+      <c r="P20" s="419"/>
+      <c r="Q20" s="420"/>
+      <c r="R20" s="414"/>
+      <c r="S20" s="416"/>
+      <c r="T20" s="406"/>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="128" t="s">
@@ -12627,25 +12671,25 @@
       <c r="F21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="304" t="s">
+      <c r="G21" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="305"/>
+      <c r="H21" s="292"/>
       <c r="I21" s="94" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="334" t="s">
+      <c r="K21" s="290" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="304"/>
-      <c r="M21" s="305"/>
+      <c r="L21" s="291"/>
+      <c r="M21" s="292"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="282" t="s">
+      <c r="P21" s="407" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="283"/>
+      <c r="Q21" s="408"/>
       <c r="R21" s="13" t="e">
         <f>E29</f>
         <v>#DIV/0!</v>
@@ -12659,21 +12703,21 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="383" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="316"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="37"/>
       <c r="E22" s="130" t="e">
         <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="352" t="e">
+      <c r="G22" s="391" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="353"/>
+      <c r="H22" s="392"/>
       <c r="I22" s="200" t="e">
         <f>D22/D13</f>
         <v>#DIV/0!</v>
@@ -12689,10 +12733,10 @@
         <f>L22*M13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="284" t="s">
+      <c r="P22" s="409" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="285"/>
+      <c r="Q22" s="410"/>
       <c r="R22" s="237" t="e">
         <f>E30</f>
         <v>#DIV/0!</v>
@@ -12706,21 +12750,21 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="312" t="s">
+      <c r="B23" s="331" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="313"/>
+      <c r="C23" s="355"/>
       <c r="D23" s="36"/>
       <c r="E23" s="105" t="e">
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="308" t="e">
+      <c r="G23" s="316" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="309"/>
+      <c r="H23" s="317"/>
       <c r="I23" s="202" t="e">
         <f>D23/D13</f>
         <v>#DIV/0!</v>
@@ -12733,10 +12777,10 @@
       <c r="M23" s="46">
         <v>0</v>
       </c>
-      <c r="P23" s="410" t="s">
+      <c r="P23" s="322" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="410"/>
+      <c r="Q23" s="322"/>
       <c r="R23" s="240">
         <f>D34</f>
         <v>0</v>
@@ -12760,11 +12804,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="308" t="e">
+      <c r="G24" s="316" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="309"/>
+      <c r="H24" s="317"/>
       <c r="I24" s="202" t="e">
         <f>D24/D13</f>
         <v>#DIV/0!</v>
@@ -12780,21 +12824,21 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="312" t="s">
+      <c r="B25" s="331" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="314"/>
+      <c r="C25" s="401"/>
       <c r="D25" s="36"/>
       <c r="E25" s="133" t="e">
         <f>D25/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="308" t="e">
+      <c r="G25" s="316" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="309"/>
+      <c r="H25" s="317"/>
       <c r="I25" s="202" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
@@ -12825,43 +12869,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="308" t="e">
+      <c r="G26" s="316" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="309"/>
+      <c r="H26" s="317"/>
       <c r="I26" s="202" t="e">
         <f>D26/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="405" t="s">
+      <c r="K26" s="311" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="406"/>
+      <c r="L26" s="312"/>
       <c r="M26" s="47"/>
-      <c r="P26" s="286" t="s">
+      <c r="P26" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="411"/>
-      <c r="R26" s="287"/>
+      <c r="Q26" s="324"/>
+      <c r="R26" s="325"/>
     </row>
     <row r="27" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="331" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="316"/>
+      <c r="C27" s="402"/>
       <c r="D27" s="36"/>
       <c r="E27" s="105" t="e">
         <f>D27/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="308" t="e">
+      <c r="G27" s="316" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="309"/>
+      <c r="H27" s="317"/>
       <c r="I27" s="202" t="e">
         <f>D27/D13</f>
         <v>#DIV/0!</v>
@@ -12876,27 +12920,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="408" t="s">
+      <c r="Q27" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="409"/>
+      <c r="R27" s="321"/>
     </row>
     <row r="28" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="331" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="313"/>
+      <c r="C28" s="355"/>
       <c r="D28" s="36"/>
       <c r="E28" s="105" t="e">
         <f>D28/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="308" t="e">
+      <c r="G28" s="316" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="309"/>
+      <c r="H28" s="317"/>
       <c r="I28" s="202" t="e">
         <f>D28/D13</f>
         <v>#DIV/0!</v>
@@ -12906,27 +12950,27 @@
       <c r="L28" s="174"/>
       <c r="M28" s="141"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="408" t="s">
+      <c r="Q28" s="320" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="409"/>
+      <c r="R28" s="321"/>
     </row>
     <row r="29" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="312" t="s">
+      <c r="B29" s="331" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="313"/>
+      <c r="C29" s="355"/>
       <c r="D29" s="36"/>
       <c r="E29" s="105" t="e">
         <f>D29/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="308" t="e">
+      <c r="G29" s="316" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="309"/>
+      <c r="H29" s="317"/>
       <c r="I29" s="202" t="e">
         <f>D29/D13</f>
         <v>#DIV/0!</v>
@@ -12941,27 +12985,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="53"/>
-      <c r="Q29" s="408" t="s">
+      <c r="Q29" s="320" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="409"/>
+      <c r="R29" s="321"/>
     </row>
     <row r="30" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="310" t="s">
+      <c r="B30" s="349" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="311"/>
+      <c r="C30" s="356"/>
       <c r="D30" s="41"/>
       <c r="E30" s="109" t="e">
         <f>D30/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="320" t="e">
+      <c r="G30" s="403" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="321"/>
+      <c r="H30" s="404"/>
       <c r="I30" s="203" t="e">
         <f>D30/D13</f>
         <v>#DIV/0!</v>
@@ -12989,34 +13033,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="322" t="e">
+      <c r="G31" s="393" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="323"/>
+      <c r="H31" s="394"/>
       <c r="I31" s="208" t="e">
         <f>D31/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="334" t="s">
+      <c r="K31" s="290" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="304"/>
-      <c r="M31" s="305"/>
+      <c r="L31" s="291"/>
+      <c r="M31" s="292"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="335" t="s">
+      <c r="B32" s="373" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="336"/>
-      <c r="D32" s="339">
+      <c r="C32" s="374"/>
+      <c r="D32" s="377">
         <f>D19-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="217"/>
-      <c r="F32" s="339">
+      <c r="F32" s="377">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -13032,11 +13076,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="337"/>
-      <c r="C33" s="338"/>
-      <c r="D33" s="340"/>
+      <c r="B33" s="375"/>
+      <c r="C33" s="376"/>
+      <c r="D33" s="378"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="340"/>
+      <c r="F33" s="378"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -13068,10 +13112,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="348" t="s">
+      <c r="K34" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="407"/>
+      <c r="L34" s="319"/>
       <c r="M34" s="44"/>
       <c r="S34" s="10"/>
     </row>
@@ -13104,10 +13148,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="359" t="s">
+      <c r="B36" s="335" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="360"/>
+      <c r="C36" s="336"/>
       <c r="D36" s="155">
         <f>M19</f>
         <v>0</v>
@@ -13127,10 +13171,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="300" t="s">
+      <c r="B37" s="359" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="301"/>
+      <c r="C37" s="360"/>
       <c r="D37" s="220" t="e">
         <f>M35</f>
         <v>#NUM!</v>
@@ -13141,21 +13185,21 @@
         <v>#NUM!</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="384" t="s">
+      <c r="H37" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="385"/>
-      <c r="J37" s="385"/>
-      <c r="K37" s="385"/>
-      <c r="L37" s="385"/>
-      <c r="M37" s="386"/>
+      <c r="I37" s="288"/>
+      <c r="J37" s="288"/>
+      <c r="K37" s="288"/>
+      <c r="L37" s="288"/>
+      <c r="M37" s="289"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="359" t="s">
+      <c r="B38" s="335" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="360"/>
+      <c r="C38" s="336"/>
       <c r="D38" s="155" t="e">
         <f>(D35-D36-D37)</f>
         <v>#NUM!</v>
@@ -13166,18 +13210,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="361"/>
-      <c r="I38" s="362"/>
-      <c r="J38" s="362"/>
-      <c r="K38" s="362"/>
-      <c r="L38" s="362"/>
-      <c r="M38" s="363"/>
+      <c r="H38" s="337"/>
+      <c r="I38" s="338"/>
+      <c r="J38" s="338"/>
+      <c r="K38" s="338"/>
+      <c r="L38" s="338"/>
+      <c r="M38" s="339"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="300" t="s">
+      <c r="B39" s="359" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="301"/>
+      <c r="C39" s="360"/>
       <c r="D39" s="165" t="e">
         <f>D38/M29</f>
         <v>#NUM!</v>
@@ -13188,18 +13232,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="318"/>
-      <c r="J39" s="318"/>
-      <c r="K39" s="318"/>
-      <c r="L39" s="318"/>
-      <c r="M39" s="319"/>
+      <c r="H39" s="313"/>
+      <c r="I39" s="314"/>
+      <c r="J39" s="314"/>
+      <c r="K39" s="314"/>
+      <c r="L39" s="314"/>
+      <c r="M39" s="315"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="300" t="s">
+      <c r="B40" s="359" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="301"/>
+      <c r="C40" s="360"/>
       <c r="D40" s="221" t="e">
         <f>D35/(D36+D37)</f>
         <v>#NUM!</v>
@@ -13212,18 +13256,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="317"/>
-      <c r="I40" s="318"/>
-      <c r="J40" s="318"/>
-      <c r="K40" s="318"/>
-      <c r="L40" s="318"/>
-      <c r="M40" s="319"/>
+      <c r="H40" s="313"/>
+      <c r="I40" s="314"/>
+      <c r="J40" s="314"/>
+      <c r="K40" s="314"/>
+      <c r="L40" s="314"/>
+      <c r="M40" s="315"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="300" t="s">
+      <c r="B41" s="359" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="301"/>
+      <c r="C41" s="360"/>
       <c r="D41" s="165" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -13236,18 +13280,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="317"/>
-      <c r="I41" s="318"/>
-      <c r="J41" s="318"/>
-      <c r="K41" s="318"/>
-      <c r="L41" s="318"/>
-      <c r="M41" s="319"/>
+      <c r="H41" s="313"/>
+      <c r="I41" s="314"/>
+      <c r="J41" s="314"/>
+      <c r="K41" s="314"/>
+      <c r="L41" s="314"/>
+      <c r="M41" s="315"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="300" t="s">
+      <c r="B42" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="301"/>
+      <c r="C42" s="360"/>
       <c r="D42" s="155" t="e">
         <f>D38*E42</f>
         <v>#NUM!</v>
@@ -13262,18 +13306,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="317"/>
-      <c r="I42" s="318"/>
-      <c r="J42" s="318"/>
-      <c r="K42" s="318"/>
-      <c r="L42" s="318"/>
-      <c r="M42" s="319"/>
+      <c r="H42" s="313"/>
+      <c r="I42" s="314"/>
+      <c r="J42" s="314"/>
+      <c r="K42" s="314"/>
+      <c r="L42" s="314"/>
+      <c r="M42" s="315"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="300" t="s">
+      <c r="B43" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="301"/>
+      <c r="C43" s="360"/>
       <c r="D43" s="155" t="e">
         <f>D38-D42</f>
         <v>#NUM!</v>
@@ -13284,18 +13328,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="317"/>
-      <c r="I43" s="318"/>
-      <c r="J43" s="318"/>
-      <c r="K43" s="318"/>
-      <c r="L43" s="318"/>
-      <c r="M43" s="319"/>
+      <c r="H43" s="313"/>
+      <c r="I43" s="314"/>
+      <c r="J43" s="314"/>
+      <c r="K43" s="314"/>
+      <c r="L43" s="314"/>
+      <c r="M43" s="315"/>
     </row>
     <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="298" t="s">
+      <c r="B44" s="397" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="299"/>
+      <c r="C44" s="398"/>
       <c r="D44" s="175" t="e">
         <f>D43/M29</f>
         <v>#NUM!</v>
@@ -13306,12 +13350,12 @@
         <v>#NUM!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="381"/>
-      <c r="I44" s="382"/>
-      <c r="J44" s="382"/>
-      <c r="K44" s="382"/>
-      <c r="L44" s="382"/>
-      <c r="M44" s="383"/>
+      <c r="H44" s="284"/>
+      <c r="I44" s="285"/>
+      <c r="J44" s="285"/>
+      <c r="K44" s="285"/>
+      <c r="L44" s="285"/>
+      <c r="M44" s="286"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -13338,92 +13382,6 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="101">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P10:T11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:I7"/>
@@ -13439,6 +13397,92 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P10:T11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:M42"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -13661,27 +13705,27 @@
   <sheetData>
     <row r="1" spans="2:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="412" t="s">
+      <c r="B2" s="326" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="413"/>
-      <c r="F2" s="413"/>
-      <c r="G2" s="413"/>
-      <c r="H2" s="413"/>
-      <c r="I2" s="413"/>
-      <c r="J2" s="413"/>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="414"/>
-      <c r="P2" s="387" t="s">
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="328"/>
+      <c r="P2" s="293" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="388"/>
-      <c r="S2" s="388"/>
-      <c r="T2" s="389"/>
+      <c r="Q2" s="294"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="294"/>
+      <c r="T2" s="295"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -13706,103 +13750,103 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="334" t="s">
+      <c r="B4" s="290" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="304"/>
-      <c r="D4" s="305"/>
-      <c r="E4" s="419" t="s">
+      <c r="C4" s="291"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="476" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="420"/>
-      <c r="G4" s="420"/>
-      <c r="H4" s="420"/>
-      <c r="I4" s="420"/>
-      <c r="J4" s="420"/>
-      <c r="K4" s="420"/>
-      <c r="L4" s="420"/>
-      <c r="M4" s="421"/>
-      <c r="P4" s="393" t="s">
+      <c r="F4" s="477"/>
+      <c r="G4" s="477"/>
+      <c r="H4" s="477"/>
+      <c r="I4" s="477"/>
+      <c r="J4" s="477"/>
+      <c r="K4" s="477"/>
+      <c r="L4" s="477"/>
+      <c r="M4" s="478"/>
+      <c r="P4" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="394"/>
-      <c r="R4" s="394"/>
-      <c r="S4" s="394"/>
-      <c r="T4" s="395"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="300"/>
+      <c r="S4" s="300"/>
+      <c r="T4" s="301"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="417">
+      <c r="C5" s="474">
         <f>Assumption!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="418"/>
-      <c r="E5" s="422"/>
-      <c r="F5" s="423"/>
-      <c r="G5" s="423"/>
-      <c r="H5" s="423"/>
-      <c r="I5" s="423"/>
-      <c r="J5" s="423"/>
-      <c r="K5" s="423"/>
-      <c r="L5" s="423"/>
-      <c r="M5" s="424"/>
-      <c r="P5" s="393" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="394"/>
-      <c r="R5" s="394"/>
-      <c r="S5" s="394"/>
-      <c r="T5" s="395"/>
+      <c r="D5" s="475"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="480"/>
+      <c r="G5" s="480"/>
+      <c r="H5" s="480"/>
+      <c r="I5" s="480"/>
+      <c r="J5" s="480"/>
+      <c r="K5" s="480"/>
+      <c r="L5" s="480"/>
+      <c r="M5" s="481"/>
+      <c r="P5" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="300"/>
+      <c r="R5" s="300"/>
+      <c r="S5" s="300"/>
+      <c r="T5" s="301"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="460" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="427"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="57">
         <f>Assumption!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="436"/>
-      <c r="F6" s="437"/>
-      <c r="G6" s="437"/>
-      <c r="H6" s="437"/>
-      <c r="I6" s="437"/>
-      <c r="J6" s="437"/>
-      <c r="K6" s="437"/>
-      <c r="L6" s="437"/>
-      <c r="M6" s="438"/>
-      <c r="P6" s="396" t="s">
+      <c r="E6" s="471"/>
+      <c r="F6" s="472"/>
+      <c r="G6" s="472"/>
+      <c r="H6" s="472"/>
+      <c r="I6" s="472"/>
+      <c r="J6" s="472"/>
+      <c r="K6" s="472"/>
+      <c r="L6" s="472"/>
+      <c r="M6" s="473"/>
+      <c r="P6" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="397"/>
-      <c r="R6" s="397"/>
-      <c r="S6" s="397"/>
-      <c r="T6" s="398"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="304"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="425" t="s">
+      <c r="B7" s="460" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="426"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="58">
         <f>Assumption!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="436"/>
-      <c r="F7" s="437"/>
-      <c r="G7" s="437"/>
-      <c r="H7" s="437"/>
-      <c r="I7" s="437"/>
-      <c r="J7" s="437"/>
-      <c r="K7" s="437"/>
-      <c r="L7" s="437"/>
-      <c r="M7" s="438"/>
+      <c r="E7" s="471"/>
+      <c r="F7" s="472"/>
+      <c r="G7" s="472"/>
+      <c r="H7" s="472"/>
+      <c r="I7" s="472"/>
+      <c r="J7" s="472"/>
+      <c r="K7" s="472"/>
+      <c r="L7" s="472"/>
+      <c r="M7" s="473"/>
       <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
@@ -13813,61 +13857,61 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="425" t="s">
+      <c r="B8" s="460" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="426"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="58" t="e">
         <f>Assumption!D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="428"/>
-      <c r="F8" s="429"/>
-      <c r="G8" s="429"/>
-      <c r="H8" s="429"/>
-      <c r="I8" s="429"/>
-      <c r="J8" s="429"/>
-      <c r="K8" s="429"/>
-      <c r="L8" s="429"/>
-      <c r="M8" s="430"/>
+      <c r="E8" s="463"/>
+      <c r="F8" s="464"/>
+      <c r="G8" s="464"/>
+      <c r="H8" s="464"/>
+      <c r="I8" s="464"/>
+      <c r="J8" s="464"/>
+      <c r="K8" s="464"/>
+      <c r="L8" s="464"/>
+      <c r="M8" s="465"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="425" t="s">
+      <c r="B9" s="460" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="426"/>
+      <c r="C9" s="461"/>
       <c r="D9" s="59">
         <f>Assumption!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="428"/>
-      <c r="F9" s="429"/>
-      <c r="G9" s="429"/>
-      <c r="H9" s="429"/>
-      <c r="I9" s="429"/>
-      <c r="J9" s="429"/>
-      <c r="K9" s="429"/>
-      <c r="L9" s="429"/>
-      <c r="M9" s="430"/>
+      <c r="E9" s="463"/>
+      <c r="F9" s="464"/>
+      <c r="G9" s="464"/>
+      <c r="H9" s="464"/>
+      <c r="I9" s="464"/>
+      <c r="J9" s="464"/>
+      <c r="K9" s="464"/>
+      <c r="L9" s="464"/>
+      <c r="M9" s="465"/>
     </row>
     <row r="10" spans="2:22" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="431" t="s">
+      <c r="B10" s="466" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="432"/>
+      <c r="C10" s="467"/>
       <c r="D10" s="67" t="e">
         <f>Assumption!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="433"/>
-      <c r="F10" s="434"/>
-      <c r="G10" s="434"/>
-      <c r="H10" s="434"/>
-      <c r="I10" s="434"/>
-      <c r="J10" s="434"/>
-      <c r="K10" s="434"/>
-      <c r="L10" s="434"/>
-      <c r="M10" s="435"/>
+      <c r="E10" s="468"/>
+      <c r="F10" s="469"/>
+      <c r="G10" s="469"/>
+      <c r="H10" s="469"/>
+      <c r="I10" s="469"/>
+      <c r="J10" s="469"/>
+      <c r="K10" s="469"/>
+      <c r="L10" s="469"/>
+      <c r="M10" s="470"/>
     </row>
     <row r="11" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="85"/>
@@ -13897,30 +13941,30 @@
       <c r="F12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="304" t="s">
+      <c r="G12" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="305"/>
+      <c r="H12" s="292"/>
       <c r="I12" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="334" t="s">
+      <c r="K12" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="304"/>
-      <c r="M12" s="305"/>
-      <c r="P12" s="286" t="s">
+      <c r="L12" s="291"/>
+      <c r="M12" s="292"/>
+      <c r="P12" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="411"/>
-      <c r="R12" s="287"/>
+      <c r="Q12" s="324"/>
+      <c r="R12" s="325"/>
     </row>
     <row r="13" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="484" t="s">
+      <c r="B13" s="491" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="485"/>
+      <c r="C13" s="492"/>
       <c r="D13" s="71">
         <f>Assumption!D13</f>
         <v>0</v>
@@ -13930,29 +13974,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="72"/>
-      <c r="G13" s="346" t="e">
+      <c r="G13" s="385" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="347"/>
+      <c r="H13" s="386"/>
       <c r="I13" s="99" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="478" t="s">
+      <c r="K13" s="486" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="479"/>
+      <c r="L13" s="487"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="408" t="s">
+      <c r="Q13" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="409"/>
+      <c r="R13" s="321"/>
     </row>
     <row r="14" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="104" t="s">
@@ -13971,11 +14015,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="302" t="e">
+      <c r="G14" s="389" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="303"/>
+      <c r="H14" s="390"/>
       <c r="I14" s="106" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -13990,16 +14034,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="408" t="s">
+      <c r="Q14" s="320" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="409"/>
+      <c r="R14" s="321"/>
     </row>
     <row r="15" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="439" t="s">
+      <c r="B15" s="424" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="440"/>
+      <c r="C15" s="458"/>
       <c r="D15" s="68">
         <f>Assumption!D15</f>
         <v>0</v>
@@ -14009,35 +14053,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="343" t="e">
+      <c r="G15" s="381" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="344"/>
+      <c r="H15" s="382"/>
       <c r="I15" s="111" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="480" t="s">
+      <c r="K15" s="484" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="481"/>
+      <c r="L15" s="485"/>
       <c r="M15" s="62">
         <f>M13-M14</f>
         <v>0</v>
       </c>
       <c r="P15" s="53"/>
-      <c r="Q15" s="408" t="s">
+      <c r="Q15" s="320" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="409"/>
+      <c r="R15" s="321"/>
     </row>
     <row r="16" spans="2:22" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="486" t="s">
+      <c r="B16" s="489" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="487"/>
+      <c r="C16" s="490"/>
       <c r="D16" s="58">
         <f>Assumption!D16</f>
         <v>0</v>
@@ -14050,18 +14094,18 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="443" t="e">
+      <c r="G16" s="456" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="444"/>
+      <c r="H16" s="457"/>
       <c r="I16" s="112" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="312"/>
-      <c r="L16" s="356"/>
+      <c r="K16" s="331"/>
+      <c r="L16" s="332"/>
       <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
@@ -14078,30 +14122,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="302" t="e">
+      <c r="G17" s="389" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="303"/>
+      <c r="H17" s="390"/>
       <c r="I17" s="106" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="348" t="s">
+      <c r="K17" s="318" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="407"/>
+      <c r="L17" s="319"/>
       <c r="M17" s="62">
         <f>Assumption!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="439" t="s">
+      <c r="B18" s="424" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="451"/>
+      <c r="C18" s="425"/>
       <c r="D18" s="68">
         <f>Assumption!D18</f>
         <v>0</v>
@@ -14111,18 +14155,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="343" t="e">
+      <c r="G18" s="381" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="344"/>
+      <c r="H18" s="382"/>
       <c r="I18" s="111" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="415"/>
-      <c r="L18" s="416"/>
+      <c r="K18" s="329"/>
+      <c r="L18" s="330"/>
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="2:19" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -14142,11 +14186,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="322" t="e">
+      <c r="G19" s="393" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="323"/>
+      <c r="H19" s="394"/>
       <c r="I19" s="120" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -14189,27 +14233,27 @@
       <c r="F21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="304" t="s">
+      <c r="G21" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="305"/>
+      <c r="H21" s="292"/>
       <c r="I21" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="454" t="s">
+      <c r="K21" s="453" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="455"/>
-      <c r="M21" s="456"/>
+      <c r="L21" s="454"/>
+      <c r="M21" s="430"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="441" t="s">
+      <c r="B22" s="431" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="453"/>
+      <c r="C22" s="432"/>
       <c r="D22" s="58">
         <f>Assumption!D22</f>
         <v>0</v>
@@ -14219,30 +14263,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="352" t="e">
+      <c r="G22" s="391" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="353"/>
+      <c r="H22" s="392"/>
       <c r="I22" s="112" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="131"/>
-      <c r="K22" s="473" t="s">
+      <c r="K22" s="428" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="474"/>
+      <c r="L22" s="429"/>
       <c r="M22" s="103">
         <f>Assumption!M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="452" t="s">
+      <c r="B23" s="422" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="475"/>
+      <c r="C23" s="423"/>
       <c r="D23" s="58">
         <f>Assumption!D23</f>
         <v>0</v>
@@ -14252,20 +14296,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="308" t="e">
+      <c r="G23" s="316" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="309"/>
+      <c r="H23" s="317"/>
       <c r="I23" s="106" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="131"/>
-      <c r="K23" s="312" t="s">
+      <c r="K23" s="331" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="356"/>
+      <c r="L23" s="332"/>
       <c r="M23" s="66">
         <f>Assumption!M23</f>
         <v>0</v>
@@ -14285,30 +14329,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="308" t="e">
+      <c r="G24" s="316" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="309"/>
+      <c r="H24" s="317"/>
       <c r="I24" s="106" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="131"/>
-      <c r="K24" s="312" t="s">
+      <c r="K24" s="331" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="356"/>
+      <c r="L24" s="332"/>
       <c r="M24" s="134">
         <f>Assumption!M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="452" t="s">
+      <c r="B25" s="422" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="457"/>
+      <c r="C25" s="455"/>
       <c r="D25" s="58">
         <f>Assumption!D25</f>
         <v>0</v>
@@ -14318,20 +14362,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="308" t="e">
+      <c r="G25" s="316" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="309"/>
+      <c r="H25" s="317"/>
       <c r="I25" s="106" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="131"/>
-      <c r="K25" s="415" t="s">
+      <c r="K25" s="329" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="416"/>
+      <c r="L25" s="330"/>
       <c r="M25" s="134">
         <f>Assumption!M25</f>
         <v>0</v>
@@ -14357,30 +14401,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="308" t="e">
+      <c r="G26" s="316" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="309"/>
+      <c r="H26" s="317"/>
       <c r="I26" s="106" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="458" t="s">
+      <c r="K26" s="449" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="459"/>
+      <c r="L26" s="450"/>
       <c r="M26" s="123">
         <f>Assumption!M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="452" t="s">
+      <c r="B27" s="422" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="453"/>
+      <c r="C27" s="432"/>
       <c r="D27" s="58">
         <f>Assumption!D27</f>
         <v>0</v>
@@ -14390,11 +14434,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="308" t="e">
+      <c r="G27" s="316" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="309"/>
+      <c r="H27" s="317"/>
       <c r="I27" s="106" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -14410,10 +14454,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="452" t="s">
+      <c r="B28" s="422" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="475"/>
+      <c r="C28" s="423"/>
       <c r="D28" s="58">
         <f>Assumption!D28</f>
         <v>0</v>
@@ -14423,11 +14467,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="308" t="e">
+      <c r="G28" s="316" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="309"/>
+      <c r="H28" s="317"/>
       <c r="I28" s="106" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -14438,10 +14482,10 @@
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="452" t="s">
+      <c r="B29" s="422" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="475"/>
+      <c r="C29" s="423"/>
       <c r="D29" s="58">
         <f>Assumption!D29</f>
         <v>0</v>
@@ -14451,11 +14495,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="G29" s="308" t="e">
+      <c r="G29" s="316" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="309"/>
+      <c r="H29" s="317"/>
       <c r="I29" s="106" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -14471,10 +14515,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="439" t="s">
+      <c r="B30" s="424" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="451"/>
+      <c r="C30" s="425"/>
       <c r="D30" s="70">
         <f>Assumption!D30</f>
         <v>0</v>
@@ -14484,11 +14528,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="320" t="e">
+      <c r="G30" s="403" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="321"/>
+      <c r="H30" s="404"/>
       <c r="I30" s="111" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -14516,34 +14560,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="476" t="e">
+      <c r="G31" s="426" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="477"/>
+      <c r="H31" s="427"/>
       <c r="I31" s="120" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="334" t="s">
+      <c r="K31" s="290" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="304"/>
-      <c r="M31" s="456"/>
+      <c r="L31" s="291"/>
+      <c r="M31" s="430"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="335" t="s">
+      <c r="B32" s="373" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="336"/>
-      <c r="D32" s="463">
+      <c r="C32" s="374"/>
+      <c r="D32" s="436">
         <f>Assumption!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="147"/>
-      <c r="F32" s="465">
+      <c r="F32" s="438">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -14562,11 +14606,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="337"/>
-      <c r="C33" s="338"/>
-      <c r="D33" s="464"/>
+      <c r="B33" s="375"/>
+      <c r="C33" s="376"/>
+      <c r="D33" s="437"/>
       <c r="E33" s="149"/>
-      <c r="F33" s="466"/>
+      <c r="F33" s="439"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -14599,10 +14643,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="348" t="s">
+      <c r="K34" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="467"/>
+      <c r="L34" s="440"/>
       <c r="M34" s="134">
         <f>Assumption!M34</f>
         <v>0</v>
@@ -14637,10 +14681,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="359" t="s">
+      <c r="B36" s="335" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="468"/>
+      <c r="C36" s="441"/>
       <c r="D36" s="160">
         <f>Assumption!D36</f>
         <v>0</v>
@@ -14660,10 +14704,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="300" t="s">
+      <c r="B37" s="359" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="462"/>
+      <c r="C37" s="421"/>
       <c r="D37" s="160" t="e">
         <f>Assumption!D37</f>
         <v>#NUM!</v>
@@ -14674,23 +14718,23 @@
         <v>#NUM!</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="384" t="s">
+      <c r="H37" s="287" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="385"/>
-      <c r="J37" s="385"/>
-      <c r="K37" s="385"/>
-      <c r="L37" s="384" t="s">
+      <c r="I37" s="288"/>
+      <c r="J37" s="288"/>
+      <c r="K37" s="288"/>
+      <c r="L37" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="386"/>
+      <c r="M37" s="289"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="359" t="s">
+      <c r="B38" s="335" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="468"/>
+      <c r="C38" s="441"/>
       <c r="D38" s="160" t="e">
         <f>Assumption!D38</f>
         <v>#NUM!</v>
@@ -14701,18 +14745,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="460"/>
-      <c r="I38" s="469"/>
-      <c r="J38" s="469"/>
-      <c r="K38" s="470"/>
-      <c r="L38" s="460"/>
-      <c r="M38" s="461"/>
+      <c r="H38" s="442"/>
+      <c r="I38" s="443"/>
+      <c r="J38" s="443"/>
+      <c r="K38" s="444"/>
+      <c r="L38" s="442"/>
+      <c r="M38" s="451"/>
     </row>
     <row r="39" spans="2:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="300" t="s">
+      <c r="B39" s="359" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="462"/>
+      <c r="C39" s="421"/>
       <c r="D39" s="165" t="e">
         <f>Assumption!D39</f>
         <v>#NUM!</v>
@@ -14723,18 +14767,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="445"/>
-      <c r="I39" s="449"/>
-      <c r="J39" s="449"/>
-      <c r="K39" s="450"/>
-      <c r="L39" s="445"/>
-      <c r="M39" s="446"/>
+      <c r="H39" s="433"/>
+      <c r="I39" s="434"/>
+      <c r="J39" s="434"/>
+      <c r="K39" s="435"/>
+      <c r="L39" s="433"/>
+      <c r="M39" s="448"/>
     </row>
     <row r="40" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="300" t="s">
+      <c r="B40" s="359" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="462"/>
+      <c r="C40" s="421"/>
       <c r="D40" s="166" t="e">
         <f>Assumption!D40</f>
         <v>#NUM!</v>
@@ -14747,18 +14791,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="445"/>
-      <c r="I40" s="449"/>
-      <c r="J40" s="449"/>
-      <c r="K40" s="450"/>
-      <c r="L40" s="445"/>
-      <c r="M40" s="446"/>
+      <c r="H40" s="433"/>
+      <c r="I40" s="434"/>
+      <c r="J40" s="434"/>
+      <c r="K40" s="435"/>
+      <c r="L40" s="433"/>
+      <c r="M40" s="448"/>
     </row>
     <row r="41" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="300" t="s">
+      <c r="B41" s="359" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="462"/>
+      <c r="C41" s="421"/>
       <c r="D41" s="66" t="e">
         <f>Assumption!D41</f>
         <v>#DIV/0!</v>
@@ -14771,18 +14815,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="445"/>
-      <c r="I41" s="449"/>
-      <c r="J41" s="449"/>
-      <c r="K41" s="450"/>
-      <c r="L41" s="445"/>
-      <c r="M41" s="446"/>
+      <c r="H41" s="433"/>
+      <c r="I41" s="434"/>
+      <c r="J41" s="434"/>
+      <c r="K41" s="435"/>
+      <c r="L41" s="433"/>
+      <c r="M41" s="448"/>
     </row>
     <row r="42" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="300" t="s">
+      <c r="B42" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="462"/>
+      <c r="C42" s="421"/>
       <c r="D42" s="170" t="e">
         <f>Assumption!D42</f>
         <v>#NUM!</v>
@@ -14798,18 +14842,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="445"/>
-      <c r="I42" s="449"/>
-      <c r="J42" s="449"/>
-      <c r="K42" s="450"/>
-      <c r="L42" s="445"/>
-      <c r="M42" s="446"/>
+      <c r="H42" s="433"/>
+      <c r="I42" s="434"/>
+      <c r="J42" s="434"/>
+      <c r="K42" s="435"/>
+      <c r="L42" s="433"/>
+      <c r="M42" s="448"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B43" s="300" t="s">
+      <c r="B43" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="301"/>
+      <c r="C43" s="360"/>
       <c r="D43" s="155" t="e">
         <f>Assumption!D43</f>
         <v>#NUM!</v>
@@ -14820,18 +14864,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="445"/>
-      <c r="I43" s="449"/>
-      <c r="J43" s="449"/>
-      <c r="K43" s="450"/>
-      <c r="L43" s="445"/>
-      <c r="M43" s="446"/>
+      <c r="H43" s="433"/>
+      <c r="I43" s="434"/>
+      <c r="J43" s="434"/>
+      <c r="K43" s="435"/>
+      <c r="L43" s="433"/>
+      <c r="M43" s="448"/>
     </row>
     <row r="44" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="298" t="s">
+      <c r="B44" s="397" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="299"/>
+      <c r="C44" s="398"/>
       <c r="D44" s="175" t="e">
         <f>Assumption!D44</f>
         <v>#NUM!</v>
@@ -14842,12 +14886,12 @@
         <v>#NUM!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="447"/>
-      <c r="I44" s="471"/>
-      <c r="J44" s="471"/>
-      <c r="K44" s="472"/>
-      <c r="L44" s="447"/>
-      <c r="M44" s="448"/>
+      <c r="H44" s="445"/>
+      <c r="I44" s="446"/>
+      <c r="J44" s="446"/>
+      <c r="K44" s="447"/>
+      <c r="L44" s="445"/>
+      <c r="M44" s="452"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -14875,88 +14919,6 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="97">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="B2:M2"/>
@@ -14972,6 +14934,88 @@
     <mergeCell ref="P6:T6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:M7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -15164,30 +15208,30 @@
   </sheetPr>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.19921875" style="254" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" style="491" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" style="265" customWidth="1"/>
     <col min="3" max="3" width="72.9296875" style="254" customWidth="1"/>
     <col min="4" max="16384" width="9.06640625" style="254"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="493" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="489"/>
-      <c r="C1" s="489"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
     </row>
     <row r="2" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="255" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="490" t="s">
+      <c r="B2" s="264" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="255" t="s">
@@ -15195,94 +15239,94 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="492"/>
-      <c r="B51" s="493"/>
-      <c r="C51" s="492"/>
+      <c r="A51" s="266"/>
+      <c r="B51" s="267"/>
+      <c r="C51" s="266"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="492"/>
-      <c r="B52" s="493"/>
-      <c r="C52" s="492"/>
+      <c r="A52" s="266"/>
+      <c r="B52" s="267"/>
+      <c r="C52" s="266"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="492"/>
-      <c r="B53" s="493"/>
-      <c r="C53" s="492"/>
+      <c r="A53" s="266"/>
+      <c r="B53" s="267"/>
+      <c r="C53" s="266"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="492"/>
-      <c r="B54" s="493"/>
-      <c r="C54" s="492"/>
+      <c r="A54" s="266"/>
+      <c r="B54" s="267"/>
+      <c r="C54" s="266"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="492"/>
-      <c r="B55" s="493"/>
-      <c r="C55" s="492"/>
+      <c r="A55" s="266"/>
+      <c r="B55" s="267"/>
+      <c r="C55" s="266"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="492"/>
-      <c r="B56" s="493"/>
-      <c r="C56" s="492"/>
+      <c r="A56" s="266"/>
+      <c r="B56" s="267"/>
+      <c r="C56" s="266"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="492"/>
-      <c r="B57" s="493"/>
-      <c r="C57" s="492"/>
+      <c r="A57" s="266"/>
+      <c r="B57" s="267"/>
+      <c r="C57" s="266"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="492"/>
-      <c r="B58" s="493"/>
-      <c r="C58" s="492"/>
+      <c r="A58" s="266"/>
+      <c r="B58" s="267"/>
+      <c r="C58" s="266"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="492"/>
-      <c r="B59" s="493"/>
-      <c r="C59" s="492"/>
+      <c r="A59" s="266"/>
+      <c r="B59" s="267"/>
+      <c r="C59" s="266"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="492"/>
-      <c r="B60" s="493"/>
-      <c r="C60" s="492"/>
+      <c r="A60" s="266"/>
+      <c r="B60" s="267"/>
+      <c r="C60" s="266"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="492"/>
-      <c r="B61" s="493"/>
-      <c r="C61" s="492"/>
+      <c r="A61" s="266"/>
+      <c r="B61" s="267"/>
+      <c r="C61" s="266"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="492"/>
-      <c r="B62" s="493"/>
-      <c r="C62" s="492"/>
+      <c r="A62" s="266"/>
+      <c r="B62" s="267"/>
+      <c r="C62" s="266"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="492"/>
-      <c r="B63" s="493"/>
-      <c r="C63" s="492"/>
+      <c r="A63" s="266"/>
+      <c r="B63" s="267"/>
+      <c r="C63" s="266"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="492"/>
-      <c r="B64" s="493"/>
-      <c r="C64" s="492"/>
+      <c r="A64" s="266"/>
+      <c r="B64" s="267"/>
+      <c r="C64" s="266"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="492"/>
-      <c r="B65" s="493"/>
-      <c r="C65" s="492"/>
+      <c r="A65" s="266"/>
+      <c r="B65" s="267"/>
+      <c r="C65" s="266"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="492"/>
-      <c r="B66" s="493"/>
-      <c r="C66" s="492"/>
+      <c r="A66" s="266"/>
+      <c r="B66" s="267"/>
+      <c r="C66" s="266"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="492"/>
-      <c r="B67" s="493"/>
-      <c r="C67" s="492"/>
+      <c r="A67" s="266"/>
+      <c r="B67" s="267"/>
+      <c r="C67" s="266"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="492"/>
-      <c r="B68" s="493"/>
-      <c r="C68" s="492"/>
+      <c r="A68" s="266"/>
+      <c r="B68" s="267"/>
+      <c r="C68" s="266"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15294,4 +15338,48 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D78EF82-F18C-446B-82BE-C74D6BF739AC}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="80.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="494" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="494"/>
+      <c r="C1" s="494"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting.xlsx
+++ b/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Personal\MultiFamilyPortal\src\theme\MultiFamilyPortal.AdminTheme\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F37E1B-0892-4521-8188-5411F835D590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6138EEE4-7B30-49EE-9BB4-6619AB26A16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="693" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="693" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="6" r:id="rId1"/>
@@ -4749,7 +4749,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="495">
+  <cellXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -5360,132 +5360,136 @@
     <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5500,140 +5504,18 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -5656,6 +5538,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5688,9 +5573,6 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5700,327 +5582,436 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="6" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8182,8 +8173,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -8193,19 +8184,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.8">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="268" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="257" t="s">
@@ -8222,17 +8213,17 @@
       <c r="J3" s="256"/>
     </row>
     <row r="4" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="281"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281"/>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
+      <c r="A4" s="270"/>
+      <c r="B4" s="270"/>
+      <c r="C4" s="270"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="270"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="270"/>
+      <c r="I4" s="270"/>
+      <c r="J4" s="270"/>
+      <c r="K4" s="270"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="257" t="s">
@@ -8249,25 +8240,25 @@
       <c r="J5" s="256"/>
     </row>
     <row r="6" spans="1:11" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="282"/>
-      <c r="B6" s="282"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="282"/>
-      <c r="K6" s="282"/>
+      <c r="A6" s="271"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="271"/>
+      <c r="J6" s="271"/>
+      <c r="K6" s="271"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="279" t="s">
+      <c r="A7" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="279"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
+      <c r="B7" s="269"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="272"/>
       <c r="E7" s="258"/>
       <c r="F7" s="258"/>
       <c r="G7" s="258"/>
@@ -8291,44 +8282,44 @@
       <c r="J8" s="256"/>
     </row>
     <row r="9" spans="1:11" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="282"/>
-      <c r="B9" s="282"/>
-      <c r="C9" s="282"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="282"/>
-      <c r="J9" s="282"/>
-      <c r="K9" s="282"/>
+      <c r="A9" s="271"/>
+      <c r="B9" s="271"/>
+      <c r="C9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="271"/>
+      <c r="K9" s="271"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A10" s="279" t="s">
+      <c r="A10" s="269" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="279"/>
-      <c r="C10" s="279"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="276"/>
-      <c r="J10" s="276"/>
-      <c r="K10" s="276"/>
+      <c r="B10" s="269"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="273"/>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A11" s="279" t="s">
+      <c r="A11" s="269" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="279"/>
-      <c r="C11" s="279"/>
-      <c r="D11" s="269">
-        <v>0</v>
-      </c>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
+      <c r="B11" s="269"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="280">
+        <v>0</v>
+      </c>
+      <c r="E11" s="280"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="263"/>
       <c r="H11" s="263"/>
       <c r="I11" s="263"/>
@@ -8336,34 +8327,34 @@
       <c r="K11" s="263"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A12" s="279" t="s">
+      <c r="A12" s="269" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="279"/>
-      <c r="C12" s="279"/>
-      <c r="D12" s="276"/>
-      <c r="E12" s="276"/>
-      <c r="F12" s="276"/>
-      <c r="G12" s="276"/>
-      <c r="H12" s="276"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="276"/>
-      <c r="K12" s="276"/>
+      <c r="B12" s="269"/>
+      <c r="C12" s="269"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="273"/>
+      <c r="F12" s="273"/>
+      <c r="G12" s="273"/>
+      <c r="H12" s="273"/>
+      <c r="I12" s="273"/>
+      <c r="J12" s="273"/>
+      <c r="K12" s="273"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A13" s="279" t="s">
+      <c r="A13" s="269" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="279"/>
-      <c r="C13" s="279"/>
-      <c r="D13" s="276"/>
-      <c r="E13" s="276"/>
-      <c r="F13" s="276"/>
-      <c r="G13" s="276"/>
-      <c r="H13" s="276"/>
-      <c r="I13" s="276"/>
-      <c r="J13" s="276"/>
-      <c r="K13" s="276"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="273"/>
+      <c r="E13" s="273"/>
+      <c r="F13" s="273"/>
+      <c r="G13" s="273"/>
+      <c r="H13" s="273"/>
+      <c r="I13" s="273"/>
+      <c r="J13" s="273"/>
+      <c r="K13" s="273"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="256"/>
@@ -8383,128 +8374,128 @@
       </c>
       <c r="B15" s="256"/>
       <c r="C15" s="256"/>
-      <c r="D15" s="276"/>
-      <c r="E15" s="276"/>
-      <c r="F15" s="276"/>
-      <c r="G15" s="276"/>
-      <c r="H15" s="276"/>
-      <c r="I15" s="276"/>
-      <c r="J15" s="276"/>
-      <c r="K15" s="276"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="273"/>
+      <c r="G15" s="273"/>
+      <c r="H15" s="273"/>
+      <c r="I15" s="273"/>
+      <c r="J15" s="273"/>
+      <c r="K15" s="273"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A16" s="273" t="s">
+      <c r="A16" s="274" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="273"/>
-      <c r="C16" s="273"/>
-      <c r="D16" s="273"/>
+      <c r="B16" s="274"/>
+      <c r="C16" s="274"/>
+      <c r="D16" s="274"/>
       <c r="E16" s="261" t="s">
         <v>142</v>
       </c>
       <c r="F16" s="261" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="273" t="s">
+      <c r="G16" s="274" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="273"/>
-      <c r="I16" s="273" t="s">
+      <c r="H16" s="274"/>
+      <c r="I16" s="274" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="273"/>
-      <c r="K16" s="273"/>
+      <c r="J16" s="274"/>
+      <c r="K16" s="274"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A17" s="273"/>
-      <c r="B17" s="273"/>
-      <c r="C17" s="273"/>
-      <c r="D17" s="273"/>
+      <c r="A17" s="274"/>
+      <c r="B17" s="274"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="274"/>
       <c r="E17" s="256"/>
       <c r="F17" s="256"/>
-      <c r="G17" s="277"/>
-      <c r="H17" s="277"/>
-      <c r="I17" s="272"/>
-      <c r="J17" s="272"/>
-      <c r="K17" s="272"/>
+      <c r="G17" s="275"/>
+      <c r="H17" s="275"/>
+      <c r="I17" s="277"/>
+      <c r="J17" s="277"/>
+      <c r="K17" s="277"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A18" s="273"/>
-      <c r="B18" s="273"/>
-      <c r="C18" s="273"/>
-      <c r="D18" s="273"/>
+      <c r="A18" s="274"/>
+      <c r="B18" s="274"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="274"/>
       <c r="E18" s="256"/>
       <c r="F18" s="256"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="277"/>
-      <c r="I18" s="272"/>
-      <c r="J18" s="272"/>
-      <c r="K18" s="272"/>
+      <c r="G18" s="275"/>
+      <c r="H18" s="275"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="277"/>
+      <c r="K18" s="277"/>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A19" s="273"/>
-      <c r="B19" s="273"/>
-      <c r="C19" s="273"/>
-      <c r="D19" s="273"/>
+      <c r="A19" s="274"/>
+      <c r="B19" s="274"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274"/>
       <c r="E19" s="256"/>
       <c r="F19" s="256"/>
-      <c r="G19" s="277"/>
-      <c r="H19" s="277"/>
-      <c r="I19" s="272"/>
-      <c r="J19" s="272"/>
-      <c r="K19" s="272"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="275"/>
+      <c r="I19" s="277"/>
+      <c r="J19" s="277"/>
+      <c r="K19" s="277"/>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A20" s="273"/>
-      <c r="B20" s="273"/>
-      <c r="C20" s="273"/>
-      <c r="D20" s="273"/>
+      <c r="A20" s="274"/>
+      <c r="B20" s="274"/>
+      <c r="C20" s="274"/>
+      <c r="D20" s="274"/>
       <c r="E20" s="256"/>
       <c r="F20" s="256"/>
-      <c r="G20" s="277"/>
-      <c r="H20" s="277"/>
-      <c r="I20" s="272"/>
-      <c r="J20" s="272"/>
-      <c r="K20" s="272"/>
+      <c r="G20" s="275"/>
+      <c r="H20" s="275"/>
+      <c r="I20" s="277"/>
+      <c r="J20" s="277"/>
+      <c r="K20" s="277"/>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A21" s="273"/>
-      <c r="B21" s="273"/>
-      <c r="C21" s="273"/>
-      <c r="D21" s="273"/>
+      <c r="A21" s="274"/>
+      <c r="B21" s="274"/>
+      <c r="C21" s="274"/>
+      <c r="D21" s="274"/>
       <c r="E21" s="256"/>
       <c r="F21" s="256"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="277"/>
-      <c r="I21" s="272"/>
-      <c r="J21" s="272"/>
-      <c r="K21" s="272"/>
+      <c r="G21" s="275"/>
+      <c r="H21" s="275"/>
+      <c r="I21" s="277"/>
+      <c r="J21" s="277"/>
+      <c r="K21" s="277"/>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A22" s="273"/>
-      <c r="B22" s="273"/>
-      <c r="C22" s="273"/>
-      <c r="D22" s="273"/>
+      <c r="A22" s="274"/>
+      <c r="B22" s="274"/>
+      <c r="C22" s="274"/>
+      <c r="D22" s="274"/>
       <c r="E22" s="256"/>
       <c r="F22" s="256"/>
-      <c r="G22" s="277"/>
-      <c r="H22" s="277"/>
-      <c r="I22" s="272"/>
-      <c r="J22" s="272"/>
-      <c r="K22" s="272"/>
+      <c r="G22" s="275"/>
+      <c r="H22" s="275"/>
+      <c r="I22" s="277"/>
+      <c r="J22" s="277"/>
+      <c r="K22" s="277"/>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A23" s="273"/>
-      <c r="B23" s="273"/>
-      <c r="C23" s="273"/>
-      <c r="D23" s="273"/>
-      <c r="E23" s="273"/>
-      <c r="F23" s="273"/>
-      <c r="G23" s="273"/>
-      <c r="H23" s="273"/>
-      <c r="I23" s="273"/>
-      <c r="J23" s="273"/>
-      <c r="K23" s="273"/>
+      <c r="A23" s="274"/>
+      <c r="B23" s="274"/>
+      <c r="C23" s="274"/>
+      <c r="D23" s="274"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="274"/>
+      <c r="G23" s="274"/>
+      <c r="H23" s="274"/>
+      <c r="I23" s="274"/>
+      <c r="J23" s="274"/>
+      <c r="K23" s="274"/>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="257" t="s">
@@ -8512,11 +8503,11 @@
       </c>
       <c r="B24" s="256"/>
       <c r="C24" s="256"/>
-      <c r="D24" s="274">
-        <v>0</v>
-      </c>
-      <c r="E24" s="274"/>
-      <c r="F24" s="274"/>
+      <c r="D24" s="278">
+        <v>0</v>
+      </c>
+      <c r="E24" s="278"/>
+      <c r="F24" s="278"/>
       <c r="G24" s="262"/>
       <c r="H24" s="262"/>
       <c r="I24" s="262"/>
@@ -8529,11 +8520,11 @@
       </c>
       <c r="B25" s="256"/>
       <c r="C25" s="256"/>
-      <c r="D25" s="275">
-        <v>0</v>
-      </c>
-      <c r="E25" s="275"/>
-      <c r="F25" s="275"/>
+      <c r="D25" s="276">
+        <v>0</v>
+      </c>
+      <c r="E25" s="276"/>
+      <c r="F25" s="276"/>
       <c r="G25" s="256"/>
       <c r="H25" s="256"/>
       <c r="I25" s="256"/>
@@ -8546,11 +8537,11 @@
       </c>
       <c r="B26" s="256"/>
       <c r="C26" s="256"/>
-      <c r="D26" s="278">
-        <v>0</v>
-      </c>
-      <c r="E26" s="278"/>
-      <c r="F26" s="278"/>
+      <c r="D26" s="279">
+        <v>0</v>
+      </c>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
       <c r="G26" s="256"/>
       <c r="H26" s="256"/>
       <c r="I26" s="256"/>
@@ -8563,11 +8554,11 @@
       </c>
       <c r="B27" s="256"/>
       <c r="C27" s="256"/>
-      <c r="D27" s="278">
-        <v>0</v>
-      </c>
-      <c r="E27" s="278"/>
-      <c r="F27" s="278"/>
+      <c r="D27" s="279">
+        <v>0</v>
+      </c>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
       <c r="G27" s="259"/>
       <c r="H27" s="259"/>
       <c r="I27" s="259"/>
@@ -8580,11 +8571,11 @@
       </c>
       <c r="B28" s="256"/>
       <c r="C28" s="256"/>
-      <c r="D28" s="275">
-        <v>0</v>
-      </c>
-      <c r="E28" s="275"/>
-      <c r="F28" s="275"/>
+      <c r="D28" s="276">
+        <v>0</v>
+      </c>
+      <c r="E28" s="276"/>
+      <c r="F28" s="276"/>
       <c r="G28" s="260"/>
       <c r="H28" s="260"/>
       <c r="I28" s="260"/>
@@ -8597,11 +8588,11 @@
       </c>
       <c r="B29" s="256"/>
       <c r="C29" s="256"/>
-      <c r="D29" s="275">
-        <v>0</v>
-      </c>
-      <c r="E29" s="275"/>
-      <c r="F29" s="275"/>
+      <c r="D29" s="276">
+        <v>0</v>
+      </c>
+      <c r="E29" s="276"/>
+      <c r="F29" s="276"/>
       <c r="G29" s="260"/>
       <c r="H29" s="260"/>
       <c r="I29" s="260"/>
@@ -8614,11 +8605,11 @@
       </c>
       <c r="B30" s="256"/>
       <c r="C30" s="256"/>
-      <c r="D30" s="275">
-        <v>0</v>
-      </c>
-      <c r="E30" s="275"/>
-      <c r="F30" s="275"/>
+      <c r="D30" s="276">
+        <v>0</v>
+      </c>
+      <c r="E30" s="276"/>
+      <c r="F30" s="276"/>
       <c r="G30" s="260"/>
       <c r="H30" s="260"/>
       <c r="I30" s="260"/>
@@ -8641,31 +8632,31 @@
       <c r="A32" s="257" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="270">
-        <v>0</v>
-      </c>
-      <c r="E32" s="270"/>
-      <c r="F32" s="270"/>
+      <c r="D32" s="278">
+        <v>0</v>
+      </c>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
     </row>
     <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="257" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="271">
-        <v>0</v>
-      </c>
-      <c r="E33" s="271"/>
-      <c r="F33" s="271"/>
+      <c r="D33" s="277">
+        <v>0</v>
+      </c>
+      <c r="E33" s="277"/>
+      <c r="F33" s="277"/>
     </row>
     <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="257" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="270">
-        <v>0</v>
-      </c>
-      <c r="E34" s="270"/>
-      <c r="F34" s="270"/>
+      <c r="D34" s="278">
+        <v>0</v>
+      </c>
+      <c r="E34" s="278"/>
+      <c r="F34" s="278"/>
     </row>
     <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="257" t="s">
@@ -8673,17 +8664,17 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="268"/>
-      <c r="B36" s="268"/>
-      <c r="C36" s="268"/>
-      <c r="D36" s="268"/>
-      <c r="E36" s="268"/>
-      <c r="F36" s="268"/>
-      <c r="G36" s="268"/>
-      <c r="H36" s="268"/>
-      <c r="I36" s="268"/>
-      <c r="J36" s="268"/>
-      <c r="K36" s="268"/>
+      <c r="A36" s="271"/>
+      <c r="B36" s="271"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="271"/>
+      <c r="E36" s="271"/>
+      <c r="F36" s="271"/>
+      <c r="G36" s="271"/>
+      <c r="H36" s="271"/>
+      <c r="I36" s="271"/>
+      <c r="J36" s="271"/>
+      <c r="K36" s="271"/>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="257" t="s">
@@ -8696,53 +8687,20 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="53.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="268"/>
-      <c r="B40" s="268"/>
-      <c r="C40" s="268"/>
-      <c r="D40" s="268"/>
-      <c r="E40" s="268"/>
-      <c r="F40" s="268"/>
-      <c r="G40" s="268"/>
-      <c r="H40" s="268"/>
-      <c r="I40" s="268"/>
-      <c r="J40" s="268"/>
-      <c r="K40" s="268"/>
+      <c r="A40" s="271"/>
+      <c r="B40" s="271"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="271"/>
+      <c r="E40" s="271"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="271"/>
+      <c r="H40" s="271"/>
+      <c r="I40" s="271"/>
+      <c r="J40" s="271"/>
+      <c r="K40" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="D11:F11"/>
@@ -8759,6 +8717,39 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="I17:K17"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
@@ -8799,27 +8790,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="328"/>
-      <c r="P2" s="293" t="s">
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="414"/>
+      <c r="J2" s="414"/>
+      <c r="K2" s="414"/>
+      <c r="L2" s="414"/>
+      <c r="M2" s="415"/>
+      <c r="P2" s="388" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="294"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="294"/>
-      <c r="T2" s="295"/>
+      <c r="Q2" s="389"/>
+      <c r="R2" s="389"/>
+      <c r="S2" s="389"/>
+      <c r="T2" s="390"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8843,11 +8834,11 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="335" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="292"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="306"/>
       <c r="E4" s="94" t="s">
         <v>111</v>
       </c>
@@ -8859,54 +8850,54 @@
       <c r="K4" s="181"/>
       <c r="L4" s="181"/>
       <c r="M4" s="182"/>
-      <c r="P4" s="296" t="s">
+      <c r="P4" s="391" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="297"/>
-      <c r="S4" s="297"/>
-      <c r="T4" s="298"/>
+      <c r="Q4" s="392"/>
+      <c r="R4" s="392"/>
+      <c r="S4" s="392"/>
+      <c r="T4" s="393"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="363"/>
-      <c r="D5" s="364"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="326"/>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="185"/>
       <c r="H5" s="185"/>
       <c r="I5" s="186"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="290" t="s">
+      <c r="K5" s="335" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="291"/>
-      <c r="M5" s="292"/>
-      <c r="P5" s="299" t="s">
+      <c r="L5" s="305"/>
+      <c r="M5" s="306"/>
+      <c r="P5" s="394" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="300"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="300"/>
-      <c r="T5" s="301"/>
+      <c r="Q5" s="395"/>
+      <c r="R5" s="395"/>
+      <c r="S5" s="395"/>
+      <c r="T5" s="396"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="349" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="341"/>
+      <c r="C6" s="366"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="365" t="s">
+      <c r="E6" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="367"/>
-      <c r="I6" s="353" t="s">
+      <c r="F6" s="328"/>
+      <c r="G6" s="328"/>
+      <c r="H6" s="329"/>
+      <c r="I6" s="376" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="89"/>
@@ -8915,26 +8906,26 @@
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="33"/>
-      <c r="P6" s="302" t="s">
+      <c r="P6" s="397" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="304"/>
+      <c r="Q6" s="398"/>
+      <c r="R6" s="398"/>
+      <c r="S6" s="398"/>
+      <c r="T6" s="399"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="318" t="s">
+      <c r="B7" s="349" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="342"/>
+      <c r="C7" s="350"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="368"/>
-      <c r="F7" s="369"/>
-      <c r="G7" s="369"/>
-      <c r="H7" s="370"/>
-      <c r="I7" s="354"/>
+      <c r="E7" s="330"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="377"/>
       <c r="J7" s="89"/>
       <c r="K7" s="189" t="s">
         <v>96</v>
@@ -8954,22 +8945,22 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="318" t="s">
+      <c r="B8" s="349" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="342"/>
+      <c r="C8" s="350"/>
       <c r="D8" s="191" t="e">
         <f>D7/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="371" t="s">
+      <c r="E8" s="333" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="372"/>
-      <c r="G8" s="357">
-        <v>0</v>
-      </c>
-      <c r="H8" s="358"/>
+      <c r="F8" s="334"/>
+      <c r="G8" s="378">
+        <v>0</v>
+      </c>
+      <c r="H8" s="379"/>
       <c r="I8" s="65" t="e">
         <f>G8/G10</f>
         <v>#DIV/0!</v>
@@ -8985,19 +8976,19 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="318" t="s">
+      <c r="B9" s="349" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="342"/>
+      <c r="C9" s="350"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="395" t="s">
+      <c r="E9" s="355" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="396"/>
-      <c r="G9" s="379">
-        <v>0</v>
-      </c>
-      <c r="H9" s="380"/>
+      <c r="F9" s="356"/>
+      <c r="G9" s="342">
+        <v>0</v>
+      </c>
+      <c r="H9" s="343"/>
       <c r="I9" s="66" t="e">
         <f>G9/G10</f>
         <v>#DIV/0!</v>
@@ -9008,22 +8999,22 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="351" t="s">
+      <c r="B10" s="374" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="352"/>
+      <c r="C10" s="375"/>
       <c r="D10" s="196" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="343" t="s">
+      <c r="E10" s="367" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="344"/>
-      <c r="G10" s="345">
-        <v>0</v>
-      </c>
-      <c r="H10" s="346"/>
+      <c r="F10" s="368"/>
+      <c r="G10" s="369">
+        <v>0</v>
+      </c>
+      <c r="H10" s="370"/>
       <c r="I10" s="197" t="s">
         <v>16</v>
       </c>
@@ -9031,13 +9022,13 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="90"/>
-      <c r="P10" s="305" t="s">
+      <c r="P10" s="400" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="306"/>
-      <c r="R10" s="306"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="307"/>
+      <c r="Q10" s="401"/>
+      <c r="R10" s="401"/>
+      <c r="S10" s="401"/>
+      <c r="T10" s="402"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="198"/>
@@ -9052,11 +9043,11 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="90"/>
-      <c r="P11" s="308"/>
-      <c r="Q11" s="309"/>
-      <c r="R11" s="309"/>
-      <c r="S11" s="309"/>
-      <c r="T11" s="310"/>
+      <c r="P11" s="403"/>
+      <c r="Q11" s="404"/>
+      <c r="R11" s="404"/>
+      <c r="S11" s="404"/>
+      <c r="T11" s="405"/>
     </row>
     <row r="12" spans="2:21" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="91" t="s">
@@ -9072,23 +9063,23 @@
       <c r="F12" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="291" t="s">
+      <c r="G12" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="292"/>
+      <c r="H12" s="306"/>
       <c r="I12" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="290" t="s">
+      <c r="K12" s="335" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="291"/>
-      <c r="M12" s="292"/>
-      <c r="P12" s="323" t="s">
+      <c r="L12" s="305"/>
+      <c r="M12" s="306"/>
+      <c r="P12" s="287" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="325"/>
+      <c r="Q12" s="288"/>
       <c r="R12" s="29" t="s">
         <v>29</v>
       </c>
@@ -9100,38 +9091,38 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="383" t="s">
+      <c r="B13" s="316" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="384"/>
+      <c r="C13" s="346"/>
       <c r="D13" s="37"/>
       <c r="E13" s="130" t="e">
         <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="385" t="e">
+      <c r="G13" s="347" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="386"/>
+      <c r="H13" s="348"/>
       <c r="I13" s="200" t="e">
         <f>D13/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="333" t="s">
+      <c r="K13" s="358" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="334"/>
+      <c r="L13" s="359"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P13" s="411" t="s">
+      <c r="P13" s="289" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="412"/>
+      <c r="Q13" s="290"/>
       <c r="R13" s="11" t="e">
         <f t="shared" ref="R13:R19" si="0">E22</f>
         <v>#DIV/0!</v>
@@ -9158,11 +9149,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="389" t="e">
+      <c r="G14" s="303" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="390"/>
+      <c r="H14" s="304"/>
       <c r="I14" s="202" t="e">
         <f>D14/D13</f>
         <v>#DIV/0!</v>
@@ -9173,10 +9164,10 @@
       </c>
       <c r="L14" s="201"/>
       <c r="M14" s="40"/>
-      <c r="P14" s="407" t="s">
+      <c r="P14" s="283" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="408"/>
+      <c r="Q14" s="284"/>
       <c r="R14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9190,38 +9181,38 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="349" t="s">
+      <c r="B15" s="311" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="350"/>
+      <c r="C15" s="373"/>
       <c r="D15" s="41"/>
       <c r="E15" s="105" t="e">
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="389" t="e">
+      <c r="G15" s="303" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="390"/>
+      <c r="H15" s="304"/>
       <c r="I15" s="202" t="e">
         <f>D15/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="347" t="s">
+      <c r="K15" s="371" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="348"/>
+      <c r="L15" s="372"/>
       <c r="M15" s="134">
         <f>M13*M14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="407" t="s">
+      <c r="P15" s="283" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="408"/>
+      <c r="Q15" s="284"/>
       <c r="R15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9235,10 +9226,10 @@
       </c>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="387" t="s">
+      <c r="B16" s="351" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="388"/>
+      <c r="C16" s="352"/>
       <c r="D16" s="243">
         <f>D13-D14-D15</f>
         <v>0</v>
@@ -9251,28 +9242,28 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="399" t="e">
+      <c r="G16" s="307" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="400"/>
+      <c r="H16" s="308"/>
       <c r="I16" s="202" t="e">
         <f>D16/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="331" t="s">
+      <c r="K16" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="332"/>
+      <c r="L16" s="357"/>
       <c r="M16" s="134">
         <f>M13-M15</f>
         <v>0</v>
       </c>
-      <c r="P16" s="407" t="s">
+      <c r="P16" s="283" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="408"/>
+      <c r="Q16" s="284"/>
       <c r="R16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9296,25 +9287,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="389" t="e">
+      <c r="G17" s="303" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="390"/>
+      <c r="H17" s="304"/>
       <c r="I17" s="202" t="e">
         <f>D17/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="331" t="s">
+      <c r="K17" s="313" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="332"/>
+      <c r="L17" s="357"/>
       <c r="M17" s="43"/>
-      <c r="P17" s="407" t="s">
+      <c r="P17" s="283" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="408"/>
+      <c r="Q17" s="284"/>
       <c r="R17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9328,37 +9319,37 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="349" t="s">
+      <c r="B18" s="311" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="356"/>
+      <c r="C18" s="312"/>
       <c r="D18" s="41"/>
       <c r="E18" s="109" t="e">
         <f>D18/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="381" t="e">
+      <c r="G18" s="344" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="382"/>
+      <c r="H18" s="345"/>
       <c r="I18" s="203" t="e">
         <f>D18/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="329" t="s">
+      <c r="K18" s="416" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="330"/>
+      <c r="L18" s="417"/>
       <c r="M18" s="44">
         <v>30</v>
       </c>
-      <c r="P18" s="407" t="s">
+      <c r="P18" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="408"/>
+      <c r="Q18" s="284"/>
       <c r="R18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9388,11 +9379,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="393" t="e">
+      <c r="G19" s="323" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="394"/>
+      <c r="H19" s="324"/>
       <c r="I19" s="208" t="e">
         <f>D19/D13</f>
         <v>#DIV/0!</v>
@@ -9406,19 +9397,19 @@
         <f>PMT((M17/12),(12*M18),-M16)*12</f>
         <v>0</v>
       </c>
-      <c r="P19" s="417" t="s">
+      <c r="P19" s="295" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="418"/>
-      <c r="R19" s="413" t="e">
+      <c r="Q19" s="296"/>
+      <c r="R19" s="291" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="415" t="e">
+      <c r="S19" s="293" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="405" t="s">
+      <c r="T19" s="281" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9428,18 +9419,18 @@
       <c r="D20" s="210"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="340"/>
-      <c r="H20" s="340"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="365"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="90"/>
-      <c r="P20" s="419"/>
-      <c r="Q20" s="420"/>
-      <c r="R20" s="414"/>
-      <c r="S20" s="416"/>
-      <c r="T20" s="406"/>
+      <c r="P20" s="297"/>
+      <c r="Q20" s="298"/>
+      <c r="R20" s="292"/>
+      <c r="S20" s="294"/>
+      <c r="T20" s="282"/>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="128" t="s">
@@ -9455,25 +9446,25 @@
       <c r="F21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="291" t="s">
+      <c r="G21" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="292"/>
+      <c r="H21" s="306"/>
       <c r="I21" s="94" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="290" t="s">
+      <c r="K21" s="335" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="291"/>
-      <c r="M21" s="292"/>
+      <c r="L21" s="305"/>
+      <c r="M21" s="306"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="407" t="s">
+      <c r="P21" s="283" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="408"/>
+      <c r="Q21" s="284"/>
       <c r="R21" s="13" t="e">
         <f>E29</f>
         <v>#DIV/0!</v>
@@ -9487,21 +9478,21 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="383" t="s">
+      <c r="B22" s="316" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="402"/>
+      <c r="C22" s="317"/>
       <c r="D22" s="37"/>
       <c r="E22" s="130" t="e">
         <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="391" t="e">
+      <c r="G22" s="353" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="392"/>
+      <c r="H22" s="354"/>
       <c r="I22" s="200" t="e">
         <f>D22/D13</f>
         <v>#DIV/0!</v>
@@ -9517,10 +9508,10 @@
         <f>L22*M13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="409" t="s">
+      <c r="P22" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="410"/>
+      <c r="Q22" s="286"/>
       <c r="R22" s="237" t="e">
         <f>E30</f>
         <v>#DIV/0!</v>
@@ -9534,21 +9525,21 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="331" t="s">
+      <c r="B23" s="313" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="355"/>
+      <c r="C23" s="314"/>
       <c r="D23" s="36"/>
       <c r="E23" s="105" t="e">
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="316" t="e">
+      <c r="G23" s="309" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="317"/>
+      <c r="H23" s="310"/>
       <c r="I23" s="202" t="e">
         <f>D23/D13</f>
         <v>#DIV/0!</v>
@@ -9561,10 +9552,10 @@
       <c r="M23" s="46">
         <v>0.01</v>
       </c>
-      <c r="P23" s="322" t="s">
+      <c r="P23" s="411" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="322"/>
+      <c r="Q23" s="411"/>
       <c r="R23" s="240">
         <f>D34</f>
         <v>0</v>
@@ -9588,11 +9579,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="316" t="e">
+      <c r="G24" s="309" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="317"/>
+      <c r="H24" s="310"/>
       <c r="I24" s="202" t="e">
         <f>D24/D13</f>
         <v>#DIV/0!</v>
@@ -9608,21 +9599,21 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="331" t="s">
+      <c r="B25" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="401"/>
+      <c r="C25" s="315"/>
       <c r="D25" s="36"/>
       <c r="E25" s="133" t="e">
         <f>D25/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="316" t="e">
+      <c r="G25" s="309" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="317"/>
+      <c r="H25" s="310"/>
       <c r="I25" s="202" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
@@ -9653,43 +9644,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="316" t="e">
+      <c r="G26" s="309" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="317"/>
+      <c r="H26" s="310"/>
       <c r="I26" s="202" t="e">
         <f>D26/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="311" t="s">
+      <c r="K26" s="406" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="312"/>
+      <c r="L26" s="407"/>
       <c r="M26" s="47"/>
-      <c r="P26" s="323" t="s">
+      <c r="P26" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="324"/>
-      <c r="R26" s="325"/>
+      <c r="Q26" s="412"/>
+      <c r="R26" s="288"/>
     </row>
     <row r="27" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="331" t="s">
+      <c r="B27" s="313" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="402"/>
+      <c r="C27" s="317"/>
       <c r="D27" s="36"/>
       <c r="E27" s="105" t="e">
         <f>D27/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="316" t="e">
+      <c r="G27" s="309" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="317"/>
+      <c r="H27" s="310"/>
       <c r="I27" s="202" t="e">
         <f>D27/D13</f>
         <v>#DIV/0!</v>
@@ -9704,27 +9695,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="320" t="s">
+      <c r="Q27" s="409" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="321"/>
+      <c r="R27" s="410"/>
     </row>
     <row r="28" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="331" t="s">
+      <c r="B28" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="355"/>
+      <c r="C28" s="314"/>
       <c r="D28" s="36"/>
       <c r="E28" s="105" t="e">
         <f>D28/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="316" t="e">
+      <c r="G28" s="309" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="317"/>
+      <c r="H28" s="310"/>
       <c r="I28" s="202" t="e">
         <f>D28/D13</f>
         <v>#DIV/0!</v>
@@ -9734,27 +9725,27 @@
       <c r="L28" s="174"/>
       <c r="M28" s="141"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="320" t="s">
+      <c r="Q28" s="409" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="321"/>
+      <c r="R28" s="410"/>
     </row>
     <row r="29" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="331" t="s">
+      <c r="B29" s="313" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="355"/>
+      <c r="C29" s="314"/>
       <c r="D29" s="36"/>
       <c r="E29" s="105" t="e">
         <f>D29/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="316" t="e">
+      <c r="G29" s="309" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="317"/>
+      <c r="H29" s="310"/>
       <c r="I29" s="202" t="e">
         <f>D29/D13</f>
         <v>#DIV/0!</v>
@@ -9769,27 +9760,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="53"/>
-      <c r="Q29" s="320" t="s">
+      <c r="Q29" s="409" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="321"/>
+      <c r="R29" s="410"/>
     </row>
     <row r="30" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="349" t="s">
+      <c r="B30" s="311" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="356"/>
+      <c r="C30" s="312"/>
       <c r="D30" s="41"/>
       <c r="E30" s="109" t="e">
         <f>D30/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="403" t="e">
+      <c r="G30" s="321" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="404"/>
+      <c r="H30" s="322"/>
       <c r="I30" s="203" t="e">
         <f>D30/D13</f>
         <v>#DIV/0!</v>
@@ -9817,34 +9808,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="393" t="e">
+      <c r="G31" s="323" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="394"/>
+      <c r="H31" s="324"/>
       <c r="I31" s="208" t="e">
         <f>D31/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="290" t="s">
+      <c r="K31" s="335" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="291"/>
-      <c r="M31" s="292"/>
+      <c r="L31" s="305"/>
+      <c r="M31" s="306"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="373" t="s">
+      <c r="B32" s="336" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="374"/>
-      <c r="D32" s="377">
+      <c r="C32" s="337"/>
+      <c r="D32" s="340">
         <f>D19-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="217"/>
-      <c r="F32" s="377">
+      <c r="F32" s="340">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -9860,11 +9851,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="375"/>
-      <c r="C33" s="376"/>
-      <c r="D33" s="378"/>
+      <c r="B33" s="338"/>
+      <c r="C33" s="339"/>
+      <c r="D33" s="341"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="378"/>
+      <c r="F33" s="341"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -9877,10 +9868,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="361" t="s">
+      <c r="B34" s="380" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="362"/>
+      <c r="C34" s="381"/>
       <c r="D34" s="151">
         <f>D6*E34</f>
         <v>0</v>
@@ -9896,10 +9887,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="318" t="s">
+      <c r="K34" s="349" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="319"/>
+      <c r="L34" s="408"/>
       <c r="M34" s="44">
         <v>250</v>
       </c>
@@ -9934,10 +9925,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="335" t="s">
+      <c r="B36" s="360" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="336"/>
+      <c r="C36" s="361"/>
       <c r="D36" s="155">
         <f>M19</f>
         <v>0</v>
@@ -9957,10 +9948,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="359" t="s">
+      <c r="B37" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="360"/>
+      <c r="C37" s="302"/>
       <c r="D37" s="220">
         <f>M35</f>
         <v>0</v>
@@ -9971,21 +9962,21 @@
         <v>0</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="287" t="s">
+      <c r="H37" s="385" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="288"/>
-      <c r="J37" s="288"/>
-      <c r="K37" s="288"/>
-      <c r="L37" s="288"/>
-      <c r="M37" s="289"/>
+      <c r="I37" s="386"/>
+      <c r="J37" s="386"/>
+      <c r="K37" s="386"/>
+      <c r="L37" s="386"/>
+      <c r="M37" s="387"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="335" t="s">
+      <c r="B38" s="360" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="336"/>
+      <c r="C38" s="361"/>
       <c r="D38" s="155">
         <f>(D35-D36-D37)</f>
         <v>0</v>
@@ -9996,18 +9987,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="337"/>
-      <c r="I38" s="338"/>
-      <c r="J38" s="338"/>
-      <c r="K38" s="338"/>
-      <c r="L38" s="338"/>
-      <c r="M38" s="339"/>
+      <c r="H38" s="362"/>
+      <c r="I38" s="363"/>
+      <c r="J38" s="363"/>
+      <c r="K38" s="363"/>
+      <c r="L38" s="363"/>
+      <c r="M38" s="364"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="359" t="s">
+      <c r="B39" s="301" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="360"/>
+      <c r="C39" s="302"/>
       <c r="D39" s="165" t="e">
         <f>D38/M29</f>
         <v>#DIV/0!</v>
@@ -10018,18 +10009,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="313"/>
-      <c r="I39" s="314"/>
-      <c r="J39" s="314"/>
-      <c r="K39" s="314"/>
-      <c r="L39" s="314"/>
-      <c r="M39" s="315"/>
+      <c r="H39" s="318"/>
+      <c r="I39" s="319"/>
+      <c r="J39" s="319"/>
+      <c r="K39" s="319"/>
+      <c r="L39" s="319"/>
+      <c r="M39" s="320"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="359" t="s">
+      <c r="B40" s="301" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="360"/>
+      <c r="C40" s="302"/>
       <c r="D40" s="221" t="e">
         <f>D35/(D36+D37)</f>
         <v>#DIV/0!</v>
@@ -10042,18 +10033,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="313"/>
-      <c r="I40" s="314"/>
-      <c r="J40" s="314"/>
-      <c r="K40" s="314"/>
-      <c r="L40" s="314"/>
-      <c r="M40" s="315"/>
+      <c r="H40" s="318"/>
+      <c r="I40" s="319"/>
+      <c r="J40" s="319"/>
+      <c r="K40" s="319"/>
+      <c r="L40" s="319"/>
+      <c r="M40" s="320"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="359" t="s">
+      <c r="B41" s="301" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="360"/>
+      <c r="C41" s="302"/>
       <c r="D41" s="165" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -10066,18 +10057,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="313"/>
-      <c r="I41" s="314"/>
-      <c r="J41" s="314"/>
-      <c r="K41" s="314"/>
-      <c r="L41" s="314"/>
-      <c r="M41" s="315"/>
+      <c r="H41" s="318"/>
+      <c r="I41" s="319"/>
+      <c r="J41" s="319"/>
+      <c r="K41" s="319"/>
+      <c r="L41" s="319"/>
+      <c r="M41" s="320"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="359" t="s">
+      <c r="B42" s="301" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="360"/>
+      <c r="C42" s="302"/>
       <c r="D42" s="155">
         <f>D38*E42</f>
         <v>0</v>
@@ -10092,18 +10083,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="313"/>
-      <c r="I42" s="314"/>
-      <c r="J42" s="314"/>
-      <c r="K42" s="314"/>
-      <c r="L42" s="314"/>
-      <c r="M42" s="315"/>
+      <c r="H42" s="318"/>
+      <c r="I42" s="319"/>
+      <c r="J42" s="319"/>
+      <c r="K42" s="319"/>
+      <c r="L42" s="319"/>
+      <c r="M42" s="320"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="359" t="s">
+      <c r="B43" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="360"/>
+      <c r="C43" s="302"/>
       <c r="D43" s="155">
         <f>D38-D42</f>
         <v>0</v>
@@ -10114,18 +10105,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="313"/>
-      <c r="I43" s="314"/>
-      <c r="J43" s="314"/>
-      <c r="K43" s="314"/>
-      <c r="L43" s="314"/>
-      <c r="M43" s="315"/>
+      <c r="H43" s="318"/>
+      <c r="I43" s="319"/>
+      <c r="J43" s="319"/>
+      <c r="K43" s="319"/>
+      <c r="L43" s="319"/>
+      <c r="M43" s="320"/>
     </row>
     <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="397" t="s">
+      <c r="B44" s="299" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="398"/>
+      <c r="C44" s="300"/>
       <c r="D44" s="175" t="e">
         <f>D43/M29</f>
         <v>#DIV/0!</v>
@@ -10136,12 +10127,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="284"/>
-      <c r="I44" s="285"/>
-      <c r="J44" s="285"/>
-      <c r="K44" s="285"/>
-      <c r="L44" s="285"/>
-      <c r="M44" s="286"/>
+      <c r="H44" s="382"/>
+      <c r="I44" s="383"/>
+      <c r="J44" s="383"/>
+      <c r="K44" s="383"/>
+      <c r="L44" s="383"/>
+      <c r="M44" s="384"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -10168,19 +10159,71 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="102">
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P10:T11"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B42:C42"/>
@@ -10205,71 +10248,19 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P10:T11"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="P18:Q18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -10489,27 +10480,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="413" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="328"/>
-      <c r="P2" s="293" t="s">
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="414"/>
+      <c r="J2" s="414"/>
+      <c r="K2" s="414"/>
+      <c r="L2" s="414"/>
+      <c r="M2" s="415"/>
+      <c r="P2" s="388" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="294"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="294"/>
-      <c r="T2" s="295"/>
+      <c r="Q2" s="389"/>
+      <c r="R2" s="389"/>
+      <c r="S2" s="389"/>
+      <c r="T2" s="390"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10533,103 +10524,103 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="335" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="476" t="s">
+      <c r="C4" s="305"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="420" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="477"/>
-      <c r="G4" s="477"/>
-      <c r="H4" s="477"/>
-      <c r="I4" s="477"/>
-      <c r="J4" s="477"/>
-      <c r="K4" s="477"/>
-      <c r="L4" s="477"/>
-      <c r="M4" s="478"/>
-      <c r="P4" s="299" t="s">
+      <c r="F4" s="421"/>
+      <c r="G4" s="421"/>
+      <c r="H4" s="421"/>
+      <c r="I4" s="421"/>
+      <c r="J4" s="421"/>
+      <c r="K4" s="421"/>
+      <c r="L4" s="421"/>
+      <c r="M4" s="422"/>
+      <c r="P4" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="300"/>
-      <c r="R4" s="300"/>
-      <c r="S4" s="300"/>
-      <c r="T4" s="301"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="395"/>
+      <c r="S4" s="395"/>
+      <c r="T4" s="396"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="474">
+      <c r="C5" s="418">
         <f>'Acqusition-NF'!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="475"/>
-      <c r="E5" s="479"/>
-      <c r="F5" s="480"/>
-      <c r="G5" s="480"/>
-      <c r="H5" s="480"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="480"/>
-      <c r="K5" s="480"/>
-      <c r="L5" s="480"/>
-      <c r="M5" s="481"/>
-      <c r="P5" s="299" t="s">
+      <c r="D5" s="419"/>
+      <c r="E5" s="423"/>
+      <c r="F5" s="424"/>
+      <c r="G5" s="424"/>
+      <c r="H5" s="424"/>
+      <c r="I5" s="424"/>
+      <c r="J5" s="424"/>
+      <c r="K5" s="424"/>
+      <c r="L5" s="424"/>
+      <c r="M5" s="425"/>
+      <c r="P5" s="394" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="300"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="300"/>
-      <c r="T5" s="301"/>
+      <c r="Q5" s="395"/>
+      <c r="R5" s="395"/>
+      <c r="S5" s="395"/>
+      <c r="T5" s="396"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="426" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="462"/>
+      <c r="C6" s="428"/>
       <c r="D6" s="57">
         <f>'Acqusition-NF'!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="471"/>
-      <c r="F6" s="472"/>
-      <c r="G6" s="472"/>
-      <c r="H6" s="472"/>
-      <c r="I6" s="472"/>
-      <c r="J6" s="472"/>
-      <c r="K6" s="472"/>
-      <c r="L6" s="472"/>
-      <c r="M6" s="473"/>
-      <c r="P6" s="302" t="s">
+      <c r="E6" s="437"/>
+      <c r="F6" s="438"/>
+      <c r="G6" s="438"/>
+      <c r="H6" s="438"/>
+      <c r="I6" s="438"/>
+      <c r="J6" s="438"/>
+      <c r="K6" s="438"/>
+      <c r="L6" s="438"/>
+      <c r="M6" s="439"/>
+      <c r="P6" s="397" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="304"/>
+      <c r="Q6" s="398"/>
+      <c r="R6" s="398"/>
+      <c r="S6" s="398"/>
+      <c r="T6" s="399"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="460" t="s">
+      <c r="B7" s="426" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="461"/>
+      <c r="C7" s="427"/>
       <c r="D7" s="58">
         <f>'Acqusition-NF'!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="471"/>
-      <c r="F7" s="472"/>
-      <c r="G7" s="472"/>
-      <c r="H7" s="472"/>
-      <c r="I7" s="472"/>
-      <c r="J7" s="472"/>
-      <c r="K7" s="472"/>
-      <c r="L7" s="472"/>
-      <c r="M7" s="473"/>
+      <c r="E7" s="437"/>
+      <c r="F7" s="438"/>
+      <c r="G7" s="438"/>
+      <c r="H7" s="438"/>
+      <c r="I7" s="438"/>
+      <c r="J7" s="438"/>
+      <c r="K7" s="438"/>
+      <c r="L7" s="438"/>
+      <c r="M7" s="439"/>
       <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
@@ -10640,61 +10631,61 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="460" t="s">
+      <c r="B8" s="426" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="461"/>
+      <c r="C8" s="427"/>
       <c r="D8" s="58" t="e">
         <f>'Acqusition-NF'!D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="463"/>
-      <c r="F8" s="464"/>
-      <c r="G8" s="464"/>
-      <c r="H8" s="464"/>
-      <c r="I8" s="464"/>
-      <c r="J8" s="464"/>
-      <c r="K8" s="464"/>
-      <c r="L8" s="464"/>
-      <c r="M8" s="465"/>
+      <c r="E8" s="429"/>
+      <c r="F8" s="430"/>
+      <c r="G8" s="430"/>
+      <c r="H8" s="430"/>
+      <c r="I8" s="430"/>
+      <c r="J8" s="430"/>
+      <c r="K8" s="430"/>
+      <c r="L8" s="430"/>
+      <c r="M8" s="431"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="460" t="s">
+      <c r="B9" s="426" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="461"/>
+      <c r="C9" s="427"/>
       <c r="D9" s="59">
         <f>'Acqusition-NF'!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="463"/>
-      <c r="F9" s="464"/>
-      <c r="G9" s="464"/>
-      <c r="H9" s="464"/>
-      <c r="I9" s="464"/>
-      <c r="J9" s="464"/>
-      <c r="K9" s="464"/>
-      <c r="L9" s="464"/>
-      <c r="M9" s="465"/>
+      <c r="E9" s="429"/>
+      <c r="F9" s="430"/>
+      <c r="G9" s="430"/>
+      <c r="H9" s="430"/>
+      <c r="I9" s="430"/>
+      <c r="J9" s="430"/>
+      <c r="K9" s="430"/>
+      <c r="L9" s="430"/>
+      <c r="M9" s="431"/>
     </row>
     <row r="10" spans="2:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="466" t="s">
+      <c r="B10" s="432" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="467"/>
+      <c r="C10" s="433"/>
       <c r="D10" s="60" t="e">
         <f>'Acqusition-NF'!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="468"/>
-      <c r="F10" s="469"/>
-      <c r="G10" s="469"/>
-      <c r="H10" s="469"/>
-      <c r="I10" s="469"/>
-      <c r="J10" s="469"/>
-      <c r="K10" s="469"/>
-      <c r="L10" s="469"/>
-      <c r="M10" s="470"/>
+      <c r="E10" s="434"/>
+      <c r="F10" s="435"/>
+      <c r="G10" s="435"/>
+      <c r="H10" s="435"/>
+      <c r="I10" s="435"/>
+      <c r="J10" s="435"/>
+      <c r="K10" s="435"/>
+      <c r="L10" s="435"/>
+      <c r="M10" s="436"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="85"/>
@@ -10724,30 +10715,30 @@
       <c r="F12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="291" t="s">
+      <c r="G12" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="292"/>
+      <c r="H12" s="306"/>
       <c r="I12" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="290" t="s">
+      <c r="K12" s="335" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="291"/>
-      <c r="M12" s="292"/>
-      <c r="P12" s="323" t="s">
+      <c r="L12" s="305"/>
+      <c r="M12" s="306"/>
+      <c r="P12" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="324"/>
-      <c r="R12" s="325"/>
+      <c r="Q12" s="412"/>
+      <c r="R12" s="288"/>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="431" t="s">
+      <c r="B13" s="442" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="459"/>
+      <c r="C13" s="443"/>
       <c r="D13" s="58">
         <f>'Acqusition-NF'!D13</f>
         <v>0</v>
@@ -10757,29 +10748,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="54"/>
-      <c r="G13" s="385" t="e">
+      <c r="G13" s="347" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="386"/>
+      <c r="H13" s="348"/>
       <c r="I13" s="112" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="333" t="s">
+      <c r="K13" s="358" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="334"/>
+      <c r="L13" s="359"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="320" t="s">
+      <c r="Q13" s="409" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="321"/>
+      <c r="R13" s="410"/>
     </row>
     <row r="14" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="104" t="s">
@@ -10798,11 +10789,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="389" t="e">
+      <c r="G14" s="303" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="390"/>
+      <c r="H14" s="304"/>
       <c r="I14" s="106" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -10817,16 +10808,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="320" t="s">
+      <c r="Q14" s="409" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="321"/>
+      <c r="R14" s="410"/>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="424" t="s">
+      <c r="B15" s="440" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="458"/>
+      <c r="C15" s="441"/>
       <c r="D15" s="68">
         <f>'Acqusition-NF'!D15</f>
         <v>0</v>
@@ -10836,29 +10827,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="381" t="e">
+      <c r="G15" s="344" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="382"/>
+      <c r="H15" s="345"/>
       <c r="I15" s="111" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="347" t="s">
+      <c r="K15" s="371" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="348"/>
+      <c r="L15" s="372"/>
       <c r="M15" s="62">
         <f>M13*M14</f>
         <v>0</v>
       </c>
       <c r="P15" s="53"/>
-      <c r="Q15" s="320" t="s">
+      <c r="Q15" s="409" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="321"/>
+      <c r="R15" s="410"/>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" s="224" t="s">
@@ -10877,20 +10868,20 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="456" t="e">
+      <c r="G16" s="444" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="457"/>
+      <c r="H16" s="445"/>
       <c r="I16" s="112" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="331" t="s">
+      <c r="K16" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="332"/>
+      <c r="L16" s="357"/>
       <c r="M16" s="62">
         <f>M13-M15</f>
         <v>0</v>
@@ -10910,30 +10901,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="389" t="e">
+      <c r="G17" s="303" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="390"/>
+      <c r="H17" s="304"/>
       <c r="I17" s="106" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="331" t="s">
+      <c r="K17" s="313" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="332"/>
+      <c r="L17" s="357"/>
       <c r="M17" s="63">
         <f>'Acqusition-NF'!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="424" t="s">
+      <c r="B18" s="440" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="425"/>
+      <c r="C18" s="452"/>
       <c r="D18" s="68">
         <f>'Acqusition-NF'!D18</f>
         <v>0</v>
@@ -10943,20 +10934,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="381" t="e">
+      <c r="G18" s="344" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="382"/>
+      <c r="H18" s="345"/>
       <c r="I18" s="111" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="329" t="s">
+      <c r="K18" s="416" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="330"/>
+      <c r="L18" s="417"/>
       <c r="M18" s="64">
         <f>'Acqusition-NF'!M18</f>
         <v>30</v>
@@ -10979,11 +10970,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="393" t="e">
+      <c r="G19" s="323" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="394"/>
+      <c r="H19" s="324"/>
       <c r="I19" s="120" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -11004,8 +10995,8 @@
       <c r="D20" s="125"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="340"/>
-      <c r="H20" s="340"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="365"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
@@ -11026,27 +11017,27 @@
       <c r="F21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="291" t="s">
+      <c r="G21" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="292"/>
+      <c r="H21" s="306"/>
       <c r="I21" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="453" t="s">
+      <c r="K21" s="455" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="454"/>
-      <c r="M21" s="430"/>
+      <c r="L21" s="456"/>
+      <c r="M21" s="457"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="431" t="s">
+      <c r="B22" s="442" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="432"/>
+      <c r="C22" s="454"/>
       <c r="D22" s="58">
         <f>'Acqusition-NF'!D22</f>
         <v>0</v>
@@ -11056,30 +11047,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="391" t="e">
+      <c r="G22" s="353" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="392"/>
+      <c r="H22" s="354"/>
       <c r="I22" s="112" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="131"/>
-      <c r="K22" s="428" t="s">
+      <c r="K22" s="474" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="429"/>
+      <c r="L22" s="475"/>
       <c r="M22" s="103">
         <f>'Acqusition-NF'!M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="422" t="s">
+      <c r="B23" s="453" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="423"/>
+      <c r="C23" s="476"/>
       <c r="D23" s="58">
         <f>'Acqusition-NF'!D23</f>
         <v>0</v>
@@ -11089,20 +11080,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="316" t="e">
+      <c r="G23" s="309" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="317"/>
+      <c r="H23" s="310"/>
       <c r="I23" s="106" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="131"/>
-      <c r="K23" s="331" t="s">
+      <c r="K23" s="313" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="332"/>
+      <c r="L23" s="357"/>
       <c r="M23" s="66">
         <f>'Acqusition-NF'!M23</f>
         <v>0.01</v>
@@ -11122,30 +11113,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="316" t="e">
+      <c r="G24" s="309" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="317"/>
+      <c r="H24" s="310"/>
       <c r="I24" s="106" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="131"/>
-      <c r="K24" s="331" t="s">
+      <c r="K24" s="313" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="332"/>
+      <c r="L24" s="357"/>
       <c r="M24" s="134">
         <f>'Acqusition-NF'!M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="422" t="s">
+      <c r="B25" s="453" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="455"/>
+      <c r="C25" s="458"/>
       <c r="D25" s="58">
         <f>'Acqusition-NF'!D25</f>
         <v>0</v>
@@ -11155,20 +11146,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="316" t="e">
+      <c r="G25" s="309" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="317"/>
+      <c r="H25" s="310"/>
       <c r="I25" s="106" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="131"/>
-      <c r="K25" s="329" t="s">
+      <c r="K25" s="416" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="330"/>
+      <c r="L25" s="417"/>
       <c r="M25" s="134">
         <f>'Acqusition-NF'!M25</f>
         <v>0</v>
@@ -11194,30 +11185,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="316" t="e">
+      <c r="G26" s="309" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="317"/>
+      <c r="H26" s="310"/>
       <c r="I26" s="106" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="449" t="s">
+      <c r="K26" s="459" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="450"/>
+      <c r="L26" s="460"/>
       <c r="M26" s="123">
         <f>'Acqusition-NF'!M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="422" t="s">
+      <c r="B27" s="453" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="432"/>
+      <c r="C27" s="454"/>
       <c r="D27" s="58">
         <f>'Acqusition-NF'!D27</f>
         <v>0</v>
@@ -11227,11 +11218,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="316" t="e">
+      <c r="G27" s="309" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="317"/>
+      <c r="H27" s="310"/>
       <c r="I27" s="106" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -11247,10 +11238,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="422" t="s">
+      <c r="B28" s="453" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="423"/>
+      <c r="C28" s="476"/>
       <c r="D28" s="58">
         <f>'Acqusition-NF'!D28</f>
         <v>0</v>
@@ -11260,11 +11251,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="316" t="e">
+      <c r="G28" s="309" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="317"/>
+      <c r="H28" s="310"/>
       <c r="I28" s="106" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -11275,10 +11266,10 @@
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="422" t="s">
+      <c r="B29" s="453" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="423"/>
+      <c r="C29" s="476"/>
       <c r="D29" s="58">
         <f>'Acqusition-NF'!D29</f>
         <v>0</v>
@@ -11288,11 +11279,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="G29" s="316" t="e">
+      <c r="G29" s="309" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="317"/>
+      <c r="H29" s="310"/>
       <c r="I29" s="106" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -11308,10 +11299,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="424" t="s">
+      <c r="B30" s="440" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="425"/>
+      <c r="C30" s="452"/>
       <c r="D30" s="70">
         <f>'Acqusition-NF'!D30</f>
         <v>0</v>
@@ -11321,11 +11312,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="403" t="e">
+      <c r="G30" s="321" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="404"/>
+      <c r="H30" s="322"/>
       <c r="I30" s="111" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -11353,34 +11344,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="426" t="e">
+      <c r="G31" s="477" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="427"/>
+      <c r="H31" s="478"/>
       <c r="I31" s="120" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="290" t="s">
+      <c r="K31" s="335" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="291"/>
-      <c r="M31" s="430"/>
+      <c r="L31" s="305"/>
+      <c r="M31" s="457"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="373" t="s">
+      <c r="B32" s="336" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="374"/>
-      <c r="D32" s="436">
+      <c r="C32" s="337"/>
+      <c r="D32" s="464">
         <f>'Acqusition-NF'!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="147"/>
-      <c r="F32" s="438">
+      <c r="F32" s="466">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -11399,11 +11390,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="375"/>
-      <c r="C33" s="376"/>
-      <c r="D33" s="437"/>
+      <c r="B33" s="338"/>
+      <c r="C33" s="339"/>
+      <c r="D33" s="465"/>
       <c r="E33" s="149"/>
-      <c r="F33" s="439"/>
+      <c r="F33" s="467"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -11419,10 +11410,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="361" t="s">
+      <c r="B34" s="380" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="362"/>
+      <c r="C34" s="381"/>
       <c r="D34" s="151">
         <f>'Acqusition-NF'!D34</f>
         <v>0</v>
@@ -11436,10 +11427,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="318" t="s">
+      <c r="K34" s="349" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="440"/>
+      <c r="L34" s="468"/>
       <c r="M34" s="134">
         <f>'Acqusition-NF'!M34</f>
         <v>250</v>
@@ -11475,10 +11466,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="335" t="s">
+      <c r="B36" s="360" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="441"/>
+      <c r="C36" s="469"/>
       <c r="D36" s="228">
         <f>'Acqusition-NF'!D36</f>
         <v>0</v>
@@ -11498,10 +11489,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="359" t="s">
+      <c r="B37" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="421"/>
+      <c r="C37" s="463"/>
       <c r="D37" s="228">
         <f>'Acqusition-NF'!D37</f>
         <v>0</v>
@@ -11512,23 +11503,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="287" t="s">
+      <c r="H37" s="385" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="288"/>
-      <c r="J37" s="288"/>
-      <c r="K37" s="288"/>
-      <c r="L37" s="287" t="s">
+      <c r="I37" s="386"/>
+      <c r="J37" s="386"/>
+      <c r="K37" s="386"/>
+      <c r="L37" s="385" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="289"/>
+      <c r="M37" s="387"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="335" t="s">
+      <c r="B38" s="360" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="441"/>
+      <c r="C38" s="469"/>
       <c r="D38" s="228">
         <f>'Acqusition-NF'!D38</f>
         <v>0</v>
@@ -11539,18 +11530,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="442"/>
-      <c r="I38" s="443"/>
-      <c r="J38" s="443"/>
-      <c r="K38" s="444"/>
-      <c r="L38" s="442"/>
-      <c r="M38" s="451"/>
+      <c r="H38" s="461"/>
+      <c r="I38" s="470"/>
+      <c r="J38" s="470"/>
+      <c r="K38" s="471"/>
+      <c r="L38" s="461"/>
+      <c r="M38" s="462"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="359" t="s">
+      <c r="B39" s="301" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="421"/>
+      <c r="C39" s="463"/>
       <c r="D39" s="229" t="e">
         <f>'Acqusition-NF'!D39</f>
         <v>#DIV/0!</v>
@@ -11561,18 +11552,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="433"/>
-      <c r="I39" s="434"/>
-      <c r="J39" s="434"/>
-      <c r="K39" s="435"/>
-      <c r="L39" s="433"/>
-      <c r="M39" s="448"/>
+      <c r="H39" s="446"/>
+      <c r="I39" s="450"/>
+      <c r="J39" s="450"/>
+      <c r="K39" s="451"/>
+      <c r="L39" s="446"/>
+      <c r="M39" s="447"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="359" t="s">
+      <c r="B40" s="301" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="421"/>
+      <c r="C40" s="463"/>
       <c r="D40" s="230" t="e">
         <f>'Acqusition-NF'!D40</f>
         <v>#DIV/0!</v>
@@ -11585,18 +11576,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="433"/>
-      <c r="I40" s="434"/>
-      <c r="J40" s="434"/>
-      <c r="K40" s="435"/>
-      <c r="L40" s="433"/>
-      <c r="M40" s="448"/>
+      <c r="H40" s="446"/>
+      <c r="I40" s="450"/>
+      <c r="J40" s="450"/>
+      <c r="K40" s="451"/>
+      <c r="L40" s="446"/>
+      <c r="M40" s="447"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="359" t="s">
+      <c r="B41" s="301" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="421"/>
+      <c r="C41" s="463"/>
       <c r="D41" s="229" t="e">
         <f>'Acqusition-NF'!D41</f>
         <v>#DIV/0!</v>
@@ -11609,18 +11600,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="433"/>
-      <c r="I41" s="434"/>
-      <c r="J41" s="434"/>
-      <c r="K41" s="435"/>
-      <c r="L41" s="433"/>
-      <c r="M41" s="448"/>
+      <c r="H41" s="446"/>
+      <c r="I41" s="450"/>
+      <c r="J41" s="450"/>
+      <c r="K41" s="451"/>
+      <c r="L41" s="446"/>
+      <c r="M41" s="447"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="359" t="s">
+      <c r="B42" s="301" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="421"/>
+      <c r="C42" s="463"/>
       <c r="D42" s="228">
         <f>'Acqusition-NF'!D42</f>
         <v>0</v>
@@ -11636,18 +11627,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="433"/>
-      <c r="I42" s="434"/>
-      <c r="J42" s="434"/>
-      <c r="K42" s="435"/>
-      <c r="L42" s="433"/>
-      <c r="M42" s="448"/>
+      <c r="H42" s="446"/>
+      <c r="I42" s="450"/>
+      <c r="J42" s="450"/>
+      <c r="K42" s="451"/>
+      <c r="L42" s="446"/>
+      <c r="M42" s="447"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="359" t="s">
+      <c r="B43" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="421"/>
+      <c r="C43" s="463"/>
       <c r="D43" s="228">
         <f>'Acqusition-NF'!D43</f>
         <v>0</v>
@@ -11658,18 +11649,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="433"/>
-      <c r="I43" s="434"/>
-      <c r="J43" s="434"/>
-      <c r="K43" s="435"/>
-      <c r="L43" s="433"/>
-      <c r="M43" s="448"/>
+      <c r="H43" s="446"/>
+      <c r="I43" s="450"/>
+      <c r="J43" s="450"/>
+      <c r="K43" s="451"/>
+      <c r="L43" s="446"/>
+      <c r="M43" s="447"/>
     </row>
     <row r="44" spans="2:19" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="397" t="s">
+      <c r="B44" s="299" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="398"/>
+      <c r="C44" s="300"/>
       <c r="D44" s="231" t="e">
         <f>'Acqusition-NF'!D44</f>
         <v>#DIV/0!</v>
@@ -11680,12 +11671,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="445"/>
-      <c r="I44" s="446"/>
-      <c r="J44" s="446"/>
-      <c r="K44" s="447"/>
-      <c r="L44" s="445"/>
-      <c r="M44" s="452"/>
+      <c r="H44" s="448"/>
+      <c r="I44" s="472"/>
+      <c r="J44" s="472"/>
+      <c r="K44" s="473"/>
+      <c r="L44" s="448"/>
+      <c r="M44" s="449"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -11712,14 +11703,78 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="96">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="G13:H13"/>
@@ -11736,78 +11791,14 @@
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E7:M7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -12030,27 +12021,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="3.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="413" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="328"/>
-      <c r="P2" s="293" t="s">
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="414"/>
+      <c r="J2" s="414"/>
+      <c r="K2" s="414"/>
+      <c r="L2" s="414"/>
+      <c r="M2" s="415"/>
+      <c r="P2" s="388" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="294"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="294"/>
-      <c r="T2" s="295"/>
+      <c r="Q2" s="389"/>
+      <c r="R2" s="389"/>
+      <c r="S2" s="389"/>
+      <c r="T2" s="390"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:21" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12074,11 +12065,11 @@
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="335" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="292"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="306"/>
       <c r="E4" s="94" t="s">
         <v>111</v>
       </c>
@@ -12090,54 +12081,54 @@
       <c r="K4" s="181"/>
       <c r="L4" s="181"/>
       <c r="M4" s="182"/>
-      <c r="P4" s="299" t="s">
+      <c r="P4" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="300"/>
-      <c r="R4" s="300"/>
-      <c r="S4" s="300"/>
-      <c r="T4" s="301"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="395"/>
+      <c r="S4" s="395"/>
+      <c r="T4" s="396"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="363"/>
-      <c r="D5" s="364"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="326"/>
       <c r="E5" s="184"/>
       <c r="F5" s="185"/>
       <c r="G5" s="185"/>
       <c r="H5" s="185"/>
       <c r="I5" s="186"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="290" t="s">
+      <c r="K5" s="335" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="291"/>
-      <c r="M5" s="292"/>
-      <c r="P5" s="299" t="s">
+      <c r="L5" s="305"/>
+      <c r="M5" s="306"/>
+      <c r="P5" s="394" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="300"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="300"/>
-      <c r="T5" s="301"/>
+      <c r="Q5" s="395"/>
+      <c r="R5" s="395"/>
+      <c r="S5" s="395"/>
+      <c r="T5" s="396"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="349" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="341"/>
+      <c r="C6" s="366"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="365" t="s">
+      <c r="E6" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="367"/>
-      <c r="I6" s="353" t="s">
+      <c r="F6" s="328"/>
+      <c r="G6" s="328"/>
+      <c r="H6" s="329"/>
+      <c r="I6" s="376" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="89"/>
@@ -12146,26 +12137,26 @@
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="33"/>
-      <c r="P6" s="302" t="s">
+      <c r="P6" s="397" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="304"/>
+      <c r="Q6" s="398"/>
+      <c r="R6" s="398"/>
+      <c r="S6" s="398"/>
+      <c r="T6" s="399"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="318" t="s">
+      <c r="B7" s="349" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="342"/>
+      <c r="C7" s="350"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="368"/>
-      <c r="F7" s="369"/>
-      <c r="G7" s="369"/>
-      <c r="H7" s="370"/>
-      <c r="I7" s="354"/>
+      <c r="E7" s="330"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="377"/>
       <c r="J7" s="89"/>
       <c r="K7" s="189" t="s">
         <v>96</v>
@@ -12185,20 +12176,20 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="318" t="s">
+      <c r="B8" s="349" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="342"/>
+      <c r="C8" s="350"/>
       <c r="D8" s="191" t="e">
         <f>D7/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="371" t="s">
+      <c r="E8" s="333" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="372"/>
-      <c r="G8" s="357"/>
-      <c r="H8" s="358"/>
+      <c r="F8" s="334"/>
+      <c r="G8" s="378"/>
+      <c r="H8" s="379"/>
       <c r="I8" s="65" t="e">
         <f>G8/G10</f>
         <v>#DIV/0!</v>
@@ -12214,17 +12205,17 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="318" t="s">
+      <c r="B9" s="349" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="342"/>
+      <c r="C9" s="350"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="395" t="s">
+      <c r="E9" s="355" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="396"/>
-      <c r="G9" s="379"/>
-      <c r="H9" s="380"/>
+      <c r="F9" s="356"/>
+      <c r="G9" s="342"/>
+      <c r="H9" s="343"/>
       <c r="I9" s="66" t="e">
         <f>G9/G10</f>
         <v>#DIV/0!</v>
@@ -12235,20 +12226,20 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="351" t="s">
+      <c r="B10" s="374" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="352"/>
+      <c r="C10" s="375"/>
       <c r="D10" s="196" t="e">
         <f>D7/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="343" t="s">
+      <c r="E10" s="367" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="344"/>
-      <c r="G10" s="345"/>
-      <c r="H10" s="346"/>
+      <c r="F10" s="368"/>
+      <c r="G10" s="369"/>
+      <c r="H10" s="370"/>
       <c r="I10" s="197" t="s">
         <v>16</v>
       </c>
@@ -12256,13 +12247,13 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="90"/>
-      <c r="P10" s="305" t="s">
+      <c r="P10" s="400" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="306"/>
-      <c r="R10" s="306"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="307"/>
+      <c r="Q10" s="401"/>
+      <c r="R10" s="401"/>
+      <c r="S10" s="401"/>
+      <c r="T10" s="402"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="198"/>
@@ -12277,11 +12268,11 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="90"/>
-      <c r="P11" s="308"/>
-      <c r="Q11" s="309"/>
-      <c r="R11" s="309"/>
-      <c r="S11" s="309"/>
-      <c r="T11" s="310"/>
+      <c r="P11" s="403"/>
+      <c r="Q11" s="404"/>
+      <c r="R11" s="404"/>
+      <c r="S11" s="404"/>
+      <c r="T11" s="405"/>
     </row>
     <row r="12" spans="2:21" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="91" t="s">
@@ -12297,23 +12288,23 @@
       <c r="F12" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="291" t="s">
+      <c r="G12" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="292"/>
+      <c r="H12" s="306"/>
       <c r="I12" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="290" t="s">
+      <c r="K12" s="335" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="291"/>
-      <c r="M12" s="292"/>
-      <c r="P12" s="323" t="s">
+      <c r="L12" s="305"/>
+      <c r="M12" s="306"/>
+      <c r="P12" s="287" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="325"/>
+      <c r="Q12" s="288"/>
       <c r="R12" s="29" t="s">
         <v>29</v>
       </c>
@@ -12325,38 +12316,38 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="383" t="s">
+      <c r="B13" s="316" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="384"/>
+      <c r="C13" s="346"/>
       <c r="D13" s="37"/>
       <c r="E13" s="130" t="e">
         <f>D13/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="385" t="e">
+      <c r="G13" s="347" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="386"/>
+      <c r="H13" s="348"/>
       <c r="I13" s="200" t="e">
         <f>D13/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="486" t="s">
+      <c r="K13" s="479" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="487"/>
+      <c r="L13" s="480"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P13" s="411" t="s">
+      <c r="P13" s="289" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="412"/>
+      <c r="Q13" s="290"/>
       <c r="R13" s="11" t="e">
         <f t="shared" ref="R13:R19" si="0">E22</f>
         <v>#DIV/0!</v>
@@ -12383,11 +12374,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="389" t="e">
+      <c r="G14" s="303" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="390"/>
+      <c r="H14" s="304"/>
       <c r="I14" s="202" t="e">
         <f>D14/D13</f>
         <v>#DIV/0!</v>
@@ -12398,10 +12389,10 @@
       </c>
       <c r="L14" s="108"/>
       <c r="M14" s="48"/>
-      <c r="P14" s="407" t="s">
+      <c r="P14" s="283" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="408"/>
+      <c r="Q14" s="284"/>
       <c r="R14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12415,38 +12406,38 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="349" t="s">
+      <c r="B15" s="311" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="350"/>
+      <c r="C15" s="373"/>
       <c r="D15" s="41"/>
       <c r="E15" s="109" t="e">
         <f>D15/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="381" t="e">
+      <c r="G15" s="344" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="382"/>
+      <c r="H15" s="345"/>
       <c r="I15" s="203" t="e">
         <f>D15/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="484" t="s">
+      <c r="K15" s="481" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="485"/>
+      <c r="L15" s="482"/>
       <c r="M15" s="134">
         <f>M13-M14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="407" t="s">
+      <c r="P15" s="283" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="408"/>
+      <c r="Q15" s="284"/>
       <c r="R15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12476,23 +12467,23 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="456" t="e">
+      <c r="G16" s="444" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="457"/>
+      <c r="H16" s="445"/>
       <c r="I16" s="200" t="e">
         <f>D16/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="331"/>
-      <c r="L16" s="332"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="357"/>
       <c r="M16" s="134"/>
-      <c r="P16" s="407" t="s">
+      <c r="P16" s="283" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="408"/>
+      <c r="Q16" s="284"/>
       <c r="R16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12516,25 +12507,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="389" t="e">
+      <c r="G17" s="303" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="390"/>
+      <c r="H17" s="304"/>
       <c r="I17" s="202" t="e">
         <f>D17/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="318" t="s">
+      <c r="K17" s="349" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="319"/>
+      <c r="L17" s="408"/>
       <c r="M17" s="48"/>
-      <c r="P17" s="407" t="s">
+      <c r="P17" s="283" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="408"/>
+      <c r="Q17" s="284"/>
       <c r="R17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12548,33 +12539,33 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="349" t="s">
+      <c r="B18" s="311" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="356"/>
+      <c r="C18" s="312"/>
       <c r="D18" s="41"/>
       <c r="E18" s="109" t="e">
         <f>D18/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="381" t="e">
+      <c r="G18" s="344" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="382"/>
+      <c r="H18" s="345"/>
       <c r="I18" s="203" t="e">
         <f>D18/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="329"/>
-      <c r="L18" s="330"/>
+      <c r="K18" s="416"/>
+      <c r="L18" s="417"/>
       <c r="M18" s="64"/>
-      <c r="P18" s="407" t="s">
+      <c r="P18" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="408"/>
+      <c r="Q18" s="284"/>
       <c r="R18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12604,11 +12595,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="393" t="e">
+      <c r="G19" s="323" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="394"/>
+      <c r="H19" s="324"/>
       <c r="I19" s="208" t="e">
         <f>D19/D13</f>
         <v>#DIV/0!</v>
@@ -12622,19 +12613,19 @@
         <f>M17*12</f>
         <v>0</v>
       </c>
-      <c r="P19" s="417" t="s">
+      <c r="P19" s="295" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="418"/>
-      <c r="R19" s="413" t="e">
+      <c r="Q19" s="296"/>
+      <c r="R19" s="291" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="415" t="e">
+      <c r="S19" s="293" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="405" t="s">
+      <c r="T19" s="281" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12644,18 +12635,18 @@
       <c r="D20" s="210"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="340"/>
-      <c r="H20" s="340"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="365"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="90"/>
-      <c r="P20" s="419"/>
-      <c r="Q20" s="420"/>
-      <c r="R20" s="414"/>
-      <c r="S20" s="416"/>
-      <c r="T20" s="406"/>
+      <c r="P20" s="297"/>
+      <c r="Q20" s="298"/>
+      <c r="R20" s="292"/>
+      <c r="S20" s="294"/>
+      <c r="T20" s="282"/>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="128" t="s">
@@ -12671,25 +12662,25 @@
       <c r="F21" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="291" t="s">
+      <c r="G21" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="292"/>
+      <c r="H21" s="306"/>
       <c r="I21" s="94" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="290" t="s">
+      <c r="K21" s="335" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="291"/>
-      <c r="M21" s="292"/>
+      <c r="L21" s="305"/>
+      <c r="M21" s="306"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="407" t="s">
+      <c r="P21" s="283" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="408"/>
+      <c r="Q21" s="284"/>
       <c r="R21" s="13" t="e">
         <f>E29</f>
         <v>#DIV/0!</v>
@@ -12703,21 +12694,21 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="383" t="s">
+      <c r="B22" s="316" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="402"/>
+      <c r="C22" s="317"/>
       <c r="D22" s="37"/>
       <c r="E22" s="130" t="e">
         <f>D22/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="391" t="e">
+      <c r="G22" s="353" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="392"/>
+      <c r="H22" s="354"/>
       <c r="I22" s="200" t="e">
         <f>D22/D13</f>
         <v>#DIV/0!</v>
@@ -12733,10 +12724,10 @@
         <f>L22*M13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="409" t="s">
+      <c r="P22" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="410"/>
+      <c r="Q22" s="286"/>
       <c r="R22" s="237" t="e">
         <f>E30</f>
         <v>#DIV/0!</v>
@@ -12750,21 +12741,21 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="331" t="s">
+      <c r="B23" s="313" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="355"/>
+      <c r="C23" s="314"/>
       <c r="D23" s="36"/>
       <c r="E23" s="105" t="e">
         <f>D23/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="316" t="e">
+      <c r="G23" s="309" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="317"/>
+      <c r="H23" s="310"/>
       <c r="I23" s="202" t="e">
         <f>D23/D13</f>
         <v>#DIV/0!</v>
@@ -12777,10 +12768,10 @@
       <c r="M23" s="46">
         <v>0</v>
       </c>
-      <c r="P23" s="322" t="s">
+      <c r="P23" s="411" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="322"/>
+      <c r="Q23" s="411"/>
       <c r="R23" s="240">
         <f>D34</f>
         <v>0</v>
@@ -12804,11 +12795,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="316" t="e">
+      <c r="G24" s="309" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="317"/>
+      <c r="H24" s="310"/>
       <c r="I24" s="202" t="e">
         <f>D24/D13</f>
         <v>#DIV/0!</v>
@@ -12824,21 +12815,21 @@
       </c>
     </row>
     <row r="25" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="331" t="s">
+      <c r="B25" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="401"/>
+      <c r="C25" s="315"/>
       <c r="D25" s="36"/>
       <c r="E25" s="133" t="e">
         <f>D25/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="316" t="e">
+      <c r="G25" s="309" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="317"/>
+      <c r="H25" s="310"/>
       <c r="I25" s="202" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
@@ -12869,43 +12860,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="316" t="e">
+      <c r="G26" s="309" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="317"/>
+      <c r="H26" s="310"/>
       <c r="I26" s="202" t="e">
         <f>D26/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="311" t="s">
+      <c r="K26" s="406" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="312"/>
+      <c r="L26" s="407"/>
       <c r="M26" s="47"/>
-      <c r="P26" s="323" t="s">
+      <c r="P26" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="324"/>
-      <c r="R26" s="325"/>
+      <c r="Q26" s="412"/>
+      <c r="R26" s="288"/>
     </row>
     <row r="27" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="331" t="s">
+      <c r="B27" s="313" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="402"/>
+      <c r="C27" s="317"/>
       <c r="D27" s="36"/>
       <c r="E27" s="105" t="e">
         <f>D27/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="316" t="e">
+      <c r="G27" s="309" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="317"/>
+      <c r="H27" s="310"/>
       <c r="I27" s="202" t="e">
         <f>D27/D13</f>
         <v>#DIV/0!</v>
@@ -12920,27 +12911,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="320" t="s">
+      <c r="Q27" s="409" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="321"/>
+      <c r="R27" s="410"/>
     </row>
     <row r="28" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="331" t="s">
+      <c r="B28" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="355"/>
+      <c r="C28" s="314"/>
       <c r="D28" s="36"/>
       <c r="E28" s="105" t="e">
         <f>D28/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="316" t="e">
+      <c r="G28" s="309" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="317"/>
+      <c r="H28" s="310"/>
       <c r="I28" s="202" t="e">
         <f>D28/D13</f>
         <v>#DIV/0!</v>
@@ -12950,27 +12941,27 @@
       <c r="L28" s="174"/>
       <c r="M28" s="141"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="320" t="s">
+      <c r="Q28" s="409" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="321"/>
+      <c r="R28" s="410"/>
     </row>
     <row r="29" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="331" t="s">
+      <c r="B29" s="313" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="355"/>
+      <c r="C29" s="314"/>
       <c r="D29" s="36"/>
       <c r="E29" s="105" t="e">
         <f>D29/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="316" t="e">
+      <c r="G29" s="309" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="317"/>
+      <c r="H29" s="310"/>
       <c r="I29" s="202" t="e">
         <f>D29/D13</f>
         <v>#DIV/0!</v>
@@ -12985,27 +12976,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="53"/>
-      <c r="Q29" s="320" t="s">
+      <c r="Q29" s="409" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="321"/>
+      <c r="R29" s="410"/>
     </row>
     <row r="30" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="349" t="s">
+      <c r="B30" s="311" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="356"/>
+      <c r="C30" s="312"/>
       <c r="D30" s="41"/>
       <c r="E30" s="109" t="e">
         <f>D30/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="403" t="e">
+      <c r="G30" s="321" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="404"/>
+      <c r="H30" s="322"/>
       <c r="I30" s="203" t="e">
         <f>D30/D13</f>
         <v>#DIV/0!</v>
@@ -13033,34 +13024,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="393" t="e">
+      <c r="G31" s="323" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="394"/>
+      <c r="H31" s="324"/>
       <c r="I31" s="208" t="e">
         <f>D31/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="290" t="s">
+      <c r="K31" s="335" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="291"/>
-      <c r="M31" s="292"/>
+      <c r="L31" s="305"/>
+      <c r="M31" s="306"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:20" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="373" t="s">
+      <c r="B32" s="336" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="374"/>
-      <c r="D32" s="377">
+      <c r="C32" s="337"/>
+      <c r="D32" s="340">
         <f>D19-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="217"/>
-      <c r="F32" s="377">
+      <c r="F32" s="340">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -13076,11 +13067,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:19" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="375"/>
-      <c r="C33" s="376"/>
-      <c r="D33" s="378"/>
+      <c r="B33" s="338"/>
+      <c r="C33" s="339"/>
+      <c r="D33" s="341"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="378"/>
+      <c r="F33" s="341"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -13093,10 +13084,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="482" t="s">
+      <c r="B34" s="483" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="483"/>
+      <c r="C34" s="484"/>
       <c r="D34" s="218">
         <f>D6*E34</f>
         <v>0</v>
@@ -13112,10 +13103,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="318" t="s">
+      <c r="K34" s="349" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="319"/>
+      <c r="L34" s="408"/>
       <c r="M34" s="44"/>
       <c r="S34" s="10"/>
     </row>
@@ -13148,10 +13139,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="335" t="s">
+      <c r="B36" s="360" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="336"/>
+      <c r="C36" s="361"/>
       <c r="D36" s="155">
         <f>M19</f>
         <v>0</v>
@@ -13171,10 +13162,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="359" t="s">
+      <c r="B37" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="360"/>
+      <c r="C37" s="302"/>
       <c r="D37" s="220" t="e">
         <f>M35</f>
         <v>#NUM!</v>
@@ -13185,21 +13176,21 @@
         <v>#NUM!</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="287" t="s">
+      <c r="H37" s="385" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="288"/>
-      <c r="J37" s="288"/>
-      <c r="K37" s="288"/>
-      <c r="L37" s="288"/>
-      <c r="M37" s="289"/>
+      <c r="I37" s="386"/>
+      <c r="J37" s="386"/>
+      <c r="K37" s="386"/>
+      <c r="L37" s="386"/>
+      <c r="M37" s="387"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="335" t="s">
+      <c r="B38" s="360" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="336"/>
+      <c r="C38" s="361"/>
       <c r="D38" s="155" t="e">
         <f>(D35-D36-D37)</f>
         <v>#NUM!</v>
@@ -13210,18 +13201,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="337"/>
-      <c r="I38" s="338"/>
-      <c r="J38" s="338"/>
-      <c r="K38" s="338"/>
-      <c r="L38" s="338"/>
-      <c r="M38" s="339"/>
+      <c r="H38" s="362"/>
+      <c r="I38" s="363"/>
+      <c r="J38" s="363"/>
+      <c r="K38" s="363"/>
+      <c r="L38" s="363"/>
+      <c r="M38" s="364"/>
     </row>
     <row r="39" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="359" t="s">
+      <c r="B39" s="301" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="360"/>
+      <c r="C39" s="302"/>
       <c r="D39" s="165" t="e">
         <f>D38/M29</f>
         <v>#NUM!</v>
@@ -13232,18 +13223,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="313"/>
-      <c r="I39" s="314"/>
-      <c r="J39" s="314"/>
-      <c r="K39" s="314"/>
-      <c r="L39" s="314"/>
-      <c r="M39" s="315"/>
+      <c r="H39" s="318"/>
+      <c r="I39" s="319"/>
+      <c r="J39" s="319"/>
+      <c r="K39" s="319"/>
+      <c r="L39" s="319"/>
+      <c r="M39" s="320"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="359" t="s">
+      <c r="B40" s="301" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="360"/>
+      <c r="C40" s="302"/>
       <c r="D40" s="221" t="e">
         <f>D35/(D36+D37)</f>
         <v>#NUM!</v>
@@ -13256,18 +13247,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="313"/>
-      <c r="I40" s="314"/>
-      <c r="J40" s="314"/>
-      <c r="K40" s="314"/>
-      <c r="L40" s="314"/>
-      <c r="M40" s="315"/>
+      <c r="H40" s="318"/>
+      <c r="I40" s="319"/>
+      <c r="J40" s="319"/>
+      <c r="K40" s="319"/>
+      <c r="L40" s="319"/>
+      <c r="M40" s="320"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="359" t="s">
+      <c r="B41" s="301" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="360"/>
+      <c r="C41" s="302"/>
       <c r="D41" s="165" t="e">
         <f>D32/D7</f>
         <v>#DIV/0!</v>
@@ -13280,18 +13271,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="313"/>
-      <c r="I41" s="314"/>
-      <c r="J41" s="314"/>
-      <c r="K41" s="314"/>
-      <c r="L41" s="314"/>
-      <c r="M41" s="315"/>
+      <c r="H41" s="318"/>
+      <c r="I41" s="319"/>
+      <c r="J41" s="319"/>
+      <c r="K41" s="319"/>
+      <c r="L41" s="319"/>
+      <c r="M41" s="320"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="359" t="s">
+      <c r="B42" s="301" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="360"/>
+      <c r="C42" s="302"/>
       <c r="D42" s="155" t="e">
         <f>D38*E42</f>
         <v>#NUM!</v>
@@ -13306,18 +13297,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="313"/>
-      <c r="I42" s="314"/>
-      <c r="J42" s="314"/>
-      <c r="K42" s="314"/>
-      <c r="L42" s="314"/>
-      <c r="M42" s="315"/>
+      <c r="H42" s="318"/>
+      <c r="I42" s="319"/>
+      <c r="J42" s="319"/>
+      <c r="K42" s="319"/>
+      <c r="L42" s="319"/>
+      <c r="M42" s="320"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="359" t="s">
+      <c r="B43" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="360"/>
+      <c r="C43" s="302"/>
       <c r="D43" s="155" t="e">
         <f>D38-D42</f>
         <v>#NUM!</v>
@@ -13328,18 +13319,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="313"/>
-      <c r="I43" s="314"/>
-      <c r="J43" s="314"/>
-      <c r="K43" s="314"/>
-      <c r="L43" s="314"/>
-      <c r="M43" s="315"/>
+      <c r="H43" s="318"/>
+      <c r="I43" s="319"/>
+      <c r="J43" s="319"/>
+      <c r="K43" s="319"/>
+      <c r="L43" s="319"/>
+      <c r="M43" s="320"/>
     </row>
     <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="397" t="s">
+      <c r="B44" s="299" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="398"/>
+      <c r="C44" s="300"/>
       <c r="D44" s="175" t="e">
         <f>D43/M29</f>
         <v>#NUM!</v>
@@ -13350,12 +13341,12 @@
         <v>#NUM!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="284"/>
-      <c r="I44" s="285"/>
-      <c r="J44" s="285"/>
-      <c r="K44" s="285"/>
-      <c r="L44" s="285"/>
-      <c r="M44" s="286"/>
+      <c r="H44" s="382"/>
+      <c r="I44" s="383"/>
+      <c r="J44" s="383"/>
+      <c r="K44" s="383"/>
+      <c r="L44" s="383"/>
+      <c r="M44" s="384"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -13382,6 +13373,92 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="101">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P10:T11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:I7"/>
@@ -13397,92 +13474,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P10:T11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:M42"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -13705,27 +13696,27 @@
   <sheetData>
     <row r="1" spans="2:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="413" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="328"/>
-      <c r="P2" s="293" t="s">
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="414"/>
+      <c r="J2" s="414"/>
+      <c r="K2" s="414"/>
+      <c r="L2" s="414"/>
+      <c r="M2" s="415"/>
+      <c r="P2" s="388" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="294"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="294"/>
-      <c r="T2" s="295"/>
+      <c r="Q2" s="389"/>
+      <c r="R2" s="389"/>
+      <c r="S2" s="389"/>
+      <c r="T2" s="390"/>
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -13750,103 +13741,103 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="335" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="476" t="s">
+      <c r="C4" s="305"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="420" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="477"/>
-      <c r="G4" s="477"/>
-      <c r="H4" s="477"/>
-      <c r="I4" s="477"/>
-      <c r="J4" s="477"/>
-      <c r="K4" s="477"/>
-      <c r="L4" s="477"/>
-      <c r="M4" s="478"/>
-      <c r="P4" s="299" t="s">
+      <c r="F4" s="421"/>
+      <c r="G4" s="421"/>
+      <c r="H4" s="421"/>
+      <c r="I4" s="421"/>
+      <c r="J4" s="421"/>
+      <c r="K4" s="421"/>
+      <c r="L4" s="421"/>
+      <c r="M4" s="422"/>
+      <c r="P4" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="300"/>
-      <c r="R4" s="300"/>
-      <c r="S4" s="300"/>
-      <c r="T4" s="301"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="395"/>
+      <c r="S4" s="395"/>
+      <c r="T4" s="396"/>
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="474">
+      <c r="C5" s="418">
         <f>Assumption!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="475"/>
-      <c r="E5" s="479"/>
-      <c r="F5" s="480"/>
-      <c r="G5" s="480"/>
-      <c r="H5" s="480"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="480"/>
-      <c r="K5" s="480"/>
-      <c r="L5" s="480"/>
-      <c r="M5" s="481"/>
-      <c r="P5" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="300"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="300"/>
-      <c r="T5" s="301"/>
+      <c r="D5" s="419"/>
+      <c r="E5" s="423"/>
+      <c r="F5" s="424"/>
+      <c r="G5" s="424"/>
+      <c r="H5" s="424"/>
+      <c r="I5" s="424"/>
+      <c r="J5" s="424"/>
+      <c r="K5" s="424"/>
+      <c r="L5" s="424"/>
+      <c r="M5" s="425"/>
+      <c r="P5" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="395"/>
+      <c r="R5" s="395"/>
+      <c r="S5" s="395"/>
+      <c r="T5" s="396"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="426" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="462"/>
+      <c r="C6" s="428"/>
       <c r="D6" s="57">
         <f>Assumption!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="471"/>
-      <c r="F6" s="472"/>
-      <c r="G6" s="472"/>
-      <c r="H6" s="472"/>
-      <c r="I6" s="472"/>
-      <c r="J6" s="472"/>
-      <c r="K6" s="472"/>
-      <c r="L6" s="472"/>
-      <c r="M6" s="473"/>
-      <c r="P6" s="302" t="s">
+      <c r="E6" s="437"/>
+      <c r="F6" s="438"/>
+      <c r="G6" s="438"/>
+      <c r="H6" s="438"/>
+      <c r="I6" s="438"/>
+      <c r="J6" s="438"/>
+      <c r="K6" s="438"/>
+      <c r="L6" s="438"/>
+      <c r="M6" s="439"/>
+      <c r="P6" s="397" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="304"/>
+      <c r="Q6" s="398"/>
+      <c r="R6" s="398"/>
+      <c r="S6" s="398"/>
+      <c r="T6" s="399"/>
       <c r="U6" s="28"/>
     </row>
     <row r="7" spans="2:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="460" t="s">
+      <c r="B7" s="426" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="461"/>
+      <c r="C7" s="427"/>
       <c r="D7" s="58">
         <f>Assumption!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="471"/>
-      <c r="F7" s="472"/>
-      <c r="G7" s="472"/>
-      <c r="H7" s="472"/>
-      <c r="I7" s="472"/>
-      <c r="J7" s="472"/>
-      <c r="K7" s="472"/>
-      <c r="L7" s="472"/>
-      <c r="M7" s="473"/>
+      <c r="E7" s="437"/>
+      <c r="F7" s="438"/>
+      <c r="G7" s="438"/>
+      <c r="H7" s="438"/>
+      <c r="I7" s="438"/>
+      <c r="J7" s="438"/>
+      <c r="K7" s="438"/>
+      <c r="L7" s="438"/>
+      <c r="M7" s="439"/>
       <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
@@ -13857,61 +13848,61 @@
       <c r="U7" s="28"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="460" t="s">
+      <c r="B8" s="426" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="461"/>
+      <c r="C8" s="427"/>
       <c r="D8" s="58" t="e">
         <f>Assumption!D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="463"/>
-      <c r="F8" s="464"/>
-      <c r="G8" s="464"/>
-      <c r="H8" s="464"/>
-      <c r="I8" s="464"/>
-      <c r="J8" s="464"/>
-      <c r="K8" s="464"/>
-      <c r="L8" s="464"/>
-      <c r="M8" s="465"/>
+      <c r="E8" s="429"/>
+      <c r="F8" s="430"/>
+      <c r="G8" s="430"/>
+      <c r="H8" s="430"/>
+      <c r="I8" s="430"/>
+      <c r="J8" s="430"/>
+      <c r="K8" s="430"/>
+      <c r="L8" s="430"/>
+      <c r="M8" s="431"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="460" t="s">
+      <c r="B9" s="426" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="461"/>
+      <c r="C9" s="427"/>
       <c r="D9" s="59">
         <f>Assumption!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="463"/>
-      <c r="F9" s="464"/>
-      <c r="G9" s="464"/>
-      <c r="H9" s="464"/>
-      <c r="I9" s="464"/>
-      <c r="J9" s="464"/>
-      <c r="K9" s="464"/>
-      <c r="L9" s="464"/>
-      <c r="M9" s="465"/>
+      <c r="E9" s="429"/>
+      <c r="F9" s="430"/>
+      <c r="G9" s="430"/>
+      <c r="H9" s="430"/>
+      <c r="I9" s="430"/>
+      <c r="J9" s="430"/>
+      <c r="K9" s="430"/>
+      <c r="L9" s="430"/>
+      <c r="M9" s="431"/>
     </row>
     <row r="10" spans="2:22" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="466" t="s">
+      <c r="B10" s="432" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="467"/>
+      <c r="C10" s="433"/>
       <c r="D10" s="67" t="e">
         <f>Assumption!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="468"/>
-      <c r="F10" s="469"/>
-      <c r="G10" s="469"/>
-      <c r="H10" s="469"/>
-      <c r="I10" s="469"/>
-      <c r="J10" s="469"/>
-      <c r="K10" s="469"/>
-      <c r="L10" s="469"/>
-      <c r="M10" s="470"/>
+      <c r="E10" s="434"/>
+      <c r="F10" s="435"/>
+      <c r="G10" s="435"/>
+      <c r="H10" s="435"/>
+      <c r="I10" s="435"/>
+      <c r="J10" s="435"/>
+      <c r="K10" s="435"/>
+      <c r="L10" s="435"/>
+      <c r="M10" s="436"/>
     </row>
     <row r="11" spans="2:22" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="85"/>
@@ -13941,30 +13932,30 @@
       <c r="F12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="291" t="s">
+      <c r="G12" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="292"/>
+      <c r="H12" s="306"/>
       <c r="I12" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="97"/>
-      <c r="K12" s="290" t="s">
+      <c r="K12" s="335" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="291"/>
-      <c r="M12" s="292"/>
-      <c r="P12" s="323" t="s">
+      <c r="L12" s="305"/>
+      <c r="M12" s="306"/>
+      <c r="P12" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="324"/>
-      <c r="R12" s="325"/>
+      <c r="Q12" s="412"/>
+      <c r="R12" s="288"/>
     </row>
     <row r="13" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="491" t="s">
+      <c r="B13" s="485" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="492"/>
+      <c r="C13" s="486"/>
       <c r="D13" s="71">
         <f>Assumption!D13</f>
         <v>0</v>
@@ -13974,29 +13965,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="72"/>
-      <c r="G13" s="385" t="e">
+      <c r="G13" s="347" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="386"/>
+      <c r="H13" s="348"/>
       <c r="I13" s="99" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="486" t="s">
+      <c r="K13" s="479" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="487"/>
+      <c r="L13" s="480"/>
       <c r="M13" s="103">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="320" t="s">
+      <c r="Q13" s="409" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="321"/>
+      <c r="R13" s="410"/>
     </row>
     <row r="14" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="104" t="s">
@@ -14015,11 +14006,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="389" t="e">
+      <c r="G14" s="303" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="390"/>
+      <c r="H14" s="304"/>
       <c r="I14" s="106" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -14034,16 +14025,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="320" t="s">
+      <c r="Q14" s="409" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="321"/>
+      <c r="R14" s="410"/>
     </row>
     <row r="15" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="424" t="s">
+      <c r="B15" s="440" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="458"/>
+      <c r="C15" s="441"/>
       <c r="D15" s="68">
         <f>Assumption!D15</f>
         <v>0</v>
@@ -14053,35 +14044,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="381" t="e">
+      <c r="G15" s="344" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="382"/>
+      <c r="H15" s="345"/>
       <c r="I15" s="111" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="484" t="s">
+      <c r="K15" s="481" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="485"/>
+      <c r="L15" s="482"/>
       <c r="M15" s="62">
         <f>M13-M14</f>
         <v>0</v>
       </c>
       <c r="P15" s="53"/>
-      <c r="Q15" s="320" t="s">
+      <c r="Q15" s="409" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="321"/>
+      <c r="R15" s="410"/>
     </row>
     <row r="16" spans="2:22" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="489" t="s">
+      <c r="B16" s="487" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="490"/>
+      <c r="C16" s="488"/>
       <c r="D16" s="58">
         <f>Assumption!D16</f>
         <v>0</v>
@@ -14094,18 +14085,18 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="456" t="e">
+      <c r="G16" s="444" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="457"/>
+      <c r="H16" s="445"/>
       <c r="I16" s="112" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="331"/>
-      <c r="L16" s="332"/>
+      <c r="K16" s="313"/>
+      <c r="L16" s="357"/>
       <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
@@ -14122,30 +14113,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="389" t="e">
+      <c r="G17" s="303" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="390"/>
+      <c r="H17" s="304"/>
       <c r="I17" s="106" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="318" t="s">
+      <c r="K17" s="349" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="319"/>
+      <c r="L17" s="408"/>
       <c r="M17" s="62">
         <f>Assumption!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="424" t="s">
+      <c r="B18" s="440" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="425"/>
+      <c r="C18" s="452"/>
       <c r="D18" s="68">
         <f>Assumption!D18</f>
         <v>0</v>
@@ -14155,18 +14146,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="381" t="e">
+      <c r="G18" s="344" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="382"/>
+      <c r="H18" s="345"/>
       <c r="I18" s="111" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="329"/>
-      <c r="L18" s="330"/>
+      <c r="K18" s="416"/>
+      <c r="L18" s="417"/>
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="2:19" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -14186,11 +14177,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="393" t="e">
+      <c r="G19" s="323" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="394"/>
+      <c r="H19" s="324"/>
       <c r="I19" s="120" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -14211,8 +14202,8 @@
       <c r="D20" s="125"/>
       <c r="E20" s="126"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="488"/>
-      <c r="H20" s="488"/>
+      <c r="G20" s="489"/>
+      <c r="H20" s="489"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
@@ -14233,27 +14224,27 @@
       <c r="F21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="291" t="s">
+      <c r="G21" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="292"/>
+      <c r="H21" s="306"/>
       <c r="I21" s="96" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="97"/>
-      <c r="K21" s="453" t="s">
+      <c r="K21" s="455" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="454"/>
-      <c r="M21" s="430"/>
+      <c r="L21" s="456"/>
+      <c r="M21" s="457"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="431" t="s">
+      <c r="B22" s="442" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="432"/>
+      <c r="C22" s="454"/>
       <c r="D22" s="58">
         <f>Assumption!D22</f>
         <v>0</v>
@@ -14263,30 +14254,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="391" t="e">
+      <c r="G22" s="353" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="392"/>
+      <c r="H22" s="354"/>
       <c r="I22" s="112" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="131"/>
-      <c r="K22" s="428" t="s">
+      <c r="K22" s="474" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="429"/>
+      <c r="L22" s="475"/>
       <c r="M22" s="103">
         <f>Assumption!M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="422" t="s">
+      <c r="B23" s="453" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="423"/>
+      <c r="C23" s="476"/>
       <c r="D23" s="58">
         <f>Assumption!D23</f>
         <v>0</v>
@@ -14296,20 +14287,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="316" t="e">
+      <c r="G23" s="309" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="317"/>
+      <c r="H23" s="310"/>
       <c r="I23" s="106" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="131"/>
-      <c r="K23" s="331" t="s">
+      <c r="K23" s="313" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="332"/>
+      <c r="L23" s="357"/>
       <c r="M23" s="66">
         <f>Assumption!M23</f>
         <v>0</v>
@@ -14329,30 +14320,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="316" t="e">
+      <c r="G24" s="309" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="317"/>
+      <c r="H24" s="310"/>
       <c r="I24" s="106" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="131"/>
-      <c r="K24" s="331" t="s">
+      <c r="K24" s="313" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="332"/>
+      <c r="L24" s="357"/>
       <c r="M24" s="134">
         <f>Assumption!M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="422" t="s">
+      <c r="B25" s="453" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="455"/>
+      <c r="C25" s="458"/>
       <c r="D25" s="58">
         <f>Assumption!D25</f>
         <v>0</v>
@@ -14362,20 +14353,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="316" t="e">
+      <c r="G25" s="309" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="317"/>
+      <c r="H25" s="310"/>
       <c r="I25" s="106" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="131"/>
-      <c r="K25" s="329" t="s">
+      <c r="K25" s="416" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="330"/>
+      <c r="L25" s="417"/>
       <c r="M25" s="134">
         <f>Assumption!M25</f>
         <v>0</v>
@@ -14401,30 +14392,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="316" t="e">
+      <c r="G26" s="309" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="317"/>
+      <c r="H26" s="310"/>
       <c r="I26" s="106" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="131"/>
-      <c r="K26" s="449" t="s">
+      <c r="K26" s="459" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="450"/>
+      <c r="L26" s="460"/>
       <c r="M26" s="123">
         <f>Assumption!M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="422" t="s">
+      <c r="B27" s="453" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="432"/>
+      <c r="C27" s="454"/>
       <c r="D27" s="58">
         <f>Assumption!D27</f>
         <v>0</v>
@@ -14434,11 +14425,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="316" t="e">
+      <c r="G27" s="309" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="317"/>
+      <c r="H27" s="310"/>
       <c r="I27" s="106" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -14454,10 +14445,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="422" t="s">
+      <c r="B28" s="453" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="423"/>
+      <c r="C28" s="476"/>
       <c r="D28" s="58">
         <f>Assumption!D28</f>
         <v>0</v>
@@ -14467,11 +14458,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="316" t="e">
+      <c r="G28" s="309" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="317"/>
+      <c r="H28" s="310"/>
       <c r="I28" s="106" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -14482,10 +14473,10 @@
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="422" t="s">
+      <c r="B29" s="453" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="423"/>
+      <c r="C29" s="476"/>
       <c r="D29" s="58">
         <f>Assumption!D29</f>
         <v>0</v>
@@ -14495,11 +14486,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="G29" s="316" t="e">
+      <c r="G29" s="309" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="317"/>
+      <c r="H29" s="310"/>
       <c r="I29" s="106" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -14515,10 +14506,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="424" t="s">
+      <c r="B30" s="440" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="425"/>
+      <c r="C30" s="452"/>
       <c r="D30" s="70">
         <f>Assumption!D30</f>
         <v>0</v>
@@ -14528,11 +14519,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="G30" s="403" t="e">
+      <c r="G30" s="321" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="404"/>
+      <c r="H30" s="322"/>
       <c r="I30" s="111" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -14560,34 +14551,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="426" t="e">
+      <c r="G31" s="477" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="427"/>
+      <c r="H31" s="478"/>
       <c r="I31" s="120" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="290" t="s">
+      <c r="K31" s="335" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="291"/>
-      <c r="M31" s="430"/>
+      <c r="L31" s="305"/>
+      <c r="M31" s="457"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="373" t="s">
+      <c r="B32" s="336" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="374"/>
-      <c r="D32" s="436">
+      <c r="C32" s="337"/>
+      <c r="D32" s="464">
         <f>Assumption!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="147"/>
-      <c r="F32" s="438">
+      <c r="F32" s="466">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -14606,11 +14597,11 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="2:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="375"/>
-      <c r="C33" s="376"/>
-      <c r="D33" s="437"/>
+      <c r="B33" s="338"/>
+      <c r="C33" s="339"/>
+      <c r="D33" s="465"/>
       <c r="E33" s="149"/>
-      <c r="F33" s="439"/>
+      <c r="F33" s="467"/>
       <c r="G33" s="150"/>
       <c r="H33" s="150"/>
       <c r="I33" s="150"/>
@@ -14626,10 +14617,10 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:20" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="482" t="s">
+      <c r="B34" s="483" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="483"/>
+      <c r="C34" s="484"/>
       <c r="D34" s="151">
         <f>Assumption!D34</f>
         <v>0</v>
@@ -14643,10 +14634,10 @@
       <c r="H34" s="150"/>
       <c r="I34" s="150"/>
       <c r="J34" s="150"/>
-      <c r="K34" s="318" t="s">
+      <c r="K34" s="349" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="440"/>
+      <c r="L34" s="468"/>
       <c r="M34" s="134">
         <f>Assumption!M34</f>
         <v>0</v>
@@ -14681,10 +14672,10 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="335" t="s">
+      <c r="B36" s="360" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="441"/>
+      <c r="C36" s="469"/>
       <c r="D36" s="160">
         <f>Assumption!D36</f>
         <v>0</v>
@@ -14704,10 +14695,10 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="359" t="s">
+      <c r="B37" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="421"/>
+      <c r="C37" s="463"/>
       <c r="D37" s="160" t="e">
         <f>Assumption!D37</f>
         <v>#NUM!</v>
@@ -14718,23 +14709,23 @@
         <v>#NUM!</v>
       </c>
       <c r="G37" s="162"/>
-      <c r="H37" s="287" t="s">
+      <c r="H37" s="385" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="288"/>
-      <c r="J37" s="288"/>
-      <c r="K37" s="288"/>
-      <c r="L37" s="287" t="s">
+      <c r="I37" s="386"/>
+      <c r="J37" s="386"/>
+      <c r="K37" s="386"/>
+      <c r="L37" s="385" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="289"/>
+      <c r="M37" s="387"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="335" t="s">
+      <c r="B38" s="360" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="441"/>
+      <c r="C38" s="469"/>
       <c r="D38" s="160" t="e">
         <f>Assumption!D38</f>
         <v>#NUM!</v>
@@ -14745,18 +14736,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G38" s="164"/>
-      <c r="H38" s="442"/>
-      <c r="I38" s="443"/>
-      <c r="J38" s="443"/>
-      <c r="K38" s="444"/>
-      <c r="L38" s="442"/>
-      <c r="M38" s="451"/>
+      <c r="H38" s="461"/>
+      <c r="I38" s="470"/>
+      <c r="J38" s="470"/>
+      <c r="K38" s="471"/>
+      <c r="L38" s="461"/>
+      <c r="M38" s="462"/>
     </row>
     <row r="39" spans="2:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="359" t="s">
+      <c r="B39" s="301" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="421"/>
+      <c r="C39" s="463"/>
       <c r="D39" s="165" t="e">
         <f>Assumption!D39</f>
         <v>#NUM!</v>
@@ -14767,18 +14758,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G39" s="162"/>
-      <c r="H39" s="433"/>
-      <c r="I39" s="434"/>
-      <c r="J39" s="434"/>
-      <c r="K39" s="435"/>
-      <c r="L39" s="433"/>
-      <c r="M39" s="448"/>
+      <c r="H39" s="446"/>
+      <c r="I39" s="450"/>
+      <c r="J39" s="450"/>
+      <c r="K39" s="451"/>
+      <c r="L39" s="446"/>
+      <c r="M39" s="447"/>
     </row>
     <row r="40" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="359" t="s">
+      <c r="B40" s="301" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="421"/>
+      <c r="C40" s="463"/>
       <c r="D40" s="166" t="e">
         <f>Assumption!D40</f>
         <v>#NUM!</v>
@@ -14791,18 +14782,18 @@
       <c r="G40" s="168">
         <v>1</v>
       </c>
-      <c r="H40" s="433"/>
-      <c r="I40" s="434"/>
-      <c r="J40" s="434"/>
-      <c r="K40" s="435"/>
-      <c r="L40" s="433"/>
-      <c r="M40" s="448"/>
+      <c r="H40" s="446"/>
+      <c r="I40" s="450"/>
+      <c r="J40" s="450"/>
+      <c r="K40" s="451"/>
+      <c r="L40" s="446"/>
+      <c r="M40" s="447"/>
     </row>
     <row r="41" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="359" t="s">
+      <c r="B41" s="301" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="421"/>
+      <c r="C41" s="463"/>
       <c r="D41" s="66" t="e">
         <f>Assumption!D41</f>
         <v>#DIV/0!</v>
@@ -14815,18 +14806,18 @@
       <c r="G41" s="168">
         <v>2</v>
       </c>
-      <c r="H41" s="433"/>
-      <c r="I41" s="434"/>
-      <c r="J41" s="434"/>
-      <c r="K41" s="435"/>
-      <c r="L41" s="433"/>
-      <c r="M41" s="448"/>
+      <c r="H41" s="446"/>
+      <c r="I41" s="450"/>
+      <c r="J41" s="450"/>
+      <c r="K41" s="451"/>
+      <c r="L41" s="446"/>
+      <c r="M41" s="447"/>
     </row>
     <row r="42" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="359" t="s">
+      <c r="B42" s="301" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="421"/>
+      <c r="C42" s="463"/>
       <c r="D42" s="170" t="e">
         <f>Assumption!D42</f>
         <v>#NUM!</v>
@@ -14842,18 +14833,18 @@
       <c r="G42" s="171">
         <v>0.03</v>
       </c>
-      <c r="H42" s="433"/>
-      <c r="I42" s="434"/>
-      <c r="J42" s="434"/>
-      <c r="K42" s="435"/>
-      <c r="L42" s="433"/>
-      <c r="M42" s="448"/>
+      <c r="H42" s="446"/>
+      <c r="I42" s="450"/>
+      <c r="J42" s="450"/>
+      <c r="K42" s="451"/>
+      <c r="L42" s="446"/>
+      <c r="M42" s="447"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B43" s="359" t="s">
+      <c r="B43" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="360"/>
+      <c r="C43" s="302"/>
       <c r="D43" s="155" t="e">
         <f>Assumption!D43</f>
         <v>#NUM!</v>
@@ -14864,18 +14855,18 @@
         <v>#NUM!</v>
       </c>
       <c r="G43" s="168"/>
-      <c r="H43" s="433"/>
-      <c r="I43" s="434"/>
-      <c r="J43" s="434"/>
-      <c r="K43" s="435"/>
-      <c r="L43" s="433"/>
-      <c r="M43" s="448"/>
+      <c r="H43" s="446"/>
+      <c r="I43" s="450"/>
+      <c r="J43" s="450"/>
+      <c r="K43" s="451"/>
+      <c r="L43" s="446"/>
+      <c r="M43" s="447"/>
     </row>
     <row r="44" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="397" t="s">
+      <c r="B44" s="299" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="398"/>
+      <c r="C44" s="300"/>
       <c r="D44" s="175" t="e">
         <f>Assumption!D44</f>
         <v>#NUM!</v>
@@ -14886,12 +14877,12 @@
         <v>#NUM!</v>
       </c>
       <c r="G44" s="168"/>
-      <c r="H44" s="445"/>
-      <c r="I44" s="446"/>
-      <c r="J44" s="446"/>
-      <c r="K44" s="447"/>
-      <c r="L44" s="445"/>
-      <c r="M44" s="452"/>
+      <c r="H44" s="448"/>
+      <c r="I44" s="472"/>
+      <c r="J44" s="472"/>
+      <c r="K44" s="473"/>
+      <c r="L44" s="448"/>
+      <c r="M44" s="449"/>
       <c r="S44" s="77" t="s">
         <v>113</v>
       </c>
@@ -14919,6 +14910,88 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="97">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="B2:M2"/>
@@ -14934,88 +15007,6 @@
     <mergeCell ref="P6:T6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:M7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:M44"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="E23">
@@ -15221,11 +15212,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="A1" s="493" t="s">
+      <c r="A1" s="490" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
+      <c r="B1" s="490"/>
+      <c r="C1" s="490"/>
     </row>
     <row r="2" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="255" t="s">
@@ -15344,7 +15335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D78EF82-F18C-446B-82BE-C74D6BF739AC}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -15356,11 +15347,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="A1" s="494" t="s">
+      <c r="A1" s="491" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="494"/>
-      <c r="C1" s="494"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
